--- a/Test Case/Rijo/Test Case - Nursing Station.xlsx
+++ b/Test Case/Rijo/Test Case - Nursing Station.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SE-Mentor\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Mediware\CentralRepository-Mediware\Test Case\Rijo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9CADB2-BBFB-43A3-9DA3-E15BB65631DA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE3D445-343B-4D8F-8DD8-728598C4000F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="103">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -108,9 +108,6 @@
     <t xml:space="preserve">Product &amp; Pricing </t>
   </si>
   <si>
-    <t>Analytics</t>
-  </si>
-  <si>
     <t>Administration</t>
   </si>
   <si>
@@ -138,16 +135,10 @@
     <t>Rijo J Patric</t>
   </si>
   <si>
-    <t>Test case to verify whether user is able to allott bed for the by stander</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pre-condition: Patient should be admitted </t>
   </si>
   <si>
     <t>Patient OP: NH00000109</t>
-  </si>
-  <si>
-    <t>Navigate to Nursing Station and select an admitted patient</t>
   </si>
   <si>
     <t xml:space="preserve">Patient details should be displayed </t>
@@ -175,9 +166,6 @@
     <t xml:space="preserve">Bed should be alloted to the by stander </t>
   </si>
   <si>
-    <t xml:space="preserve">Test case to verify that the user is able to shift a bed </t>
-  </si>
-  <si>
     <t>Select Bed Shifting from the Transactions menu</t>
   </si>
   <si>
@@ -197,6 +185,169 @@
   </si>
   <si>
     <t>MED_NURS_TC_002</t>
+  </si>
+  <si>
+    <t>Select Bed Shift Request from the Transactions menu</t>
+  </si>
+  <si>
+    <t>Select a bed, room type and add remarks. Save the request</t>
+  </si>
+  <si>
+    <t>Request should be saved</t>
+  </si>
+  <si>
+    <t>MED_NURS_TC_003</t>
+  </si>
+  <si>
+    <t>MED_NURS_TC_004</t>
+  </si>
+  <si>
+    <t>Verify whether user is able create bed shift request</t>
+  </si>
+  <si>
+    <t>Verify whether user is able to allott bed for the by stander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the user is able to shift a bed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that user is able to release a bed </t>
+  </si>
+  <si>
+    <t>Select Bed Release from the Transactions menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select the bed from the list and click ok on Release Bed </t>
+  </si>
+  <si>
+    <t>Bed should be released</t>
+  </si>
+  <si>
+    <t>MED_NURS_TC_005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify whether user is able create a service entry for the patient </t>
+  </si>
+  <si>
+    <t>Select Service Entry from the Transactions menu</t>
+  </si>
+  <si>
+    <t>Service Entry form should be displayed</t>
+  </si>
+  <si>
+    <t>Enter the procedure details against the line of item</t>
+  </si>
+  <si>
+    <t>Procedure details should be added successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procedure:
+Doctor:
+Unit: 
+</t>
+  </si>
+  <si>
+    <t>MED_NURS_TC_006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify whether user is able create a service entry for the patient with a discount </t>
+  </si>
+  <si>
+    <t>Enter the procedure details against the line of item with a discount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procedure details should be added successfully and the discount calculation should be accurate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigate to Nursing Station and select an admitted patient by search with Paitent ID </t>
+  </si>
+  <si>
+    <t>MED_NURS_TC_007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify whether user is able to delete a service entry created for the patient </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter the procedure details against the line of item </t>
+  </si>
+  <si>
+    <t>Click on "View Previous" to view the previous service entries</t>
+  </si>
+  <si>
+    <t>Preious service entry should be displayed</t>
+  </si>
+  <si>
+    <t>Delete the service entry from the line item</t>
+  </si>
+  <si>
+    <t>Service Entry should be deleted</t>
+  </si>
+  <si>
+    <t>MED_NURS_TC_008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that user is able to create a Medicine Request for the patient </t>
+  </si>
+  <si>
+    <t>Select Medicine Request from the Transactions menu</t>
+  </si>
+  <si>
+    <t>Medicine Request form should be displayed</t>
+  </si>
+  <si>
+    <t>Select the pharmacy from the drop down</t>
+  </si>
+  <si>
+    <t>Pharmacy should be selected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter the medicine details and Save </t>
+  </si>
+  <si>
+    <t>Generic:
+Medicine: 
+Quantity:</t>
+  </si>
+  <si>
+    <t>MED_NURS_TC_009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that user is able to delete a Medicine Request for the patient </t>
+  </si>
+  <si>
+    <t>Medicine Request should be saved with the message "Medicine Request Saved"</t>
+  </si>
+  <si>
+    <t>Delete the medicine request from the line item</t>
+  </si>
+  <si>
+    <t>Previous medicine details should be displayed</t>
+  </si>
+  <si>
+    <t>Click on "View Previous" to view the previous service entries. Click on "Show Details"</t>
+  </si>
+  <si>
+    <t>MED_NURS_TC_010</t>
+  </si>
+  <si>
+    <t>Verify whether user is able add material Issued To the patient</t>
+  </si>
+  <si>
+    <t>Select Issued To Patients from the Transactions menu</t>
+  </si>
+  <si>
+    <t>Materials form should be displayed</t>
+  </si>
+  <si>
+    <t>Add medicines. Click Save</t>
+  </si>
+  <si>
+    <t>Medicine:
+Qty:
+Loose:</t>
+  </si>
+  <si>
+    <t>Materials should be record in the Issued  To Patient section</t>
   </si>
 </sst>
 </file>
@@ -366,9 +517,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -402,6 +550,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -411,32 +577,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -545,7 +696,7 @@
                   <c:v>Product &amp; Pricing </c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Analytics</c:v>
+                  <c:v>Nursing Station</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Administration</c:v>
@@ -569,7 +720,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -634,7 +785,7 @@
                   <c:v>Product &amp; Pricing </c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Analytics</c:v>
+                  <c:v>Nursing Station</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Administration</c:v>
@@ -658,7 +809,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -723,7 +874,7 @@
                   <c:v>Product &amp; Pricing </c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Analytics</c:v>
+                  <c:v>Nursing Station</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Administration</c:v>
@@ -812,7 +963,7 @@
                   <c:v>Product &amp; Pricing </c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Analytics</c:v>
+                  <c:v>Nursing Station</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Administration</c:v>
@@ -836,7 +987,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -901,7 +1052,7 @@
                   <c:v>Product &amp; Pricing </c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Analytics</c:v>
+                  <c:v>Nursing Station</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Administration</c:v>
@@ -990,7 +1141,7 @@
                   <c:v>Product &amp; Pricing </c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Analytics</c:v>
+                  <c:v>Nursing Station</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Administration</c:v>
@@ -1247,27 +1398,6 @@
       <sheetData sheetId="5">
         <row r="2">
           <cell r="N2">
-            <v>0</v>
-          </cell>
-          <cell r="Q2">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="N3">
-            <v>1</v>
-          </cell>
-          <cell r="Q3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="Q4">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="Q5">
             <v>0</v>
           </cell>
         </row>
@@ -1634,7 +1764,7 @@
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1678,27 +1808,27 @@
       <c r="A2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="22">
         <f>'[1]Point Of Sale'!N2</f>
         <v>0</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="22">
         <f>'[1]Point Of Sale'!N3</f>
         <v>0</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="22">
         <f>'[1]Point Of Sale'!Q2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="22">
         <f>'[1]Point Of Sale'!Q3</f>
         <v>0</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="22">
         <f>'[1]Point Of Sale'!Q4</f>
         <v>0</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="28">
         <f>'[1]Point Of Sale'!Q5</f>
         <v>0</v>
       </c>
@@ -1707,27 +1837,27 @@
       <c r="A3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="22">
         <f>'[1]In- Store Operation'!N2</f>
         <v>0</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="22">
         <f>'[1]In- Store Operation'!N3</f>
         <v>0</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="22">
         <f>'[1]In- Store Operation'!Q2</f>
         <v>0</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="22">
         <f>'[1]In- Store Operation'!Q3</f>
         <v>0</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="22">
         <f>'[1]In- Store Operation'!Q4</f>
         <v>0</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="28">
         <f>'[1]In- Store Operation'!Q5</f>
         <v>0</v>
       </c>
@@ -1736,100 +1866,100 @@
       <c r="A4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="22">
         <f>'[1]Products &amp; Pricing'!N2</f>
         <v>0</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="22">
         <f>'[1]Products &amp; Pricing'!N3</f>
         <v>0</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="22">
         <f>'[1]Products &amp; Pricing'!Q2</f>
         <v>0</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="22">
         <f>'[1]Products &amp; Pricing'!Q3</f>
         <v>0</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="22">
         <f>'[1]Products &amp; Pricing'!Q4</f>
         <v>0</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="28">
         <f>'[1]Products &amp; Pricing'!Q5</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="11">
-        <f>[1]Analytics!N2</f>
+        <v>31</v>
+      </c>
+      <c r="B5" s="22">
+        <f>'Nursing Station'!O2</f>
+        <v>10</v>
+      </c>
+      <c r="C5" s="22">
+        <f>'Nursing Station'!O3</f>
         <v>0</v>
       </c>
-      <c r="C5" s="11">
-        <f>[1]Analytics!N3</f>
-        <v>1</v>
-      </c>
-      <c r="D5" s="11">
-        <f>[1]Analytics!Q2</f>
+      <c r="D5" s="22">
+        <f>'Nursing Station'!R2</f>
         <v>0</v>
       </c>
-      <c r="E5" s="11">
-        <f>[1]Analytics!Q3</f>
-        <v>1</v>
-      </c>
-      <c r="F5" s="11">
-        <f>[1]Analytics!Q4</f>
+      <c r="E5" s="22">
+        <f>'Nursing Station'!R3</f>
         <v>0</v>
       </c>
-      <c r="G5" s="12">
-        <f>[1]Analytics!Q5</f>
+      <c r="F5" s="22">
+        <f>'Nursing Station'!R4</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="22">
+        <f>'Nursing Station'!R5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="11">
+        <v>25</v>
+      </c>
+      <c r="B6" s="22">
         <f>[1]Administration!N2</f>
         <v>0</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="22">
         <f>[1]Administration!N3</f>
         <v>0</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="22">
         <f>[1]Administration!Q2</f>
         <v>0</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="22">
         <f>[1]Administration!Q3</f>
         <v>0</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="22">
         <f>[1]Administration!Q4</f>
         <v>0</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="28">
         <f>[1]Administration!Q5</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="7">
         <f t="shared" ref="B7:G7" si="0">SUM(B2:B6)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C7" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
         <f t="shared" si="0"/>
@@ -1837,7 +1967,7 @@
       </c>
       <c r="E7" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="7">
         <f t="shared" si="0"/>
@@ -1849,28 +1979,28 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="15"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="14"/>
       <c r="G8" s="9"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="17"/>
+      <c r="B10" s="16"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J12" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
+      <c r="J12" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1887,20 +2017,20 @@
   <dimension ref="A1:R732"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8:D11"/>
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="11" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="11" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" style="24" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="48.140625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" style="10" customWidth="1"/>
-    <col min="8" max="8" width="27.85546875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="48.140625" style="24" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" style="24" customWidth="1"/>
+    <col min="8" max="8" width="27.85546875" style="24" customWidth="1"/>
     <col min="9" max="9" width="15" style="10" customWidth="1"/>
     <col min="10" max="13" width="9.140625" style="10"/>
     <col min="14" max="14" width="13.140625" style="10" customWidth="1"/>
@@ -1908,3269 +2038,3741 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="30"/>
+      <c r="Q1" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="31"/>
+    </row>
+    <row r="2" spans="1:18" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="25"/>
-      <c r="Q1" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="R1" s="26"/>
-    </row>
-    <row r="2" spans="1:18" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="C2" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>35</v>
+      <c r="D2" s="32" t="s">
+        <v>57</v>
       </c>
       <c r="E2" s="10">
         <v>1</v>
       </c>
-      <c r="F2" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29" t="s">
-        <v>37</v>
+      <c r="F2" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24" t="s">
+        <v>35</v>
       </c>
       <c r="I2" s="3"/>
-      <c r="J2" s="18"/>
+      <c r="J2" s="17"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="N2" s="33" t="s">
+      <c r="N2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="22">
+      <c r="O2" s="21">
         <f>COUNTA(A:A)-1</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="Q2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="23">
+      <c r="R2" s="22">
         <f>COUNTIF(K:K,"Pass")</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="30"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="33"/>
       <c r="E3" s="10">
         <v>2</v>
       </c>
-      <c r="F3" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="29"/>
+      <c r="F3" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="24"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="18"/>
+      <c r="J3" s="17"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
-      <c r="N3" s="33" t="s">
+      <c r="N3" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="22">
+      <c r="O3" s="21">
         <f>COUNTA(K:K)-1</f>
         <v>0</v>
       </c>
       <c r="Q3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="23">
+      <c r="R3" s="22">
         <f>COUNTIF(K:K,"Fail")</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="30"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="33"/>
       <c r="E4" s="10">
         <v>3</v>
       </c>
-      <c r="F4" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="29"/>
+      <c r="F4" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="24"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="18"/>
+      <c r="J4" s="17"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-      <c r="N4" s="33" t="s">
+      <c r="N4" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="22"/>
-      <c r="Q4" s="33" t="s">
+      <c r="O4" s="21"/>
+      <c r="Q4" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="R4" s="23">
+      <c r="R4" s="22">
         <f>COUNTIF(K:K,"Blocked")</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="27"/>
-      <c r="D5" s="30"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="23"/>
+      <c r="D5" s="33"/>
       <c r="E5" s="10">
         <v>4</v>
       </c>
-      <c r="F5" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="18"/>
+      <c r="F5" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="17"/>
       <c r="K5" s="2"/>
-      <c r="Q5" s="34" t="s">
+      <c r="Q5" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="R5" s="23">
+      <c r="R5" s="22">
         <f>COUNTA(L:L)-1</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="27"/>
-      <c r="D6" s="30"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="23"/>
+      <c r="D6" s="33"/>
       <c r="E6" s="10">
         <v>5</v>
       </c>
-      <c r="F6" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="29"/>
-      <c r="J6" s="18"/>
+      <c r="F6" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="17"/>
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="27"/>
-      <c r="J7" s="18"/>
+      <c r="B7" s="23"/>
+      <c r="J7" s="17"/>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>47</v>
+      <c r="A8" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>58</v>
       </c>
       <c r="E8" s="10">
         <v>1</v>
       </c>
-      <c r="F8" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="18"/>
+      <c r="F8" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="17"/>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="27"/>
-      <c r="D9" s="30"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="23"/>
+      <c r="D9" s="33"/>
       <c r="E9" s="10">
         <v>2</v>
       </c>
-      <c r="F9" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="29"/>
-      <c r="J9" s="18"/>
+      <c r="F9" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="17"/>
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-      <c r="B10" s="27"/>
-      <c r="D10" s="30"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="23"/>
+      <c r="D10" s="33"/>
       <c r="E10" s="10">
         <v>3</v>
       </c>
-      <c r="F10" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="J10" s="18"/>
+      <c r="F10" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="17"/>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="27"/>
-      <c r="D11" s="30"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="23"/>
+      <c r="D11" s="33"/>
       <c r="E11" s="10">
         <v>4</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="17"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="23"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="10">
+        <v>1</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" s="17"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="23"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="10">
+        <v>2</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" s="17"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="23"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="10">
+        <v>3</v>
+      </c>
+      <c r="F15" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G15" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15" s="17"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="23"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="10">
+        <v>3</v>
+      </c>
+      <c r="F16" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="29" t="s">
+      <c r="G16" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="J11" s="18"/>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="27"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="27"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="27"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="27"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="27"/>
-      <c r="J16" s="18"/>
+      <c r="J16" s="17"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="27"/>
-      <c r="J17" s="18"/>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="23"/>
+      <c r="J17" s="17"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="27"/>
-      <c r="J18" s="18"/>
+    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="10">
+        <v>1</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" s="17"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="27"/>
-      <c r="J19" s="18"/>
+    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="23"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="10">
+        <v>2</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" s="17"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="27"/>
-      <c r="J20" s="18"/>
+    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20" s="23"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="10">
+        <v>3</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20" s="17"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="27"/>
-      <c r="J21" s="18"/>
+    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21" s="23"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="10">
+        <v>4</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="J21" s="17"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="27"/>
-      <c r="J22" s="18"/>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="23"/>
+      <c r="J22" s="17"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="27"/>
-      <c r="J23" s="18"/>
+    <row r="23" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="10">
+        <v>1</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="J23" s="17"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="27"/>
-      <c r="J24" s="18"/>
+    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" s="23"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="10">
+        <v>2</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="J24" s="17"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="27"/>
-      <c r="J25" s="18"/>
+    <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B25" s="23"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="10">
+        <v>3</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="J25" s="17"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="27"/>
-      <c r="J26" s="18"/>
+    <row r="26" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="B26" s="23"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="10">
+        <v>4</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="H26" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="J26" s="17"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="27"/>
-      <c r="J27" s="18"/>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="23"/>
+      <c r="J27" s="17"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="27"/>
-      <c r="J28" s="18"/>
+    <row r="28" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="10">
+        <v>1</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H28" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="J28" s="17"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="27"/>
-      <c r="J29" s="18"/>
+    <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B29" s="23"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="10">
+        <v>2</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="J29" s="17"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="27"/>
-      <c r="J30" s="18"/>
+    <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B30" s="23"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="10">
+        <v>3</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="J30" s="17"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="27"/>
-      <c r="J31" s="18"/>
+    <row r="31" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="B31" s="23"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="10">
+        <v>4</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="J31" s="17"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="27"/>
-      <c r="J32" s="18"/>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="23"/>
+      <c r="J32" s="17"/>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="27"/>
-      <c r="J33" s="18"/>
+    <row r="33" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="10">
+        <v>1</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="J33" s="17"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="27"/>
-      <c r="J34" s="18"/>
+    <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B34" s="23"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="10">
+        <v>2</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="J34" s="17"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="27"/>
-      <c r="J35" s="18"/>
+    <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B35" s="23"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="10">
+        <v>3</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="J35" s="17"/>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="27"/>
-      <c r="J36" s="18"/>
+    <row r="36" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="B36" s="23"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="10">
+        <v>4</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="G36" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="H36" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="J36" s="17"/>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="27"/>
-      <c r="J37" s="18"/>
+    <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B37" s="23"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="10">
+        <v>5</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="G37" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="J37" s="17"/>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="27"/>
-      <c r="J38" s="18"/>
+    <row r="38" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B38" s="23"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="10">
+        <v>6</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="G38" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="J38" s="17"/>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="27"/>
-      <c r="J39" s="18"/>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="23"/>
+      <c r="J39" s="17"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="27"/>
-      <c r="J40" s="18"/>
+    <row r="40" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" s="10">
+        <v>1</v>
+      </c>
+      <c r="F40" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H40" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="J40" s="17"/>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="27"/>
-      <c r="J41" s="18"/>
+    <row r="41" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B41" s="23"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="10">
+        <v>2</v>
+      </c>
+      <c r="F41" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="G41" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="J41" s="17"/>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="27"/>
-      <c r="J42" s="18"/>
+    <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B42" s="23"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="10">
+        <v>3</v>
+      </c>
+      <c r="F42" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="G42" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="J42" s="17"/>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="27"/>
-      <c r="J43" s="18"/>
+    <row r="43" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B43" s="23"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="10">
+        <v>4</v>
+      </c>
+      <c r="F43" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="G43" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="J43" s="17"/>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B44" s="27"/>
-      <c r="J44" s="18"/>
+    <row r="44" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="B44" s="23"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="10">
+        <v>5</v>
+      </c>
+      <c r="F44" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="G44" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="H44" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="J44" s="17"/>
       <c r="K44" s="2"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="27"/>
-      <c r="J45" s="18"/>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B45" s="23"/>
+      <c r="J45" s="17"/>
       <c r="K45" s="2"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="27"/>
-      <c r="J46" s="18"/>
+    <row r="46" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="E46" s="10">
+        <v>1</v>
+      </c>
+      <c r="F46" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H46" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="J46" s="17"/>
       <c r="K46" s="2"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B47" s="27"/>
-      <c r="J47" s="18"/>
+    <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B47" s="23"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="10">
+        <v>2</v>
+      </c>
+      <c r="F47" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="G47" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="J47" s="17"/>
       <c r="K47" s="2"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B48" s="27"/>
-      <c r="J48" s="18"/>
+    <row r="48" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B48" s="23"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="10">
+        <v>3</v>
+      </c>
+      <c r="F48" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="G48" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="J48" s="17"/>
       <c r="K48" s="2"/>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B49" s="27"/>
-      <c r="J49" s="18"/>
+    <row r="49" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B49" s="23"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="10">
+        <v>4</v>
+      </c>
+      <c r="F49" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="G49" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="J49" s="17"/>
       <c r="K49" s="2"/>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B50" s="27"/>
-      <c r="J50" s="18"/>
+    <row r="50" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="B50" s="23"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="10">
+        <v>5</v>
+      </c>
+      <c r="F50" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="G50" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="H50" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="J50" s="17"/>
       <c r="K50" s="2"/>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B51" s="27"/>
-      <c r="J51" s="18"/>
+    <row r="51" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B51" s="23"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="10">
+        <v>6</v>
+      </c>
+      <c r="F51" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="G51" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="J51" s="17"/>
       <c r="K51" s="2"/>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B52" s="27"/>
-      <c r="J52" s="18"/>
+    <row r="52" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B52" s="23"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="10">
+        <v>7</v>
+      </c>
+      <c r="F52" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="G52" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="J52" s="17"/>
       <c r="K52" s="2"/>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B53" s="27"/>
-      <c r="J53" s="18"/>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B53" s="23"/>
+      <c r="J53" s="17"/>
       <c r="K53" s="2"/>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B54" s="27"/>
-      <c r="J54" s="18"/>
+    <row r="54" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E54" s="10">
+        <v>1</v>
+      </c>
+      <c r="F54" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H54" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="J54" s="17"/>
       <c r="K54" s="2"/>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B55" s="27"/>
-      <c r="J55" s="18"/>
+    <row r="55" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B55" s="23"/>
+      <c r="E55" s="10">
+        <v>2</v>
+      </c>
+      <c r="F55" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="G55" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="J55" s="17"/>
       <c r="K55" s="2"/>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B56" s="27"/>
-      <c r="J56" s="18"/>
+    <row r="56" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="B56" s="23"/>
+      <c r="E56" s="10">
+        <v>3</v>
+      </c>
+      <c r="F56" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="G56" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="H56" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="J56" s="17"/>
       <c r="K56" s="2"/>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B57" s="27"/>
-      <c r="J57" s="18"/>
+    <row r="57" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="B57" s="23"/>
+      <c r="E57" s="10">
+        <v>4</v>
+      </c>
+      <c r="F57" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="G57" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="J57" s="17"/>
       <c r="K57" s="2"/>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B58" s="27"/>
-      <c r="J58" s="18"/>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B58" s="23"/>
+      <c r="J58" s="17"/>
       <c r="K58" s="2"/>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B59" s="27"/>
-      <c r="J59" s="18"/>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B59" s="23"/>
+      <c r="J59" s="17"/>
       <c r="K59" s="2"/>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B60" s="27"/>
-      <c r="J60" s="18"/>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B60" s="23"/>
+      <c r="J60" s="17"/>
       <c r="K60" s="2"/>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B61" s="27"/>
-      <c r="J61" s="18"/>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B61" s="23"/>
+      <c r="J61" s="17"/>
       <c r="K61" s="2"/>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B62" s="27"/>
-      <c r="J62" s="18"/>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B62" s="23"/>
+      <c r="J62" s="17"/>
       <c r="K62" s="2"/>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B63" s="27"/>
-      <c r="J63" s="18"/>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B63" s="23"/>
+      <c r="J63" s="17"/>
       <c r="K63" s="2"/>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B64" s="27"/>
-      <c r="J64" s="18"/>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B64" s="23"/>
+      <c r="J64" s="17"/>
       <c r="K64" s="2"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B65" s="27"/>
-      <c r="J65" s="18"/>
+      <c r="B65" s="23"/>
+      <c r="J65" s="17"/>
       <c r="K65" s="2"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B66" s="27"/>
-      <c r="J66" s="18"/>
+      <c r="B66" s="23"/>
+      <c r="J66" s="17"/>
       <c r="K66" s="2"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B67" s="27"/>
-      <c r="J67" s="18"/>
+      <c r="B67" s="23"/>
+      <c r="J67" s="17"/>
       <c r="K67" s="2"/>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B68" s="27"/>
-      <c r="J68" s="18"/>
+      <c r="B68" s="23"/>
+      <c r="J68" s="17"/>
       <c r="K68" s="2"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B69" s="27"/>
-      <c r="J69" s="18"/>
+      <c r="B69" s="23"/>
+      <c r="J69" s="17"/>
       <c r="K69" s="2"/>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B70" s="27"/>
-      <c r="J70" s="18"/>
+      <c r="B70" s="23"/>
+      <c r="J70" s="17"/>
       <c r="K70" s="2"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B71" s="27"/>
-      <c r="J71" s="18"/>
+      <c r="B71" s="23"/>
+      <c r="J71" s="17"/>
       <c r="K71" s="2"/>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B72" s="27"/>
-      <c r="J72" s="18"/>
+      <c r="B72" s="23"/>
+      <c r="J72" s="17"/>
       <c r="K72" s="2"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B73" s="27"/>
-      <c r="J73" s="18"/>
+      <c r="B73" s="23"/>
+      <c r="J73" s="17"/>
       <c r="K73" s="2"/>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B74" s="27"/>
-      <c r="J74" s="18"/>
+      <c r="B74" s="23"/>
+      <c r="J74" s="17"/>
       <c r="K74" s="2"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B75" s="27"/>
-      <c r="J75" s="18"/>
+      <c r="B75" s="23"/>
+      <c r="J75" s="17"/>
       <c r="K75" s="2"/>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B76" s="27"/>
-      <c r="J76" s="18"/>
+      <c r="B76" s="23"/>
+      <c r="J76" s="17"/>
       <c r="K76" s="2"/>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B77" s="27"/>
-      <c r="J77" s="18"/>
+      <c r="B77" s="23"/>
+      <c r="J77" s="17"/>
       <c r="K77" s="2"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B78" s="27"/>
-      <c r="J78" s="18"/>
+      <c r="B78" s="23"/>
+      <c r="J78" s="17"/>
       <c r="K78" s="2"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B79" s="27"/>
-      <c r="J79" s="18"/>
+      <c r="B79" s="23"/>
+      <c r="J79" s="17"/>
       <c r="K79" s="2"/>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B80" s="27"/>
-      <c r="J80" s="18"/>
+      <c r="B80" s="23"/>
+      <c r="J80" s="17"/>
       <c r="K80" s="2"/>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B81" s="27"/>
-      <c r="J81" s="18"/>
+      <c r="B81" s="23"/>
+      <c r="J81" s="17"/>
       <c r="K81" s="2"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B82" s="27"/>
-      <c r="J82" s="18"/>
+      <c r="B82" s="23"/>
+      <c r="J82" s="17"/>
       <c r="K82" s="2"/>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B83" s="27"/>
-      <c r="J83" s="18"/>
+      <c r="B83" s="23"/>
+      <c r="J83" s="17"/>
       <c r="K83" s="2"/>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B84" s="27"/>
-      <c r="J84" s="18"/>
+      <c r="B84" s="23"/>
+      <c r="J84" s="17"/>
       <c r="K84" s="2"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B85" s="27"/>
-      <c r="J85" s="18"/>
+      <c r="B85" s="23"/>
+      <c r="J85" s="17"/>
       <c r="K85" s="2"/>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B86" s="27"/>
-      <c r="J86" s="18"/>
+      <c r="B86" s="23"/>
+      <c r="J86" s="17"/>
       <c r="K86" s="2"/>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B87" s="27"/>
-      <c r="J87" s="18"/>
+      <c r="B87" s="23"/>
+      <c r="J87" s="17"/>
       <c r="K87" s="2"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B88" s="27"/>
-      <c r="J88" s="18"/>
+      <c r="B88" s="23"/>
+      <c r="J88" s="17"/>
       <c r="K88" s="2"/>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B89" s="27"/>
-      <c r="J89" s="18"/>
+      <c r="B89" s="23"/>
+      <c r="J89" s="17"/>
       <c r="K89" s="2"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B90" s="27"/>
-      <c r="J90" s="18"/>
+      <c r="B90" s="23"/>
+      <c r="J90" s="17"/>
       <c r="K90" s="2"/>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B91" s="27"/>
-      <c r="J91" s="18"/>
+      <c r="B91" s="23"/>
+      <c r="J91" s="17"/>
       <c r="K91" s="2"/>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B92" s="27"/>
-      <c r="J92" s="18"/>
+      <c r="B92" s="23"/>
+      <c r="J92" s="17"/>
       <c r="K92" s="2"/>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B93" s="27"/>
-      <c r="J93" s="18"/>
+      <c r="B93" s="23"/>
+      <c r="J93" s="17"/>
       <c r="K93" s="2"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B94" s="27"/>
-      <c r="J94" s="18"/>
+      <c r="B94" s="23"/>
+      <c r="J94" s="17"/>
       <c r="K94" s="2"/>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B95" s="27"/>
-      <c r="J95" s="18"/>
+      <c r="B95" s="23"/>
+      <c r="J95" s="17"/>
       <c r="K95" s="2"/>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B96" s="27"/>
-      <c r="J96" s="18"/>
+      <c r="B96" s="23"/>
+      <c r="J96" s="17"/>
       <c r="K96" s="2"/>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B97" s="27"/>
-      <c r="J97" s="18"/>
+      <c r="B97" s="23"/>
+      <c r="J97" s="17"/>
       <c r="K97" s="2"/>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B98" s="27"/>
-      <c r="J98" s="18"/>
+      <c r="B98" s="23"/>
+      <c r="J98" s="17"/>
       <c r="K98" s="2"/>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B99" s="27"/>
-      <c r="J99" s="18"/>
+      <c r="B99" s="23"/>
+      <c r="J99" s="17"/>
       <c r="K99" s="2"/>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B100" s="27"/>
-      <c r="J100" s="18"/>
+      <c r="B100" s="23"/>
+      <c r="J100" s="17"/>
       <c r="K100" s="2"/>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B101" s="27"/>
-      <c r="J101" s="18"/>
+      <c r="B101" s="23"/>
+      <c r="J101" s="17"/>
       <c r="K101" s="2"/>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B102" s="27"/>
-      <c r="J102" s="18"/>
+      <c r="B102" s="23"/>
+      <c r="J102" s="17"/>
       <c r="K102" s="2"/>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B103" s="27"/>
-      <c r="J103" s="18"/>
+      <c r="B103" s="23"/>
+      <c r="J103" s="17"/>
       <c r="K103" s="2"/>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B104" s="27"/>
-      <c r="J104" s="18"/>
+      <c r="B104" s="23"/>
+      <c r="J104" s="17"/>
       <c r="K104" s="2"/>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B105" s="27"/>
-      <c r="J105" s="18"/>
+      <c r="B105" s="23"/>
+      <c r="J105" s="17"/>
       <c r="K105" s="2"/>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B106" s="27"/>
-      <c r="J106" s="18"/>
+      <c r="B106" s="23"/>
+      <c r="J106" s="17"/>
       <c r="K106" s="2"/>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B107" s="27"/>
-      <c r="J107" s="18"/>
+      <c r="B107" s="23"/>
+      <c r="J107" s="17"/>
       <c r="K107" s="2"/>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B108" s="27"/>
-      <c r="J108" s="18"/>
+      <c r="B108" s="23"/>
+      <c r="J108" s="17"/>
       <c r="K108" s="2"/>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B109" s="27"/>
-      <c r="J109" s="18"/>
+      <c r="B109" s="23"/>
+      <c r="J109" s="17"/>
       <c r="K109" s="2"/>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B110" s="27"/>
-      <c r="J110" s="18"/>
+      <c r="B110" s="23"/>
+      <c r="J110" s="17"/>
       <c r="K110" s="2"/>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B111" s="27"/>
-      <c r="J111" s="18"/>
+      <c r="B111" s="23"/>
+      <c r="J111" s="17"/>
       <c r="K111" s="2"/>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B112" s="27"/>
-      <c r="J112" s="18"/>
+      <c r="B112" s="23"/>
+      <c r="J112" s="17"/>
       <c r="K112" s="2"/>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B113" s="27"/>
-      <c r="J113" s="18"/>
+      <c r="B113" s="23"/>
+      <c r="J113" s="17"/>
       <c r="K113" s="2"/>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B114" s="27"/>
-      <c r="J114" s="18"/>
+      <c r="B114" s="23"/>
+      <c r="J114" s="17"/>
       <c r="K114" s="2"/>
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B115" s="27"/>
-      <c r="J115" s="18"/>
+      <c r="B115" s="23"/>
+      <c r="J115" s="17"/>
       <c r="K115" s="2"/>
     </row>
     <row r="116" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B116" s="27"/>
-      <c r="J116" s="18"/>
+      <c r="B116" s="23"/>
+      <c r="J116" s="17"/>
       <c r="K116" s="2"/>
     </row>
     <row r="117" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B117" s="27"/>
-      <c r="J117" s="18"/>
+      <c r="B117" s="23"/>
+      <c r="J117" s="17"/>
       <c r="K117" s="2"/>
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B118" s="27"/>
-      <c r="J118" s="18"/>
+      <c r="B118" s="23"/>
+      <c r="J118" s="17"/>
       <c r="K118" s="2"/>
     </row>
     <row r="119" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B119" s="27"/>
-      <c r="J119" s="18"/>
+      <c r="B119" s="23"/>
+      <c r="J119" s="17"/>
       <c r="K119" s="2"/>
     </row>
     <row r="120" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B120" s="27"/>
-      <c r="J120" s="18"/>
+      <c r="B120" s="23"/>
+      <c r="J120" s="17"/>
       <c r="K120" s="2"/>
     </row>
     <row r="121" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B121" s="27"/>
-      <c r="J121" s="18"/>
+      <c r="B121" s="23"/>
+      <c r="J121" s="17"/>
       <c r="K121" s="2"/>
     </row>
     <row r="122" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B122" s="27"/>
-      <c r="J122" s="18"/>
+      <c r="B122" s="23"/>
+      <c r="J122" s="17"/>
       <c r="K122" s="2"/>
     </row>
     <row r="123" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B123" s="27"/>
-      <c r="J123" s="18"/>
+      <c r="B123" s="23"/>
+      <c r="J123" s="17"/>
       <c r="K123" s="2"/>
     </row>
     <row r="124" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B124" s="27"/>
-      <c r="J124" s="18"/>
+      <c r="B124" s="23"/>
+      <c r="J124" s="17"/>
       <c r="K124" s="2"/>
     </row>
     <row r="125" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B125" s="27"/>
-      <c r="J125" s="18"/>
+      <c r="B125" s="23"/>
+      <c r="J125" s="17"/>
       <c r="K125" s="2"/>
     </row>
     <row r="126" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B126" s="27"/>
-      <c r="J126" s="18"/>
+      <c r="B126" s="23"/>
+      <c r="J126" s="17"/>
       <c r="K126" s="2"/>
     </row>
     <row r="127" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B127" s="27"/>
-      <c r="J127" s="18"/>
+      <c r="B127" s="23"/>
+      <c r="J127" s="17"/>
       <c r="K127" s="2"/>
     </row>
     <row r="128" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B128" s="27"/>
-      <c r="J128" s="18"/>
+      <c r="B128" s="23"/>
+      <c r="J128" s="17"/>
       <c r="K128" s="2"/>
     </row>
     <row r="129" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B129" s="27"/>
-      <c r="J129" s="18"/>
+      <c r="B129" s="23"/>
+      <c r="J129" s="17"/>
       <c r="K129" s="2"/>
     </row>
     <row r="130" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B130" s="27"/>
-      <c r="J130" s="18"/>
+      <c r="B130" s="23"/>
+      <c r="J130" s="17"/>
       <c r="K130" s="2"/>
     </row>
     <row r="131" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B131" s="27"/>
-      <c r="J131" s="18"/>
+      <c r="B131" s="23"/>
+      <c r="J131" s="17"/>
       <c r="K131" s="2"/>
     </row>
     <row r="132" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B132" s="27"/>
-      <c r="J132" s="18"/>
+      <c r="B132" s="23"/>
+      <c r="J132" s="17"/>
       <c r="K132" s="2"/>
     </row>
     <row r="133" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B133" s="27"/>
-      <c r="J133" s="18"/>
+      <c r="B133" s="23"/>
+      <c r="J133" s="17"/>
       <c r="K133" s="2"/>
     </row>
     <row r="134" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B134" s="27"/>
-      <c r="J134" s="18"/>
+      <c r="B134" s="23"/>
+      <c r="J134" s="17"/>
       <c r="K134" s="2"/>
     </row>
     <row r="135" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B135" s="27"/>
-      <c r="J135" s="18"/>
+      <c r="B135" s="23"/>
+      <c r="J135" s="17"/>
       <c r="K135" s="2"/>
     </row>
     <row r="136" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B136" s="27"/>
-      <c r="J136" s="18"/>
+      <c r="B136" s="23"/>
+      <c r="J136" s="17"/>
       <c r="K136" s="2"/>
     </row>
     <row r="137" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B137" s="27"/>
-      <c r="J137" s="18"/>
+      <c r="B137" s="23"/>
+      <c r="J137" s="17"/>
       <c r="K137" s="2"/>
     </row>
     <row r="138" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B138" s="27"/>
-      <c r="J138" s="18"/>
+      <c r="B138" s="23"/>
+      <c r="J138" s="17"/>
       <c r="K138" s="2"/>
     </row>
     <row r="139" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B139" s="27"/>
-      <c r="J139" s="18"/>
+      <c r="B139" s="23"/>
+      <c r="J139" s="17"/>
       <c r="K139" s="2"/>
     </row>
     <row r="140" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B140" s="27"/>
-      <c r="J140" s="18"/>
+      <c r="B140" s="23"/>
+      <c r="J140" s="17"/>
       <c r="K140" s="2"/>
     </row>
     <row r="141" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B141" s="27"/>
-      <c r="J141" s="18"/>
+      <c r="B141" s="23"/>
+      <c r="J141" s="17"/>
       <c r="K141" s="2"/>
     </row>
     <row r="142" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B142" s="27"/>
-      <c r="J142" s="18"/>
+      <c r="B142" s="23"/>
+      <c r="J142" s="17"/>
       <c r="K142" s="2"/>
     </row>
     <row r="143" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B143" s="27"/>
-      <c r="J143" s="18"/>
+      <c r="B143" s="23"/>
+      <c r="J143" s="17"/>
       <c r="K143" s="2"/>
     </row>
     <row r="144" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B144" s="27"/>
-      <c r="J144" s="18"/>
+      <c r="B144" s="23"/>
+      <c r="J144" s="17"/>
       <c r="K144" s="2"/>
     </row>
     <row r="145" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B145" s="27"/>
-      <c r="J145" s="18"/>
+      <c r="B145" s="23"/>
+      <c r="J145" s="17"/>
       <c r="K145" s="2"/>
     </row>
     <row r="146" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B146" s="27"/>
-      <c r="J146" s="18"/>
+      <c r="B146" s="23"/>
+      <c r="J146" s="17"/>
       <c r="K146" s="2"/>
     </row>
     <row r="147" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B147" s="27"/>
-      <c r="J147" s="18"/>
+      <c r="B147" s="23"/>
+      <c r="J147" s="17"/>
       <c r="K147" s="2"/>
     </row>
     <row r="148" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B148" s="27"/>
-      <c r="J148" s="18"/>
+      <c r="B148" s="23"/>
+      <c r="J148" s="17"/>
       <c r="K148" s="2"/>
     </row>
     <row r="149" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B149" s="27"/>
-      <c r="J149" s="18"/>
+      <c r="B149" s="23"/>
+      <c r="J149" s="17"/>
       <c r="K149" s="2"/>
     </row>
     <row r="150" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B150" s="27"/>
-      <c r="J150" s="18"/>
+      <c r="B150" s="23"/>
+      <c r="J150" s="17"/>
       <c r="K150" s="2"/>
     </row>
     <row r="151" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B151" s="27"/>
-      <c r="J151" s="18"/>
+      <c r="B151" s="23"/>
+      <c r="J151" s="17"/>
       <c r="K151" s="2"/>
     </row>
     <row r="152" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B152" s="27"/>
-      <c r="J152" s="18"/>
+      <c r="B152" s="23"/>
+      <c r="J152" s="17"/>
       <c r="K152" s="2"/>
     </row>
     <row r="153" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B153" s="27"/>
-      <c r="J153" s="18"/>
+      <c r="B153" s="23"/>
+      <c r="J153" s="17"/>
       <c r="K153" s="2"/>
     </row>
     <row r="154" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B154" s="27"/>
-      <c r="J154" s="18"/>
+      <c r="B154" s="23"/>
+      <c r="J154" s="17"/>
       <c r="K154" s="2"/>
     </row>
     <row r="155" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B155" s="27"/>
-      <c r="J155" s="18"/>
+      <c r="B155" s="23"/>
+      <c r="J155" s="17"/>
       <c r="K155" s="2"/>
     </row>
     <row r="156" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B156" s="27"/>
-      <c r="J156" s="18"/>
+      <c r="B156" s="23"/>
+      <c r="J156" s="17"/>
       <c r="K156" s="2"/>
     </row>
     <row r="157" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B157" s="27"/>
-      <c r="J157" s="18"/>
+      <c r="B157" s="23"/>
+      <c r="J157" s="17"/>
       <c r="K157" s="2"/>
     </row>
     <row r="158" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B158" s="27"/>
-      <c r="J158" s="18"/>
+      <c r="B158" s="23"/>
+      <c r="J158" s="17"/>
       <c r="K158" s="2"/>
     </row>
     <row r="159" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B159" s="27"/>
-      <c r="J159" s="18"/>
+      <c r="B159" s="23"/>
+      <c r="J159" s="17"/>
       <c r="K159" s="2"/>
     </row>
     <row r="160" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B160" s="27"/>
-      <c r="J160" s="18"/>
+      <c r="B160" s="23"/>
+      <c r="J160" s="17"/>
       <c r="K160" s="2"/>
     </row>
     <row r="161" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B161" s="27"/>
-      <c r="J161" s="18"/>
+      <c r="B161" s="23"/>
+      <c r="J161" s="17"/>
       <c r="K161" s="2"/>
     </row>
     <row r="162" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B162" s="27"/>
-      <c r="J162" s="18"/>
+      <c r="B162" s="23"/>
+      <c r="J162" s="17"/>
       <c r="K162" s="2"/>
     </row>
     <row r="163" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B163" s="27"/>
-      <c r="J163" s="18"/>
+      <c r="B163" s="23"/>
+      <c r="J163" s="17"/>
       <c r="K163" s="2"/>
     </row>
     <row r="164" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B164" s="27"/>
-      <c r="J164" s="18"/>
+      <c r="B164" s="23"/>
+      <c r="J164" s="17"/>
       <c r="K164" s="2"/>
     </row>
     <row r="165" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B165" s="27"/>
-      <c r="J165" s="18"/>
+      <c r="B165" s="23"/>
+      <c r="J165" s="17"/>
       <c r="K165" s="2"/>
     </row>
     <row r="166" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B166" s="27"/>
-      <c r="J166" s="18"/>
+      <c r="B166" s="23"/>
+      <c r="J166" s="17"/>
       <c r="K166" s="2"/>
     </row>
     <row r="167" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B167" s="27"/>
-      <c r="J167" s="18"/>
+      <c r="B167" s="23"/>
+      <c r="J167" s="17"/>
       <c r="K167" s="2"/>
     </row>
     <row r="168" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B168" s="27"/>
-      <c r="J168" s="18"/>
+      <c r="B168" s="23"/>
+      <c r="J168" s="17"/>
       <c r="K168" s="2"/>
     </row>
     <row r="169" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B169" s="27"/>
-      <c r="J169" s="18"/>
+      <c r="B169" s="23"/>
+      <c r="J169" s="17"/>
       <c r="K169" s="2"/>
     </row>
     <row r="170" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B170" s="27"/>
-      <c r="J170" s="18"/>
+      <c r="B170" s="23"/>
+      <c r="J170" s="17"/>
       <c r="K170" s="2"/>
     </row>
     <row r="171" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B171" s="27"/>
-      <c r="J171" s="18"/>
+      <c r="B171" s="23"/>
+      <c r="J171" s="17"/>
       <c r="K171" s="2"/>
     </row>
     <row r="172" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B172" s="27"/>
-      <c r="J172" s="18"/>
+      <c r="B172" s="23"/>
+      <c r="J172" s="17"/>
       <c r="K172" s="2"/>
     </row>
     <row r="173" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B173" s="27"/>
-      <c r="J173" s="18"/>
+      <c r="B173" s="23"/>
+      <c r="J173" s="17"/>
       <c r="K173" s="2"/>
     </row>
     <row r="174" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B174" s="27"/>
-      <c r="J174" s="18"/>
+      <c r="B174" s="23"/>
+      <c r="J174" s="17"/>
       <c r="K174" s="2"/>
     </row>
     <row r="175" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B175" s="27"/>
-      <c r="J175" s="18"/>
+      <c r="B175" s="23"/>
+      <c r="J175" s="17"/>
       <c r="K175" s="2"/>
     </row>
     <row r="176" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B176" s="27"/>
-      <c r="J176" s="18"/>
+      <c r="B176" s="23"/>
+      <c r="J176" s="17"/>
       <c r="K176" s="2"/>
     </row>
     <row r="177" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B177" s="27"/>
-      <c r="J177" s="18"/>
+      <c r="B177" s="23"/>
+      <c r="J177" s="17"/>
       <c r="K177" s="2"/>
     </row>
     <row r="178" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B178" s="27"/>
-      <c r="J178" s="18"/>
+      <c r="B178" s="23"/>
+      <c r="J178" s="17"/>
       <c r="K178" s="2"/>
     </row>
     <row r="179" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B179" s="27"/>
-      <c r="J179" s="18"/>
+      <c r="B179" s="23"/>
+      <c r="J179" s="17"/>
       <c r="K179" s="2"/>
     </row>
     <row r="180" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B180" s="27"/>
-      <c r="J180" s="18"/>
+      <c r="B180" s="23"/>
+      <c r="J180" s="17"/>
       <c r="K180" s="2"/>
     </row>
     <row r="181" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B181" s="27"/>
-      <c r="J181" s="18"/>
+      <c r="B181" s="23"/>
+      <c r="J181" s="17"/>
       <c r="K181" s="2"/>
     </row>
     <row r="182" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B182" s="27"/>
-      <c r="J182" s="18"/>
+      <c r="B182" s="23"/>
+      <c r="J182" s="17"/>
       <c r="K182" s="2"/>
     </row>
     <row r="183" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B183" s="27"/>
-      <c r="J183" s="18"/>
+      <c r="B183" s="23"/>
+      <c r="J183" s="17"/>
       <c r="K183" s="2"/>
     </row>
     <row r="184" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B184" s="27"/>
-      <c r="J184" s="18"/>
+      <c r="B184" s="23"/>
+      <c r="J184" s="17"/>
       <c r="K184" s="2"/>
     </row>
     <row r="185" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B185" s="27"/>
-      <c r="J185" s="18"/>
+      <c r="B185" s="23"/>
+      <c r="J185" s="17"/>
       <c r="K185" s="2"/>
     </row>
     <row r="186" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B186" s="27"/>
-      <c r="J186" s="18"/>
+      <c r="B186" s="23"/>
+      <c r="J186" s="17"/>
       <c r="K186" s="2"/>
     </row>
     <row r="187" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B187" s="27"/>
-      <c r="J187" s="18"/>
+      <c r="B187" s="23"/>
+      <c r="J187" s="17"/>
       <c r="K187" s="2"/>
     </row>
     <row r="188" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B188" s="27"/>
-      <c r="J188" s="18"/>
+      <c r="B188" s="23"/>
+      <c r="J188" s="17"/>
       <c r="K188" s="2"/>
     </row>
     <row r="189" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B189" s="27"/>
-      <c r="J189" s="18"/>
+      <c r="B189" s="23"/>
+      <c r="J189" s="17"/>
       <c r="K189" s="2"/>
     </row>
     <row r="190" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B190" s="27"/>
-      <c r="J190" s="18"/>
+      <c r="B190" s="23"/>
+      <c r="J190" s="17"/>
       <c r="K190" s="2"/>
     </row>
     <row r="191" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B191" s="27"/>
-      <c r="J191" s="18"/>
+      <c r="B191" s="23"/>
+      <c r="J191" s="17"/>
       <c r="K191" s="2"/>
     </row>
     <row r="192" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B192" s="27"/>
-      <c r="J192" s="18"/>
+      <c r="B192" s="23"/>
+      <c r="J192" s="17"/>
       <c r="K192" s="2"/>
     </row>
     <row r="193" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B193" s="27"/>
-      <c r="J193" s="18"/>
+      <c r="B193" s="23"/>
+      <c r="J193" s="17"/>
       <c r="K193" s="2"/>
     </row>
     <row r="194" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B194" s="27"/>
-      <c r="J194" s="18"/>
+      <c r="B194" s="23"/>
+      <c r="J194" s="17"/>
       <c r="K194" s="2"/>
     </row>
     <row r="195" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B195" s="27"/>
-      <c r="J195" s="18"/>
+      <c r="B195" s="23"/>
+      <c r="J195" s="17"/>
       <c r="K195" s="2"/>
     </row>
     <row r="196" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B196" s="27"/>
-      <c r="J196" s="18"/>
+      <c r="B196" s="23"/>
+      <c r="J196" s="17"/>
       <c r="K196" s="2"/>
     </row>
     <row r="197" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B197" s="27"/>
-      <c r="J197" s="18"/>
+      <c r="B197" s="23"/>
+      <c r="J197" s="17"/>
       <c r="K197" s="2"/>
     </row>
     <row r="198" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B198" s="27"/>
-      <c r="J198" s="18"/>
+      <c r="B198" s="23"/>
+      <c r="J198" s="17"/>
       <c r="K198" s="2"/>
     </row>
     <row r="199" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B199" s="27"/>
-      <c r="J199" s="18"/>
+      <c r="B199" s="23"/>
+      <c r="J199" s="17"/>
       <c r="K199" s="2"/>
     </row>
     <row r="200" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B200" s="27"/>
-      <c r="J200" s="18"/>
+      <c r="B200" s="23"/>
+      <c r="J200" s="17"/>
       <c r="K200" s="2"/>
     </row>
     <row r="201" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B201" s="27"/>
-      <c r="J201" s="18"/>
+      <c r="B201" s="23"/>
+      <c r="J201" s="17"/>
       <c r="K201" s="2"/>
     </row>
     <row r="202" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B202" s="27"/>
-      <c r="J202" s="18"/>
+      <c r="B202" s="23"/>
+      <c r="J202" s="17"/>
       <c r="K202" s="2"/>
     </row>
     <row r="203" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B203" s="27"/>
-      <c r="J203" s="18"/>
+      <c r="B203" s="23"/>
+      <c r="J203" s="17"/>
       <c r="K203" s="2"/>
     </row>
     <row r="204" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B204" s="27"/>
-      <c r="J204" s="18"/>
+      <c r="B204" s="23"/>
+      <c r="J204" s="17"/>
       <c r="K204" s="2"/>
     </row>
     <row r="205" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B205" s="27"/>
-      <c r="J205" s="18"/>
+      <c r="B205" s="23"/>
+      <c r="J205" s="17"/>
       <c r="K205" s="2"/>
     </row>
     <row r="206" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B206" s="27"/>
-      <c r="J206" s="18"/>
+      <c r="B206" s="23"/>
+      <c r="J206" s="17"/>
       <c r="K206" s="2"/>
     </row>
     <row r="207" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B207" s="27"/>
-      <c r="J207" s="18"/>
+      <c r="B207" s="23"/>
+      <c r="J207" s="17"/>
       <c r="K207" s="2"/>
     </row>
     <row r="208" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B208" s="27"/>
-      <c r="J208" s="18"/>
+      <c r="B208" s="23"/>
+      <c r="J208" s="17"/>
       <c r="K208" s="2"/>
     </row>
     <row r="209" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B209" s="27"/>
-      <c r="J209" s="18"/>
+      <c r="B209" s="23"/>
+      <c r="J209" s="17"/>
       <c r="K209" s="2"/>
     </row>
     <row r="210" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B210" s="27"/>
-      <c r="J210" s="18"/>
+      <c r="B210" s="23"/>
+      <c r="J210" s="17"/>
       <c r="K210" s="2"/>
     </row>
     <row r="211" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B211" s="27"/>
-      <c r="J211" s="18"/>
+      <c r="B211" s="23"/>
+      <c r="J211" s="17"/>
       <c r="K211" s="2"/>
     </row>
     <row r="212" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B212" s="27"/>
-      <c r="J212" s="18"/>
+      <c r="B212" s="23"/>
+      <c r="J212" s="17"/>
       <c r="K212" s="2"/>
     </row>
     <row r="213" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B213" s="27"/>
-      <c r="J213" s="18"/>
+      <c r="B213" s="23"/>
+      <c r="J213" s="17"/>
       <c r="K213" s="2"/>
     </row>
     <row r="214" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B214" s="27"/>
-      <c r="J214" s="18"/>
+      <c r="B214" s="23"/>
+      <c r="J214" s="17"/>
       <c r="K214" s="2"/>
     </row>
     <row r="215" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B215" s="27"/>
-      <c r="J215" s="18"/>
+      <c r="B215" s="23"/>
+      <c r="J215" s="17"/>
       <c r="K215" s="2"/>
     </row>
     <row r="216" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B216" s="27"/>
-      <c r="J216" s="18"/>
+      <c r="B216" s="23"/>
+      <c r="J216" s="17"/>
       <c r="K216" s="2"/>
     </row>
     <row r="217" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B217" s="27"/>
-      <c r="J217" s="18"/>
+      <c r="B217" s="23"/>
+      <c r="J217" s="17"/>
       <c r="K217" s="2"/>
     </row>
     <row r="218" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B218" s="27"/>
-      <c r="J218" s="18"/>
+      <c r="B218" s="23"/>
+      <c r="J218" s="17"/>
       <c r="K218" s="2"/>
     </row>
     <row r="219" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B219" s="27"/>
-      <c r="J219" s="18"/>
+      <c r="B219" s="23"/>
+      <c r="J219" s="17"/>
       <c r="K219" s="2"/>
     </row>
     <row r="220" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B220" s="27"/>
-      <c r="J220" s="18"/>
+      <c r="B220" s="23"/>
+      <c r="J220" s="17"/>
       <c r="K220" s="2"/>
     </row>
     <row r="221" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B221" s="27"/>
-      <c r="J221" s="18"/>
+      <c r="B221" s="23"/>
+      <c r="J221" s="17"/>
       <c r="K221" s="2"/>
     </row>
     <row r="222" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B222" s="27"/>
-      <c r="J222" s="18"/>
+      <c r="B222" s="23"/>
+      <c r="J222" s="17"/>
       <c r="K222" s="2"/>
     </row>
     <row r="223" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B223" s="27"/>
-      <c r="J223" s="18"/>
+      <c r="B223" s="23"/>
+      <c r="J223" s="17"/>
       <c r="K223" s="2"/>
     </row>
     <row r="224" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B224" s="27"/>
-      <c r="J224" s="18"/>
+      <c r="B224" s="23"/>
+      <c r="J224" s="17"/>
       <c r="K224" s="2"/>
     </row>
     <row r="225" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B225" s="27"/>
-      <c r="J225" s="18"/>
+      <c r="B225" s="23"/>
+      <c r="J225" s="17"/>
       <c r="K225" s="2"/>
     </row>
     <row r="226" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B226" s="27"/>
-      <c r="J226" s="18"/>
+      <c r="B226" s="23"/>
+      <c r="J226" s="17"/>
       <c r="K226" s="2"/>
     </row>
     <row r="227" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B227" s="27"/>
-      <c r="J227" s="18"/>
+      <c r="B227" s="23"/>
+      <c r="J227" s="17"/>
       <c r="K227" s="2"/>
     </row>
     <row r="228" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B228" s="27"/>
-      <c r="J228" s="18"/>
+      <c r="B228" s="23"/>
+      <c r="J228" s="17"/>
       <c r="K228" s="2"/>
     </row>
     <row r="229" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B229" s="27"/>
-      <c r="J229" s="18"/>
+      <c r="B229" s="23"/>
+      <c r="J229" s="17"/>
       <c r="K229" s="2"/>
     </row>
     <row r="230" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B230" s="27"/>
-      <c r="J230" s="18"/>
+      <c r="B230" s="23"/>
+      <c r="J230" s="17"/>
       <c r="K230" s="2"/>
     </row>
     <row r="231" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B231" s="27"/>
-      <c r="J231" s="18"/>
+      <c r="B231" s="23"/>
+      <c r="J231" s="17"/>
       <c r="K231" s="2"/>
     </row>
     <row r="232" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B232" s="27"/>
-      <c r="J232" s="18"/>
+      <c r="B232" s="23"/>
+      <c r="J232" s="17"/>
       <c r="K232" s="2"/>
     </row>
     <row r="233" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B233" s="27"/>
-      <c r="J233" s="18"/>
+      <c r="B233" s="23"/>
+      <c r="J233" s="17"/>
       <c r="K233" s="2"/>
     </row>
     <row r="234" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B234" s="27"/>
-      <c r="J234" s="18"/>
+      <c r="B234" s="23"/>
+      <c r="J234" s="17"/>
       <c r="K234" s="2"/>
     </row>
     <row r="235" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B235" s="27"/>
-      <c r="J235" s="18"/>
+      <c r="B235" s="23"/>
+      <c r="J235" s="17"/>
       <c r="K235" s="2"/>
     </row>
     <row r="236" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B236" s="27"/>
-      <c r="J236" s="18"/>
+      <c r="B236" s="23"/>
+      <c r="J236" s="17"/>
       <c r="K236" s="2"/>
     </row>
     <row r="237" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B237" s="27"/>
-      <c r="J237" s="18"/>
+      <c r="B237" s="23"/>
+      <c r="J237" s="17"/>
       <c r="K237" s="2"/>
     </row>
     <row r="238" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B238" s="27"/>
-      <c r="J238" s="18"/>
+      <c r="B238" s="23"/>
+      <c r="J238" s="17"/>
       <c r="K238" s="2"/>
     </row>
     <row r="239" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B239" s="27"/>
-      <c r="J239" s="18"/>
+      <c r="B239" s="23"/>
+      <c r="J239" s="17"/>
       <c r="K239" s="2"/>
     </row>
     <row r="240" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B240" s="27"/>
-      <c r="J240" s="18"/>
+      <c r="B240" s="23"/>
+      <c r="J240" s="17"/>
       <c r="K240" s="2"/>
     </row>
     <row r="241" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B241" s="27"/>
-      <c r="J241" s="18"/>
+      <c r="B241" s="23"/>
+      <c r="J241" s="17"/>
       <c r="K241" s="2"/>
     </row>
     <row r="242" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B242" s="27"/>
-      <c r="J242" s="18"/>
+      <c r="B242" s="23"/>
+      <c r="J242" s="17"/>
       <c r="K242" s="2"/>
     </row>
     <row r="243" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B243" s="27"/>
-      <c r="J243" s="18"/>
+      <c r="B243" s="23"/>
+      <c r="J243" s="17"/>
       <c r="K243" s="2"/>
     </row>
     <row r="244" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B244" s="27"/>
-      <c r="J244" s="18"/>
+      <c r="B244" s="23"/>
+      <c r="J244" s="17"/>
       <c r="K244" s="2"/>
     </row>
     <row r="245" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B245" s="27"/>
-      <c r="J245" s="18"/>
+      <c r="B245" s="23"/>
+      <c r="J245" s="17"/>
       <c r="K245" s="2"/>
     </row>
     <row r="246" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B246" s="27"/>
-      <c r="J246" s="18"/>
+      <c r="B246" s="23"/>
+      <c r="J246" s="17"/>
       <c r="K246" s="2"/>
     </row>
     <row r="247" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B247" s="27"/>
-      <c r="J247" s="18"/>
+      <c r="B247" s="23"/>
+      <c r="J247" s="17"/>
       <c r="K247" s="2"/>
     </row>
     <row r="248" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B248" s="27"/>
-      <c r="J248" s="18"/>
+      <c r="B248" s="23"/>
+      <c r="J248" s="17"/>
       <c r="K248" s="2"/>
     </row>
     <row r="249" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B249" s="27"/>
-      <c r="J249" s="18"/>
+      <c r="B249" s="23"/>
+      <c r="J249" s="17"/>
       <c r="K249" s="2"/>
     </row>
     <row r="250" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B250" s="27"/>
-      <c r="J250" s="18"/>
+      <c r="B250" s="23"/>
+      <c r="J250" s="17"/>
       <c r="K250" s="2"/>
     </row>
     <row r="251" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B251" s="27"/>
-      <c r="J251" s="18"/>
+      <c r="B251" s="23"/>
+      <c r="J251" s="17"/>
       <c r="K251" s="2"/>
     </row>
     <row r="252" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B252" s="27"/>
-      <c r="J252" s="18"/>
+      <c r="B252" s="23"/>
+      <c r="J252" s="17"/>
       <c r="K252" s="2"/>
     </row>
     <row r="253" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B253" s="27"/>
-      <c r="J253" s="18"/>
+      <c r="B253" s="23"/>
+      <c r="J253" s="17"/>
       <c r="K253" s="2"/>
     </row>
     <row r="254" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B254" s="27"/>
-      <c r="J254" s="18"/>
+      <c r="B254" s="23"/>
+      <c r="J254" s="17"/>
       <c r="K254" s="2"/>
     </row>
     <row r="255" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B255" s="27"/>
-      <c r="J255" s="18"/>
+      <c r="B255" s="23"/>
+      <c r="J255" s="17"/>
       <c r="K255" s="2"/>
     </row>
     <row r="256" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B256" s="27"/>
-      <c r="J256" s="18"/>
+      <c r="B256" s="23"/>
+      <c r="J256" s="17"/>
       <c r="K256" s="2"/>
     </row>
     <row r="257" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B257" s="27"/>
-      <c r="J257" s="18"/>
+      <c r="B257" s="23"/>
+      <c r="J257" s="17"/>
       <c r="K257" s="2"/>
     </row>
     <row r="258" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B258" s="27"/>
-      <c r="J258" s="18"/>
+      <c r="B258" s="23"/>
+      <c r="J258" s="17"/>
       <c r="K258" s="2"/>
     </row>
     <row r="259" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B259" s="27"/>
-      <c r="J259" s="18"/>
+      <c r="B259" s="23"/>
+      <c r="J259" s="17"/>
       <c r="K259" s="2"/>
     </row>
     <row r="260" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B260" s="27"/>
-      <c r="J260" s="18"/>
+      <c r="B260" s="23"/>
+      <c r="J260" s="17"/>
       <c r="K260" s="2"/>
     </row>
     <row r="261" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B261" s="27"/>
-      <c r="J261" s="18"/>
+      <c r="B261" s="23"/>
+      <c r="J261" s="17"/>
       <c r="K261" s="2"/>
     </row>
     <row r="262" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B262" s="27"/>
-      <c r="J262" s="18"/>
+      <c r="B262" s="23"/>
+      <c r="J262" s="17"/>
       <c r="K262" s="2"/>
     </row>
     <row r="263" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B263" s="27"/>
-      <c r="J263" s="18"/>
+      <c r="B263" s="23"/>
+      <c r="J263" s="17"/>
       <c r="K263" s="2"/>
     </row>
     <row r="264" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B264" s="27"/>
-      <c r="J264" s="18"/>
+      <c r="B264" s="23"/>
+      <c r="J264" s="17"/>
       <c r="K264" s="2"/>
     </row>
     <row r="265" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B265" s="27"/>
-      <c r="J265" s="18"/>
+      <c r="B265" s="23"/>
+      <c r="J265" s="17"/>
       <c r="K265" s="2"/>
     </row>
     <row r="266" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B266" s="27"/>
-      <c r="J266" s="18"/>
+      <c r="B266" s="23"/>
+      <c r="J266" s="17"/>
       <c r="K266" s="2"/>
     </row>
     <row r="267" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B267" s="27"/>
-      <c r="J267" s="18"/>
+      <c r="B267" s="23"/>
+      <c r="J267" s="17"/>
       <c r="K267" s="2"/>
     </row>
     <row r="268" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B268" s="27"/>
-      <c r="J268" s="18"/>
+      <c r="B268" s="23"/>
+      <c r="J268" s="17"/>
       <c r="K268" s="2"/>
     </row>
     <row r="269" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B269" s="27"/>
-      <c r="J269" s="18"/>
+      <c r="B269" s="23"/>
+      <c r="J269" s="17"/>
       <c r="K269" s="2"/>
     </row>
     <row r="270" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B270" s="27"/>
-      <c r="J270" s="18"/>
+      <c r="B270" s="23"/>
+      <c r="J270" s="17"/>
       <c r="K270" s="2"/>
     </row>
     <row r="271" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B271" s="27"/>
-      <c r="J271" s="18"/>
+      <c r="B271" s="23"/>
+      <c r="J271" s="17"/>
       <c r="K271" s="2"/>
     </row>
     <row r="272" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B272" s="27"/>
-      <c r="J272" s="18"/>
+      <c r="B272" s="23"/>
+      <c r="J272" s="17"/>
       <c r="K272" s="2"/>
     </row>
     <row r="273" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B273" s="27"/>
-      <c r="J273" s="18"/>
+      <c r="B273" s="23"/>
+      <c r="J273" s="17"/>
       <c r="K273" s="2"/>
     </row>
     <row r="274" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B274" s="27"/>
-      <c r="J274" s="18"/>
+      <c r="B274" s="23"/>
+      <c r="J274" s="17"/>
       <c r="K274" s="2"/>
     </row>
     <row r="275" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B275" s="27"/>
-      <c r="J275" s="18"/>
+      <c r="B275" s="23"/>
+      <c r="J275" s="17"/>
       <c r="K275" s="2"/>
     </row>
     <row r="276" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B276" s="27"/>
-      <c r="J276" s="18"/>
+      <c r="B276" s="23"/>
+      <c r="J276" s="17"/>
       <c r="K276" s="2"/>
     </row>
     <row r="277" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B277" s="27"/>
-      <c r="J277" s="18"/>
+      <c r="B277" s="23"/>
+      <c r="J277" s="17"/>
       <c r="K277" s="2"/>
     </row>
     <row r="278" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B278" s="27"/>
-      <c r="J278" s="18"/>
+      <c r="B278" s="23"/>
+      <c r="J278" s="17"/>
       <c r="K278" s="2"/>
     </row>
     <row r="279" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B279" s="27"/>
-      <c r="J279" s="18"/>
+      <c r="B279" s="23"/>
+      <c r="J279" s="17"/>
       <c r="K279" s="2"/>
     </row>
     <row r="280" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B280" s="27"/>
-      <c r="J280" s="18"/>
+      <c r="B280" s="23"/>
+      <c r="J280" s="17"/>
       <c r="K280" s="2"/>
     </row>
     <row r="281" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B281" s="27"/>
-      <c r="J281" s="18"/>
+      <c r="B281" s="23"/>
+      <c r="J281" s="17"/>
       <c r="K281" s="2"/>
     </row>
     <row r="282" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B282" s="27"/>
-      <c r="J282" s="18"/>
+      <c r="B282" s="23"/>
+      <c r="J282" s="17"/>
       <c r="K282" s="2"/>
     </row>
     <row r="283" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B283" s="27"/>
-      <c r="J283" s="18"/>
+      <c r="B283" s="23"/>
+      <c r="J283" s="17"/>
       <c r="K283" s="2"/>
     </row>
     <row r="284" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B284" s="27"/>
-      <c r="J284" s="18"/>
+      <c r="B284" s="23"/>
+      <c r="J284" s="17"/>
       <c r="K284" s="2"/>
     </row>
     <row r="285" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B285" s="27"/>
-      <c r="J285" s="18"/>
+      <c r="B285" s="23"/>
+      <c r="J285" s="17"/>
       <c r="K285" s="2"/>
     </row>
     <row r="286" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B286" s="27"/>
-      <c r="J286" s="18"/>
+      <c r="B286" s="23"/>
+      <c r="J286" s="17"/>
       <c r="K286" s="2"/>
     </row>
     <row r="287" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B287" s="27"/>
-      <c r="J287" s="18"/>
+      <c r="B287" s="23"/>
+      <c r="J287" s="17"/>
       <c r="K287" s="2"/>
     </row>
     <row r="288" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B288" s="27"/>
-      <c r="J288" s="18"/>
+      <c r="B288" s="23"/>
+      <c r="J288" s="17"/>
       <c r="K288" s="2"/>
     </row>
     <row r="289" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B289" s="27"/>
-      <c r="J289" s="18"/>
+      <c r="B289" s="23"/>
+      <c r="J289" s="17"/>
       <c r="K289" s="2"/>
     </row>
     <row r="290" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B290" s="27"/>
-      <c r="J290" s="18"/>
+      <c r="B290" s="23"/>
+      <c r="J290" s="17"/>
       <c r="K290" s="2"/>
     </row>
     <row r="291" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B291" s="27"/>
-      <c r="J291" s="18"/>
+      <c r="B291" s="23"/>
+      <c r="J291" s="17"/>
       <c r="K291" s="2"/>
     </row>
     <row r="292" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B292" s="27"/>
-      <c r="J292" s="18"/>
+      <c r="B292" s="23"/>
+      <c r="J292" s="17"/>
       <c r="K292" s="2"/>
     </row>
     <row r="293" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B293" s="27"/>
-      <c r="J293" s="18"/>
+      <c r="B293" s="23"/>
+      <c r="J293" s="17"/>
       <c r="K293" s="2"/>
     </row>
     <row r="294" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B294" s="27"/>
-      <c r="J294" s="18"/>
+      <c r="B294" s="23"/>
+      <c r="J294" s="17"/>
       <c r="K294" s="2"/>
     </row>
     <row r="295" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B295" s="27"/>
-      <c r="J295" s="18"/>
+      <c r="B295" s="23"/>
+      <c r="J295" s="17"/>
       <c r="K295" s="2"/>
     </row>
     <row r="296" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B296" s="27"/>
-      <c r="J296" s="18"/>
+      <c r="B296" s="23"/>
+      <c r="J296" s="17"/>
       <c r="K296" s="2"/>
     </row>
     <row r="297" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B297" s="27"/>
-      <c r="J297" s="18"/>
+      <c r="B297" s="23"/>
+      <c r="J297" s="17"/>
       <c r="K297" s="2"/>
     </row>
     <row r="298" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B298" s="27"/>
-      <c r="J298" s="18"/>
+      <c r="B298" s="23"/>
+      <c r="J298" s="17"/>
       <c r="K298" s="2"/>
     </row>
     <row r="299" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B299" s="27"/>
-      <c r="J299" s="18"/>
+      <c r="B299" s="23"/>
+      <c r="J299" s="17"/>
       <c r="K299" s="2"/>
     </row>
     <row r="300" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B300" s="27"/>
-      <c r="J300" s="18"/>
+      <c r="B300" s="23"/>
+      <c r="J300" s="17"/>
       <c r="K300" s="2"/>
     </row>
     <row r="301" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B301" s="27"/>
-      <c r="J301" s="18"/>
+      <c r="B301" s="23"/>
+      <c r="J301" s="17"/>
       <c r="K301" s="2"/>
     </row>
     <row r="302" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B302" s="27"/>
-      <c r="J302" s="18"/>
+      <c r="B302" s="23"/>
+      <c r="J302" s="17"/>
       <c r="K302" s="2"/>
     </row>
     <row r="303" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B303" s="27"/>
-      <c r="J303" s="18"/>
+      <c r="B303" s="23"/>
+      <c r="J303" s="17"/>
       <c r="K303" s="2"/>
     </row>
     <row r="304" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B304" s="27"/>
-      <c r="J304" s="18"/>
+      <c r="B304" s="23"/>
+      <c r="J304" s="17"/>
       <c r="K304" s="2"/>
     </row>
     <row r="305" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B305" s="27"/>
-      <c r="J305" s="18"/>
+      <c r="B305" s="23"/>
+      <c r="J305" s="17"/>
       <c r="K305" s="2"/>
     </row>
     <row r="306" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B306" s="27"/>
-      <c r="J306" s="18"/>
+      <c r="B306" s="23"/>
+      <c r="J306" s="17"/>
       <c r="K306" s="2"/>
     </row>
     <row r="307" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B307" s="27"/>
-      <c r="J307" s="18"/>
+      <c r="B307" s="23"/>
+      <c r="J307" s="17"/>
       <c r="K307" s="2"/>
     </row>
     <row r="308" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B308" s="27"/>
-      <c r="J308" s="18"/>
+      <c r="B308" s="23"/>
+      <c r="J308" s="17"/>
       <c r="K308" s="2"/>
     </row>
     <row r="309" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B309" s="27"/>
-      <c r="J309" s="18"/>
+      <c r="B309" s="23"/>
+      <c r="J309" s="17"/>
       <c r="K309" s="2"/>
     </row>
     <row r="310" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B310" s="27"/>
-      <c r="J310" s="18"/>
+      <c r="B310" s="23"/>
+      <c r="J310" s="17"/>
       <c r="K310" s="2"/>
     </row>
     <row r="311" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B311" s="27"/>
-      <c r="J311" s="18"/>
+      <c r="B311" s="23"/>
+      <c r="J311" s="17"/>
       <c r="K311" s="2"/>
     </row>
     <row r="312" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B312" s="27"/>
-      <c r="J312" s="18"/>
+      <c r="B312" s="23"/>
+      <c r="J312" s="17"/>
       <c r="K312" s="2"/>
     </row>
     <row r="313" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B313" s="27"/>
-      <c r="J313" s="18"/>
+      <c r="B313" s="23"/>
+      <c r="J313" s="17"/>
       <c r="K313" s="2"/>
     </row>
     <row r="314" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B314" s="27"/>
-      <c r="J314" s="18"/>
+      <c r="B314" s="23"/>
+      <c r="J314" s="17"/>
       <c r="K314" s="2"/>
     </row>
     <row r="315" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B315" s="27"/>
-      <c r="J315" s="18"/>
+      <c r="B315" s="23"/>
+      <c r="J315" s="17"/>
       <c r="K315" s="2"/>
     </row>
     <row r="316" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B316" s="27"/>
-      <c r="J316" s="18"/>
+      <c r="B316" s="23"/>
+      <c r="J316" s="17"/>
       <c r="K316" s="2"/>
     </row>
     <row r="317" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B317" s="27"/>
-      <c r="J317" s="18"/>
+      <c r="B317" s="23"/>
+      <c r="J317" s="17"/>
       <c r="K317" s="2"/>
     </row>
     <row r="318" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B318" s="27"/>
-      <c r="J318" s="18"/>
+      <c r="B318" s="23"/>
+      <c r="J318" s="17"/>
       <c r="K318" s="2"/>
     </row>
     <row r="319" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B319" s="27"/>
-      <c r="J319" s="18"/>
+      <c r="B319" s="23"/>
+      <c r="J319" s="17"/>
       <c r="K319" s="2"/>
     </row>
     <row r="320" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B320" s="27"/>
-      <c r="J320" s="18"/>
+      <c r="B320" s="23"/>
+      <c r="J320" s="17"/>
       <c r="K320" s="2"/>
     </row>
     <row r="321" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B321" s="27"/>
-      <c r="J321" s="18"/>
+      <c r="B321" s="23"/>
+      <c r="J321" s="17"/>
       <c r="K321" s="2"/>
     </row>
     <row r="322" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B322" s="27"/>
-      <c r="J322" s="18"/>
+      <c r="B322" s="23"/>
+      <c r="J322" s="17"/>
       <c r="K322" s="2"/>
     </row>
     <row r="323" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B323" s="27"/>
-      <c r="J323" s="18"/>
+      <c r="B323" s="23"/>
+      <c r="J323" s="17"/>
       <c r="K323" s="2"/>
     </row>
     <row r="324" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B324" s="27"/>
-      <c r="J324" s="18"/>
+      <c r="B324" s="23"/>
+      <c r="J324" s="17"/>
       <c r="K324" s="2"/>
     </row>
     <row r="325" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B325" s="27"/>
-      <c r="J325" s="18"/>
+      <c r="B325" s="23"/>
+      <c r="J325" s="17"/>
       <c r="K325" s="2"/>
     </row>
     <row r="326" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B326" s="27"/>
-      <c r="J326" s="18"/>
+      <c r="B326" s="23"/>
+      <c r="J326" s="17"/>
       <c r="K326" s="2"/>
     </row>
     <row r="327" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B327" s="27"/>
-      <c r="J327" s="18"/>
+      <c r="B327" s="23"/>
+      <c r="J327" s="17"/>
       <c r="K327" s="2"/>
     </row>
     <row r="328" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B328" s="27"/>
-      <c r="J328" s="18"/>
+      <c r="B328" s="23"/>
+      <c r="J328" s="17"/>
       <c r="K328" s="2"/>
     </row>
     <row r="329" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B329" s="27"/>
-      <c r="J329" s="18"/>
+      <c r="B329" s="23"/>
+      <c r="J329" s="17"/>
       <c r="K329" s="2"/>
     </row>
     <row r="330" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B330" s="27"/>
-      <c r="J330" s="18"/>
+      <c r="B330" s="23"/>
+      <c r="J330" s="17"/>
       <c r="K330" s="2"/>
     </row>
     <row r="331" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B331" s="27"/>
-      <c r="J331" s="18"/>
+      <c r="B331" s="23"/>
+      <c r="J331" s="17"/>
       <c r="K331" s="2"/>
     </row>
     <row r="332" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B332" s="27"/>
-      <c r="J332" s="18"/>
+      <c r="B332" s="23"/>
+      <c r="J332" s="17"/>
       <c r="K332" s="2"/>
     </row>
     <row r="333" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B333" s="27"/>
-      <c r="J333" s="18"/>
+      <c r="B333" s="23"/>
+      <c r="J333" s="17"/>
       <c r="K333" s="2"/>
     </row>
     <row r="334" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B334" s="27"/>
-      <c r="J334" s="18"/>
+      <c r="B334" s="23"/>
+      <c r="J334" s="17"/>
       <c r="K334" s="2"/>
     </row>
     <row r="335" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B335" s="27"/>
-      <c r="J335" s="18"/>
+      <c r="B335" s="23"/>
+      <c r="J335" s="17"/>
       <c r="K335" s="2"/>
     </row>
     <row r="336" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B336" s="27"/>
-      <c r="J336" s="18"/>
+      <c r="B336" s="23"/>
+      <c r="J336" s="17"/>
       <c r="K336" s="2"/>
     </row>
     <row r="337" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B337" s="27"/>
-      <c r="J337" s="18"/>
+      <c r="B337" s="23"/>
+      <c r="J337" s="17"/>
       <c r="K337" s="2"/>
     </row>
     <row r="338" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B338" s="27"/>
-      <c r="J338" s="18"/>
+      <c r="B338" s="23"/>
+      <c r="J338" s="17"/>
       <c r="K338" s="2"/>
     </row>
     <row r="339" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B339" s="27"/>
-      <c r="J339" s="18"/>
+      <c r="B339" s="23"/>
+      <c r="J339" s="17"/>
       <c r="K339" s="2"/>
     </row>
     <row r="340" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B340" s="27"/>
-      <c r="J340" s="18"/>
+      <c r="B340" s="23"/>
+      <c r="J340" s="17"/>
       <c r="K340" s="2"/>
     </row>
     <row r="341" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B341" s="27"/>
-      <c r="J341" s="18"/>
+      <c r="B341" s="23"/>
+      <c r="J341" s="17"/>
       <c r="K341" s="2"/>
     </row>
     <row r="342" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B342" s="27"/>
-      <c r="J342" s="18"/>
+      <c r="B342" s="23"/>
+      <c r="J342" s="17"/>
       <c r="K342" s="2"/>
     </row>
     <row r="343" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B343" s="27"/>
-      <c r="J343" s="18"/>
+      <c r="B343" s="23"/>
+      <c r="J343" s="17"/>
       <c r="K343" s="2"/>
     </row>
     <row r="344" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B344" s="27"/>
-      <c r="J344" s="18"/>
+      <c r="B344" s="23"/>
+      <c r="J344" s="17"/>
       <c r="K344" s="2"/>
     </row>
     <row r="345" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B345" s="27"/>
-      <c r="J345" s="18"/>
+      <c r="B345" s="23"/>
+      <c r="J345" s="17"/>
       <c r="K345" s="2"/>
     </row>
     <row r="346" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B346" s="27"/>
-      <c r="J346" s="18"/>
+      <c r="B346" s="23"/>
+      <c r="J346" s="17"/>
       <c r="K346" s="2"/>
     </row>
     <row r="347" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B347" s="27"/>
-      <c r="J347" s="18"/>
+      <c r="B347" s="23"/>
+      <c r="J347" s="17"/>
       <c r="K347" s="2"/>
     </row>
     <row r="348" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B348" s="27"/>
-      <c r="J348" s="18"/>
+      <c r="B348" s="23"/>
+      <c r="J348" s="17"/>
       <c r="K348" s="2"/>
     </row>
     <row r="349" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B349" s="27"/>
-      <c r="J349" s="18"/>
+      <c r="B349" s="23"/>
+      <c r="J349" s="17"/>
       <c r="K349" s="2"/>
     </row>
     <row r="350" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B350" s="27"/>
-      <c r="J350" s="18"/>
+      <c r="B350" s="23"/>
+      <c r="J350" s="17"/>
       <c r="K350" s="2"/>
     </row>
     <row r="351" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B351" s="27"/>
-      <c r="J351" s="18"/>
+      <c r="B351" s="23"/>
+      <c r="J351" s="17"/>
       <c r="K351" s="2"/>
     </row>
     <row r="352" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B352" s="27"/>
-      <c r="J352" s="18"/>
+      <c r="B352" s="23"/>
+      <c r="J352" s="17"/>
       <c r="K352" s="2"/>
     </row>
     <row r="353" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B353" s="27"/>
-      <c r="J353" s="18"/>
+      <c r="B353" s="23"/>
+      <c r="J353" s="17"/>
       <c r="K353" s="2"/>
     </row>
     <row r="354" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B354" s="27"/>
-      <c r="J354" s="18"/>
+      <c r="B354" s="23"/>
+      <c r="J354" s="17"/>
       <c r="K354" s="2"/>
     </row>
     <row r="355" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B355" s="27"/>
-      <c r="J355" s="18"/>
+      <c r="B355" s="23"/>
+      <c r="J355" s="17"/>
       <c r="K355" s="2"/>
     </row>
     <row r="356" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B356" s="27"/>
-      <c r="J356" s="18"/>
+      <c r="B356" s="23"/>
+      <c r="J356" s="17"/>
       <c r="K356" s="2"/>
     </row>
     <row r="357" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B357" s="27"/>
-      <c r="J357" s="18"/>
+      <c r="B357" s="23"/>
+      <c r="J357" s="17"/>
       <c r="K357" s="2"/>
     </row>
     <row r="358" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B358" s="27"/>
-      <c r="J358" s="18"/>
+      <c r="B358" s="23"/>
+      <c r="J358" s="17"/>
       <c r="K358" s="2"/>
     </row>
     <row r="359" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B359" s="27"/>
-      <c r="J359" s="18"/>
+      <c r="B359" s="23"/>
+      <c r="J359" s="17"/>
       <c r="K359" s="2"/>
     </row>
     <row r="360" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B360" s="27"/>
-      <c r="J360" s="18"/>
+      <c r="B360" s="23"/>
+      <c r="J360" s="17"/>
       <c r="K360" s="2"/>
     </row>
     <row r="361" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B361" s="27"/>
-      <c r="J361" s="18"/>
+      <c r="B361" s="23"/>
+      <c r="J361" s="17"/>
       <c r="K361" s="2"/>
     </row>
     <row r="362" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B362" s="27"/>
-      <c r="J362" s="18"/>
+      <c r="B362" s="23"/>
+      <c r="J362" s="17"/>
       <c r="K362" s="2"/>
     </row>
     <row r="363" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B363" s="27"/>
-      <c r="J363" s="18"/>
+      <c r="B363" s="23"/>
+      <c r="J363" s="17"/>
       <c r="K363" s="2"/>
     </row>
     <row r="364" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B364" s="27"/>
-      <c r="J364" s="18"/>
+      <c r="B364" s="23"/>
+      <c r="J364" s="17"/>
       <c r="K364" s="2"/>
     </row>
     <row r="365" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B365" s="27"/>
-      <c r="J365" s="18"/>
+      <c r="B365" s="23"/>
+      <c r="J365" s="17"/>
       <c r="K365" s="2"/>
     </row>
     <row r="366" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B366" s="27"/>
-      <c r="J366" s="18"/>
+      <c r="B366" s="23"/>
+      <c r="J366" s="17"/>
       <c r="K366" s="2"/>
     </row>
     <row r="367" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B367" s="27"/>
-      <c r="J367" s="18"/>
+      <c r="B367" s="23"/>
+      <c r="J367" s="17"/>
       <c r="K367" s="2"/>
     </row>
     <row r="368" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B368" s="27"/>
-      <c r="J368" s="18"/>
+      <c r="B368" s="23"/>
+      <c r="J368" s="17"/>
       <c r="K368" s="2"/>
     </row>
     <row r="369" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B369" s="27"/>
-      <c r="J369" s="18"/>
+      <c r="B369" s="23"/>
+      <c r="J369" s="17"/>
       <c r="K369" s="2"/>
     </row>
     <row r="370" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B370" s="27"/>
-      <c r="J370" s="18"/>
+      <c r="B370" s="23"/>
+      <c r="J370" s="17"/>
       <c r="K370" s="2"/>
     </row>
     <row r="371" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B371" s="27"/>
-      <c r="J371" s="18"/>
+      <c r="B371" s="23"/>
+      <c r="J371" s="17"/>
       <c r="K371" s="2"/>
     </row>
     <row r="372" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B372" s="27"/>
-      <c r="J372" s="18"/>
+      <c r="B372" s="23"/>
+      <c r="J372" s="17"/>
       <c r="K372" s="2"/>
     </row>
     <row r="373" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B373" s="27"/>
-      <c r="J373" s="18"/>
+      <c r="B373" s="23"/>
+      <c r="J373" s="17"/>
       <c r="K373" s="2"/>
     </row>
     <row r="374" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B374" s="27"/>
-      <c r="J374" s="18"/>
+      <c r="B374" s="23"/>
+      <c r="J374" s="17"/>
       <c r="K374" s="2"/>
     </row>
     <row r="375" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B375" s="27"/>
-      <c r="J375" s="18"/>
+      <c r="B375" s="23"/>
+      <c r="J375" s="17"/>
       <c r="K375" s="2"/>
     </row>
     <row r="376" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B376" s="27"/>
-      <c r="J376" s="18"/>
+      <c r="B376" s="23"/>
+      <c r="J376" s="17"/>
       <c r="K376" s="2"/>
     </row>
     <row r="377" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B377" s="27"/>
-      <c r="J377" s="18"/>
+      <c r="B377" s="23"/>
+      <c r="J377" s="17"/>
       <c r="K377" s="2"/>
     </row>
     <row r="378" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B378" s="27"/>
-      <c r="J378" s="18"/>
+      <c r="B378" s="23"/>
+      <c r="J378" s="17"/>
       <c r="K378" s="2"/>
     </row>
     <row r="379" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B379" s="27"/>
-      <c r="J379" s="18"/>
+      <c r="B379" s="23"/>
+      <c r="J379" s="17"/>
       <c r="K379" s="2"/>
     </row>
     <row r="380" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B380" s="27"/>
-      <c r="J380" s="18"/>
+      <c r="B380" s="23"/>
+      <c r="J380" s="17"/>
       <c r="K380" s="2"/>
     </row>
     <row r="381" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B381" s="27"/>
-      <c r="J381" s="18"/>
+      <c r="B381" s="23"/>
+      <c r="J381" s="17"/>
       <c r="K381" s="2"/>
     </row>
     <row r="382" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B382" s="27"/>
-      <c r="J382" s="18"/>
+      <c r="B382" s="23"/>
+      <c r="J382" s="17"/>
       <c r="K382" s="2"/>
     </row>
     <row r="383" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B383" s="27"/>
-      <c r="J383" s="18"/>
+      <c r="B383" s="23"/>
+      <c r="J383" s="17"/>
       <c r="K383" s="2"/>
     </row>
     <row r="384" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B384" s="27"/>
-      <c r="J384" s="18"/>
+      <c r="B384" s="23"/>
+      <c r="J384" s="17"/>
       <c r="K384" s="2"/>
     </row>
     <row r="385" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B385" s="27"/>
-      <c r="J385" s="18"/>
+      <c r="B385" s="23"/>
+      <c r="J385" s="17"/>
       <c r="K385" s="2"/>
     </row>
     <row r="386" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B386" s="27"/>
-      <c r="J386" s="18"/>
+      <c r="B386" s="23"/>
+      <c r="J386" s="17"/>
       <c r="K386" s="2"/>
     </row>
     <row r="387" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B387" s="27"/>
-      <c r="J387" s="18"/>
+      <c r="B387" s="23"/>
+      <c r="J387" s="17"/>
       <c r="K387" s="2"/>
     </row>
     <row r="388" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B388" s="27"/>
-      <c r="J388" s="18"/>
+      <c r="B388" s="23"/>
+      <c r="J388" s="17"/>
       <c r="K388" s="2"/>
     </row>
     <row r="389" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B389" s="27"/>
-      <c r="J389" s="18"/>
+      <c r="B389" s="23"/>
+      <c r="J389" s="17"/>
       <c r="K389" s="2"/>
     </row>
     <row r="390" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B390" s="27"/>
-      <c r="J390" s="18"/>
+      <c r="B390" s="23"/>
+      <c r="J390" s="17"/>
       <c r="K390" s="2"/>
     </row>
     <row r="391" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B391" s="27"/>
-      <c r="J391" s="18"/>
+      <c r="B391" s="23"/>
+      <c r="J391" s="17"/>
       <c r="K391" s="2"/>
     </row>
     <row r="392" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B392" s="27"/>
-      <c r="J392" s="18"/>
+      <c r="B392" s="23"/>
+      <c r="J392" s="17"/>
       <c r="K392" s="2"/>
     </row>
     <row r="393" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B393" s="27"/>
-      <c r="J393" s="18"/>
+      <c r="B393" s="23"/>
+      <c r="J393" s="17"/>
       <c r="K393" s="2"/>
     </row>
     <row r="394" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B394" s="27"/>
-      <c r="J394" s="18"/>
+      <c r="B394" s="23"/>
+      <c r="J394" s="17"/>
       <c r="K394" s="2"/>
     </row>
     <row r="395" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B395" s="27"/>
-      <c r="J395" s="18"/>
+      <c r="B395" s="23"/>
+      <c r="J395" s="17"/>
       <c r="K395" s="2"/>
     </row>
     <row r="396" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B396" s="27"/>
-      <c r="J396" s="18"/>
+      <c r="B396" s="23"/>
+      <c r="J396" s="17"/>
       <c r="K396" s="2"/>
     </row>
     <row r="397" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B397" s="27"/>
-      <c r="J397" s="18"/>
+      <c r="B397" s="23"/>
+      <c r="J397" s="17"/>
       <c r="K397" s="2"/>
     </row>
     <row r="398" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B398" s="27"/>
-      <c r="J398" s="18"/>
+      <c r="B398" s="23"/>
+      <c r="J398" s="17"/>
       <c r="K398" s="2"/>
     </row>
     <row r="399" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B399" s="27"/>
-      <c r="J399" s="18"/>
+      <c r="B399" s="23"/>
+      <c r="J399" s="17"/>
       <c r="K399" s="2"/>
     </row>
     <row r="400" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B400" s="27"/>
-      <c r="J400" s="18"/>
+      <c r="B400" s="23"/>
+      <c r="J400" s="17"/>
       <c r="K400" s="2"/>
     </row>
     <row r="401" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B401" s="27"/>
-      <c r="J401" s="18"/>
+      <c r="B401" s="23"/>
+      <c r="J401" s="17"/>
       <c r="K401" s="2"/>
     </row>
     <row r="402" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B402" s="27"/>
-      <c r="J402" s="18"/>
+      <c r="B402" s="23"/>
+      <c r="J402" s="17"/>
       <c r="K402" s="2"/>
     </row>
     <row r="403" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B403" s="27"/>
-      <c r="J403" s="18"/>
+      <c r="B403" s="23"/>
+      <c r="J403" s="17"/>
       <c r="K403" s="2"/>
     </row>
     <row r="404" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B404" s="27"/>
-      <c r="J404" s="18"/>
+      <c r="B404" s="23"/>
+      <c r="J404" s="17"/>
       <c r="K404" s="2"/>
     </row>
     <row r="405" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B405" s="27"/>
-      <c r="J405" s="18"/>
+      <c r="B405" s="23"/>
+      <c r="J405" s="17"/>
       <c r="K405" s="2"/>
     </row>
     <row r="406" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B406" s="27"/>
-      <c r="J406" s="18"/>
+      <c r="B406" s="23"/>
+      <c r="J406" s="17"/>
       <c r="K406" s="2"/>
     </row>
     <row r="407" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B407" s="27"/>
-      <c r="J407" s="18"/>
+      <c r="B407" s="23"/>
+      <c r="J407" s="17"/>
       <c r="K407" s="2"/>
     </row>
     <row r="408" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B408" s="27"/>
-      <c r="J408" s="18"/>
+      <c r="B408" s="23"/>
+      <c r="J408" s="17"/>
       <c r="K408" s="2"/>
     </row>
     <row r="409" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B409" s="27"/>
-      <c r="J409" s="18"/>
+      <c r="B409" s="23"/>
+      <c r="J409" s="17"/>
       <c r="K409" s="2"/>
     </row>
     <row r="410" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B410" s="27"/>
-      <c r="J410" s="18"/>
+      <c r="B410" s="23"/>
+      <c r="J410" s="17"/>
       <c r="K410" s="2"/>
     </row>
     <row r="411" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B411" s="27"/>
-      <c r="J411" s="18"/>
+      <c r="B411" s="23"/>
+      <c r="J411" s="17"/>
       <c r="K411" s="2"/>
     </row>
     <row r="412" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B412" s="27"/>
-      <c r="J412" s="18"/>
+      <c r="B412" s="23"/>
+      <c r="J412" s="17"/>
       <c r="K412" s="2"/>
     </row>
     <row r="413" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B413" s="27"/>
-      <c r="J413" s="18"/>
+      <c r="B413" s="23"/>
+      <c r="J413" s="17"/>
       <c r="K413" s="2"/>
     </row>
     <row r="414" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B414" s="27"/>
-      <c r="J414" s="18"/>
+      <c r="B414" s="23"/>
+      <c r="J414" s="17"/>
       <c r="K414" s="2"/>
     </row>
     <row r="415" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B415" s="27"/>
-      <c r="J415" s="18"/>
+      <c r="B415" s="23"/>
+      <c r="J415" s="17"/>
       <c r="K415" s="2"/>
     </row>
     <row r="416" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B416" s="27"/>
-      <c r="J416" s="18"/>
+      <c r="B416" s="23"/>
+      <c r="J416" s="17"/>
       <c r="K416" s="2"/>
     </row>
     <row r="417" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B417" s="27"/>
-      <c r="J417" s="18"/>
+      <c r="B417" s="23"/>
+      <c r="J417" s="17"/>
       <c r="K417" s="2"/>
     </row>
     <row r="418" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B418" s="27"/>
-      <c r="J418" s="18"/>
+      <c r="B418" s="23"/>
+      <c r="J418" s="17"/>
       <c r="K418" s="2"/>
     </row>
     <row r="419" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B419" s="27"/>
-      <c r="J419" s="18"/>
+      <c r="B419" s="23"/>
+      <c r="J419" s="17"/>
       <c r="K419" s="2"/>
     </row>
     <row r="420" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B420" s="27"/>
-      <c r="J420" s="18"/>
+      <c r="B420" s="23"/>
+      <c r="J420" s="17"/>
       <c r="K420" s="2"/>
     </row>
     <row r="421" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B421" s="27"/>
-      <c r="J421" s="18"/>
+      <c r="B421" s="23"/>
+      <c r="J421" s="17"/>
       <c r="K421" s="2"/>
     </row>
     <row r="422" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B422" s="27"/>
-      <c r="J422" s="18"/>
+      <c r="B422" s="23"/>
+      <c r="J422" s="17"/>
       <c r="K422" s="2"/>
     </row>
     <row r="423" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B423" s="27"/>
-      <c r="J423" s="18"/>
+      <c r="B423" s="23"/>
+      <c r="J423" s="17"/>
       <c r="K423" s="2"/>
     </row>
     <row r="424" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B424" s="27"/>
-      <c r="J424" s="18"/>
+      <c r="B424" s="23"/>
+      <c r="J424" s="17"/>
       <c r="K424" s="2"/>
     </row>
     <row r="425" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B425" s="27"/>
-      <c r="J425" s="18"/>
+      <c r="B425" s="23"/>
+      <c r="J425" s="17"/>
       <c r="K425" s="2"/>
     </row>
     <row r="426" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B426" s="27"/>
-      <c r="J426" s="18"/>
+      <c r="B426" s="23"/>
+      <c r="J426" s="17"/>
       <c r="K426" s="2"/>
     </row>
     <row r="427" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B427" s="27"/>
-      <c r="J427" s="18"/>
+      <c r="B427" s="23"/>
+      <c r="J427" s="17"/>
       <c r="K427" s="2"/>
     </row>
     <row r="428" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B428" s="27"/>
-      <c r="J428" s="18"/>
+      <c r="B428" s="23"/>
+      <c r="J428" s="17"/>
       <c r="K428" s="2"/>
     </row>
     <row r="429" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B429" s="27"/>
-      <c r="J429" s="18"/>
+      <c r="B429" s="23"/>
+      <c r="J429" s="17"/>
       <c r="K429" s="2"/>
     </row>
     <row r="430" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B430" s="27"/>
-      <c r="J430" s="18"/>
+      <c r="B430" s="23"/>
+      <c r="J430" s="17"/>
       <c r="K430" s="2"/>
     </row>
     <row r="431" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B431" s="27"/>
-      <c r="J431" s="18"/>
+      <c r="B431" s="23"/>
+      <c r="J431" s="17"/>
       <c r="K431" s="2"/>
     </row>
     <row r="432" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B432" s="27"/>
-      <c r="J432" s="18"/>
+      <c r="B432" s="23"/>
+      <c r="J432" s="17"/>
       <c r="K432" s="2"/>
     </row>
     <row r="433" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B433" s="27"/>
-      <c r="J433" s="18"/>
+      <c r="B433" s="23"/>
+      <c r="J433" s="17"/>
       <c r="K433" s="2"/>
     </row>
     <row r="434" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B434" s="27"/>
-      <c r="J434" s="18"/>
+      <c r="B434" s="23"/>
+      <c r="J434" s="17"/>
       <c r="K434" s="2"/>
     </row>
     <row r="435" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B435" s="27"/>
-      <c r="J435" s="18"/>
+      <c r="B435" s="23"/>
+      <c r="J435" s="17"/>
       <c r="K435" s="2"/>
     </row>
     <row r="436" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B436" s="27"/>
-      <c r="J436" s="18"/>
+      <c r="B436" s="23"/>
+      <c r="J436" s="17"/>
       <c r="K436" s="2"/>
     </row>
     <row r="437" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B437" s="27"/>
-      <c r="J437" s="18"/>
+      <c r="B437" s="23"/>
+      <c r="J437" s="17"/>
       <c r="K437" s="2"/>
     </row>
     <row r="438" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B438" s="27"/>
-      <c r="J438" s="18"/>
+      <c r="B438" s="23"/>
+      <c r="J438" s="17"/>
       <c r="K438" s="2"/>
     </row>
     <row r="439" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B439" s="27"/>
-      <c r="J439" s="18"/>
+      <c r="B439" s="23"/>
+      <c r="J439" s="17"/>
       <c r="K439" s="2"/>
     </row>
     <row r="440" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B440" s="27"/>
-      <c r="J440" s="18"/>
+      <c r="B440" s="23"/>
+      <c r="J440" s="17"/>
       <c r="K440" s="2"/>
     </row>
     <row r="441" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B441" s="27"/>
-      <c r="J441" s="18"/>
+      <c r="B441" s="23"/>
+      <c r="J441" s="17"/>
       <c r="K441" s="2"/>
     </row>
     <row r="442" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B442" s="27"/>
-      <c r="J442" s="18"/>
+      <c r="B442" s="23"/>
+      <c r="J442" s="17"/>
       <c r="K442" s="2"/>
     </row>
     <row r="443" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B443" s="27"/>
-      <c r="J443" s="18"/>
+      <c r="B443" s="23"/>
+      <c r="J443" s="17"/>
       <c r="K443" s="2"/>
     </row>
     <row r="444" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B444" s="27"/>
-      <c r="J444" s="18"/>
+      <c r="B444" s="23"/>
+      <c r="J444" s="17"/>
       <c r="K444" s="2"/>
     </row>
     <row r="445" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B445" s="27"/>
-      <c r="J445" s="18"/>
+      <c r="B445" s="23"/>
+      <c r="J445" s="17"/>
       <c r="K445" s="2"/>
     </row>
     <row r="446" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B446" s="27"/>
-      <c r="J446" s="18"/>
+      <c r="B446" s="23"/>
+      <c r="J446" s="17"/>
       <c r="K446" s="2"/>
     </row>
     <row r="447" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B447" s="27"/>
-      <c r="J447" s="18"/>
+      <c r="B447" s="23"/>
+      <c r="J447" s="17"/>
       <c r="K447" s="2"/>
     </row>
     <row r="448" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B448" s="27"/>
-      <c r="J448" s="18"/>
+      <c r="B448" s="23"/>
+      <c r="J448" s="17"/>
       <c r="K448" s="2"/>
     </row>
     <row r="449" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B449" s="27"/>
-      <c r="J449" s="18"/>
+      <c r="B449" s="23"/>
+      <c r="J449" s="17"/>
       <c r="K449" s="2"/>
     </row>
     <row r="450" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B450" s="27"/>
-      <c r="J450" s="18"/>
+      <c r="B450" s="23"/>
+      <c r="J450" s="17"/>
       <c r="K450" s="2"/>
     </row>
     <row r="451" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B451" s="27"/>
-      <c r="J451" s="18"/>
+      <c r="B451" s="23"/>
+      <c r="J451" s="17"/>
       <c r="K451" s="2"/>
     </row>
     <row r="452" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B452" s="27"/>
-      <c r="J452" s="18"/>
+      <c r="B452" s="23"/>
+      <c r="J452" s="17"/>
       <c r="K452" s="2"/>
     </row>
     <row r="453" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B453" s="27"/>
-      <c r="J453" s="18"/>
+      <c r="B453" s="23"/>
+      <c r="J453" s="17"/>
       <c r="K453" s="2"/>
     </row>
     <row r="454" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B454" s="27"/>
-      <c r="J454" s="18"/>
+      <c r="B454" s="23"/>
+      <c r="J454" s="17"/>
       <c r="K454" s="2"/>
     </row>
     <row r="455" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B455" s="27"/>
-      <c r="J455" s="18"/>
+      <c r="B455" s="23"/>
+      <c r="J455" s="17"/>
       <c r="K455" s="2"/>
     </row>
     <row r="456" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B456" s="27"/>
-      <c r="J456" s="18"/>
+      <c r="B456" s="23"/>
+      <c r="J456" s="17"/>
       <c r="K456" s="2"/>
     </row>
     <row r="457" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B457" s="27"/>
-      <c r="J457" s="18"/>
+      <c r="B457" s="23"/>
+      <c r="J457" s="17"/>
       <c r="K457" s="2"/>
     </row>
     <row r="458" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B458" s="27"/>
-      <c r="J458" s="18"/>
+      <c r="B458" s="23"/>
+      <c r="J458" s="17"/>
       <c r="K458" s="2"/>
     </row>
     <row r="459" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B459" s="27"/>
-      <c r="J459" s="18"/>
+      <c r="B459" s="23"/>
+      <c r="J459" s="17"/>
       <c r="K459" s="2"/>
     </row>
     <row r="460" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B460" s="27"/>
-      <c r="J460" s="18"/>
+      <c r="B460" s="23"/>
+      <c r="J460" s="17"/>
       <c r="K460" s="2"/>
     </row>
     <row r="461" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B461" s="27"/>
-      <c r="J461" s="18"/>
+      <c r="B461" s="23"/>
+      <c r="J461" s="17"/>
       <c r="K461" s="2"/>
     </row>
     <row r="462" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B462" s="27"/>
-      <c r="J462" s="18"/>
+      <c r="B462" s="23"/>
+      <c r="J462" s="17"/>
       <c r="K462" s="2"/>
     </row>
     <row r="463" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B463" s="27"/>
-      <c r="J463" s="18"/>
+      <c r="B463" s="23"/>
+      <c r="J463" s="17"/>
       <c r="K463" s="2"/>
     </row>
     <row r="464" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B464" s="27"/>
-      <c r="J464" s="18"/>
+      <c r="B464" s="23"/>
+      <c r="J464" s="17"/>
       <c r="K464" s="2"/>
     </row>
     <row r="465" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B465" s="27"/>
-      <c r="J465" s="18"/>
+      <c r="B465" s="23"/>
+      <c r="J465" s="17"/>
       <c r="K465" s="2"/>
     </row>
     <row r="466" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B466" s="27"/>
-      <c r="J466" s="18"/>
+      <c r="B466" s="23"/>
+      <c r="J466" s="17"/>
       <c r="K466" s="2"/>
     </row>
     <row r="467" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B467" s="27"/>
-      <c r="J467" s="18"/>
+      <c r="B467" s="23"/>
+      <c r="J467" s="17"/>
       <c r="K467" s="2"/>
     </row>
     <row r="468" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B468" s="27"/>
-      <c r="J468" s="18"/>
+      <c r="B468" s="23"/>
+      <c r="J468" s="17"/>
       <c r="K468" s="2"/>
     </row>
     <row r="469" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B469" s="27"/>
-      <c r="J469" s="18"/>
+      <c r="B469" s="23"/>
+      <c r="J469" s="17"/>
       <c r="K469" s="2"/>
     </row>
     <row r="470" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B470" s="27"/>
-      <c r="J470" s="18"/>
+      <c r="B470" s="23"/>
+      <c r="J470" s="17"/>
       <c r="K470" s="2"/>
     </row>
     <row r="471" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B471" s="27"/>
-      <c r="J471" s="18"/>
+      <c r="B471" s="23"/>
+      <c r="J471" s="17"/>
       <c r="K471" s="2"/>
     </row>
     <row r="472" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B472" s="27"/>
-      <c r="J472" s="18"/>
+      <c r="B472" s="23"/>
+      <c r="J472" s="17"/>
       <c r="K472" s="2"/>
     </row>
     <row r="473" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B473" s="27"/>
-      <c r="J473" s="18"/>
+      <c r="B473" s="23"/>
+      <c r="J473" s="17"/>
       <c r="K473" s="2"/>
     </row>
     <row r="474" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B474" s="27"/>
-      <c r="J474" s="18"/>
+      <c r="B474" s="23"/>
+      <c r="J474" s="17"/>
       <c r="K474" s="2"/>
     </row>
     <row r="475" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B475" s="27"/>
-      <c r="J475" s="18"/>
+      <c r="B475" s="23"/>
+      <c r="J475" s="17"/>
       <c r="K475" s="2"/>
     </row>
     <row r="476" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B476" s="27"/>
-      <c r="J476" s="18"/>
+      <c r="B476" s="23"/>
+      <c r="J476" s="17"/>
       <c r="K476" s="2"/>
     </row>
     <row r="477" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B477" s="27"/>
-      <c r="J477" s="18"/>
+      <c r="B477" s="23"/>
+      <c r="J477" s="17"/>
       <c r="K477" s="2"/>
     </row>
     <row r="478" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B478" s="27"/>
-      <c r="J478" s="18"/>
+      <c r="B478" s="23"/>
+      <c r="J478" s="17"/>
       <c r="K478" s="2"/>
     </row>
     <row r="479" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B479" s="27"/>
-      <c r="J479" s="18"/>
+      <c r="B479" s="23"/>
+      <c r="J479" s="17"/>
       <c r="K479" s="2"/>
     </row>
     <row r="480" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B480" s="27"/>
-      <c r="J480" s="18"/>
+      <c r="B480" s="23"/>
+      <c r="J480" s="17"/>
       <c r="K480" s="2"/>
     </row>
     <row r="481" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B481" s="27"/>
-      <c r="J481" s="18"/>
+      <c r="B481" s="23"/>
+      <c r="J481" s="17"/>
       <c r="K481" s="2"/>
     </row>
     <row r="482" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B482" s="27"/>
-      <c r="J482" s="18"/>
+      <c r="B482" s="23"/>
+      <c r="J482" s="17"/>
       <c r="K482" s="2"/>
     </row>
     <row r="483" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B483" s="27"/>
-      <c r="J483" s="18"/>
+      <c r="B483" s="23"/>
+      <c r="J483" s="17"/>
       <c r="K483" s="2"/>
     </row>
     <row r="484" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B484" s="27"/>
-      <c r="J484" s="18"/>
+      <c r="B484" s="23"/>
+      <c r="J484" s="17"/>
       <c r="K484" s="2"/>
     </row>
     <row r="485" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B485" s="27"/>
+      <c r="B485" s="23"/>
       <c r="J485" s="2"/>
       <c r="K485" s="2"/>
     </row>
     <row r="486" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B486" s="27"/>
+      <c r="B486" s="23"/>
       <c r="J486" s="2"/>
       <c r="K486" s="2"/>
     </row>
     <row r="487" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B487" s="27"/>
+      <c r="B487" s="23"/>
       <c r="J487" s="2"/>
       <c r="K487" s="2"/>
     </row>
     <row r="488" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B488" s="27"/>
+      <c r="B488" s="23"/>
       <c r="J488" s="2"/>
       <c r="K488" s="2"/>
     </row>
     <row r="489" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B489" s="27"/>
+      <c r="B489" s="23"/>
       <c r="J489" s="2"/>
       <c r="K489" s="2"/>
     </row>
     <row r="490" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B490" s="27"/>
+      <c r="B490" s="23"/>
       <c r="J490" s="2"/>
       <c r="K490" s="2"/>
     </row>
     <row r="491" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B491" s="27"/>
+      <c r="B491" s="23"/>
       <c r="J491" s="2"/>
       <c r="K491" s="2"/>
     </row>
     <row r="492" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B492" s="27"/>
+      <c r="B492" s="23"/>
       <c r="J492" s="2"/>
       <c r="K492" s="2"/>
     </row>
     <row r="493" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B493" s="27"/>
+      <c r="B493" s="23"/>
       <c r="J493" s="2"/>
       <c r="K493" s="2"/>
     </row>
     <row r="494" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B494" s="27"/>
+      <c r="B494" s="23"/>
       <c r="J494" s="2"/>
       <c r="K494" s="2"/>
     </row>
     <row r="495" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B495" s="27"/>
+      <c r="B495" s="23"/>
       <c r="J495" s="2"/>
       <c r="K495" s="2"/>
     </row>
     <row r="496" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B496" s="27"/>
+      <c r="B496" s="23"/>
       <c r="J496" s="2"/>
       <c r="K496" s="2"/>
     </row>
     <row r="497" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B497" s="27"/>
+      <c r="B497" s="23"/>
       <c r="J497" s="2"/>
       <c r="K497" s="2"/>
     </row>
     <row r="498" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B498" s="27"/>
+      <c r="B498" s="23"/>
       <c r="J498" s="2"/>
       <c r="K498" s="2"/>
     </row>
     <row r="499" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B499" s="27"/>
+      <c r="B499" s="23"/>
       <c r="J499" s="2"/>
       <c r="K499" s="2"/>
     </row>
     <row r="500" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B500" s="27"/>
+      <c r="B500" s="23"/>
       <c r="J500" s="2"/>
       <c r="K500" s="2"/>
     </row>
     <row r="501" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B501" s="27"/>
+      <c r="B501" s="23"/>
       <c r="J501" s="2"/>
       <c r="K501" s="2"/>
     </row>
     <row r="502" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B502" s="27"/>
+      <c r="B502" s="23"/>
       <c r="J502" s="2"/>
       <c r="K502" s="2"/>
     </row>
     <row r="503" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B503" s="27"/>
+      <c r="B503" s="23"/>
       <c r="J503" s="2"/>
       <c r="K503" s="2"/>
     </row>
     <row r="504" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B504" s="27"/>
+      <c r="B504" s="23"/>
       <c r="J504" s="2"/>
       <c r="K504" s="2"/>
     </row>
     <row r="505" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B505" s="27"/>
+      <c r="B505" s="23"/>
       <c r="J505" s="2"/>
       <c r="K505" s="2"/>
     </row>
     <row r="506" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B506" s="27"/>
+      <c r="B506" s="23"/>
       <c r="J506" s="2"/>
       <c r="K506" s="2"/>
     </row>
     <row r="507" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B507" s="27"/>
+      <c r="B507" s="23"/>
       <c r="J507" s="2"/>
       <c r="K507" s="2"/>
     </row>
     <row r="508" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B508" s="27"/>
+      <c r="B508" s="23"/>
       <c r="J508" s="2"/>
       <c r="K508" s="2"/>
     </row>
     <row r="509" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B509" s="27"/>
+      <c r="B509" s="23"/>
       <c r="J509" s="2"/>
       <c r="K509" s="2"/>
     </row>
     <row r="510" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B510" s="27"/>
+      <c r="B510" s="23"/>
       <c r="J510" s="2"/>
       <c r="K510" s="2"/>
     </row>
     <row r="511" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B511" s="27"/>
+      <c r="B511" s="23"/>
       <c r="J511" s="2"/>
       <c r="K511" s="2"/>
     </row>
     <row r="512" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B512" s="27"/>
+      <c r="B512" s="23"/>
       <c r="J512" s="2"/>
       <c r="K512" s="2"/>
     </row>
     <row r="513" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B513" s="27"/>
+      <c r="B513" s="23"/>
       <c r="J513" s="2"/>
       <c r="K513" s="2"/>
     </row>
     <row r="514" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B514" s="27"/>
+      <c r="B514" s="23"/>
       <c r="J514" s="2"/>
       <c r="K514" s="2"/>
     </row>
     <row r="515" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B515" s="27"/>
+      <c r="B515" s="23"/>
       <c r="J515" s="2"/>
       <c r="K515" s="2"/>
     </row>
     <row r="516" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B516" s="27"/>
+      <c r="B516" s="23"/>
       <c r="J516" s="2"/>
       <c r="K516" s="2"/>
     </row>
     <row r="517" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B517" s="27"/>
+      <c r="B517" s="23"/>
       <c r="J517" s="2"/>
       <c r="K517" s="2"/>
     </row>
     <row r="518" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B518" s="27"/>
+      <c r="B518" s="23"/>
       <c r="J518" s="2"/>
       <c r="K518" s="2"/>
     </row>
     <row r="519" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B519" s="27"/>
+      <c r="B519" s="23"/>
       <c r="J519" s="2"/>
       <c r="K519" s="2"/>
     </row>
     <row r="520" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B520" s="27"/>
+      <c r="B520" s="23"/>
       <c r="J520" s="2"/>
       <c r="K520" s="2"/>
     </row>
     <row r="521" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B521" s="27"/>
+      <c r="B521" s="23"/>
       <c r="J521" s="2"/>
       <c r="K521" s="2"/>
     </row>
     <row r="522" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B522" s="27"/>
+      <c r="B522" s="23"/>
       <c r="J522" s="2"/>
       <c r="K522" s="2"/>
     </row>
     <row r="523" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B523" s="27"/>
+      <c r="B523" s="23"/>
       <c r="J523" s="2"/>
       <c r="K523" s="2"/>
     </row>
     <row r="524" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B524" s="27"/>
+      <c r="B524" s="23"/>
       <c r="J524" s="2"/>
       <c r="K524" s="2"/>
     </row>
     <row r="525" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B525" s="27"/>
+      <c r="B525" s="23"/>
       <c r="J525" s="2"/>
       <c r="K525" s="2"/>
     </row>
     <row r="526" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B526" s="27"/>
+      <c r="B526" s="23"/>
       <c r="J526" s="2"/>
       <c r="K526" s="2"/>
     </row>
     <row r="527" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B527" s="27"/>
+      <c r="B527" s="23"/>
       <c r="J527" s="2"/>
       <c r="K527" s="2"/>
     </row>
     <row r="528" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B528" s="27"/>
+      <c r="B528" s="23"/>
       <c r="J528" s="2"/>
       <c r="K528" s="2"/>
     </row>
     <row r="529" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B529" s="27"/>
+      <c r="B529" s="23"/>
       <c r="J529" s="2"/>
       <c r="K529" s="2"/>
     </row>
     <row r="530" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B530" s="27"/>
+      <c r="B530" s="23"/>
       <c r="J530" s="2"/>
       <c r="K530" s="2"/>
     </row>
     <row r="531" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B531" s="27"/>
+      <c r="B531" s="23"/>
       <c r="J531" s="2"/>
       <c r="K531" s="2"/>
     </row>
     <row r="532" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B532" s="27"/>
+      <c r="B532" s="23"/>
       <c r="J532" s="2"/>
       <c r="K532" s="2"/>
     </row>
     <row r="533" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B533" s="27"/>
+      <c r="B533" s="23"/>
       <c r="J533" s="2"/>
       <c r="K533" s="2"/>
     </row>
     <row r="534" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B534" s="27"/>
+      <c r="B534" s="23"/>
       <c r="J534" s="2"/>
       <c r="K534" s="2"/>
     </row>
     <row r="535" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B535" s="27"/>
+      <c r="B535" s="23"/>
       <c r="J535" s="2"/>
       <c r="K535" s="2"/>
     </row>
     <row r="536" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B536" s="27"/>
+      <c r="B536" s="23"/>
       <c r="J536" s="2"/>
       <c r="K536" s="2"/>
     </row>
     <row r="537" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B537" s="27"/>
+      <c r="B537" s="23"/>
       <c r="J537" s="2"/>
       <c r="K537" s="2"/>
     </row>
     <row r="538" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B538" s="27"/>
+      <c r="B538" s="23"/>
       <c r="J538" s="2"/>
       <c r="K538" s="2"/>
     </row>
     <row r="539" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B539" s="27"/>
+      <c r="B539" s="23"/>
       <c r="J539" s="2"/>
       <c r="K539" s="2"/>
     </row>
     <row r="540" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B540" s="27"/>
+      <c r="B540" s="23"/>
       <c r="J540" s="2"/>
       <c r="K540" s="2"/>
     </row>
     <row r="541" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B541" s="27"/>
+      <c r="B541" s="23"/>
       <c r="J541" s="2"/>
       <c r="K541" s="2"/>
     </row>
     <row r="542" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B542" s="27"/>
+      <c r="B542" s="23"/>
       <c r="J542" s="2"/>
       <c r="K542" s="2"/>
     </row>
     <row r="543" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B543" s="27"/>
+      <c r="B543" s="23"/>
       <c r="J543" s="2"/>
       <c r="K543" s="2"/>
     </row>
     <row r="544" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B544" s="27"/>
+      <c r="B544" s="23"/>
       <c r="J544" s="2"/>
       <c r="K544" s="2"/>
     </row>
     <row r="545" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B545" s="27"/>
+      <c r="B545" s="23"/>
       <c r="J545" s="2"/>
       <c r="K545" s="2"/>
     </row>
     <row r="546" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B546" s="27"/>
+      <c r="B546" s="23"/>
       <c r="J546" s="2"/>
       <c r="K546" s="2"/>
     </row>
     <row r="547" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B547" s="27"/>
+      <c r="B547" s="23"/>
       <c r="J547" s="2"/>
       <c r="K547" s="2"/>
     </row>
     <row r="548" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B548" s="27"/>
+      <c r="B548" s="23"/>
       <c r="J548" s="2"/>
       <c r="K548" s="2"/>
     </row>
     <row r="549" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B549" s="27"/>
+      <c r="B549" s="23"/>
       <c r="J549" s="2"/>
       <c r="K549" s="2"/>
     </row>
     <row r="550" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B550" s="27"/>
+      <c r="B550" s="23"/>
       <c r="J550" s="2"/>
       <c r="K550" s="2"/>
     </row>
     <row r="551" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B551" s="27"/>
+      <c r="B551" s="23"/>
       <c r="J551" s="2"/>
       <c r="K551" s="2"/>
     </row>
     <row r="552" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B552" s="27"/>
+      <c r="B552" s="23"/>
       <c r="J552" s="2"/>
       <c r="K552" s="2"/>
     </row>
     <row r="553" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B553" s="27"/>
+      <c r="B553" s="23"/>
       <c r="J553" s="2"/>
       <c r="K553" s="2"/>
     </row>
     <row r="554" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B554" s="27"/>
+      <c r="B554" s="23"/>
       <c r="J554" s="2"/>
       <c r="K554" s="2"/>
     </row>
     <row r="555" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B555" s="27"/>
+      <c r="B555" s="23"/>
       <c r="J555" s="2"/>
       <c r="K555" s="2"/>
     </row>
     <row r="556" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B556" s="27"/>
+      <c r="B556" s="23"/>
       <c r="J556" s="2"/>
       <c r="K556" s="2"/>
     </row>
     <row r="557" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B557" s="27"/>
+      <c r="B557" s="23"/>
       <c r="J557" s="2"/>
       <c r="K557" s="2"/>
     </row>
     <row r="558" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B558" s="27"/>
+      <c r="B558" s="23"/>
       <c r="J558" s="2"/>
       <c r="K558" s="2"/>
     </row>
     <row r="559" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B559" s="27"/>
+      <c r="B559" s="23"/>
       <c r="J559" s="2"/>
       <c r="K559" s="2"/>
     </row>
     <row r="560" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B560" s="27"/>
+      <c r="B560" s="23"/>
       <c r="J560" s="2"/>
       <c r="K560" s="2"/>
     </row>
     <row r="561" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B561" s="27"/>
+      <c r="B561" s="23"/>
       <c r="J561" s="2"/>
       <c r="K561" s="2"/>
     </row>
     <row r="562" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B562" s="27"/>
+      <c r="B562" s="23"/>
       <c r="J562" s="2"/>
       <c r="K562" s="2"/>
     </row>
     <row r="563" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B563" s="27"/>
+      <c r="B563" s="23"/>
       <c r="J563" s="2"/>
       <c r="K563" s="2"/>
     </row>
     <row r="564" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B564" s="27"/>
+      <c r="B564" s="23"/>
       <c r="J564" s="2"/>
       <c r="K564" s="2"/>
     </row>
     <row r="565" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B565" s="27"/>
+      <c r="B565" s="23"/>
       <c r="J565" s="2"/>
       <c r="K565" s="2"/>
     </row>
     <row r="566" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B566" s="27"/>
+      <c r="B566" s="23"/>
       <c r="J566" s="2"/>
       <c r="K566" s="2"/>
     </row>
     <row r="567" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B567" s="27"/>
+      <c r="B567" s="23"/>
       <c r="J567" s="2"/>
       <c r="K567" s="2"/>
     </row>
     <row r="568" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B568" s="27"/>
+      <c r="B568" s="23"/>
       <c r="J568" s="2"/>
       <c r="K568" s="2"/>
     </row>
     <row r="569" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B569" s="27"/>
+      <c r="B569" s="23"/>
       <c r="J569" s="2"/>
       <c r="K569" s="2"/>
     </row>
     <row r="570" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B570" s="27"/>
+      <c r="B570" s="23"/>
       <c r="J570" s="2"/>
       <c r="K570" s="2"/>
     </row>
     <row r="571" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B571" s="27"/>
+      <c r="B571" s="23"/>
       <c r="J571" s="2"/>
       <c r="K571" s="2"/>
     </row>
     <row r="572" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B572" s="27"/>
+      <c r="B572" s="23"/>
       <c r="J572" s="2"/>
       <c r="K572" s="2"/>
     </row>
     <row r="573" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B573" s="27"/>
+      <c r="B573" s="23"/>
       <c r="J573" s="2"/>
       <c r="K573" s="2"/>
     </row>
     <row r="574" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B574" s="27"/>
+      <c r="B574" s="23"/>
       <c r="J574" s="2"/>
       <c r="K574" s="2"/>
     </row>
     <row r="575" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B575" s="27"/>
+      <c r="B575" s="23"/>
       <c r="J575" s="2"/>
       <c r="K575" s="2"/>
     </row>
     <row r="576" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B576" s="27"/>
+      <c r="B576" s="23"/>
       <c r="J576" s="2"/>
       <c r="K576" s="2"/>
     </row>
     <row r="577" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B577" s="27"/>
+      <c r="B577" s="23"/>
       <c r="J577" s="2"/>
       <c r="K577" s="2"/>
     </row>
     <row r="578" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B578" s="27"/>
+      <c r="B578" s="23"/>
       <c r="J578" s="2"/>
       <c r="K578" s="2"/>
     </row>
     <row r="579" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B579" s="27"/>
+      <c r="B579" s="23"/>
       <c r="J579" s="2"/>
       <c r="K579" s="2"/>
     </row>
     <row r="580" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B580" s="27"/>
+      <c r="B580" s="23"/>
       <c r="J580" s="2"/>
       <c r="K580" s="2"/>
     </row>
     <row r="581" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B581" s="27"/>
+      <c r="B581" s="23"/>
       <c r="J581" s="2"/>
       <c r="K581" s="2"/>
     </row>
     <row r="582" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B582" s="27"/>
+      <c r="B582" s="23"/>
       <c r="J582" s="2"/>
       <c r="K582" s="2"/>
     </row>
     <row r="583" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B583" s="27"/>
+      <c r="B583" s="23"/>
       <c r="J583" s="2"/>
       <c r="K583" s="2"/>
     </row>
     <row r="584" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B584" s="27"/>
+      <c r="B584" s="23"/>
       <c r="J584" s="2"/>
       <c r="K584" s="2"/>
     </row>
     <row r="585" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B585" s="27"/>
+      <c r="B585" s="23"/>
       <c r="J585" s="2"/>
       <c r="K585" s="2"/>
     </row>
     <row r="586" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B586" s="27"/>
+      <c r="B586" s="23"/>
       <c r="J586" s="2"/>
       <c r="K586" s="2"/>
     </row>
     <row r="587" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B587" s="27"/>
+      <c r="B587" s="23"/>
       <c r="J587" s="2"/>
       <c r="K587" s="2"/>
     </row>
     <row r="588" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B588" s="27"/>
+      <c r="B588" s="23"/>
       <c r="J588" s="2"/>
       <c r="K588" s="2"/>
     </row>
     <row r="589" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B589" s="27"/>
+      <c r="B589" s="23"/>
       <c r="J589" s="2"/>
       <c r="K589" s="2"/>
     </row>
     <row r="590" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B590" s="27"/>
+      <c r="B590" s="23"/>
       <c r="J590" s="2"/>
       <c r="K590" s="2"/>
     </row>
     <row r="591" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B591" s="27"/>
+      <c r="B591" s="23"/>
       <c r="J591" s="2"/>
       <c r="K591" s="2"/>
     </row>
     <row r="592" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B592" s="27"/>
+      <c r="B592" s="23"/>
       <c r="J592" s="2"/>
       <c r="K592" s="2"/>
     </row>
     <row r="593" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B593" s="27"/>
+      <c r="B593" s="23"/>
       <c r="J593" s="2"/>
       <c r="K593" s="2"/>
     </row>
     <row r="594" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B594" s="27"/>
+      <c r="B594" s="23"/>
       <c r="J594" s="2"/>
       <c r="K594" s="2"/>
     </row>
     <row r="595" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B595" s="27"/>
+      <c r="B595" s="23"/>
       <c r="J595" s="2"/>
       <c r="K595" s="2"/>
     </row>
     <row r="596" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B596" s="27"/>
+      <c r="B596" s="23"/>
       <c r="J596" s="2"/>
       <c r="K596" s="2"/>
     </row>
     <row r="597" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B597" s="27"/>
+      <c r="B597" s="23"/>
       <c r="J597" s="2"/>
       <c r="K597" s="2"/>
     </row>
     <row r="598" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B598" s="27"/>
+      <c r="B598" s="23"/>
       <c r="J598" s="2"/>
       <c r="K598" s="2"/>
     </row>
     <row r="599" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B599" s="27"/>
+      <c r="B599" s="23"/>
       <c r="J599" s="2"/>
       <c r="K599" s="2"/>
     </row>
     <row r="600" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B600" s="27"/>
+      <c r="B600" s="23"/>
       <c r="J600" s="2"/>
       <c r="K600" s="2"/>
     </row>
     <row r="601" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B601" s="27"/>
+      <c r="B601" s="23"/>
       <c r="J601" s="2"/>
       <c r="K601" s="2"/>
     </row>
     <row r="602" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B602" s="27"/>
+      <c r="B602" s="23"/>
       <c r="J602" s="2"/>
       <c r="K602" s="2"/>
     </row>
     <row r="603" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B603" s="27"/>
+      <c r="B603" s="23"/>
       <c r="J603" s="2"/>
       <c r="K603" s="2"/>
     </row>
     <row r="604" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B604" s="27"/>
+      <c r="B604" s="23"/>
       <c r="J604" s="2"/>
       <c r="K604" s="2"/>
     </row>
     <row r="605" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B605" s="27"/>
+      <c r="B605" s="23"/>
       <c r="J605" s="2"/>
       <c r="K605" s="2"/>
     </row>
     <row r="606" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B606" s="27"/>
+      <c r="B606" s="23"/>
       <c r="J606" s="2"/>
       <c r="K606" s="2"/>
     </row>
     <row r="607" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B607" s="27"/>
+      <c r="B607" s="23"/>
       <c r="J607" s="2"/>
       <c r="K607" s="2"/>
     </row>
     <row r="608" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B608" s="27"/>
+      <c r="B608" s="23"/>
       <c r="J608" s="2"/>
       <c r="K608" s="2"/>
     </row>
@@ -5626,7 +6228,14 @@
       <c r="K732" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="13">
+    <mergeCell ref="D46:D52"/>
+    <mergeCell ref="D40:D44"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="D33:D38"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="D23:D26"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="D2:D6"/>
@@ -5647,7 +6256,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C659:C728" xr:uid="{E0298947-6D09-423C-8721-8EAB39CE165E}">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Parvathy P, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C658 J2:J484" xr:uid="{3D2B8E7F-289D-450A-9428-89381A0B654F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J484 C2:C658" xr:uid="{3D2B8E7F-289D-450A-9428-89381A0B654F}">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Test Case/Rijo/Test Case - Nursing Station.xlsx
+++ b/Test Case/Rijo/Test Case - Nursing Station.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Mediware\CentralRepository-Mediware\Test Case\Rijo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\Mediware\CentralRepository-Mediware\Test Case\Rijo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE3D445-343B-4D8F-8DD8-728598C4000F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AFA7D8-1106-4214-9B19-9B294C07F791}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,18 +20,11 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="187">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -347,7 +340,304 @@
 Loose:</t>
   </si>
   <si>
-    <t>Materials should be record in the Issued  To Patient section</t>
+    <t>MED_NURS_TC_011</t>
+  </si>
+  <si>
+    <t>Materials should be recorded in the Issued  To Patient section</t>
+  </si>
+  <si>
+    <t>Navigate to Nursing Station&gt;&gt;Nursing Notes&gt;&gt;Vital Signs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vital Sign entry form should be displayed </t>
+  </si>
+  <si>
+    <t>Verify that a nurse is able to add Vital Signs for the current time and date</t>
+  </si>
+  <si>
+    <t>Vital Sign should be saved successfully</t>
+  </si>
+  <si>
+    <t>Temp:
+Pulse:
+Resp:
+BP:
+Weight
+Height:
+BMI:
+SPO2:</t>
+  </si>
+  <si>
+    <t>MED_NURS_TC_012</t>
+  </si>
+  <si>
+    <t>Verify that a nurse is able to add Vital Signs for a specified time and date</t>
+  </si>
+  <si>
+    <t>Click the checkbox Change Date &amp; Time and enter the vital sign</t>
+  </si>
+  <si>
+    <t>Enter the vital sign</t>
+  </si>
+  <si>
+    <t>MED_NURS_TC_013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that a nurse is able to add nursing notes for the patient </t>
+  </si>
+  <si>
+    <t>Navigate to Nursing Station&gt;&gt;Nursing Notes&gt;&gt;Nursing Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nursing notes entry page should be displayed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entry date and time should be selected </t>
+  </si>
+  <si>
+    <t>Add nursing notes and plan of action. Save the notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nursing notes should be saved </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter the date and time form the date picker. Check the box if "Precaution Alert" is need </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that a nurse is not able to add nursing notes for the patient in future date </t>
+  </si>
+  <si>
+    <t>Add nursing notes and plan of action for a future date. Save the notes</t>
+  </si>
+  <si>
+    <t>Nursing notes should not be saved. It should display the message "Nursing notes entry is blocked for future date"</t>
+  </si>
+  <si>
+    <t>MED_NURS_TC_014</t>
+  </si>
+  <si>
+    <t>MED_NURS_TC_015</t>
+  </si>
+  <si>
+    <t>Verify whether a nurse can enter Infusion/Transfusion details</t>
+  </si>
+  <si>
+    <t>Navigate to Nursing Station&gt;&gt;Nursing Notes&gt;&gt;Infusion/Transfusion Entry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nursing notes entry page should be displayed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infusion/Transfusion entry page should be displayed </t>
+  </si>
+  <si>
+    <t>Select the start date for Infusion/Transfusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start date should be selected </t>
+  </si>
+  <si>
+    <t>Item:
+Qty(ml):
+Remarks:</t>
+  </si>
+  <si>
+    <t>Infusion/Transfusion details should be entered and saved  successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter Infusion/Transfusion details. Save </t>
+  </si>
+  <si>
+    <t>MED_NURS_TC_017</t>
+  </si>
+  <si>
+    <t>Verify whether a nurse is able add Intake Output details</t>
+  </si>
+  <si>
+    <t>Navigate to Nursing Station&gt;&gt;Nursing Notes&gt;&gt;Intake Output Entry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select the start date and time of intake </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start date and time should be selected </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter Intake Output details. Save </t>
+  </si>
+  <si>
+    <t>MED_NURS_TC_018</t>
+  </si>
+  <si>
+    <t>Verify whether a nurse is able view previous Intake Output details</t>
+  </si>
+  <si>
+    <t>Click on "View Previous" to view the previous intake output details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Previous details should be displayed </t>
+  </si>
+  <si>
+    <t>MED_NURS_TC_019</t>
+  </si>
+  <si>
+    <t>Verify whether a nurse can view Infusion/Transfusion details</t>
+  </si>
+  <si>
+    <t>Click on "View Previous" to view the previous Infusion/Transfusion details</t>
+  </si>
+  <si>
+    <t>MED_NURS_TC_016</t>
+  </si>
+  <si>
+    <t>Verify whether a nurse is able view previous Infusion/Transfusion entry from Intake Output details</t>
+  </si>
+  <si>
+    <t>Click on the Infusion/Transfusion Entry button</t>
+  </si>
+  <si>
+    <t>Infusion/Transfusion details should be displayed</t>
+  </si>
+  <si>
+    <t>MED_NURS_TC_020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify whether a nurse is create a special care request </t>
+  </si>
+  <si>
+    <t>Navigate to Nursing Station&gt;&gt;Nursing Notes&gt;&gt;Physician Order Sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intake Output Entry page should be displayed </t>
+  </si>
+  <si>
+    <t>Intake Output Entry should be entered and saved  successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Physician Order Sheet should be displayed </t>
+  </si>
+  <si>
+    <t>Create the request with the following details
+Doctor
+Request Date
+Instruction
+Doctor's Remark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Special Care Request  should be created </t>
+  </si>
+  <si>
+    <t>MED_NURS_TC_021</t>
+  </si>
+  <si>
+    <t>Navigate to Nursing Station&gt;&gt;Nursig Admission Pedia&gt;&gt;System Review</t>
+  </si>
+  <si>
+    <t>Select the radio buttons and abnormal finding for each of the following 
+General
+Skin
+Eyes
+ENT
+Breast
+CVS/ Pulmonary
+GI
+GU
+Musculoskeletal
+Neuro/ Psych
+Endocrine
+Hem/Lymph
+Add details if any</t>
+  </si>
+  <si>
+    <t>Findings should be recorded</t>
+  </si>
+  <si>
+    <t>General
+Skin
+Eyes
+ENT
+Breast
+CVS/ Pulmonary
+GI
+GU
+Musculoskeletal
+Neuro/ Psych
+Endocrine</t>
+  </si>
+  <si>
+    <t>MED_NURS_TC_022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify whether a nurse is able to record more than one System Review for the patient </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify whether a nurse is able to record System Review for the patient </t>
+  </si>
+  <si>
+    <t>Click on New and verify that the nurse can record a new findings</t>
+  </si>
+  <si>
+    <t>New finding should be recorded successfully</t>
+  </si>
+  <si>
+    <t>MED_NURS_TC_023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify whether a nurse is able to record and print System Review for the patient </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Print </t>
+  </si>
+  <si>
+    <t>User should be able to print</t>
+  </si>
+  <si>
+    <t>MED_NURS_TC_024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify whether a nurse is able to add Admission Data </t>
+  </si>
+  <si>
+    <t>Navigate to Nursing Station&gt;&gt;Nursig Admission Pedia&gt;&gt;Admission Data- Pediatric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System Review entry should be displayed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admission Data- Pediatric form should be displayed </t>
+  </si>
+  <si>
+    <t>Add details to the following section
+Admission Data
+Orientation To The Unit
+Patient Rights &amp; Responsibilities
+Valuables &amp; Equipment
+Medication History
+Sleep /Rest
+Psycho Social/ Economic Assessment 
+Growth &amp; Development
+Save the data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admission Data- Pediatric should be saved </t>
+  </si>
+  <si>
+    <t>MED_NURS_TC_025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify whether a nurse is able to add more than one Admission Data </t>
+  </si>
+  <si>
+    <t>Click on New and add another Admission Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Admission Data- Pediatric should be saved </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify whether a nurse is able to add and pritn Admission Data </t>
+  </si>
+  <si>
+    <t>MED_NURS_TC_026</t>
   </si>
 </sst>
 </file>
@@ -482,7 +772,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -571,6 +861,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -580,13 +873,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -720,7 +1013,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1767,7 +2060,7 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" style="10" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" style="10" customWidth="1"/>
@@ -1897,7 +2190,7 @@
       </c>
       <c r="B5" s="22">
         <f>'Nursing Station'!O2</f>
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C5" s="22">
         <f>'Nursing Station'!O3</f>
@@ -1955,7 +2248,7 @@
       </c>
       <c r="B7" s="7">
         <f t="shared" ref="B7:G7" si="0">SUM(B2:B6)</f>
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C7" s="7">
         <f t="shared" si="0"/>
@@ -2016,16 +2309,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R732"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G55" sqref="G55"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D137" sqref="D137:D140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" style="24" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" style="27" customWidth="1"/>
-    <col min="3" max="3" width="11" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.140625" style="24" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="10" customWidth="1"/>
     <col min="6" max="6" width="48.140625" style="24" customWidth="1"/>
@@ -2074,14 +2367,14 @@
       <c r="L1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="N1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="30"/>
-      <c r="Q1" s="31" t="s">
+      <c r="O1" s="31"/>
+      <c r="Q1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="31"/>
+      <c r="R1" s="32"/>
     </row>
     <row r="2" spans="1:18" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
@@ -2093,7 +2386,7 @@
       <c r="C2" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="33" t="s">
         <v>57</v>
       </c>
       <c r="E2" s="10">
@@ -2115,7 +2408,7 @@
       </c>
       <c r="O2" s="21">
         <f>COUNTA(A:A)-1</f>
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="Q2" s="11" t="s">
         <v>12</v>
@@ -2129,7 +2422,7 @@
       <c r="A3" s="35"/>
       <c r="B3" s="23"/>
       <c r="C3" s="17"/>
-      <c r="D3" s="33"/>
+      <c r="D3" s="30"/>
       <c r="E3" s="10">
         <v>2</v>
       </c>
@@ -2163,7 +2456,7 @@
       <c r="A4" s="35"/>
       <c r="B4" s="23"/>
       <c r="C4" s="17"/>
-      <c r="D4" s="33"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="10">
         <v>3</v>
       </c>
@@ -2193,7 +2486,7 @@
     <row r="5" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="35"/>
       <c r="B5" s="23"/>
-      <c r="D5" s="33"/>
+      <c r="D5" s="30"/>
       <c r="E5" s="10">
         <v>4</v>
       </c>
@@ -2219,7 +2512,7 @@
     <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="35"/>
       <c r="B6" s="23"/>
-      <c r="D6" s="33"/>
+      <c r="D6" s="30"/>
       <c r="E6" s="10">
         <v>5</v>
       </c>
@@ -2238,7 +2531,7 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="30" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="23" t="s">
@@ -2247,7 +2540,7 @@
       <c r="C8" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="30" t="s">
         <v>58</v>
       </c>
       <c r="E8" s="10">
@@ -2263,9 +2556,9 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="23"/>
-      <c r="D9" s="33"/>
+      <c r="D9" s="30"/>
       <c r="E9" s="10">
         <v>2</v>
       </c>
@@ -2279,9 +2572,9 @@
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="23"/>
-      <c r="D10" s="33"/>
+      <c r="D10" s="30"/>
       <c r="E10" s="10">
         <v>3</v>
       </c>
@@ -2298,9 +2591,9 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="23"/>
-      <c r="D11" s="33"/>
+      <c r="D11" s="30"/>
       <c r="E11" s="10">
         <v>4</v>
       </c>
@@ -2331,7 +2624,7 @@
       <c r="C13" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="30" t="s">
         <v>56</v>
       </c>
       <c r="E13" s="10">
@@ -2348,7 +2641,7 @@
     </row>
     <row r="14" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="23"/>
-      <c r="D14" s="33"/>
+      <c r="D14" s="30"/>
       <c r="E14" s="10">
         <v>2</v>
       </c>
@@ -2363,7 +2656,7 @@
     </row>
     <row r="15" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="23"/>
-      <c r="D15" s="33"/>
+      <c r="D15" s="30"/>
       <c r="E15" s="10">
         <v>3</v>
       </c>
@@ -2378,7 +2671,7 @@
     </row>
     <row r="16" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="23"/>
-      <c r="D16" s="33"/>
+      <c r="D16" s="30"/>
       <c r="E16" s="10">
         <v>3</v>
       </c>
@@ -2406,7 +2699,7 @@
       <c r="C18" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="D18" s="30" t="s">
         <v>59</v>
       </c>
       <c r="E18" s="10">
@@ -2423,7 +2716,7 @@
     </row>
     <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="23"/>
-      <c r="D19" s="33"/>
+      <c r="D19" s="30"/>
       <c r="E19" s="10">
         <v>2</v>
       </c>
@@ -2438,7 +2731,7 @@
     </row>
     <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="23"/>
-      <c r="D20" s="33"/>
+      <c r="D20" s="30"/>
       <c r="E20" s="10">
         <v>3</v>
       </c>
@@ -2453,7 +2746,7 @@
     </row>
     <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="23"/>
-      <c r="D21" s="33"/>
+      <c r="D21" s="30"/>
       <c r="E21" s="10">
         <v>4</v>
       </c>
@@ -2481,7 +2774,7 @@
       <c r="C23" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="33" t="s">
+      <c r="D23" s="30" t="s">
         <v>64</v>
       </c>
       <c r="E23" s="10">
@@ -2498,7 +2791,7 @@
     </row>
     <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="23"/>
-      <c r="D24" s="33"/>
+      <c r="D24" s="30"/>
       <c r="E24" s="10">
         <v>2</v>
       </c>
@@ -2513,7 +2806,7 @@
     </row>
     <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" s="23"/>
-      <c r="D25" s="33"/>
+      <c r="D25" s="30"/>
       <c r="E25" s="10">
         <v>3</v>
       </c>
@@ -2528,7 +2821,7 @@
     </row>
     <row r="26" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B26" s="23"/>
-      <c r="D26" s="33"/>
+      <c r="D26" s="30"/>
       <c r="E26" s="10">
         <v>4</v>
       </c>
@@ -2559,7 +2852,7 @@
       <c r="C28" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="33" t="s">
+      <c r="D28" s="30" t="s">
         <v>71</v>
       </c>
       <c r="E28" s="10">
@@ -2576,7 +2869,7 @@
     </row>
     <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="23"/>
-      <c r="D29" s="33"/>
+      <c r="D29" s="30"/>
       <c r="E29" s="10">
         <v>2</v>
       </c>
@@ -2591,7 +2884,7 @@
     </row>
     <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="23"/>
-      <c r="D30" s="33"/>
+      <c r="D30" s="30"/>
       <c r="E30" s="10">
         <v>3</v>
       </c>
@@ -2606,7 +2899,7 @@
     </row>
     <row r="31" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B31" s="23"/>
-      <c r="D31" s="33"/>
+      <c r="D31" s="30"/>
       <c r="E31" s="10">
         <v>4</v>
       </c>
@@ -2637,7 +2930,7 @@
       <c r="C33" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="33" t="s">
+      <c r="D33" s="30" t="s">
         <v>76</v>
       </c>
       <c r="E33" s="10">
@@ -2654,7 +2947,7 @@
     </row>
     <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B34" s="23"/>
-      <c r="D34" s="33"/>
+      <c r="D34" s="30"/>
       <c r="E34" s="10">
         <v>2</v>
       </c>
@@ -2669,7 +2962,7 @@
     </row>
     <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B35" s="23"/>
-      <c r="D35" s="33"/>
+      <c r="D35" s="30"/>
       <c r="E35" s="10">
         <v>3</v>
       </c>
@@ -2684,7 +2977,7 @@
     </row>
     <row r="36" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B36" s="23"/>
-      <c r="D36" s="33"/>
+      <c r="D36" s="30"/>
       <c r="E36" s="10">
         <v>4</v>
       </c>
@@ -2702,7 +2995,7 @@
     </row>
     <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B37" s="23"/>
-      <c r="D37" s="33"/>
+      <c r="D37" s="30"/>
       <c r="E37" s="10">
         <v>5</v>
       </c>
@@ -2717,7 +3010,7 @@
     </row>
     <row r="38" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B38" s="23"/>
-      <c r="D38" s="33"/>
+      <c r="D38" s="30"/>
       <c r="E38" s="10">
         <v>6</v>
       </c>
@@ -2745,7 +3038,7 @@
       <c r="C40" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D40" s="33" t="s">
+      <c r="D40" s="30" t="s">
         <v>83</v>
       </c>
       <c r="E40" s="10">
@@ -2762,7 +3055,7 @@
     </row>
     <row r="41" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B41" s="23"/>
-      <c r="D41" s="33"/>
+      <c r="D41" s="30"/>
       <c r="E41" s="10">
         <v>2</v>
       </c>
@@ -2777,7 +3070,7 @@
     </row>
     <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B42" s="23"/>
-      <c r="D42" s="33"/>
+      <c r="D42" s="30"/>
       <c r="E42" s="10">
         <v>3</v>
       </c>
@@ -2792,7 +3085,7 @@
     </row>
     <row r="43" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B43" s="23"/>
-      <c r="D43" s="33"/>
+      <c r="D43" s="30"/>
       <c r="E43" s="10">
         <v>4</v>
       </c>
@@ -2807,7 +3100,7 @@
     </row>
     <row r="44" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B44" s="23"/>
-      <c r="D44" s="33"/>
+      <c r="D44" s="30"/>
       <c r="E44" s="10">
         <v>5</v>
       </c>
@@ -2838,7 +3131,7 @@
       <c r="C46" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D46" s="33" t="s">
+      <c r="D46" s="30" t="s">
         <v>91</v>
       </c>
       <c r="E46" s="10">
@@ -2855,7 +3148,7 @@
     </row>
     <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B47" s="23"/>
-      <c r="D47" s="33"/>
+      <c r="D47" s="30"/>
       <c r="E47" s="10">
         <v>2</v>
       </c>
@@ -2870,7 +3163,7 @@
     </row>
     <row r="48" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="23"/>
-      <c r="D48" s="33"/>
+      <c r="D48" s="30"/>
       <c r="E48" s="10">
         <v>3</v>
       </c>
@@ -2885,7 +3178,7 @@
     </row>
     <row r="49" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B49" s="23"/>
-      <c r="D49" s="33"/>
+      <c r="D49" s="30"/>
       <c r="E49" s="10">
         <v>4</v>
       </c>
@@ -2900,7 +3193,7 @@
     </row>
     <row r="50" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B50" s="23"/>
-      <c r="D50" s="33"/>
+      <c r="D50" s="30"/>
       <c r="E50" s="10">
         <v>5</v>
       </c>
@@ -2918,7 +3211,7 @@
     </row>
     <row r="51" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B51" s="23"/>
-      <c r="D51" s="33"/>
+      <c r="D51" s="30"/>
       <c r="E51" s="10">
         <v>6</v>
       </c>
@@ -2933,7 +3226,7 @@
     </row>
     <row r="52" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B52" s="23"/>
-      <c r="D52" s="33"/>
+      <c r="D52" s="30"/>
       <c r="E52" s="10">
         <v>7</v>
       </c>
@@ -2951,7 +3244,7 @@
       <c r="J53" s="17"/>
       <c r="K53" s="2"/>
     </row>
-    <row r="54" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="24" t="s">
         <v>96</v>
       </c>
@@ -2961,7 +3254,7 @@
       <c r="C54" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D54" s="24" t="s">
+      <c r="D54" s="30" t="s">
         <v>97</v>
       </c>
       <c r="E54" s="10">
@@ -2978,6 +3271,7 @@
     </row>
     <row r="55" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B55" s="23"/>
+      <c r="D55" s="30"/>
       <c r="E55" s="10">
         <v>2</v>
       </c>
@@ -2992,6 +3286,7 @@
     </row>
     <row r="56" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B56" s="23"/>
+      <c r="D56" s="30"/>
       <c r="E56" s="10">
         <v>3</v>
       </c>
@@ -3009,6 +3304,7 @@
     </row>
     <row r="57" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B57" s="23"/>
+      <c r="D57" s="30"/>
       <c r="E57" s="10">
         <v>4</v>
       </c>
@@ -3016,7 +3312,7 @@
         <v>100</v>
       </c>
       <c r="G57" s="24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J57" s="17"/>
       <c r="K57" s="2"/>
@@ -3026,18 +3322,61 @@
       <c r="J58" s="17"/>
       <c r="K58" s="2"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B59" s="23"/>
+    <row r="59" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B59" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D59" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="E59" s="10">
+        <v>1</v>
+      </c>
+      <c r="F59" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H59" s="24" t="s">
+        <v>35</v>
+      </c>
       <c r="J59" s="17"/>
       <c r="K59" s="2"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B60" s="23"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="10">
+        <v>2</v>
+      </c>
+      <c r="F60" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="G60" s="24" t="s">
+        <v>105</v>
+      </c>
       <c r="J60" s="17"/>
       <c r="K60" s="2"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="B61" s="23"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="10">
+        <v>3</v>
+      </c>
+      <c r="F61" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="G61" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="H61" s="24" t="s">
+        <v>108</v>
+      </c>
       <c r="J61" s="17"/>
       <c r="K61" s="2"/>
     </row>
@@ -3046,412 +3385,1229 @@
       <c r="J62" s="17"/>
       <c r="K62" s="2"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B63" s="23"/>
+    <row r="63" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B63" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D63" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="E63" s="10">
+        <v>1</v>
+      </c>
+      <c r="F63" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H63" s="24" t="s">
+        <v>35</v>
+      </c>
       <c r="J63" s="17"/>
       <c r="K63" s="2"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B64" s="23"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="10">
+        <v>2</v>
+      </c>
+      <c r="F64" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="G64" s="24" t="s">
+        <v>105</v>
+      </c>
       <c r="J64" s="17"/>
       <c r="K64" s="2"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="B65" s="23"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="10">
+        <v>3</v>
+      </c>
+      <c r="F65" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="G65" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="H65" s="24" t="s">
+        <v>108</v>
+      </c>
       <c r="J65" s="17"/>
       <c r="K65" s="2"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B66" s="23"/>
       <c r="J66" s="17"/>
       <c r="K66" s="2"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B67" s="23"/>
+    <row r="67" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B67" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D67" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="E67" s="10">
+        <v>1</v>
+      </c>
+      <c r="F67" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H67" s="24" t="s">
+        <v>35</v>
+      </c>
       <c r="J67" s="17"/>
       <c r="K67" s="2"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B68" s="23"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="10">
+        <v>2</v>
+      </c>
+      <c r="F68" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="G68" s="24" t="s">
+        <v>116</v>
+      </c>
       <c r="J68" s="17"/>
       <c r="K68" s="2"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B69" s="23"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="10">
+        <v>3</v>
+      </c>
+      <c r="F69" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="G69" s="24" t="s">
+        <v>117</v>
+      </c>
       <c r="J69" s="17"/>
       <c r="K69" s="2"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B70" s="23"/>
+      <c r="D70" s="30"/>
+      <c r="E70" s="10">
+        <v>4</v>
+      </c>
+      <c r="F70" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="G70" s="24" t="s">
+        <v>119</v>
+      </c>
       <c r="J70" s="17"/>
       <c r="K70" s="2"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B71" s="23"/>
       <c r="J71" s="17"/>
       <c r="K71" s="2"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B72" s="23"/>
+    <row r="72" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="B72" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D72" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="E72" s="10">
+        <v>1</v>
+      </c>
+      <c r="F72" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H72" s="24" t="s">
+        <v>35</v>
+      </c>
       <c r="J72" s="17"/>
       <c r="K72" s="2"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B73" s="23"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="10">
+        <v>2</v>
+      </c>
+      <c r="F73" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="G73" s="24" t="s">
+        <v>128</v>
+      </c>
       <c r="J73" s="17"/>
       <c r="K73" s="2"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B74" s="23"/>
+      <c r="D74" s="30"/>
+      <c r="E74" s="10">
+        <v>3</v>
+      </c>
+      <c r="F74" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="G74" s="24" t="s">
+        <v>117</v>
+      </c>
       <c r="J74" s="17"/>
       <c r="K74" s="2"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B75" s="23"/>
+      <c r="D75" s="30"/>
+      <c r="E75" s="10">
+        <v>4</v>
+      </c>
+      <c r="F75" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="G75" s="24" t="s">
+        <v>123</v>
+      </c>
       <c r="J75" s="17"/>
       <c r="K75" s="2"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B76" s="23"/>
       <c r="J76" s="17"/>
       <c r="K76" s="2"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B77" s="23"/>
+    <row r="77" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="B77" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D77" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="E77" s="10">
+        <v>1</v>
+      </c>
+      <c r="F77" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H77" s="24" t="s">
+        <v>35</v>
+      </c>
       <c r="J77" s="17"/>
       <c r="K77" s="2"/>
     </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B78" s="23"/>
+      <c r="D78" s="30"/>
+      <c r="E78" s="10">
+        <v>2</v>
+      </c>
+      <c r="F78" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="G78" s="24" t="s">
+        <v>129</v>
+      </c>
       <c r="J78" s="17"/>
       <c r="K78" s="2"/>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B79" s="23"/>
+      <c r="D79" s="30"/>
+      <c r="E79" s="10">
+        <v>3</v>
+      </c>
+      <c r="F79" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="G79" s="24" t="s">
+        <v>131</v>
+      </c>
       <c r="J79" s="17"/>
       <c r="K79" s="2"/>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B80" s="23"/>
+      <c r="D80" s="30"/>
+      <c r="E80" s="10">
+        <v>4</v>
+      </c>
+      <c r="F80" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="G80" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="H80" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="J80" s="17"/>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B81" s="23"/>
       <c r="J81" s="17"/>
       <c r="K81" s="2"/>
     </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B82" s="23"/>
+    <row r="82" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="B82" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C82" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D82" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="E82" s="10">
+        <v>1</v>
+      </c>
+      <c r="F82" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H82" s="24" t="s">
+        <v>35</v>
+      </c>
       <c r="J82" s="17"/>
       <c r="K82" s="2"/>
     </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B83" s="23"/>
+      <c r="D83" s="36"/>
+      <c r="E83" s="10">
+        <v>2</v>
+      </c>
+      <c r="F83" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="G83" s="24" t="s">
+        <v>129</v>
+      </c>
       <c r="J83" s="17"/>
       <c r="K83" s="2"/>
     </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B84" s="23"/>
+      <c r="D84" s="36"/>
+      <c r="E84" s="10">
+        <v>3</v>
+      </c>
+      <c r="F84" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="G84" s="24" t="s">
+        <v>131</v>
+      </c>
       <c r="J84" s="17"/>
       <c r="K84" s="2"/>
     </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B85" s="23"/>
+      <c r="D85" s="36"/>
+      <c r="E85" s="10">
+        <v>4</v>
+      </c>
+      <c r="F85" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="G85" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="H85" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="J85" s="17"/>
       <c r="K85" s="2"/>
     </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B86" s="23"/>
       <c r="J86" s="17"/>
       <c r="K86" s="2"/>
     </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B87" s="23"/>
+    <row r="87" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="B87" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C87" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D87" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="E87" s="10">
+        <v>1</v>
+      </c>
+      <c r="F87" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H87" s="24" t="s">
+        <v>35</v>
+      </c>
       <c r="J87" s="17"/>
       <c r="K87" s="2"/>
     </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B88" s="23"/>
+      <c r="D88" s="30"/>
+      <c r="E88" s="10">
+        <v>2</v>
+      </c>
+      <c r="F88" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G88" s="24" t="s">
+        <v>155</v>
+      </c>
       <c r="J88" s="17"/>
       <c r="K88" s="2"/>
     </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B89" s="23"/>
+      <c r="D89" s="30"/>
+      <c r="E89" s="10">
+        <v>3</v>
+      </c>
+      <c r="F89" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="G89" s="24" t="s">
+        <v>139</v>
+      </c>
       <c r="J89" s="17"/>
       <c r="K89" s="2"/>
     </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B90" s="23"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="10">
+        <v>4</v>
+      </c>
+      <c r="F90" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="G90" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="H90" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="J90" s="17"/>
       <c r="K90" s="2"/>
     </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B91" s="23"/>
       <c r="J91" s="17"/>
       <c r="K91" s="2"/>
     </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B92" s="23"/>
+    <row r="92" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="B92" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C92" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D92" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="E92" s="10">
+        <v>1</v>
+      </c>
+      <c r="F92" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H92" s="24" t="s">
+        <v>35</v>
+      </c>
       <c r="J92" s="17"/>
       <c r="K92" s="2"/>
     </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B93" s="23"/>
+      <c r="D93" s="30"/>
+      <c r="E93" s="10">
+        <v>2</v>
+      </c>
+      <c r="F93" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G93" s="24" t="s">
+        <v>155</v>
+      </c>
       <c r="J93" s="17"/>
       <c r="K93" s="2"/>
     </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B94" s="23"/>
+      <c r="D94" s="30"/>
+      <c r="E94" s="10">
+        <v>3</v>
+      </c>
+      <c r="F94" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="G94" s="24" t="s">
+        <v>139</v>
+      </c>
       <c r="J94" s="17"/>
       <c r="K94" s="2"/>
     </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B95" s="23"/>
+      <c r="D95" s="30"/>
+      <c r="E95" s="10">
+        <v>4</v>
+      </c>
+      <c r="F95" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="G95" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="H95" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="J95" s="17"/>
       <c r="K95" s="2"/>
     </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B96" s="23"/>
+      <c r="D96" s="30"/>
+      <c r="E96" s="10">
+        <v>5</v>
+      </c>
+      <c r="F96" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="G96" s="24" t="s">
+        <v>144</v>
+      </c>
       <c r="J96" s="17"/>
       <c r="K96" s="2"/>
     </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B97" s="23"/>
       <c r="J97" s="17"/>
       <c r="K97" s="2"/>
     </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B98" s="23"/>
+    <row r="98" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="B98" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C98" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D98" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="E98" s="10">
+        <v>1</v>
+      </c>
+      <c r="F98" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H98" s="24" t="s">
+        <v>35</v>
+      </c>
       <c r="J98" s="17"/>
       <c r="K98" s="2"/>
     </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B99" s="23"/>
+      <c r="D99" s="30"/>
+      <c r="E99" s="10">
+        <v>2</v>
+      </c>
+      <c r="F99" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G99" s="24" t="s">
+        <v>155</v>
+      </c>
       <c r="J99" s="17"/>
       <c r="K99" s="2"/>
     </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B100" s="23"/>
+      <c r="D100" s="30"/>
+      <c r="E100" s="10">
+        <v>3</v>
+      </c>
+      <c r="F100" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="G100" s="24" t="s">
+        <v>139</v>
+      </c>
       <c r="J100" s="17"/>
       <c r="K100" s="2"/>
     </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B101" s="23"/>
+      <c r="D101" s="30"/>
+      <c r="E101" s="10">
+        <v>4</v>
+      </c>
+      <c r="F101" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="G101" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="H101" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="J101" s="17"/>
       <c r="K101" s="2"/>
     </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B102" s="23"/>
+      <c r="D102" s="30"/>
+      <c r="E102" s="10">
+        <v>5</v>
+      </c>
+      <c r="F102" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="G102" s="24" t="s">
+        <v>144</v>
+      </c>
       <c r="J102" s="17"/>
       <c r="K102" s="2"/>
     </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B103" s="23"/>
       <c r="J103" s="17"/>
       <c r="K103" s="2"/>
     </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B104" s="23"/>
+    <row r="104" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="B104" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C104" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D104" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="E104" s="10">
+        <v>1</v>
+      </c>
+      <c r="F104" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H104" s="24" t="s">
+        <v>35</v>
+      </c>
       <c r="J104" s="17"/>
       <c r="K104" s="2"/>
     </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B105" s="23"/>
+      <c r="D105" s="30"/>
+      <c r="E105" s="10">
+        <v>2</v>
+      </c>
+      <c r="F105" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G105" s="24" t="s">
+        <v>155</v>
+      </c>
       <c r="J105" s="17"/>
       <c r="K105" s="2"/>
     </row>
-    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B106" s="23"/>
+      <c r="D106" s="30"/>
+      <c r="E106" s="10">
+        <v>3</v>
+      </c>
+      <c r="F106" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="G106" s="24" t="s">
+        <v>139</v>
+      </c>
       <c r="J106" s="17"/>
       <c r="K106" s="2"/>
     </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B107" s="23"/>
+      <c r="D107" s="30"/>
+      <c r="E107" s="10">
+        <v>4</v>
+      </c>
+      <c r="F107" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="G107" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="H107" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="J107" s="17"/>
       <c r="K107" s="2"/>
     </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="23"/>
+      <c r="D108" s="30"/>
+      <c r="E108" s="10">
+        <v>5</v>
+      </c>
+      <c r="F108" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="G108" s="24" t="s">
+        <v>151</v>
+      </c>
       <c r="J108" s="17"/>
       <c r="K108" s="2"/>
     </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B109" s="23"/>
       <c r="J109" s="17"/>
       <c r="K109" s="2"/>
     </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B110" s="23"/>
+    <row r="110" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="B110" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C110" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D110" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="E110" s="10">
+        <v>1</v>
+      </c>
+      <c r="F110" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H110" s="24" t="s">
+        <v>35</v>
+      </c>
       <c r="J110" s="17"/>
       <c r="K110" s="2"/>
     </row>
-    <row r="111" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="23"/>
+      <c r="D111" s="30"/>
+      <c r="E111" s="10">
+        <v>2</v>
+      </c>
+      <c r="F111" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="G111" s="24" t="s">
+        <v>157</v>
+      </c>
       <c r="J111" s="17"/>
       <c r="K111" s="2"/>
     </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B112" s="23"/>
+      <c r="D112" s="30"/>
+      <c r="E112" s="10">
+        <v>3</v>
+      </c>
+      <c r="F112" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="G112" s="24" t="s">
+        <v>159</v>
+      </c>
       <c r="J112" s="17"/>
       <c r="K112" s="2"/>
     </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B113" s="23"/>
       <c r="J113" s="17"/>
       <c r="K113" s="2"/>
     </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B114" s="23"/>
+    <row r="114" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="B114" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C114" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D114" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="E114" s="10">
+        <v>1</v>
+      </c>
+      <c r="F114" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H114" s="24" t="s">
+        <v>35</v>
+      </c>
       <c r="J114" s="17"/>
       <c r="K114" s="2"/>
     </row>
-    <row r="115" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B115" s="23"/>
+      <c r="D115" s="30"/>
+      <c r="E115" s="10">
+        <v>2</v>
+      </c>
+      <c r="F115" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="G115" s="24" t="s">
+        <v>177</v>
+      </c>
       <c r="J115" s="17"/>
       <c r="K115" s="2"/>
     </row>
-    <row r="116" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" ht="225" x14ac:dyDescent="0.25">
       <c r="B116" s="23"/>
+      <c r="D116" s="30"/>
+      <c r="E116" s="10">
+        <v>3</v>
+      </c>
+      <c r="F116" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="G116" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="H116" s="24" t="s">
+        <v>164</v>
+      </c>
       <c r="J116" s="17"/>
       <c r="K116" s="2"/>
     </row>
-    <row r="117" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B117" s="23"/>
       <c r="J117" s="17"/>
       <c r="K117" s="2"/>
     </row>
-    <row r="118" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B118" s="23"/>
+    <row r="118" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="B118" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C118" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D118" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="E118" s="10">
+        <v>1</v>
+      </c>
+      <c r="F118" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H118" s="24" t="s">
+        <v>35</v>
+      </c>
       <c r="J118" s="17"/>
       <c r="K118" s="2"/>
     </row>
-    <row r="119" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B119" s="23"/>
+      <c r="D119" s="30"/>
+      <c r="E119" s="10">
+        <v>2</v>
+      </c>
+      <c r="F119" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="G119" s="24" t="s">
+        <v>177</v>
+      </c>
       <c r="J119" s="17"/>
       <c r="K119" s="2"/>
     </row>
-    <row r="120" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" ht="225" x14ac:dyDescent="0.25">
       <c r="B120" s="23"/>
+      <c r="D120" s="30"/>
+      <c r="E120" s="10">
+        <v>3</v>
+      </c>
+      <c r="F120" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="G120" s="24" t="s">
+        <v>163</v>
+      </c>
       <c r="J120" s="17"/>
       <c r="K120" s="2"/>
     </row>
-    <row r="121" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B121" s="23"/>
+      <c r="D121" s="30"/>
+      <c r="E121" s="10">
+        <v>4</v>
+      </c>
+      <c r="F121" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="G121" s="24" t="s">
+        <v>169</v>
+      </c>
       <c r="J121" s="17"/>
       <c r="K121" s="2"/>
     </row>
-    <row r="122" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B122" s="23"/>
       <c r="J122" s="17"/>
       <c r="K122" s="2"/>
     </row>
-    <row r="123" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B123" s="23"/>
+    <row r="123" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="B123" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C123" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D123" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="E123" s="10">
+        <v>1</v>
+      </c>
+      <c r="F123" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H123" s="24" t="s">
+        <v>35</v>
+      </c>
       <c r="J123" s="17"/>
       <c r="K123" s="2"/>
     </row>
-    <row r="124" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B124" s="23"/>
+      <c r="D124" s="30"/>
+      <c r="E124" s="10">
+        <v>2</v>
+      </c>
+      <c r="F124" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="G124" s="24" t="s">
+        <v>177</v>
+      </c>
       <c r="J124" s="17"/>
       <c r="K124" s="2"/>
     </row>
-    <row r="125" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" ht="225" x14ac:dyDescent="0.25">
       <c r="B125" s="23"/>
+      <c r="D125" s="30"/>
+      <c r="E125" s="10">
+        <v>3</v>
+      </c>
+      <c r="F125" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="G125" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="H125" s="24" t="s">
+        <v>164</v>
+      </c>
       <c r="J125" s="17"/>
       <c r="K125" s="2"/>
     </row>
-    <row r="126" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B126" s="23"/>
+      <c r="D126" s="30"/>
+      <c r="E126" s="10">
+        <v>4</v>
+      </c>
+      <c r="F126" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="G126" s="24" t="s">
+        <v>173</v>
+      </c>
       <c r="J126" s="17"/>
       <c r="K126" s="2"/>
     </row>
-    <row r="127" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B127" s="23"/>
       <c r="J127" s="17"/>
       <c r="K127" s="2"/>
     </row>
-    <row r="128" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B128" s="23"/>
+    <row r="128" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A128" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="B128" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C128" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D128" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="E128" s="10">
+        <v>1</v>
+      </c>
+      <c r="F128" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H128" s="24" t="s">
+        <v>35</v>
+      </c>
       <c r="J128" s="17"/>
       <c r="K128" s="2"/>
     </row>
-    <row r="129" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B129" s="23"/>
+      <c r="D129" s="30"/>
+      <c r="E129" s="10">
+        <v>2</v>
+      </c>
+      <c r="F129" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="G129" s="24" t="s">
+        <v>178</v>
+      </c>
       <c r="J129" s="17"/>
       <c r="K129" s="2"/>
     </row>
-    <row r="130" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="B130" s="23"/>
+      <c r="D130" s="30"/>
+      <c r="E130" s="10">
+        <v>3</v>
+      </c>
+      <c r="F130" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="G130" s="24" t="s">
+        <v>180</v>
+      </c>
       <c r="J130" s="17"/>
       <c r="K130" s="2"/>
     </row>
-    <row r="131" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B131" s="23"/>
       <c r="J131" s="17"/>
       <c r="K131" s="2"/>
     </row>
-    <row r="132" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B132" s="23"/>
+    <row r="132" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="B132" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C132" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D132" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="E132" s="10">
+        <v>1</v>
+      </c>
+      <c r="F132" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H132" s="24" t="s">
+        <v>35</v>
+      </c>
       <c r="J132" s="17"/>
       <c r="K132" s="2"/>
     </row>
-    <row r="133" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B133" s="23"/>
+      <c r="D133" s="30"/>
+      <c r="E133" s="10">
+        <v>2</v>
+      </c>
+      <c r="F133" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="G133" s="24" t="s">
+        <v>178</v>
+      </c>
       <c r="J133" s="17"/>
       <c r="K133" s="2"/>
     </row>
-    <row r="134" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="B134" s="23"/>
+      <c r="D134" s="30"/>
+      <c r="E134" s="10">
+        <v>3</v>
+      </c>
+      <c r="F134" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="G134" s="24" t="s">
+        <v>180</v>
+      </c>
       <c r="J134" s="17"/>
       <c r="K134" s="2"/>
     </row>
-    <row r="135" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B135" s="23"/>
+      <c r="D135" s="30"/>
+      <c r="E135" s="10">
+        <v>4</v>
+      </c>
+      <c r="F135" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="G135" s="24" t="s">
+        <v>184</v>
+      </c>
       <c r="J135" s="17"/>
       <c r="K135" s="2"/>
     </row>
-    <row r="136" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B136" s="23"/>
       <c r="J136" s="17"/>
       <c r="K136" s="2"/>
     </row>
-    <row r="137" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B137" s="23"/>
+    <row r="137" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="B137" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C137" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D137" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="E137" s="10">
+        <v>1</v>
+      </c>
+      <c r="F137" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H137" s="24" t="s">
+        <v>35</v>
+      </c>
       <c r="J137" s="17"/>
       <c r="K137" s="2"/>
     </row>
-    <row r="138" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B138" s="23"/>
+      <c r="D138" s="30"/>
+      <c r="E138" s="10">
+        <v>2</v>
+      </c>
+      <c r="F138" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="G138" s="24" t="s">
+        <v>178</v>
+      </c>
       <c r="J138" s="17"/>
       <c r="K138" s="2"/>
     </row>
-    <row r="139" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="B139" s="23"/>
+      <c r="D139" s="30"/>
+      <c r="E139" s="10">
+        <v>3</v>
+      </c>
+      <c r="F139" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="G139" s="24" t="s">
+        <v>180</v>
+      </c>
       <c r="J139" s="17"/>
       <c r="K139" s="2"/>
     </row>
-    <row r="140" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B140" s="23"/>
+      <c r="D140" s="30"/>
+      <c r="E140" s="10">
+        <v>4</v>
+      </c>
+      <c r="F140" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="G140" s="24" t="s">
+        <v>173</v>
+      </c>
       <c r="J140" s="17"/>
       <c r="K140" s="2"/>
     </row>
-    <row r="141" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B141" s="23"/>
       <c r="J141" s="17"/>
       <c r="K141" s="2"/>
     </row>
-    <row r="142" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B142" s="23"/>
       <c r="J142" s="17"/>
       <c r="K142" s="2"/>
     </row>
-    <row r="143" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B143" s="23"/>
       <c r="J143" s="17"/>
       <c r="K143" s="2"/>
     </row>
-    <row r="144" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B144" s="23"/>
       <c r="J144" s="17"/>
       <c r="K144" s="2"/>
@@ -6228,7 +7384,19 @@
       <c r="K732" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="31">
+    <mergeCell ref="D128:D130"/>
+    <mergeCell ref="D123:D126"/>
+    <mergeCell ref="D132:D135"/>
+    <mergeCell ref="D137:D140"/>
+    <mergeCell ref="D104:D108"/>
+    <mergeCell ref="D110:D112"/>
+    <mergeCell ref="D114:D116"/>
+    <mergeCell ref="D118:D121"/>
+    <mergeCell ref="D82:D85"/>
+    <mergeCell ref="D87:D90"/>
+    <mergeCell ref="D92:D96"/>
+    <mergeCell ref="D98:D102"/>
     <mergeCell ref="D46:D52"/>
     <mergeCell ref="D40:D44"/>
     <mergeCell ref="D13:D16"/>
@@ -6242,6 +7410,12 @@
     <mergeCell ref="D8:D11"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A2:A6"/>
+    <mergeCell ref="D77:D80"/>
+    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="D67:D70"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="D72:D75"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J485:J687" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -6250,13 +7424,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K732" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Pass, Fail, Blocked"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B608" xr:uid="{9C290696-F92B-4C43-BEFE-658BF68D334E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B608" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"CAS/ Appointment, Out Patient, Care Desk, EMR, Lab &amp; General Billing, Pharmacy Billing, Lab Results, Radiology, Insurance Desk, Casualty, MRD, In Patient, Nursing Station, Theatre, Indent, Store Management"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C659:C728" xr:uid="{E0298947-6D09-423C-8721-8EAB39CE165E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C659:C728" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Parvathy P, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J484 C2:C658" xr:uid="{3D2B8E7F-289D-450A-9428-89381A0B654F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J484 C2:C658" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Test Case/Rijo/Test Case - Nursing Station.xlsx
+++ b/Test Case/Rijo/Test Case - Nursing Station.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\Mediware\CentralRepository-Mediware\Test Case\Rijo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B6D6E0-3945-4547-9DF4-79777AAE6190}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F626C5-1950-4388-BBD9-0260B444A0A7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2258" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="389">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1130,6 +1130,186 @@
   </si>
   <si>
     <t>Verify that nurse is able to add and print Barden Skin Risk Assessment Scale</t>
+  </si>
+  <si>
+    <t>MED_NURS_TC_054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigate to Nursing Station&gt;&gt;Medication&gt;&gt;Drug Scheduling </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drug Scheduling entry should be displayed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medicines should be added </t>
+  </si>
+  <si>
+    <t>Select the pharmacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pharmacy should be selected </t>
+  </si>
+  <si>
+    <t>Pharmacy:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add medicine to schedule 
+Generic Name
+Brand Name
+Strength
+Dosage
+UOM
+Frequency
+Route
+First Dose Time
+Remarks
+Period
+</t>
+  </si>
+  <si>
+    <t>Drug Scheduling should be successful</t>
+  </si>
+  <si>
+    <t>Verify that nurse is able to schedul drug for a patient</t>
+  </si>
+  <si>
+    <t>MED_NURS_TC_055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add medicines to schedule 
+Refer MED_NURS_TC_54 step ID 4
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on View Previous Schedule </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Previous schedule should be displayed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on View Today's Schedule </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Today's schedule should be displayed </t>
+  </si>
+  <si>
+    <t>MED_NURS_TC_056</t>
+  </si>
+  <si>
+    <t>Verify whether nurse is able to view previous scheduling</t>
+  </si>
+  <si>
+    <t>MED_NURS_TC_057</t>
+  </si>
+  <si>
+    <t>Verify whether nurse is able to view Today's schedule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify whether nurse is able to view other advice </t>
+  </si>
+  <si>
+    <t>Click on View Other Advice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Advice should be displayed </t>
+  </si>
+  <si>
+    <t>Add medicines to schedule 
+Refer MED_NURS_TC_54 step ID 4</t>
+  </si>
+  <si>
+    <t>MED_NURS_TC_058</t>
+  </si>
+  <si>
+    <t>Pre-condition: 
+1. Patient should be admitted 
+2. Investigation Request should be created from EMR
+3. Investigation Request should be billed</t>
+  </si>
+  <si>
+    <t>Navigate to Nursing Station&gt;&gt;Investigation Result&gt;&gt;Investigation Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investigation Status of the paitent should be displayed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apply filter based on the date or result status </t>
+  </si>
+  <si>
+    <t>Filter should be applied successfully</t>
+  </si>
+  <si>
+    <t>Verify that the status of the bill is changed to Bill Generated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investigation status of the patient should be changed  </t>
+  </si>
+  <si>
+    <t>Verify that the nurse is able to view patient investigation status</t>
+  </si>
+  <si>
+    <t>MED_NURS_TC_059</t>
+  </si>
+  <si>
+    <t>Verify that the nurse is able to add a Discharge Entry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre-condition: 
+1. Patient should be admitted </t>
+  </si>
+  <si>
+    <t>Navigate to Nursing Station&gt;&gt;Discharge&gt;&gt;Discharge Entry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discharge Entry form should be displayed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter the Patient Id and Discharge details </t>
+  </si>
+  <si>
+    <t>Patient ID: NH00000109
+Discharge Date:
+Status:</t>
+  </si>
+  <si>
+    <t>Discharge details should be entered  successfully</t>
+  </si>
+  <si>
+    <t>Verify that the nurse is able to search a Discharge Entry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search with the patient Id </t>
+  </si>
+  <si>
+    <t>Discharge details of the patient should be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient ID: NH00000109
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click Delete  </t>
+  </si>
+  <si>
+    <t>Discharge Entry should be deleted and should be listed in the In-Patient List</t>
+  </si>
+  <si>
+    <t>Discharge Entry should be saved and should list out from In-Patient List successfully</t>
+  </si>
+  <si>
+    <t>MED_NURS_TC_060</t>
+  </si>
+  <si>
+    <t>MED_NURS_TC_061</t>
+  </si>
+  <si>
+    <t>Verify that the nurse is able to create Discharge request</t>
+  </si>
+  <si>
+    <t>Verify that the nurse is able to cancel Discharge request</t>
+  </si>
+  <si>
+    <t>MED_NURS_TC_062</t>
   </si>
 </sst>
 </file>
@@ -1264,7 +1444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1350,18 +1530,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1376,6 +1544,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1508,7 +1694,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2685,7 +2871,7 @@
       </c>
       <c r="B5" s="18">
         <f>'Nursing Station'!O2</f>
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C5" s="18">
         <f>'Nursing Station'!O3</f>
@@ -2743,7 +2929,7 @@
       </c>
       <c r="B7" s="6">
         <f t="shared" ref="B7:G7" si="0">SUM(B2:B6)</f>
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C7" s="6">
         <f t="shared" si="0"/>
@@ -2779,16 +2965,16 @@
       <c r="B10" s="15"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J12" s="29" t="s">
+      <c r="J12" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2802,21 +2988,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R737"/>
+  <dimension ref="A1:R731"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A366" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D142" sqref="D142:D146"/>
+      <pane ySplit="1" topLeftCell="A433" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A387" sqref="A387:A439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" style="20" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" style="24" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.140625" style="20" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="20" customWidth="1"/>
-    <col min="6" max="6" width="52.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.28515625" style="20" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="39.5703125" style="20" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.85546875" style="20" customWidth="1"/>
     <col min="9" max="9" width="15" style="20" customWidth="1"/>
@@ -2878,10 +3064,10 @@
       <c r="B2" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="37" t="s">
         <v>57</v>
       </c>
       <c r="E2" s="20">
@@ -2895,7 +3081,7 @@
         <v>35</v>
       </c>
       <c r="I2" s="2"/>
-      <c r="J2" s="34"/>
+      <c r="J2" s="30"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="N2" s="21" t="s">
@@ -2903,12 +3089,12 @@
       </c>
       <c r="O2" s="17">
         <f>COUNTA(A:A)-1</f>
-        <v>56</v>
-      </c>
-      <c r="Q2" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="36">
+      <c r="R2" s="32">
         <f>COUNTIF(K:K,"Pass")</f>
         <v>0</v>
       </c>
@@ -2916,8 +3102,8 @@
     <row r="3" spans="1:18" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="28"/>
       <c r="B3" s="19"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="33"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="38"/>
       <c r="E3" s="20">
         <v>2</v>
       </c>
@@ -2929,7 +3115,7 @@
       </c>
       <c r="H3" s="20"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="34"/>
+      <c r="J3" s="30"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="N3" s="21" t="s">
@@ -2939,19 +3125,19 @@
         <f>COUNTA(K:K)-1</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="35" t="s">
+      <c r="Q3" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="36">
+      <c r="R3" s="32">
         <f>COUNTIF(K:K,"Fail")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28"/>
       <c r="B4" s="19"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="33"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="20">
         <v>3</v>
       </c>
@@ -2963,7 +3149,7 @@
       </c>
       <c r="H4" s="20"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="34"/>
+      <c r="J4" s="30"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="N4" s="21" t="s">
@@ -2973,7 +3159,7 @@
       <c r="Q4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="R4" s="36">
+      <c r="R4" s="32">
         <f>COUNTIF(K:K,"Blocked")</f>
         <v>0</v>
       </c>
@@ -2981,7 +3167,7 @@
     <row r="5" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
       <c r="B5" s="19"/>
-      <c r="D5" s="33"/>
+      <c r="D5" s="38"/>
       <c r="E5" s="20">
         <v>4</v>
       </c>
@@ -2994,12 +3180,12 @@
       <c r="H5" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="34"/>
+      <c r="J5" s="30"/>
       <c r="K5" s="2"/>
       <c r="Q5" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="R5" s="36">
+      <c r="R5" s="32">
         <f>COUNTA(L:L)-1</f>
         <v>0</v>
       </c>
@@ -3007,7 +3193,7 @@
     <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="28"/>
       <c r="B6" s="19"/>
-      <c r="D6" s="33"/>
+      <c r="D6" s="38"/>
       <c r="E6" s="20">
         <v>5</v>
       </c>
@@ -3017,12 +3203,12 @@
       <c r="G6" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="34"/>
+      <c r="J6" s="30"/>
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" s="19"/>
-      <c r="J7" s="34"/>
+      <c r="J7" s="30"/>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3032,10 +3218,10 @@
       <c r="B8" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="36" t="s">
         <v>58</v>
       </c>
       <c r="E8" s="20">
@@ -3047,13 +3233,13 @@
       <c r="H8" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="34"/>
+      <c r="J8" s="30"/>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="19"/>
-      <c r="D9" s="30"/>
+      <c r="D9" s="36"/>
       <c r="E9" s="20">
         <v>2</v>
       </c>
@@ -3063,13 +3249,13 @@
       <c r="G9" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="34"/>
+      <c r="J9" s="30"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="19"/>
-      <c r="D10" s="30"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="20">
         <v>3</v>
       </c>
@@ -3082,13 +3268,13 @@
       <c r="H10" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="34"/>
+      <c r="J10" s="30"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
       <c r="B11" s="19"/>
-      <c r="D11" s="30"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="20">
         <v>4</v>
       </c>
@@ -3101,12 +3287,12 @@
       <c r="H11" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="J11" s="34"/>
+      <c r="J11" s="30"/>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" s="19"/>
-      <c r="J12" s="34"/>
+      <c r="J12" s="30"/>
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3116,10 +3302,10 @@
       <c r="B13" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="36" t="s">
         <v>56</v>
       </c>
       <c r="E13" s="20">
@@ -3131,12 +3317,12 @@
       <c r="H13" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J13" s="34"/>
+      <c r="J13" s="30"/>
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="19"/>
-      <c r="D14" s="30"/>
+      <c r="D14" s="36"/>
       <c r="E14" s="20">
         <v>2</v>
       </c>
@@ -3146,12 +3332,12 @@
       <c r="G14" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="J14" s="34"/>
+      <c r="J14" s="30"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" s="19"/>
-      <c r="D15" s="30"/>
+      <c r="D15" s="36"/>
       <c r="E15" s="20">
         <v>3</v>
       </c>
@@ -3161,12 +3347,12 @@
       <c r="G15" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="J15" s="34"/>
+      <c r="J15" s="30"/>
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="19"/>
-      <c r="D16" s="30"/>
+      <c r="D16" s="36"/>
       <c r="E16" s="20">
         <v>3</v>
       </c>
@@ -3176,12 +3362,12 @@
       <c r="G16" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="J16" s="34"/>
+      <c r="J16" s="30"/>
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B17" s="19"/>
-      <c r="J17" s="34"/>
+      <c r="J17" s="30"/>
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3191,10 +3377,10 @@
       <c r="B18" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="36" t="s">
         <v>59</v>
       </c>
       <c r="E18" s="20">
@@ -3206,12 +3392,12 @@
       <c r="H18" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J18" s="34"/>
+      <c r="J18" s="30"/>
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="19"/>
-      <c r="D19" s="30"/>
+      <c r="D19" s="36"/>
       <c r="E19" s="20">
         <v>2</v>
       </c>
@@ -3221,12 +3407,12 @@
       <c r="G19" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="J19" s="34"/>
+      <c r="J19" s="30"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B20" s="19"/>
-      <c r="D20" s="30"/>
+      <c r="D20" s="36"/>
       <c r="E20" s="20">
         <v>3</v>
       </c>
@@ -3236,12 +3422,12 @@
       <c r="G20" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="J20" s="34"/>
+      <c r="J20" s="30"/>
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B21" s="19"/>
-      <c r="D21" s="30"/>
+      <c r="D21" s="36"/>
       <c r="E21" s="20">
         <v>4</v>
       </c>
@@ -3251,12 +3437,12 @@
       <c r="G21" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="J21" s="34"/>
+      <c r="J21" s="30"/>
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="19"/>
-      <c r="J22" s="34"/>
+      <c r="J22" s="30"/>
       <c r="K22" s="2"/>
     </row>
     <row r="23" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3266,10 +3452,10 @@
       <c r="B23" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="36" t="s">
         <v>64</v>
       </c>
       <c r="E23" s="20">
@@ -3281,12 +3467,12 @@
       <c r="H23" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J23" s="34"/>
+      <c r="J23" s="30"/>
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="19"/>
-      <c r="D24" s="30"/>
+      <c r="D24" s="36"/>
       <c r="E24" s="20">
         <v>2</v>
       </c>
@@ -3296,12 +3482,12 @@
       <c r="G24" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="J24" s="34"/>
+      <c r="J24" s="30"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B25" s="19"/>
-      <c r="D25" s="30"/>
+      <c r="D25" s="36"/>
       <c r="E25" s="20">
         <v>3</v>
       </c>
@@ -3311,12 +3497,12 @@
       <c r="G25" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="J25" s="34"/>
+      <c r="J25" s="30"/>
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B26" s="19"/>
-      <c r="D26" s="30"/>
+      <c r="D26" s="36"/>
       <c r="E26" s="20">
         <v>4</v>
       </c>
@@ -3329,12 +3515,12 @@
       <c r="H26" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="J26" s="34"/>
+      <c r="J26" s="30"/>
       <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B27" s="19"/>
-      <c r="J27" s="34"/>
+      <c r="J27" s="30"/>
       <c r="K27" s="2"/>
     </row>
     <row r="28" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -3344,10 +3530,10 @@
       <c r="B28" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="36" t="s">
         <v>71</v>
       </c>
       <c r="E28" s="20">
@@ -3359,12 +3545,12 @@
       <c r="H28" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J28" s="34"/>
+      <c r="J28" s="30"/>
       <c r="K28" s="2"/>
     </row>
     <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="19"/>
-      <c r="D29" s="30"/>
+      <c r="D29" s="36"/>
       <c r="E29" s="20">
         <v>2</v>
       </c>
@@ -3374,12 +3560,12 @@
       <c r="G29" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="J29" s="34"/>
+      <c r="J29" s="30"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B30" s="19"/>
-      <c r="D30" s="30"/>
+      <c r="D30" s="36"/>
       <c r="E30" s="20">
         <v>3</v>
       </c>
@@ -3389,12 +3575,12 @@
       <c r="G30" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="J30" s="34"/>
+      <c r="J30" s="30"/>
       <c r="K30" s="2"/>
     </row>
     <row r="31" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B31" s="19"/>
-      <c r="D31" s="30"/>
+      <c r="D31" s="36"/>
       <c r="E31" s="20">
         <v>4</v>
       </c>
@@ -3407,12 +3593,12 @@
       <c r="H31" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="J31" s="34"/>
+      <c r="J31" s="30"/>
       <c r="K31" s="2"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B32" s="19"/>
-      <c r="J32" s="34"/>
+      <c r="J32" s="30"/>
       <c r="K32" s="2"/>
     </row>
     <row r="33" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -3422,10 +3608,10 @@
       <c r="B33" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="34" t="s">
+      <c r="C33" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="36" t="s">
         <v>76</v>
       </c>
       <c r="E33" s="20">
@@ -3437,12 +3623,12 @@
       <c r="H33" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J33" s="34"/>
+      <c r="J33" s="30"/>
       <c r="K33" s="2"/>
     </row>
     <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B34" s="19"/>
-      <c r="D34" s="30"/>
+      <c r="D34" s="36"/>
       <c r="E34" s="20">
         <v>2</v>
       </c>
@@ -3452,12 +3638,12 @@
       <c r="G34" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="J34" s="34"/>
+      <c r="J34" s="30"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B35" s="19"/>
-      <c r="D35" s="30"/>
+      <c r="D35" s="36"/>
       <c r="E35" s="20">
         <v>3</v>
       </c>
@@ -3467,12 +3653,12 @@
       <c r="G35" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="J35" s="34"/>
+      <c r="J35" s="30"/>
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B36" s="19"/>
-      <c r="D36" s="30"/>
+      <c r="D36" s="36"/>
       <c r="E36" s="20">
         <v>4</v>
       </c>
@@ -3485,12 +3671,12 @@
       <c r="H36" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="J36" s="34"/>
+      <c r="J36" s="30"/>
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B37" s="19"/>
-      <c r="D37" s="30"/>
+      <c r="D37" s="36"/>
       <c r="E37" s="20">
         <v>5</v>
       </c>
@@ -3500,12 +3686,12 @@
       <c r="G37" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="J37" s="34"/>
+      <c r="J37" s="30"/>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B38" s="19"/>
-      <c r="D38" s="30"/>
+      <c r="D38" s="36"/>
       <c r="E38" s="20">
         <v>6</v>
       </c>
@@ -3515,12 +3701,12 @@
       <c r="G38" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="J38" s="34"/>
+      <c r="J38" s="30"/>
       <c r="K38" s="2"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B39" s="19"/>
-      <c r="J39" s="34"/>
+      <c r="J39" s="30"/>
       <c r="K39" s="2"/>
     </row>
     <row r="40" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3530,10 +3716,10 @@
       <c r="B40" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="34" t="s">
+      <c r="C40" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D40" s="30" t="s">
+      <c r="D40" s="36" t="s">
         <v>83</v>
       </c>
       <c r="E40" s="20">
@@ -3545,12 +3731,12 @@
       <c r="H40" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="34"/>
+      <c r="J40" s="30"/>
       <c r="K40" s="2"/>
     </row>
     <row r="41" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B41" s="19"/>
-      <c r="D41" s="30"/>
+      <c r="D41" s="36"/>
       <c r="E41" s="20">
         <v>2</v>
       </c>
@@ -3560,12 +3746,12 @@
       <c r="G41" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="J41" s="34"/>
+      <c r="J41" s="30"/>
       <c r="K41" s="2"/>
     </row>
     <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B42" s="19"/>
-      <c r="D42" s="30"/>
+      <c r="D42" s="36"/>
       <c r="E42" s="20">
         <v>3</v>
       </c>
@@ -3575,12 +3761,12 @@
       <c r="G42" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="J42" s="34"/>
+      <c r="J42" s="30"/>
       <c r="K42" s="2"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" s="19"/>
-      <c r="D43" s="30"/>
+      <c r="D43" s="36"/>
       <c r="E43" s="20">
         <v>4</v>
       </c>
@@ -3590,12 +3776,12 @@
       <c r="G43" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="J43" s="34"/>
+      <c r="J43" s="30"/>
       <c r="K43" s="2"/>
     </row>
     <row r="44" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B44" s="19"/>
-      <c r="D44" s="30"/>
+      <c r="D44" s="36"/>
       <c r="E44" s="20">
         <v>5</v>
       </c>
@@ -3608,12 +3794,12 @@
       <c r="H44" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="J44" s="34"/>
+      <c r="J44" s="30"/>
       <c r="K44" s="2"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B45" s="19"/>
-      <c r="J45" s="34"/>
+      <c r="J45" s="30"/>
       <c r="K45" s="2"/>
     </row>
     <row r="46" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3623,10 +3809,10 @@
       <c r="B46" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C46" s="34" t="s">
+      <c r="C46" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D46" s="30" t="s">
+      <c r="D46" s="36" t="s">
         <v>91</v>
       </c>
       <c r="E46" s="20">
@@ -3638,12 +3824,12 @@
       <c r="H46" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J46" s="34"/>
+      <c r="J46" s="30"/>
       <c r="K46" s="2"/>
     </row>
     <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B47" s="19"/>
-      <c r="D47" s="30"/>
+      <c r="D47" s="36"/>
       <c r="E47" s="20">
         <v>2</v>
       </c>
@@ -3653,12 +3839,12 @@
       <c r="G47" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="J47" s="34"/>
+      <c r="J47" s="30"/>
       <c r="K47" s="2"/>
     </row>
     <row r="48" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="19"/>
-      <c r="D48" s="30"/>
+      <c r="D48" s="36"/>
       <c r="E48" s="20">
         <v>3</v>
       </c>
@@ -3668,12 +3854,12 @@
       <c r="G48" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="J48" s="34"/>
+      <c r="J48" s="30"/>
       <c r="K48" s="2"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B49" s="19"/>
-      <c r="D49" s="30"/>
+      <c r="D49" s="36"/>
       <c r="E49" s="20">
         <v>4</v>
       </c>
@@ -3683,12 +3869,12 @@
       <c r="G49" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="J49" s="34"/>
+      <c r="J49" s="30"/>
       <c r="K49" s="2"/>
     </row>
     <row r="50" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B50" s="19"/>
-      <c r="D50" s="30"/>
+      <c r="D50" s="36"/>
       <c r="E50" s="20">
         <v>5</v>
       </c>
@@ -3701,12 +3887,12 @@
       <c r="H50" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="J50" s="34"/>
+      <c r="J50" s="30"/>
       <c r="K50" s="2"/>
     </row>
     <row r="51" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B51" s="19"/>
-      <c r="D51" s="30"/>
+      <c r="D51" s="36"/>
       <c r="E51" s="20">
         <v>6</v>
       </c>
@@ -3716,12 +3902,12 @@
       <c r="G51" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="J51" s="34"/>
+      <c r="J51" s="30"/>
       <c r="K51" s="2"/>
     </row>
-    <row r="52" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B52" s="19"/>
-      <c r="D52" s="30"/>
+      <c r="D52" s="36"/>
       <c r="E52" s="20">
         <v>7</v>
       </c>
@@ -3731,12 +3917,12 @@
       <c r="G52" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="J52" s="34"/>
+      <c r="J52" s="30"/>
       <c r="K52" s="2"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B53" s="19"/>
-      <c r="J53" s="34"/>
+      <c r="J53" s="30"/>
       <c r="K53" s="2"/>
     </row>
     <row r="54" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3746,10 +3932,10 @@
       <c r="B54" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C54" s="34" t="s">
+      <c r="C54" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D54" s="30" t="s">
+      <c r="D54" s="36" t="s">
         <v>97</v>
       </c>
       <c r="E54" s="20">
@@ -3761,12 +3947,12 @@
       <c r="H54" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J54" s="34"/>
+      <c r="J54" s="30"/>
       <c r="K54" s="2"/>
     </row>
     <row r="55" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B55" s="19"/>
-      <c r="D55" s="30"/>
+      <c r="D55" s="36"/>
       <c r="E55" s="20">
         <v>2</v>
       </c>
@@ -3776,12 +3962,12 @@
       <c r="G55" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="J55" s="34"/>
+      <c r="J55" s="30"/>
       <c r="K55" s="2"/>
     </row>
     <row r="56" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B56" s="19"/>
-      <c r="D56" s="30"/>
+      <c r="D56" s="36"/>
       <c r="E56" s="20">
         <v>3</v>
       </c>
@@ -3794,12 +3980,12 @@
       <c r="H56" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="J56" s="34"/>
+      <c r="J56" s="30"/>
       <c r="K56" s="2"/>
     </row>
-    <row r="57" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B57" s="19"/>
-      <c r="D57" s="30"/>
+      <c r="D57" s="36"/>
       <c r="E57" s="20">
         <v>4</v>
       </c>
@@ -3809,12 +3995,12 @@
       <c r="G57" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="J57" s="34"/>
+      <c r="J57" s="30"/>
       <c r="K57" s="2"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B58" s="19"/>
-      <c r="J58" s="34"/>
+      <c r="J58" s="30"/>
       <c r="K58" s="2"/>
     </row>
     <row r="59" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3824,10 +4010,10 @@
       <c r="B59" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C59" s="34" t="s">
+      <c r="C59" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D59" s="30" t="s">
+      <c r="D59" s="36" t="s">
         <v>106</v>
       </c>
       <c r="E59" s="20">
@@ -3839,12 +4025,12 @@
       <c r="H59" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J59" s="34"/>
+      <c r="J59" s="30"/>
       <c r="K59" s="2"/>
     </row>
     <row r="60" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B60" s="19"/>
-      <c r="D60" s="30"/>
+      <c r="D60" s="36"/>
       <c r="E60" s="20">
         <v>2</v>
       </c>
@@ -3854,12 +4040,12 @@
       <c r="G60" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="J60" s="34"/>
+      <c r="J60" s="30"/>
       <c r="K60" s="2"/>
     </row>
     <row r="61" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="B61" s="19"/>
-      <c r="D61" s="30"/>
+      <c r="D61" s="36"/>
       <c r="E61" s="20">
         <v>3</v>
       </c>
@@ -3872,12 +4058,12 @@
       <c r="H61" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="J61" s="34"/>
+      <c r="J61" s="30"/>
       <c r="K61" s="2"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B62" s="19"/>
-      <c r="J62" s="34"/>
+      <c r="J62" s="30"/>
       <c r="K62" s="2"/>
     </row>
     <row r="63" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3887,10 +4073,10 @@
       <c r="B63" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C63" s="34" t="s">
+      <c r="C63" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D63" s="30" t="s">
+      <c r="D63" s="36" t="s">
         <v>110</v>
       </c>
       <c r="E63" s="20">
@@ -3902,12 +4088,12 @@
       <c r="H63" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J63" s="34"/>
+      <c r="J63" s="30"/>
       <c r="K63" s="2"/>
     </row>
     <row r="64" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B64" s="19"/>
-      <c r="D64" s="30"/>
+      <c r="D64" s="36"/>
       <c r="E64" s="20">
         <v>2</v>
       </c>
@@ -3917,12 +4103,12 @@
       <c r="G64" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="J64" s="34"/>
+      <c r="J64" s="30"/>
       <c r="K64" s="2"/>
     </row>
     <row r="65" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="B65" s="19"/>
-      <c r="D65" s="30"/>
+      <c r="D65" s="36"/>
       <c r="E65" s="20">
         <v>3</v>
       </c>
@@ -3935,12 +4121,12 @@
       <c r="H65" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="J65" s="34"/>
+      <c r="J65" s="30"/>
       <c r="K65" s="2"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B66" s="19"/>
-      <c r="J66" s="34"/>
+      <c r="J66" s="30"/>
       <c r="K66" s="2"/>
     </row>
     <row r="67" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3950,10 +4136,10 @@
       <c r="B67" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C67" s="34" t="s">
+      <c r="C67" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D67" s="30" t="s">
+      <c r="D67" s="36" t="s">
         <v>114</v>
       </c>
       <c r="E67" s="20">
@@ -3965,12 +4151,12 @@
       <c r="H67" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="34"/>
+      <c r="J67" s="30"/>
       <c r="K67" s="2"/>
     </row>
     <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B68" s="19"/>
-      <c r="D68" s="30"/>
+      <c r="D68" s="36"/>
       <c r="E68" s="20">
         <v>2</v>
       </c>
@@ -3980,12 +4166,12 @@
       <c r="G68" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="J68" s="34"/>
+      <c r="J68" s="30"/>
       <c r="K68" s="2"/>
     </row>
     <row r="69" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B69" s="19"/>
-      <c r="D69" s="30"/>
+      <c r="D69" s="36"/>
       <c r="E69" s="20">
         <v>3</v>
       </c>
@@ -3995,12 +4181,12 @@
       <c r="G69" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="J69" s="34"/>
+      <c r="J69" s="30"/>
       <c r="K69" s="2"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B70" s="19"/>
-      <c r="D70" s="30"/>
+      <c r="D70" s="36"/>
       <c r="E70" s="20">
         <v>4</v>
       </c>
@@ -4010,12 +4196,12 @@
       <c r="G70" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="J70" s="34"/>
+      <c r="J70" s="30"/>
       <c r="K70" s="2"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B71" s="19"/>
-      <c r="J71" s="34"/>
+      <c r="J71" s="30"/>
       <c r="K71" s="2"/>
     </row>
     <row r="72" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4025,10 +4211,10 @@
       <c r="B72" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C72" s="34" t="s">
+      <c r="C72" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D72" s="30" t="s">
+      <c r="D72" s="36" t="s">
         <v>121</v>
       </c>
       <c r="E72" s="20">
@@ -4040,12 +4226,12 @@
       <c r="H72" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J72" s="34"/>
+      <c r="J72" s="30"/>
       <c r="K72" s="2"/>
     </row>
     <row r="73" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B73" s="19"/>
-      <c r="D73" s="30"/>
+      <c r="D73" s="36"/>
       <c r="E73" s="20">
         <v>2</v>
       </c>
@@ -4055,12 +4241,12 @@
       <c r="G73" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="J73" s="34"/>
+      <c r="J73" s="30"/>
       <c r="K73" s="2"/>
     </row>
     <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B74" s="19"/>
-      <c r="D74" s="30"/>
+      <c r="D74" s="36"/>
       <c r="E74" s="20">
         <v>3</v>
       </c>
@@ -4070,12 +4256,12 @@
       <c r="G74" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="J74" s="34"/>
+      <c r="J74" s="30"/>
       <c r="K74" s="2"/>
     </row>
-    <row r="75" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B75" s="19"/>
-      <c r="D75" s="30"/>
+      <c r="D75" s="36"/>
       <c r="E75" s="20">
         <v>4</v>
       </c>
@@ -4085,12 +4271,12 @@
       <c r="G75" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="J75" s="34"/>
+      <c r="J75" s="30"/>
       <c r="K75" s="2"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B76" s="19"/>
-      <c r="J76" s="34"/>
+      <c r="J76" s="30"/>
       <c r="K76" s="2"/>
     </row>
     <row r="77" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -4100,10 +4286,10 @@
       <c r="B77" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C77" s="34" t="s">
+      <c r="C77" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D77" s="30" t="s">
+      <c r="D77" s="36" t="s">
         <v>126</v>
       </c>
       <c r="E77" s="20">
@@ -4115,12 +4301,12 @@
       <c r="H77" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J77" s="34"/>
+      <c r="J77" s="30"/>
       <c r="K77" s="2"/>
     </row>
     <row r="78" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B78" s="19"/>
-      <c r="D78" s="30"/>
+      <c r="D78" s="36"/>
       <c r="E78" s="20">
         <v>2</v>
       </c>
@@ -4130,12 +4316,12 @@
       <c r="G78" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="J78" s="34"/>
+      <c r="J78" s="30"/>
       <c r="K78" s="2"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B79" s="19"/>
-      <c r="D79" s="30"/>
+      <c r="D79" s="36"/>
       <c r="E79" s="20">
         <v>3</v>
       </c>
@@ -4145,12 +4331,12 @@
       <c r="G79" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="J79" s="34"/>
+      <c r="J79" s="30"/>
       <c r="K79" s="2"/>
     </row>
     <row r="80" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B80" s="19"/>
-      <c r="D80" s="30"/>
+      <c r="D80" s="36"/>
       <c r="E80" s="20">
         <v>4</v>
       </c>
@@ -4163,12 +4349,12 @@
       <c r="H80" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="J80" s="34"/>
+      <c r="J80" s="30"/>
       <c r="K80" s="2"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B81" s="19"/>
-      <c r="J81" s="34"/>
+      <c r="J81" s="30"/>
       <c r="K81" s="2"/>
     </row>
     <row r="82" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4178,10 +4364,10 @@
       <c r="B82" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C82" s="34" t="s">
+      <c r="C82" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D82" s="31" t="s">
+      <c r="D82" s="39" t="s">
         <v>146</v>
       </c>
       <c r="E82" s="20">
@@ -4193,12 +4379,12 @@
       <c r="H82" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J82" s="34"/>
+      <c r="J82" s="30"/>
       <c r="K82" s="2"/>
     </row>
     <row r="83" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B83" s="19"/>
-      <c r="D83" s="31"/>
+      <c r="D83" s="39"/>
       <c r="E83" s="20">
         <v>2</v>
       </c>
@@ -4208,12 +4394,12 @@
       <c r="G83" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="J83" s="34"/>
+      <c r="J83" s="30"/>
       <c r="K83" s="2"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B84" s="19"/>
-      <c r="D84" s="31"/>
+      <c r="D84" s="39"/>
       <c r="E84" s="20">
         <v>3</v>
       </c>
@@ -4223,12 +4409,12 @@
       <c r="G84" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="J84" s="34"/>
+      <c r="J84" s="30"/>
       <c r="K84" s="2"/>
     </row>
     <row r="85" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B85" s="19"/>
-      <c r="D85" s="31"/>
+      <c r="D85" s="39"/>
       <c r="E85" s="20">
         <v>4</v>
       </c>
@@ -4241,12 +4427,12 @@
       <c r="H85" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="J85" s="34"/>
+      <c r="J85" s="30"/>
       <c r="K85" s="2"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B86" s="19"/>
-      <c r="J86" s="34"/>
+      <c r="J86" s="30"/>
       <c r="K86" s="2"/>
     </row>
     <row r="87" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -4256,10 +4442,10 @@
       <c r="B87" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C87" s="34" t="s">
+      <c r="C87" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D87" s="30" t="s">
+      <c r="D87" s="36" t="s">
         <v>136</v>
       </c>
       <c r="E87" s="20">
@@ -4271,12 +4457,12 @@
       <c r="H87" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J87" s="34"/>
+      <c r="J87" s="30"/>
       <c r="K87" s="2"/>
     </row>
     <row r="88" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B88" s="19"/>
-      <c r="D88" s="30"/>
+      <c r="D88" s="36"/>
       <c r="E88" s="20">
         <v>2</v>
       </c>
@@ -4286,12 +4472,12 @@
       <c r="G88" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="J88" s="34"/>
+      <c r="J88" s="30"/>
       <c r="K88" s="2"/>
     </row>
-    <row r="89" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B89" s="19"/>
-      <c r="D89" s="30"/>
+      <c r="D89" s="36"/>
       <c r="E89" s="20">
         <v>3</v>
       </c>
@@ -4301,12 +4487,12 @@
       <c r="G89" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="J89" s="34"/>
+      <c r="J89" s="30"/>
       <c r="K89" s="2"/>
     </row>
     <row r="90" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B90" s="19"/>
-      <c r="D90" s="30"/>
+      <c r="D90" s="36"/>
       <c r="E90" s="20">
         <v>4</v>
       </c>
@@ -4319,12 +4505,12 @@
       <c r="H90" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="J90" s="34"/>
+      <c r="J90" s="30"/>
       <c r="K90" s="2"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B91" s="19"/>
-      <c r="J91" s="34"/>
+      <c r="J91" s="30"/>
       <c r="K91" s="2"/>
     </row>
     <row r="92" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4334,10 +4520,10 @@
       <c r="B92" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C92" s="34" t="s">
+      <c r="C92" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D92" s="30" t="s">
+      <c r="D92" s="36" t="s">
         <v>142</v>
       </c>
       <c r="E92" s="20">
@@ -4349,12 +4535,12 @@
       <c r="H92" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J92" s="34"/>
+      <c r="J92" s="30"/>
       <c r="K92" s="2"/>
     </row>
     <row r="93" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B93" s="19"/>
-      <c r="D93" s="30"/>
+      <c r="D93" s="36"/>
       <c r="E93" s="20">
         <v>2</v>
       </c>
@@ -4364,12 +4550,12 @@
       <c r="G93" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="J93" s="34"/>
+      <c r="J93" s="30"/>
       <c r="K93" s="2"/>
     </row>
-    <row r="94" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B94" s="19"/>
-      <c r="D94" s="30"/>
+      <c r="D94" s="36"/>
       <c r="E94" s="20">
         <v>3</v>
       </c>
@@ -4379,12 +4565,12 @@
       <c r="G94" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="J94" s="34"/>
+      <c r="J94" s="30"/>
       <c r="K94" s="2"/>
     </row>
     <row r="95" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B95" s="19"/>
-      <c r="D95" s="30"/>
+      <c r="D95" s="36"/>
       <c r="E95" s="20">
         <v>4</v>
       </c>
@@ -4397,12 +4583,12 @@
       <c r="H95" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="J95" s="34"/>
+      <c r="J95" s="30"/>
       <c r="K95" s="2"/>
     </row>
     <row r="96" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B96" s="19"/>
-      <c r="D96" s="30"/>
+      <c r="D96" s="36"/>
       <c r="E96" s="20">
         <v>5</v>
       </c>
@@ -4412,12 +4598,12 @@
       <c r="G96" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="J96" s="34"/>
+      <c r="J96" s="30"/>
       <c r="K96" s="2"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B97" s="19"/>
-      <c r="J97" s="34"/>
+      <c r="J97" s="30"/>
       <c r="K97" s="2"/>
     </row>
     <row r="98" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -4427,10 +4613,10 @@
       <c r="B98" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C98" s="34" t="s">
+      <c r="C98" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D98" s="30" t="s">
+      <c r="D98" s="36" t="s">
         <v>142</v>
       </c>
       <c r="E98" s="20">
@@ -4442,12 +4628,12 @@
       <c r="H98" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J98" s="34"/>
+      <c r="J98" s="30"/>
       <c r="K98" s="2"/>
     </row>
     <row r="99" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B99" s="19"/>
-      <c r="D99" s="30"/>
+      <c r="D99" s="36"/>
       <c r="E99" s="20">
         <v>2</v>
       </c>
@@ -4457,12 +4643,12 @@
       <c r="G99" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="J99" s="34"/>
+      <c r="J99" s="30"/>
       <c r="K99" s="2"/>
     </row>
-    <row r="100" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B100" s="19"/>
-      <c r="D100" s="30"/>
+      <c r="D100" s="36"/>
       <c r="E100" s="20">
         <v>3</v>
       </c>
@@ -4472,12 +4658,12 @@
       <c r="G100" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="J100" s="34"/>
+      <c r="J100" s="30"/>
       <c r="K100" s="2"/>
     </row>
     <row r="101" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B101" s="19"/>
-      <c r="D101" s="30"/>
+      <c r="D101" s="36"/>
       <c r="E101" s="20">
         <v>4</v>
       </c>
@@ -4490,12 +4676,12 @@
       <c r="H101" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="J101" s="34"/>
+      <c r="J101" s="30"/>
       <c r="K101" s="2"/>
     </row>
     <row r="102" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B102" s="19"/>
-      <c r="D102" s="30"/>
+      <c r="D102" s="36"/>
       <c r="E102" s="20">
         <v>5</v>
       </c>
@@ -4505,12 +4691,12 @@
       <c r="G102" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="J102" s="34"/>
+      <c r="J102" s="30"/>
       <c r="K102" s="2"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B103" s="19"/>
-      <c r="J103" s="34"/>
+      <c r="J103" s="30"/>
       <c r="K103" s="2"/>
     </row>
     <row r="104" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4520,10 +4706,10 @@
       <c r="B104" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C104" s="34" t="s">
+      <c r="C104" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D104" s="30" t="s">
+      <c r="D104" s="36" t="s">
         <v>149</v>
       </c>
       <c r="E104" s="20">
@@ -4535,12 +4721,12 @@
       <c r="H104" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J104" s="34"/>
+      <c r="J104" s="30"/>
       <c r="K104" s="2"/>
     </row>
     <row r="105" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B105" s="19"/>
-      <c r="D105" s="30"/>
+      <c r="D105" s="36"/>
       <c r="E105" s="20">
         <v>2</v>
       </c>
@@ -4550,12 +4736,12 @@
       <c r="G105" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="J105" s="34"/>
+      <c r="J105" s="30"/>
       <c r="K105" s="2"/>
     </row>
-    <row r="106" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B106" s="19"/>
-      <c r="D106" s="30"/>
+      <c r="D106" s="36"/>
       <c r="E106" s="20">
         <v>3</v>
       </c>
@@ -4565,12 +4751,12 @@
       <c r="G106" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="J106" s="34"/>
+      <c r="J106" s="30"/>
       <c r="K106" s="2"/>
     </row>
     <row r="107" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B107" s="19"/>
-      <c r="D107" s="30"/>
+      <c r="D107" s="36"/>
       <c r="E107" s="20">
         <v>4</v>
       </c>
@@ -4583,12 +4769,12 @@
       <c r="H107" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="J107" s="34"/>
+      <c r="J107" s="30"/>
       <c r="K107" s="2"/>
     </row>
     <row r="108" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="19"/>
-      <c r="D108" s="30"/>
+      <c r="D108" s="36"/>
       <c r="E108" s="20">
         <v>5</v>
       </c>
@@ -4598,12 +4784,12 @@
       <c r="G108" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="J108" s="34"/>
+      <c r="J108" s="30"/>
       <c r="K108" s="2"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B109" s="19"/>
-      <c r="J109" s="34"/>
+      <c r="J109" s="30"/>
       <c r="K109" s="2"/>
     </row>
     <row r="110" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4613,10 +4799,10 @@
       <c r="B110" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C110" s="34" t="s">
+      <c r="C110" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D110" s="30" t="s">
+      <c r="D110" s="36" t="s">
         <v>153</v>
       </c>
       <c r="E110" s="20">
@@ -4628,12 +4814,12 @@
       <c r="H110" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J110" s="34"/>
+      <c r="J110" s="30"/>
       <c r="K110" s="2"/>
     </row>
     <row r="111" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="19"/>
-      <c r="D111" s="30"/>
+      <c r="D111" s="36"/>
       <c r="E111" s="20">
         <v>2</v>
       </c>
@@ -4643,12 +4829,12 @@
       <c r="G111" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="J111" s="34"/>
+      <c r="J111" s="30"/>
       <c r="K111" s="2"/>
     </row>
     <row r="112" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B112" s="19"/>
-      <c r="D112" s="30"/>
+      <c r="D112" s="36"/>
       <c r="E112" s="20">
         <v>3</v>
       </c>
@@ -4658,12 +4844,12 @@
       <c r="G112" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="J112" s="34"/>
+      <c r="J112" s="30"/>
       <c r="K112" s="2"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B113" s="19"/>
-      <c r="J113" s="34"/>
+      <c r="J113" s="30"/>
       <c r="K113" s="2"/>
     </row>
     <row r="114" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -4673,10 +4859,10 @@
       <c r="B114" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C114" s="34" t="s">
+      <c r="C114" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D114" s="30" t="s">
+      <c r="D114" s="36" t="s">
         <v>166</v>
       </c>
       <c r="E114" s="20">
@@ -4688,12 +4874,12 @@
       <c r="H114" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J114" s="34"/>
+      <c r="J114" s="30"/>
       <c r="K114" s="2"/>
     </row>
     <row r="115" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B115" s="19"/>
-      <c r="D115" s="30"/>
+      <c r="D115" s="36"/>
       <c r="E115" s="20">
         <v>2</v>
       </c>
@@ -4703,12 +4889,12 @@
       <c r="G115" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="J115" s="34"/>
+      <c r="J115" s="30"/>
       <c r="K115" s="2"/>
     </row>
     <row r="116" spans="1:11" ht="225" x14ac:dyDescent="0.25">
       <c r="B116" s="19"/>
-      <c r="D116" s="30"/>
+      <c r="D116" s="36"/>
       <c r="E116" s="20">
         <v>3</v>
       </c>
@@ -4721,12 +4907,12 @@
       <c r="H116" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="J116" s="34"/>
+      <c r="J116" s="30"/>
       <c r="K116" s="2"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B117" s="19"/>
-      <c r="J117" s="34"/>
+      <c r="J117" s="30"/>
       <c r="K117" s="2"/>
     </row>
     <row r="118" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4736,10 +4922,10 @@
       <c r="B118" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C118" s="34" t="s">
+      <c r="C118" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D118" s="30" t="s">
+      <c r="D118" s="36" t="s">
         <v>165</v>
       </c>
       <c r="E118" s="20">
@@ -4751,12 +4937,12 @@
       <c r="H118" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J118" s="34"/>
+      <c r="J118" s="30"/>
       <c r="K118" s="2"/>
     </row>
     <row r="119" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B119" s="19"/>
-      <c r="D119" s="30"/>
+      <c r="D119" s="36"/>
       <c r="E119" s="20">
         <v>2</v>
       </c>
@@ -4766,12 +4952,12 @@
       <c r="G119" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="J119" s="34"/>
+      <c r="J119" s="30"/>
       <c r="K119" s="2"/>
     </row>
     <row r="120" spans="1:11" ht="225" x14ac:dyDescent="0.25">
       <c r="B120" s="19"/>
-      <c r="D120" s="30"/>
+      <c r="D120" s="36"/>
       <c r="E120" s="20">
         <v>3</v>
       </c>
@@ -4781,12 +4967,12 @@
       <c r="G120" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="J120" s="34"/>
+      <c r="J120" s="30"/>
       <c r="K120" s="2"/>
     </row>
     <row r="121" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B121" s="19"/>
-      <c r="D121" s="30"/>
+      <c r="D121" s="36"/>
       <c r="E121" s="20">
         <v>4</v>
       </c>
@@ -4796,12 +4982,12 @@
       <c r="G121" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="J121" s="34"/>
+      <c r="J121" s="30"/>
       <c r="K121" s="2"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B122" s="19"/>
-      <c r="J122" s="34"/>
+      <c r="J122" s="30"/>
       <c r="K122" s="2"/>
     </row>
     <row r="123" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4811,10 +4997,10 @@
       <c r="B123" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C123" s="34" t="s">
+      <c r="C123" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D123" s="30" t="s">
+      <c r="D123" s="36" t="s">
         <v>170</v>
       </c>
       <c r="E123" s="20">
@@ -4826,12 +5012,12 @@
       <c r="H123" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J123" s="34"/>
+      <c r="J123" s="30"/>
       <c r="K123" s="2"/>
     </row>
     <row r="124" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B124" s="19"/>
-      <c r="D124" s="30"/>
+      <c r="D124" s="36"/>
       <c r="E124" s="20">
         <v>2</v>
       </c>
@@ -4841,12 +5027,12 @@
       <c r="G124" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="J124" s="34"/>
+      <c r="J124" s="30"/>
       <c r="K124" s="2"/>
     </row>
     <row r="125" spans="1:11" ht="225" x14ac:dyDescent="0.25">
       <c r="B125" s="19"/>
-      <c r="D125" s="30"/>
+      <c r="D125" s="36"/>
       <c r="E125" s="20">
         <v>3</v>
       </c>
@@ -4859,12 +5045,12 @@
       <c r="H125" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="J125" s="34"/>
+      <c r="J125" s="30"/>
       <c r="K125" s="2"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B126" s="19"/>
-      <c r="D126" s="30"/>
+      <c r="D126" s="36"/>
       <c r="E126" s="20">
         <v>4</v>
       </c>
@@ -4874,12 +5060,12 @@
       <c r="G126" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="J126" s="34"/>
+      <c r="J126" s="30"/>
       <c r="K126" s="2"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B127" s="19"/>
-      <c r="J127" s="34"/>
+      <c r="J127" s="30"/>
       <c r="K127" s="2"/>
     </row>
     <row r="128" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -4889,10 +5075,10 @@
       <c r="B128" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C128" s="34" t="s">
+      <c r="C128" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D128" s="30" t="s">
+      <c r="D128" s="36" t="s">
         <v>174</v>
       </c>
       <c r="E128" s="20">
@@ -4904,12 +5090,12 @@
       <c r="H128" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J128" s="34"/>
+      <c r="J128" s="30"/>
       <c r="K128" s="2"/>
     </row>
     <row r="129" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B129" s="19"/>
-      <c r="D129" s="30"/>
+      <c r="D129" s="36"/>
       <c r="E129" s="20">
         <v>2</v>
       </c>
@@ -4919,12 +5105,12 @@
       <c r="G129" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="J129" s="34"/>
+      <c r="J129" s="30"/>
       <c r="K129" s="2"/>
     </row>
     <row r="130" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="B130" s="19"/>
-      <c r="D130" s="30"/>
+      <c r="D130" s="36"/>
       <c r="E130" s="20">
         <v>3</v>
       </c>
@@ -4934,12 +5120,12 @@
       <c r="G130" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="J130" s="34"/>
+      <c r="J130" s="30"/>
       <c r="K130" s="2"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B131" s="19"/>
-      <c r="J131" s="34"/>
+      <c r="J131" s="30"/>
       <c r="K131" s="2"/>
     </row>
     <row r="132" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4949,10 +5135,10 @@
       <c r="B132" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C132" s="34" t="s">
+      <c r="C132" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D132" s="30" t="s">
+      <c r="D132" s="36" t="s">
         <v>180</v>
       </c>
       <c r="E132" s="20">
@@ -4964,12 +5150,12 @@
       <c r="H132" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J132" s="34"/>
+      <c r="J132" s="30"/>
       <c r="K132" s="2"/>
     </row>
     <row r="133" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B133" s="19"/>
-      <c r="D133" s="30"/>
+      <c r="D133" s="36"/>
       <c r="E133" s="20">
         <v>2</v>
       </c>
@@ -4979,12 +5165,12 @@
       <c r="G133" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="J133" s="34"/>
+      <c r="J133" s="30"/>
       <c r="K133" s="2"/>
     </row>
     <row r="134" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="B134" s="19"/>
-      <c r="D134" s="30"/>
+      <c r="D134" s="36"/>
       <c r="E134" s="20">
         <v>3</v>
       </c>
@@ -4994,12 +5180,12 @@
       <c r="G134" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="J134" s="34"/>
+      <c r="J134" s="30"/>
       <c r="K134" s="2"/>
     </row>
     <row r="135" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B135" s="19"/>
-      <c r="D135" s="30"/>
+      <c r="D135" s="36"/>
       <c r="E135" s="20">
         <v>4</v>
       </c>
@@ -5009,12 +5195,12 @@
       <c r="G135" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="J135" s="34"/>
+      <c r="J135" s="30"/>
       <c r="K135" s="2"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B136" s="19"/>
-      <c r="J136" s="34"/>
+      <c r="J136" s="30"/>
       <c r="K136" s="2"/>
     </row>
     <row r="137" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5024,10 +5210,10 @@
       <c r="B137" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C137" s="34" t="s">
+      <c r="C137" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D137" s="30" t="s">
+      <c r="D137" s="36" t="s">
         <v>183</v>
       </c>
       <c r="E137" s="20">
@@ -5039,12 +5225,12 @@
       <c r="H137" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J137" s="34"/>
+      <c r="J137" s="30"/>
       <c r="K137" s="2"/>
     </row>
     <row r="138" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B138" s="19"/>
-      <c r="D138" s="30"/>
+      <c r="D138" s="36"/>
       <c r="E138" s="20">
         <v>2</v>
       </c>
@@ -5054,12 +5240,12 @@
       <c r="G138" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="J138" s="34"/>
+      <c r="J138" s="30"/>
       <c r="K138" s="2"/>
     </row>
     <row r="139" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="B139" s="19"/>
-      <c r="D139" s="30"/>
+      <c r="D139" s="36"/>
       <c r="E139" s="20">
         <v>3</v>
       </c>
@@ -5069,12 +5255,12 @@
       <c r="G139" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="J139" s="34"/>
+      <c r="J139" s="30"/>
       <c r="K139" s="2"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B140" s="19"/>
-      <c r="D140" s="30"/>
+      <c r="D140" s="36"/>
       <c r="E140" s="20">
         <v>4</v>
       </c>
@@ -5084,25 +5270,25 @@
       <c r="G140" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="J140" s="34"/>
+      <c r="J140" s="30"/>
       <c r="K140" s="2"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B141" s="19"/>
-      <c r="J141" s="34"/>
+      <c r="J141" s="30"/>
       <c r="K141" s="2"/>
     </row>
     <row r="142" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="37" t="s">
+      <c r="A142" s="33" t="s">
         <v>185</v>
       </c>
       <c r="B142" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C142" s="34" t="s">
+      <c r="C142" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D142" s="30" t="s">
+      <c r="D142" s="36" t="s">
         <v>186</v>
       </c>
       <c r="E142" s="20">
@@ -5114,12 +5300,12 @@
       <c r="H142" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J142" s="34"/>
+      <c r="J142" s="30"/>
       <c r="K142" s="2"/>
     </row>
     <row r="143" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B143" s="19"/>
-      <c r="D143" s="30"/>
+      <c r="D143" s="36"/>
       <c r="E143" s="20">
         <v>2</v>
       </c>
@@ -5129,12 +5315,12 @@
       <c r="G143" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="J143" s="34"/>
+      <c r="J143" s="30"/>
       <c r="K143" s="2"/>
     </row>
     <row r="144" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="B144" s="19"/>
-      <c r="D144" s="30"/>
+      <c r="D144" s="36"/>
       <c r="E144" s="20">
         <v>3</v>
       </c>
@@ -5144,12 +5330,12 @@
       <c r="G144" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="J144" s="34"/>
+      <c r="J144" s="30"/>
       <c r="K144" s="2"/>
     </row>
     <row r="145" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B145" s="19"/>
-      <c r="D145" s="30"/>
+      <c r="D145" s="36"/>
       <c r="E145" s="20">
         <v>4</v>
       </c>
@@ -5159,12 +5345,12 @@
       <c r="G145" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="J145" s="34"/>
+      <c r="J145" s="30"/>
       <c r="K145" s="2"/>
     </row>
     <row r="146" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B146" s="19"/>
-      <c r="D146" s="30"/>
+      <c r="D146" s="36"/>
       <c r="E146" s="20">
         <v>5</v>
       </c>
@@ -5174,12 +5360,12 @@
       <c r="G146" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="J146" s="34"/>
+      <c r="J146" s="30"/>
       <c r="K146" s="2"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B147" s="19"/>
-      <c r="J147" s="34"/>
+      <c r="J147" s="30"/>
       <c r="K147" s="2"/>
     </row>
     <row r="148" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -5189,10 +5375,10 @@
       <c r="B148" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C148" s="34" t="s">
+      <c r="C148" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D148" s="30" t="s">
+      <c r="D148" s="36" t="s">
         <v>192</v>
       </c>
       <c r="E148" s="20">
@@ -5204,12 +5390,12 @@
       <c r="H148" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J148" s="34"/>
+      <c r="J148" s="30"/>
       <c r="K148" s="2"/>
     </row>
     <row r="149" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="19"/>
-      <c r="D149" s="30"/>
+      <c r="D149" s="36"/>
       <c r="E149" s="20">
         <v>2</v>
       </c>
@@ -5219,12 +5405,12 @@
       <c r="G149" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="J149" s="34"/>
+      <c r="J149" s="30"/>
       <c r="K149" s="2"/>
     </row>
     <row r="150" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B150" s="19"/>
-      <c r="D150" s="30"/>
+      <c r="D150" s="36"/>
       <c r="E150" s="20">
         <v>3</v>
       </c>
@@ -5234,12 +5420,12 @@
       <c r="G150" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="J150" s="34"/>
+      <c r="J150" s="30"/>
       <c r="K150" s="2"/>
     </row>
     <row r="151" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B151" s="19"/>
-      <c r="D151" s="30"/>
+      <c r="D151" s="36"/>
       <c r="E151" s="20">
         <v>4</v>
       </c>
@@ -5249,12 +5435,12 @@
       <c r="G151" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="J151" s="34"/>
+      <c r="J151" s="30"/>
       <c r="K151" s="2"/>
     </row>
     <row r="152" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B152" s="19"/>
-      <c r="D152" s="30"/>
+      <c r="D152" s="36"/>
       <c r="E152" s="20">
         <v>5</v>
       </c>
@@ -5264,12 +5450,12 @@
       <c r="G152" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="J152" s="34"/>
+      <c r="J152" s="30"/>
       <c r="K152" s="2"/>
     </row>
     <row r="153" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B153" s="19"/>
-      <c r="D153" s="30"/>
+      <c r="D153" s="36"/>
       <c r="E153" s="20">
         <v>6</v>
       </c>
@@ -5279,12 +5465,12 @@
       <c r="G153" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="J153" s="34"/>
+      <c r="J153" s="30"/>
       <c r="K153" s="2"/>
     </row>
     <row r="154" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B154" s="19"/>
-      <c r="D154" s="30"/>
+      <c r="D154" s="36"/>
       <c r="E154" s="20">
         <v>7</v>
       </c>
@@ -5294,12 +5480,12 @@
       <c r="G154" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="J154" s="34"/>
+      <c r="J154" s="30"/>
       <c r="K154" s="2"/>
     </row>
     <row r="155" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B155" s="19"/>
-      <c r="D155" s="30"/>
+      <c r="D155" s="36"/>
       <c r="E155" s="20">
         <v>8</v>
       </c>
@@ -5309,12 +5495,12 @@
       <c r="G155" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="J155" s="34"/>
+      <c r="J155" s="30"/>
       <c r="K155" s="2"/>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B156" s="19"/>
-      <c r="J156" s="34"/>
+      <c r="J156" s="30"/>
       <c r="K156" s="2"/>
     </row>
     <row r="157" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -5324,10 +5510,10 @@
       <c r="B157" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C157" s="34" t="s">
+      <c r="C157" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D157" s="30" t="s">
+      <c r="D157" s="36" t="s">
         <v>203</v>
       </c>
       <c r="E157" s="20">
@@ -5339,12 +5525,12 @@
       <c r="H157" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J157" s="34"/>
+      <c r="J157" s="30"/>
       <c r="K157" s="2"/>
     </row>
     <row r="158" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B158" s="19"/>
-      <c r="D158" s="30"/>
+      <c r="D158" s="36"/>
       <c r="E158" s="20">
         <v>2</v>
       </c>
@@ -5354,12 +5540,12 @@
       <c r="G158" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="J158" s="34"/>
+      <c r="J158" s="30"/>
       <c r="K158" s="2"/>
     </row>
     <row r="159" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B159" s="19"/>
-      <c r="D159" s="30"/>
+      <c r="D159" s="36"/>
       <c r="E159" s="20">
         <v>3</v>
       </c>
@@ -5369,12 +5555,12 @@
       <c r="G159" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="J159" s="34"/>
+      <c r="J159" s="30"/>
       <c r="K159" s="2"/>
     </row>
     <row r="160" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B160" s="19"/>
-      <c r="D160" s="30"/>
+      <c r="D160" s="36"/>
       <c r="E160" s="20">
         <v>4</v>
       </c>
@@ -5384,12 +5570,12 @@
       <c r="G160" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="J160" s="34"/>
+      <c r="J160" s="30"/>
       <c r="K160" s="2"/>
     </row>
     <row r="161" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B161" s="19"/>
-      <c r="D161" s="30"/>
+      <c r="D161" s="36"/>
       <c r="E161" s="20">
         <v>5</v>
       </c>
@@ -5399,12 +5585,12 @@
       <c r="G161" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="J161" s="34"/>
+      <c r="J161" s="30"/>
       <c r="K161" s="2"/>
     </row>
     <row r="162" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B162" s="19"/>
-      <c r="D162" s="30"/>
+      <c r="D162" s="36"/>
       <c r="E162" s="20">
         <v>6</v>
       </c>
@@ -5414,12 +5600,12 @@
       <c r="G162" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="J162" s="34"/>
+      <c r="J162" s="30"/>
       <c r="K162" s="2"/>
     </row>
     <row r="163" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B163" s="19"/>
-      <c r="D163" s="30"/>
+      <c r="D163" s="36"/>
       <c r="E163" s="20">
         <v>7</v>
       </c>
@@ -5429,12 +5615,12 @@
       <c r="G163" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="J163" s="34"/>
+      <c r="J163" s="30"/>
       <c r="K163" s="2"/>
     </row>
     <row r="164" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B164" s="19"/>
-      <c r="D164" s="30"/>
+      <c r="D164" s="36"/>
       <c r="E164" s="20">
         <v>8</v>
       </c>
@@ -5444,12 +5630,12 @@
       <c r="G164" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="J164" s="34"/>
+      <c r="J164" s="30"/>
       <c r="K164" s="2"/>
     </row>
-    <row r="165" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B165" s="19"/>
-      <c r="D165" s="30"/>
+      <c r="D165" s="36"/>
       <c r="E165" s="20">
         <v>9</v>
       </c>
@@ -5459,12 +5645,12 @@
       <c r="G165" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="J165" s="34"/>
+      <c r="J165" s="30"/>
       <c r="K165" s="2"/>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B166" s="19"/>
-      <c r="J166" s="34"/>
+      <c r="J166" s="30"/>
       <c r="K166" s="2"/>
     </row>
     <row r="167" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -5474,10 +5660,10 @@
       <c r="B167" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C167" s="34" t="s">
+      <c r="C167" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D167" s="30" t="s">
+      <c r="D167" s="36" t="s">
         <v>209</v>
       </c>
       <c r="E167" s="20">
@@ -5489,12 +5675,12 @@
       <c r="H167" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J167" s="34"/>
+      <c r="J167" s="30"/>
       <c r="K167" s="2"/>
     </row>
     <row r="168" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B168" s="19"/>
-      <c r="D168" s="30"/>
+      <c r="D168" s="36"/>
       <c r="E168" s="20">
         <v>2</v>
       </c>
@@ -5504,12 +5690,12 @@
       <c r="G168" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="J168" s="34"/>
+      <c r="J168" s="30"/>
       <c r="K168" s="2"/>
     </row>
     <row r="169" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B169" s="19"/>
-      <c r="D169" s="30"/>
+      <c r="D169" s="36"/>
       <c r="E169" s="20">
         <v>3</v>
       </c>
@@ -5519,12 +5705,12 @@
       <c r="G169" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="J169" s="34"/>
+      <c r="J169" s="30"/>
       <c r="K169" s="2"/>
     </row>
     <row r="170" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B170" s="19"/>
-      <c r="D170" s="30"/>
+      <c r="D170" s="36"/>
       <c r="E170" s="20">
         <v>4</v>
       </c>
@@ -5534,12 +5720,12 @@
       <c r="G170" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="J170" s="34"/>
+      <c r="J170" s="30"/>
       <c r="K170" s="2"/>
     </row>
     <row r="171" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B171" s="19"/>
-      <c r="D171" s="30"/>
+      <c r="D171" s="36"/>
       <c r="E171" s="20">
         <v>5</v>
       </c>
@@ -5549,12 +5735,12 @@
       <c r="G171" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="J171" s="34"/>
+      <c r="J171" s="30"/>
       <c r="K171" s="2"/>
     </row>
     <row r="172" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B172" s="19"/>
-      <c r="D172" s="30"/>
+      <c r="D172" s="36"/>
       <c r="E172" s="20">
         <v>6</v>
       </c>
@@ -5564,12 +5750,12 @@
       <c r="G172" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="J172" s="34"/>
+      <c r="J172" s="30"/>
       <c r="K172" s="2"/>
     </row>
     <row r="173" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B173" s="19"/>
-      <c r="D173" s="30"/>
+      <c r="D173" s="36"/>
       <c r="E173" s="20">
         <v>7</v>
       </c>
@@ -5579,12 +5765,12 @@
       <c r="G173" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="J173" s="34"/>
+      <c r="J173" s="30"/>
       <c r="K173" s="2"/>
     </row>
     <row r="174" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B174" s="19"/>
-      <c r="D174" s="30"/>
+      <c r="D174" s="36"/>
       <c r="E174" s="20">
         <v>8</v>
       </c>
@@ -5594,12 +5780,12 @@
       <c r="G174" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="J174" s="34"/>
+      <c r="J174" s="30"/>
       <c r="K174" s="2"/>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B175" s="19"/>
-      <c r="D175" s="30"/>
+      <c r="D175" s="36"/>
       <c r="E175" s="20">
         <v>9</v>
       </c>
@@ -5609,12 +5795,12 @@
       <c r="G175" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="J175" s="34"/>
+      <c r="J175" s="30"/>
       <c r="K175" s="2"/>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B176" s="19"/>
-      <c r="J176" s="34"/>
+      <c r="J176" s="30"/>
       <c r="K176" s="2"/>
     </row>
     <row r="177" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5624,10 +5810,10 @@
       <c r="B177" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C177" s="34" t="s">
+      <c r="C177" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D177" s="30" t="s">
+      <c r="D177" s="36" t="s">
         <v>211</v>
       </c>
       <c r="E177" s="20">
@@ -5639,12 +5825,12 @@
       <c r="H177" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J177" s="34"/>
+      <c r="J177" s="30"/>
       <c r="K177" s="2"/>
     </row>
     <row r="178" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B178" s="19"/>
-      <c r="D178" s="30"/>
+      <c r="D178" s="36"/>
       <c r="E178" s="20">
         <v>2</v>
       </c>
@@ -5654,12 +5840,12 @@
       <c r="G178" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="J178" s="34"/>
+      <c r="J178" s="30"/>
       <c r="K178" s="2"/>
     </row>
     <row r="179" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B179" s="19"/>
-      <c r="D179" s="30"/>
+      <c r="D179" s="36"/>
       <c r="E179" s="20">
         <v>3</v>
       </c>
@@ -5669,12 +5855,12 @@
       <c r="G179" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="J179" s="34"/>
+      <c r="J179" s="30"/>
       <c r="K179" s="2"/>
     </row>
     <row r="180" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B180" s="19"/>
-      <c r="D180" s="30"/>
+      <c r="D180" s="36"/>
       <c r="E180" s="20">
         <v>4</v>
       </c>
@@ -5684,12 +5870,12 @@
       <c r="G180" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="J180" s="34"/>
+      <c r="J180" s="30"/>
       <c r="K180" s="2"/>
     </row>
     <row r="181" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B181" s="19"/>
-      <c r="D181" s="30"/>
+      <c r="D181" s="36"/>
       <c r="E181" s="20">
         <v>5</v>
       </c>
@@ -5699,12 +5885,12 @@
       <c r="G181" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="J181" s="34"/>
+      <c r="J181" s="30"/>
       <c r="K181" s="2"/>
     </row>
     <row r="182" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B182" s="19"/>
-      <c r="D182" s="30"/>
+      <c r="D182" s="36"/>
       <c r="E182" s="20">
         <v>6</v>
       </c>
@@ -5714,12 +5900,12 @@
       <c r="G182" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="J182" s="34"/>
+      <c r="J182" s="30"/>
       <c r="K182" s="2"/>
     </row>
     <row r="183" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B183" s="19"/>
-      <c r="D183" s="30"/>
+      <c r="D183" s="36"/>
       <c r="E183" s="20">
         <v>7</v>
       </c>
@@ -5729,12 +5915,12 @@
       <c r="G183" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="J183" s="34"/>
+      <c r="J183" s="30"/>
       <c r="K183" s="2"/>
     </row>
     <row r="184" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B184" s="19"/>
-      <c r="D184" s="30"/>
+      <c r="D184" s="36"/>
       <c r="E184" s="20">
         <v>8</v>
       </c>
@@ -5744,12 +5930,12 @@
       <c r="G184" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="J184" s="34"/>
+      <c r="J184" s="30"/>
       <c r="K184" s="2"/>
     </row>
-    <row r="185" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B185" s="19"/>
-      <c r="D185" s="30"/>
+      <c r="D185" s="36"/>
       <c r="E185" s="20">
         <v>9</v>
       </c>
@@ -5759,12 +5945,12 @@
       <c r="G185" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="J185" s="34"/>
+      <c r="J185" s="30"/>
       <c r="K185" s="2"/>
     </row>
     <row r="186" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B186" s="19"/>
-      <c r="D186" s="30"/>
+      <c r="D186" s="36"/>
       <c r="E186" s="20">
         <v>10</v>
       </c>
@@ -5774,12 +5960,12 @@
       <c r="G186" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="J186" s="34"/>
+      <c r="J186" s="30"/>
       <c r="K186" s="2"/>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B187" s="19"/>
-      <c r="J187" s="34"/>
+      <c r="J187" s="30"/>
       <c r="K187" s="2"/>
     </row>
     <row r="188" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -5789,10 +5975,10 @@
       <c r="B188" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C188" s="34" t="s">
+      <c r="C188" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D188" s="30" t="s">
+      <c r="D188" s="36" t="s">
         <v>213</v>
       </c>
       <c r="E188" s="20">
@@ -5804,12 +5990,12 @@
       <c r="H188" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J188" s="34"/>
+      <c r="J188" s="30"/>
       <c r="K188" s="2"/>
     </row>
     <row r="189" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B189" s="19"/>
-      <c r="D189" s="30"/>
+      <c r="D189" s="36"/>
       <c r="E189" s="20">
         <v>2</v>
       </c>
@@ -5819,12 +6005,12 @@
       <c r="G189" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="J189" s="34"/>
+      <c r="J189" s="30"/>
       <c r="K189" s="2"/>
     </row>
     <row r="190" spans="1:11" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="19"/>
-      <c r="D190" s="30"/>
+      <c r="D190" s="36"/>
       <c r="E190" s="20">
         <v>3</v>
       </c>
@@ -5834,12 +6020,12 @@
       <c r="G190" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="J190" s="34"/>
+      <c r="J190" s="30"/>
       <c r="K190" s="2"/>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B191" s="19"/>
-      <c r="J191" s="34"/>
+      <c r="J191" s="30"/>
       <c r="K191" s="2"/>
     </row>
     <row r="192" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5849,10 +6035,10 @@
       <c r="B192" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C192" s="34" t="s">
+      <c r="C192" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D192" s="30" t="s">
+      <c r="D192" s="36" t="s">
         <v>217</v>
       </c>
       <c r="E192" s="20">
@@ -5864,12 +6050,12 @@
       <c r="H192" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J192" s="34"/>
+      <c r="J192" s="30"/>
       <c r="K192" s="2"/>
     </row>
     <row r="193" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B193" s="19"/>
-      <c r="D193" s="30"/>
+      <c r="D193" s="36"/>
       <c r="E193" s="20">
         <v>2</v>
       </c>
@@ -5879,12 +6065,12 @@
       <c r="G193" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="J193" s="34"/>
+      <c r="J193" s="30"/>
       <c r="K193" s="2"/>
     </row>
     <row r="194" spans="1:11" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="19"/>
-      <c r="D194" s="30"/>
+      <c r="D194" s="36"/>
       <c r="E194" s="20">
         <v>3</v>
       </c>
@@ -5894,12 +6080,12 @@
       <c r="G194" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="J194" s="34"/>
+      <c r="J194" s="30"/>
       <c r="K194" s="2"/>
     </row>
     <row r="195" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B195" s="19"/>
-      <c r="D195" s="30"/>
+      <c r="D195" s="36"/>
       <c r="E195" s="20">
         <v>4</v>
       </c>
@@ -5909,12 +6095,12 @@
       <c r="G195" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="J195" s="34"/>
+      <c r="J195" s="30"/>
       <c r="K195" s="2"/>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B196" s="19"/>
-      <c r="J196" s="34"/>
+      <c r="J196" s="30"/>
       <c r="K196" s="2"/>
     </row>
     <row r="197" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5924,10 +6110,10 @@
       <c r="B197" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C197" s="34" t="s">
+      <c r="C197" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D197" s="30" t="s">
+      <c r="D197" s="36" t="s">
         <v>222</v>
       </c>
       <c r="E197" s="20">
@@ -5939,12 +6125,12 @@
       <c r="H197" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J197" s="34"/>
+      <c r="J197" s="30"/>
       <c r="K197" s="2"/>
     </row>
     <row r="198" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B198" s="19"/>
-      <c r="D198" s="30"/>
+      <c r="D198" s="36"/>
       <c r="E198" s="20">
         <v>2</v>
       </c>
@@ -5954,12 +6140,12 @@
       <c r="G198" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="J198" s="34"/>
+      <c r="J198" s="30"/>
       <c r="K198" s="2"/>
     </row>
     <row r="199" spans="1:11" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="19"/>
-      <c r="D199" s="30"/>
+      <c r="D199" s="36"/>
       <c r="E199" s="20">
         <v>3</v>
       </c>
@@ -5969,12 +6155,12 @@
       <c r="G199" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="J199" s="34"/>
+      <c r="J199" s="30"/>
       <c r="K199" s="2"/>
     </row>
     <row r="200" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B200" s="19"/>
-      <c r="D200" s="30"/>
+      <c r="D200" s="36"/>
       <c r="E200" s="20">
         <v>4</v>
       </c>
@@ -5984,12 +6170,12 @@
       <c r="G200" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="J200" s="34"/>
+      <c r="J200" s="30"/>
       <c r="K200" s="2"/>
     </row>
     <row r="201" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B201" s="19"/>
-      <c r="D201" s="30"/>
+      <c r="D201" s="36"/>
       <c r="E201" s="20">
         <v>5</v>
       </c>
@@ -5999,12 +6185,12 @@
       <c r="G201" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="J201" s="34"/>
+      <c r="J201" s="30"/>
       <c r="K201" s="2"/>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B202" s="19"/>
-      <c r="J202" s="34"/>
+      <c r="J202" s="30"/>
       <c r="K202" s="2"/>
     </row>
     <row r="203" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6014,10 +6200,10 @@
       <c r="B203" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C203" s="34" t="s">
+      <c r="C203" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D203" s="30" t="s">
+      <c r="D203" s="36" t="s">
         <v>223</v>
       </c>
       <c r="E203" s="20">
@@ -6029,12 +6215,12 @@
       <c r="H203" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J203" s="34"/>
+      <c r="J203" s="30"/>
       <c r="K203" s="2"/>
     </row>
     <row r="204" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B204" s="19"/>
-      <c r="D204" s="30"/>
+      <c r="D204" s="36"/>
       <c r="E204" s="20">
         <v>2</v>
       </c>
@@ -6044,12 +6230,12 @@
       <c r="G204" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="J204" s="34"/>
+      <c r="J204" s="30"/>
       <c r="K204" s="2"/>
     </row>
     <row r="205" spans="1:11" ht="141" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="19"/>
-      <c r="D205" s="30"/>
+      <c r="D205" s="36"/>
       <c r="E205" s="20">
         <v>3</v>
       </c>
@@ -6059,12 +6245,12 @@
       <c r="G205" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="J205" s="34"/>
+      <c r="J205" s="30"/>
       <c r="K205" s="2"/>
     </row>
     <row r="206" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B206" s="19"/>
-      <c r="D206" s="30"/>
+      <c r="D206" s="36"/>
       <c r="E206" s="20">
         <v>4</v>
       </c>
@@ -6074,12 +6260,12 @@
       <c r="G206" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="J206" s="34"/>
+      <c r="J206" s="30"/>
       <c r="K206" s="2"/>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B207" s="19"/>
-      <c r="D207" s="30"/>
+      <c r="D207" s="36"/>
       <c r="E207" s="20">
         <v>5</v>
       </c>
@@ -6089,12 +6275,12 @@
       <c r="G207" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="J207" s="34"/>
+      <c r="J207" s="30"/>
       <c r="K207" s="2"/>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B208" s="19"/>
-      <c r="J208" s="34"/>
+      <c r="J208" s="30"/>
       <c r="K208" s="2"/>
     </row>
     <row r="209" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6104,10 +6290,10 @@
       <c r="B209" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C209" s="34" t="s">
+      <c r="C209" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D209" s="30" t="s">
+      <c r="D209" s="36" t="s">
         <v>226</v>
       </c>
       <c r="E209" s="20">
@@ -6119,12 +6305,12 @@
       <c r="H209" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J209" s="34"/>
+      <c r="J209" s="30"/>
       <c r="K209" s="2"/>
     </row>
     <row r="210" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B210" s="19"/>
-      <c r="D210" s="30"/>
+      <c r="D210" s="36"/>
       <c r="E210" s="20">
         <v>2</v>
       </c>
@@ -6134,12 +6320,12 @@
       <c r="G210" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="J210" s="34"/>
+      <c r="J210" s="30"/>
       <c r="K210" s="2"/>
     </row>
     <row r="211" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B211" s="19"/>
-      <c r="D211" s="30"/>
+      <c r="D211" s="36"/>
       <c r="E211" s="20">
         <v>3</v>
       </c>
@@ -6149,12 +6335,12 @@
       <c r="G211" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="J211" s="34"/>
+      <c r="J211" s="30"/>
       <c r="K211" s="2"/>
     </row>
-    <row r="212" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B212" s="19"/>
-      <c r="D212" s="30"/>
+      <c r="D212" s="36"/>
       <c r="E212" s="20">
         <v>4</v>
       </c>
@@ -6164,12 +6350,12 @@
       <c r="G212" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="J212" s="34"/>
+      <c r="J212" s="30"/>
       <c r="K212" s="2"/>
     </row>
     <row r="213" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B213" s="19"/>
-      <c r="D213" s="30"/>
+      <c r="D213" s="36"/>
       <c r="E213" s="20">
         <v>5</v>
       </c>
@@ -6179,12 +6365,12 @@
       <c r="G213" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="J213" s="34"/>
+      <c r="J213" s="30"/>
       <c r="K213" s="2"/>
     </row>
     <row r="214" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B214" s="19"/>
-      <c r="D214" s="30"/>
+      <c r="D214" s="36"/>
       <c r="E214" s="20">
         <v>6</v>
       </c>
@@ -6194,12 +6380,12 @@
       <c r="G214" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="J214" s="34"/>
+      <c r="J214" s="30"/>
       <c r="K214" s="2"/>
     </row>
     <row r="215" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B215" s="19"/>
-      <c r="D215" s="30"/>
+      <c r="D215" s="36"/>
       <c r="E215" s="20">
         <v>7</v>
       </c>
@@ -6209,12 +6395,12 @@
       <c r="G215" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="J215" s="34"/>
+      <c r="J215" s="30"/>
       <c r="K215" s="2"/>
     </row>
-    <row r="216" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B216" s="19"/>
-      <c r="D216" s="30"/>
+      <c r="D216" s="36"/>
       <c r="E216" s="20">
         <v>8</v>
       </c>
@@ -6224,12 +6410,12 @@
       <c r="G216" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="J216" s="34"/>
+      <c r="J216" s="30"/>
       <c r="K216" s="2"/>
     </row>
-    <row r="217" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B217" s="19"/>
-      <c r="D217" s="30"/>
+      <c r="D217" s="36"/>
       <c r="E217" s="20">
         <v>9</v>
       </c>
@@ -6239,12 +6425,12 @@
       <c r="G217" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="J217" s="34"/>
+      <c r="J217" s="30"/>
       <c r="K217" s="2"/>
     </row>
-    <row r="218" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B218" s="19"/>
-      <c r="D218" s="30"/>
+      <c r="D218" s="36"/>
       <c r="E218" s="20">
         <v>10</v>
       </c>
@@ -6254,12 +6440,12 @@
       <c r="G218" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="J218" s="34"/>
+      <c r="J218" s="30"/>
       <c r="K218" s="2"/>
     </row>
-    <row r="219" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B219" s="19"/>
-      <c r="D219" s="30"/>
+      <c r="D219" s="36"/>
       <c r="E219" s="20">
         <v>11</v>
       </c>
@@ -6269,12 +6455,12 @@
       <c r="G219" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="J219" s="34"/>
+      <c r="J219" s="30"/>
       <c r="K219" s="2"/>
     </row>
     <row r="220" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B220" s="19"/>
-      <c r="D220" s="30"/>
+      <c r="D220" s="36"/>
       <c r="E220" s="20">
         <v>12</v>
       </c>
@@ -6284,12 +6470,12 @@
       <c r="G220" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="J220" s="34"/>
+      <c r="J220" s="30"/>
       <c r="K220" s="2"/>
     </row>
-    <row r="221" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B221" s="19"/>
-      <c r="D221" s="30"/>
+      <c r="D221" s="36"/>
       <c r="E221" s="20">
         <v>13</v>
       </c>
@@ -6299,12 +6485,12 @@
       <c r="G221" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="J221" s="34"/>
+      <c r="J221" s="30"/>
       <c r="K221" s="2"/>
     </row>
     <row r="222" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="19"/>
-      <c r="D222" s="30"/>
+      <c r="D222" s="36"/>
       <c r="E222" s="20">
         <v>14</v>
       </c>
@@ -6314,12 +6500,12 @@
       <c r="G222" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="J222" s="34"/>
+      <c r="J222" s="30"/>
       <c r="K222" s="2"/>
     </row>
     <row r="223" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="19"/>
-      <c r="D223" s="30"/>
+      <c r="D223" s="36"/>
       <c r="E223" s="20">
         <v>15</v>
       </c>
@@ -6329,12 +6515,12 @@
       <c r="G223" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="J223" s="34"/>
+      <c r="J223" s="30"/>
       <c r="K223" s="2"/>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B224" s="19"/>
-      <c r="J224" s="34"/>
+      <c r="J224" s="30"/>
       <c r="K224" s="2"/>
     </row>
     <row r="225" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6344,10 +6530,10 @@
       <c r="B225" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C225" s="34" t="s">
+      <c r="C225" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D225" s="30" t="s">
+      <c r="D225" s="36" t="s">
         <v>257</v>
       </c>
       <c r="E225" s="20">
@@ -6359,12 +6545,12 @@
       <c r="H225" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J225" s="34"/>
+      <c r="J225" s="30"/>
       <c r="K225" s="2"/>
     </row>
     <row r="226" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B226" s="19"/>
-      <c r="D226" s="30"/>
+      <c r="D226" s="36"/>
       <c r="E226" s="20">
         <v>2</v>
       </c>
@@ -6374,12 +6560,12 @@
       <c r="G226" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="J226" s="34"/>
+      <c r="J226" s="30"/>
       <c r="K226" s="2"/>
     </row>
     <row r="227" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B227" s="19"/>
-      <c r="D227" s="30"/>
+      <c r="D227" s="36"/>
       <c r="E227" s="20">
         <v>3</v>
       </c>
@@ -6389,12 +6575,12 @@
       <c r="G227" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="J227" s="34"/>
+      <c r="J227" s="30"/>
       <c r="K227" s="2"/>
     </row>
-    <row r="228" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B228" s="19"/>
-      <c r="D228" s="30"/>
+      <c r="D228" s="36"/>
       <c r="E228" s="20">
         <v>4</v>
       </c>
@@ -6404,12 +6590,12 @@
       <c r="G228" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="J228" s="34"/>
+      <c r="J228" s="30"/>
       <c r="K228" s="2"/>
     </row>
     <row r="229" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B229" s="19"/>
-      <c r="D229" s="30"/>
+      <c r="D229" s="36"/>
       <c r="E229" s="20">
         <v>5</v>
       </c>
@@ -6419,12 +6605,12 @@
       <c r="G229" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="J229" s="34"/>
+      <c r="J229" s="30"/>
       <c r="K229" s="2"/>
     </row>
     <row r="230" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B230" s="19"/>
-      <c r="D230" s="30"/>
+      <c r="D230" s="36"/>
       <c r="E230" s="20">
         <v>6</v>
       </c>
@@ -6434,12 +6620,12 @@
       <c r="G230" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="J230" s="34"/>
+      <c r="J230" s="30"/>
       <c r="K230" s="2"/>
     </row>
     <row r="231" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B231" s="19"/>
-      <c r="D231" s="30"/>
+      <c r="D231" s="36"/>
       <c r="E231" s="20">
         <v>7</v>
       </c>
@@ -6449,12 +6635,12 @@
       <c r="G231" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="J231" s="34"/>
+      <c r="J231" s="30"/>
       <c r="K231" s="2"/>
     </row>
-    <row r="232" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B232" s="19"/>
-      <c r="D232" s="30"/>
+      <c r="D232" s="36"/>
       <c r="E232" s="20">
         <v>8</v>
       </c>
@@ -6464,12 +6650,12 @@
       <c r="G232" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="J232" s="34"/>
+      <c r="J232" s="30"/>
       <c r="K232" s="2"/>
     </row>
-    <row r="233" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B233" s="19"/>
-      <c r="D233" s="30"/>
+      <c r="D233" s="36"/>
       <c r="E233" s="20">
         <v>9</v>
       </c>
@@ -6479,12 +6665,12 @@
       <c r="G233" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="J233" s="34"/>
+      <c r="J233" s="30"/>
       <c r="K233" s="2"/>
     </row>
-    <row r="234" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B234" s="19"/>
-      <c r="D234" s="30"/>
+      <c r="D234" s="36"/>
       <c r="E234" s="20">
         <v>10</v>
       </c>
@@ -6494,12 +6680,12 @@
       <c r="G234" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="J234" s="34"/>
+      <c r="J234" s="30"/>
       <c r="K234" s="2"/>
     </row>
-    <row r="235" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B235" s="19"/>
-      <c r="D235" s="30"/>
+      <c r="D235" s="36"/>
       <c r="E235" s="20">
         <v>11</v>
       </c>
@@ -6509,12 +6695,12 @@
       <c r="G235" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="J235" s="34"/>
+      <c r="J235" s="30"/>
       <c r="K235" s="2"/>
     </row>
     <row r="236" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B236" s="19"/>
-      <c r="D236" s="30"/>
+      <c r="D236" s="36"/>
       <c r="E236" s="20">
         <v>12</v>
       </c>
@@ -6524,12 +6710,12 @@
       <c r="G236" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="J236" s="34"/>
+      <c r="J236" s="30"/>
       <c r="K236" s="2"/>
     </row>
-    <row r="237" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B237" s="19"/>
-      <c r="D237" s="30"/>
+      <c r="D237" s="36"/>
       <c r="E237" s="20">
         <v>13</v>
       </c>
@@ -6539,12 +6725,12 @@
       <c r="G237" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="J237" s="34"/>
+      <c r="J237" s="30"/>
       <c r="K237" s="2"/>
     </row>
     <row r="238" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B238" s="19"/>
-      <c r="D238" s="30"/>
+      <c r="D238" s="36"/>
       <c r="E238" s="20">
         <v>14</v>
       </c>
@@ -6554,12 +6740,12 @@
       <c r="G238" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="J238" s="34"/>
+      <c r="J238" s="30"/>
       <c r="K238" s="2"/>
     </row>
     <row r="239" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B239" s="19"/>
-      <c r="D239" s="30"/>
+      <c r="D239" s="36"/>
       <c r="E239" s="20">
         <v>15</v>
       </c>
@@ -6569,12 +6755,12 @@
       <c r="G239" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="J239" s="34"/>
+      <c r="J239" s="30"/>
       <c r="K239" s="2"/>
     </row>
     <row r="240" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B240" s="19"/>
-      <c r="D240" s="30"/>
+      <c r="D240" s="36"/>
       <c r="E240" s="20">
         <v>16</v>
       </c>
@@ -6584,12 +6770,12 @@
       <c r="G240" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="J240" s="34"/>
+      <c r="J240" s="30"/>
       <c r="K240" s="2"/>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B241" s="19"/>
-      <c r="J241" s="34"/>
+      <c r="J241" s="30"/>
       <c r="K241" s="2"/>
     </row>
     <row r="242" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6599,10 +6785,10 @@
       <c r="B242" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C242" s="34" t="s">
+      <c r="C242" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D242" s="30" t="s">
+      <c r="D242" s="36" t="s">
         <v>263</v>
       </c>
       <c r="E242" s="20">
@@ -6614,12 +6800,12 @@
       <c r="H242" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J242" s="34"/>
+      <c r="J242" s="30"/>
       <c r="K242" s="2"/>
     </row>
     <row r="243" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B243" s="19"/>
-      <c r="D243" s="30"/>
+      <c r="D243" s="36"/>
       <c r="E243" s="20">
         <v>2</v>
       </c>
@@ -6629,12 +6815,12 @@
       <c r="G243" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="J243" s="34"/>
+      <c r="J243" s="30"/>
       <c r="K243" s="2"/>
     </row>
     <row r="244" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B244" s="19"/>
-      <c r="D244" s="30"/>
+      <c r="D244" s="36"/>
       <c r="E244" s="20">
         <v>3</v>
       </c>
@@ -6644,12 +6830,12 @@
       <c r="G244" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="J244" s="34"/>
+      <c r="J244" s="30"/>
       <c r="K244" s="2"/>
     </row>
-    <row r="245" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B245" s="19"/>
-      <c r="D245" s="30"/>
+      <c r="D245" s="36"/>
       <c r="E245" s="20">
         <v>4</v>
       </c>
@@ -6659,12 +6845,12 @@
       <c r="G245" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="J245" s="34"/>
+      <c r="J245" s="30"/>
       <c r="K245" s="2"/>
     </row>
     <row r="246" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B246" s="19"/>
-      <c r="D246" s="30"/>
+      <c r="D246" s="36"/>
       <c r="E246" s="20">
         <v>5</v>
       </c>
@@ -6674,12 +6860,12 @@
       <c r="G246" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="J246" s="34"/>
+      <c r="J246" s="30"/>
       <c r="K246" s="2"/>
     </row>
     <row r="247" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B247" s="19"/>
-      <c r="D247" s="30"/>
+      <c r="D247" s="36"/>
       <c r="E247" s="20">
         <v>6</v>
       </c>
@@ -6689,12 +6875,12 @@
       <c r="G247" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="J247" s="34"/>
+      <c r="J247" s="30"/>
       <c r="K247" s="2"/>
     </row>
     <row r="248" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B248" s="19"/>
-      <c r="D248" s="30"/>
+      <c r="D248" s="36"/>
       <c r="E248" s="20">
         <v>7</v>
       </c>
@@ -6704,12 +6890,12 @@
       <c r="G248" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="J248" s="34"/>
+      <c r="J248" s="30"/>
       <c r="K248" s="2"/>
     </row>
-    <row r="249" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B249" s="19"/>
-      <c r="D249" s="30"/>
+      <c r="D249" s="36"/>
       <c r="E249" s="20">
         <v>8</v>
       </c>
@@ -6719,12 +6905,12 @@
       <c r="G249" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="J249" s="34"/>
+      <c r="J249" s="30"/>
       <c r="K249" s="2"/>
     </row>
-    <row r="250" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B250" s="19"/>
-      <c r="D250" s="30"/>
+      <c r="D250" s="36"/>
       <c r="E250" s="20">
         <v>9</v>
       </c>
@@ -6734,12 +6920,12 @@
       <c r="G250" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="J250" s="34"/>
+      <c r="J250" s="30"/>
       <c r="K250" s="2"/>
     </row>
-    <row r="251" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B251" s="19"/>
-      <c r="D251" s="30"/>
+      <c r="D251" s="36"/>
       <c r="E251" s="20">
         <v>10</v>
       </c>
@@ -6749,12 +6935,12 @@
       <c r="G251" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="J251" s="34"/>
+      <c r="J251" s="30"/>
       <c r="K251" s="2"/>
     </row>
-    <row r="252" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B252" s="19"/>
-      <c r="D252" s="30"/>
+      <c r="D252" s="36"/>
       <c r="E252" s="20">
         <v>11</v>
       </c>
@@ -6764,12 +6950,12 @@
       <c r="G252" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="J252" s="34"/>
+      <c r="J252" s="30"/>
       <c r="K252" s="2"/>
     </row>
     <row r="253" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B253" s="19"/>
-      <c r="D253" s="30"/>
+      <c r="D253" s="36"/>
       <c r="E253" s="20">
         <v>12</v>
       </c>
@@ -6779,12 +6965,12 @@
       <c r="G253" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="J253" s="34"/>
+      <c r="J253" s="30"/>
       <c r="K253" s="2"/>
     </row>
-    <row r="254" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B254" s="19"/>
-      <c r="D254" s="30"/>
+      <c r="D254" s="36"/>
       <c r="E254" s="20">
         <v>13</v>
       </c>
@@ -6794,12 +6980,12 @@
       <c r="G254" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="J254" s="34"/>
+      <c r="J254" s="30"/>
       <c r="K254" s="2"/>
     </row>
     <row r="255" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B255" s="19"/>
-      <c r="D255" s="30"/>
+      <c r="D255" s="36"/>
       <c r="E255" s="20">
         <v>14</v>
       </c>
@@ -6809,12 +6995,12 @@
       <c r="G255" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="J255" s="34"/>
+      <c r="J255" s="30"/>
       <c r="K255" s="2"/>
     </row>
     <row r="256" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B256" s="19"/>
-      <c r="D256" s="30"/>
+      <c r="D256" s="36"/>
       <c r="E256" s="20">
         <v>15</v>
       </c>
@@ -6824,12 +7010,12 @@
       <c r="G256" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="J256" s="34"/>
+      <c r="J256" s="30"/>
       <c r="K256" s="2"/>
     </row>
     <row r="257" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B257" s="19"/>
-      <c r="D257" s="30"/>
+      <c r="D257" s="36"/>
       <c r="E257" s="20">
         <v>16</v>
       </c>
@@ -6839,12 +7025,12 @@
       <c r="G257" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="J257" s="34"/>
+      <c r="J257" s="30"/>
       <c r="K257" s="2"/>
     </row>
-    <row r="258" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B258" s="19"/>
-      <c r="D258" s="30"/>
+      <c r="D258" s="36"/>
       <c r="E258" s="20">
         <v>17</v>
       </c>
@@ -6854,12 +7040,12 @@
       <c r="G258" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="J258" s="34"/>
+      <c r="J258" s="30"/>
       <c r="K258" s="2"/>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B259" s="19"/>
-      <c r="J259" s="34"/>
+      <c r="J259" s="30"/>
       <c r="K259" s="2"/>
     </row>
     <row r="260" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6869,10 +7055,10 @@
       <c r="B260" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C260" s="34" t="s">
+      <c r="C260" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D260" s="30" t="s">
+      <c r="D260" s="36" t="s">
         <v>226</v>
       </c>
       <c r="E260" s="20">
@@ -6884,12 +7070,12 @@
       <c r="H260" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J260" s="34"/>
+      <c r="J260" s="30"/>
       <c r="K260" s="2"/>
     </row>
     <row r="261" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B261" s="19"/>
-      <c r="D261" s="30"/>
+      <c r="D261" s="36"/>
       <c r="E261" s="20">
         <v>2</v>
       </c>
@@ -6899,12 +7085,12 @@
       <c r="G261" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="J261" s="34"/>
+      <c r="J261" s="30"/>
       <c r="K261" s="2"/>
     </row>
     <row r="262" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B262" s="19"/>
-      <c r="D262" s="30"/>
+      <c r="D262" s="36"/>
       <c r="E262" s="20">
         <v>3</v>
       </c>
@@ -6914,12 +7100,12 @@
       <c r="G262" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="J262" s="34"/>
+      <c r="J262" s="30"/>
       <c r="K262" s="2"/>
     </row>
-    <row r="263" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B263" s="19"/>
-      <c r="D263" s="30"/>
+      <c r="D263" s="36"/>
       <c r="E263" s="20">
         <v>4</v>
       </c>
@@ -6929,12 +7115,12 @@
       <c r="G263" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="J263" s="34"/>
+      <c r="J263" s="30"/>
       <c r="K263" s="2"/>
     </row>
     <row r="264" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B264" s="19"/>
-      <c r="D264" s="30"/>
+      <c r="D264" s="36"/>
       <c r="E264" s="20">
         <v>5</v>
       </c>
@@ -6944,12 +7130,12 @@
       <c r="G264" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="J264" s="34"/>
+      <c r="J264" s="30"/>
       <c r="K264" s="2"/>
     </row>
     <row r="265" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B265" s="19"/>
-      <c r="D265" s="30"/>
+      <c r="D265" s="36"/>
       <c r="E265" s="20">
         <v>6</v>
       </c>
@@ -6959,12 +7145,12 @@
       <c r="G265" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="J265" s="34"/>
+      <c r="J265" s="30"/>
       <c r="K265" s="2"/>
     </row>
     <row r="266" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B266" s="19"/>
-      <c r="D266" s="30"/>
+      <c r="D266" s="36"/>
       <c r="E266" s="20">
         <v>7</v>
       </c>
@@ -6974,12 +7160,12 @@
       <c r="G266" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="J266" s="34"/>
+      <c r="J266" s="30"/>
       <c r="K266" s="2"/>
     </row>
-    <row r="267" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B267" s="19"/>
-      <c r="D267" s="30"/>
+      <c r="D267" s="36"/>
       <c r="E267" s="20">
         <v>8</v>
       </c>
@@ -6989,12 +7175,12 @@
       <c r="G267" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="J267" s="34"/>
+      <c r="J267" s="30"/>
       <c r="K267" s="2"/>
     </row>
-    <row r="268" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B268" s="19"/>
-      <c r="D268" s="30"/>
+      <c r="D268" s="36"/>
       <c r="E268" s="20">
         <v>9</v>
       </c>
@@ -7004,12 +7190,12 @@
       <c r="G268" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="J268" s="34"/>
+      <c r="J268" s="30"/>
       <c r="K268" s="2"/>
     </row>
-    <row r="269" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B269" s="19"/>
-      <c r="D269" s="30"/>
+      <c r="D269" s="36"/>
       <c r="E269" s="20">
         <v>10</v>
       </c>
@@ -7019,12 +7205,12 @@
       <c r="G269" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="J269" s="34"/>
+      <c r="J269" s="30"/>
       <c r="K269" s="2"/>
     </row>
-    <row r="270" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B270" s="19"/>
-      <c r="D270" s="30"/>
+      <c r="D270" s="36"/>
       <c r="E270" s="20">
         <v>11</v>
       </c>
@@ -7034,12 +7220,12 @@
       <c r="G270" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="J270" s="34"/>
+      <c r="J270" s="30"/>
       <c r="K270" s="2"/>
     </row>
     <row r="271" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B271" s="19"/>
-      <c r="D271" s="30"/>
+      <c r="D271" s="36"/>
       <c r="E271" s="20">
         <v>12</v>
       </c>
@@ -7049,12 +7235,12 @@
       <c r="G271" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="J271" s="34"/>
+      <c r="J271" s="30"/>
       <c r="K271" s="2"/>
     </row>
-    <row r="272" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B272" s="19"/>
-      <c r="D272" s="30"/>
+      <c r="D272" s="36"/>
       <c r="E272" s="20">
         <v>13</v>
       </c>
@@ -7064,12 +7250,12 @@
       <c r="G272" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="J272" s="34"/>
+      <c r="J272" s="30"/>
       <c r="K272" s="2"/>
     </row>
     <row r="273" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B273" s="19"/>
-      <c r="D273" s="30"/>
+      <c r="D273" s="36"/>
       <c r="E273" s="20">
         <v>14</v>
       </c>
@@ -7079,12 +7265,12 @@
       <c r="G273" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="J273" s="34"/>
+      <c r="J273" s="30"/>
       <c r="K273" s="2"/>
     </row>
     <row r="274" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B274" s="19"/>
-      <c r="D274" s="30"/>
+      <c r="D274" s="36"/>
       <c r="E274" s="20">
         <v>15</v>
       </c>
@@ -7094,12 +7280,12 @@
       <c r="G274" s="20" t="s">
         <v>267</v>
       </c>
-      <c r="J274" s="34"/>
+      <c r="J274" s="30"/>
       <c r="K274" s="2"/>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B275" s="19"/>
-      <c r="J275" s="34"/>
+      <c r="J275" s="30"/>
       <c r="K275" s="2"/>
     </row>
     <row r="276" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -7109,10 +7295,10 @@
       <c r="B276" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C276" s="34" t="s">
+      <c r="C276" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D276" s="30" t="s">
+      <c r="D276" s="36" t="s">
         <v>275</v>
       </c>
       <c r="E276" s="20">
@@ -7124,12 +7310,12 @@
       <c r="H276" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J276" s="34"/>
+      <c r="J276" s="30"/>
       <c r="K276" s="2"/>
     </row>
     <row r="277" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B277" s="19"/>
-      <c r="D277" s="30"/>
+      <c r="D277" s="36"/>
       <c r="E277" s="20">
         <v>2</v>
       </c>
@@ -7139,12 +7325,12 @@
       <c r="G277" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="J277" s="34"/>
+      <c r="J277" s="30"/>
       <c r="K277" s="2"/>
     </row>
     <row r="278" spans="1:11" ht="255" x14ac:dyDescent="0.25">
       <c r="B278" s="19"/>
-      <c r="D278" s="30"/>
+      <c r="D278" s="36"/>
       <c r="E278" s="20">
         <v>3</v>
       </c>
@@ -7157,12 +7343,12 @@
       <c r="H278" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="J278" s="34"/>
+      <c r="J278" s="30"/>
       <c r="K278" s="2"/>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B279" s="19"/>
-      <c r="J279" s="34"/>
+      <c r="J279" s="30"/>
       <c r="K279" s="2"/>
     </row>
     <row r="280" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7172,10 +7358,10 @@
       <c r="B280" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C280" s="34" t="s">
+      <c r="C280" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D280" s="30" t="s">
+      <c r="D280" s="36" t="s">
         <v>277</v>
       </c>
       <c r="E280" s="20">
@@ -7187,12 +7373,12 @@
       <c r="H280" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J280" s="34"/>
+      <c r="J280" s="30"/>
       <c r="K280" s="2"/>
     </row>
     <row r="281" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B281" s="19"/>
-      <c r="D281" s="30"/>
+      <c r="D281" s="36"/>
       <c r="E281" s="20">
         <v>2</v>
       </c>
@@ -7202,12 +7388,12 @@
       <c r="G281" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="J281" s="34"/>
+      <c r="J281" s="30"/>
       <c r="K281" s="2"/>
     </row>
     <row r="282" spans="1:11" ht="255" x14ac:dyDescent="0.25">
       <c r="B282" s="19"/>
-      <c r="D282" s="30"/>
+      <c r="D282" s="36"/>
       <c r="E282" s="20">
         <v>3</v>
       </c>
@@ -7220,12 +7406,12 @@
       <c r="H282" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="J282" s="34"/>
+      <c r="J282" s="30"/>
       <c r="K282" s="2"/>
     </row>
     <row r="283" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B283" s="19"/>
-      <c r="D283" s="30"/>
+      <c r="D283" s="36"/>
       <c r="E283" s="20">
         <v>4</v>
       </c>
@@ -7235,12 +7421,12 @@
       <c r="G283" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="J283" s="34"/>
+      <c r="J283" s="30"/>
       <c r="K283" s="2"/>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B284" s="19"/>
-      <c r="J284" s="34"/>
+      <c r="J284" s="30"/>
       <c r="K284" s="2"/>
     </row>
     <row r="285" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7250,10 +7436,10 @@
       <c r="B285" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C285" s="34" t="s">
+      <c r="C285" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D285" s="30" t="s">
+      <c r="D285" s="36" t="s">
         <v>278</v>
       </c>
       <c r="E285" s="20">
@@ -7265,12 +7451,12 @@
       <c r="H285" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J285" s="34"/>
+      <c r="J285" s="30"/>
       <c r="K285" s="2"/>
     </row>
     <row r="286" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B286" s="19"/>
-      <c r="D286" s="30"/>
+      <c r="D286" s="36"/>
       <c r="E286" s="20">
         <v>2</v>
       </c>
@@ -7280,12 +7466,12 @@
       <c r="G286" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="J286" s="34"/>
+      <c r="J286" s="30"/>
       <c r="K286" s="2"/>
     </row>
     <row r="287" spans="1:11" ht="255" x14ac:dyDescent="0.25">
       <c r="B287" s="19"/>
-      <c r="D287" s="30"/>
+      <c r="D287" s="36"/>
       <c r="E287" s="20">
         <v>3</v>
       </c>
@@ -7298,12 +7484,12 @@
       <c r="H287" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="J287" s="34"/>
+      <c r="J287" s="30"/>
       <c r="K287" s="2"/>
     </row>
     <row r="288" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B288" s="19"/>
-      <c r="D288" s="30"/>
+      <c r="D288" s="36"/>
       <c r="E288" s="20">
         <v>4</v>
       </c>
@@ -7313,12 +7499,12 @@
       <c r="G288" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="J288" s="34"/>
+      <c r="J288" s="30"/>
       <c r="K288" s="2"/>
     </row>
-    <row r="289" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B289" s="19"/>
-      <c r="D289" s="30"/>
+      <c r="D289" s="36"/>
       <c r="E289" s="20">
         <v>5</v>
       </c>
@@ -7328,12 +7514,12 @@
       <c r="G289" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="J289" s="34"/>
+      <c r="J289" s="30"/>
       <c r="K289" s="2"/>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B290" s="19"/>
-      <c r="J290" s="34"/>
+      <c r="J290" s="30"/>
       <c r="K290" s="2"/>
     </row>
     <row r="291" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -7343,10 +7529,10 @@
       <c r="B291" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C291" s="34" t="s">
+      <c r="C291" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D291" s="30" t="s">
+      <c r="D291" s="36" t="s">
         <v>281</v>
       </c>
       <c r="E291" s="20">
@@ -7358,12 +7544,12 @@
       <c r="H291" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J291" s="34"/>
+      <c r="J291" s="30"/>
       <c r="K291" s="2"/>
     </row>
     <row r="292" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B292" s="19"/>
-      <c r="D292" s="30"/>
+      <c r="D292" s="36"/>
       <c r="E292" s="20">
         <v>2</v>
       </c>
@@ -7373,12 +7559,12 @@
       <c r="G292" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="J292" s="34"/>
+      <c r="J292" s="30"/>
       <c r="K292" s="2"/>
     </row>
     <row r="293" spans="1:11" ht="255" x14ac:dyDescent="0.25">
       <c r="B293" s="19"/>
-      <c r="D293" s="30"/>
+      <c r="D293" s="36"/>
       <c r="E293" s="20">
         <v>3</v>
       </c>
@@ -7391,12 +7577,12 @@
       <c r="H293" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="J293" s="34"/>
+      <c r="J293" s="30"/>
       <c r="K293" s="2"/>
     </row>
     <row r="294" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B294" s="19"/>
-      <c r="D294" s="30"/>
+      <c r="D294" s="36"/>
       <c r="E294" s="20">
         <v>4</v>
       </c>
@@ -7406,12 +7592,12 @@
       <c r="G294" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="J294" s="34"/>
+      <c r="J294" s="30"/>
       <c r="K294" s="2"/>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B295" s="19"/>
-      <c r="D295" s="30"/>
+      <c r="D295" s="36"/>
       <c r="E295" s="20">
         <v>5</v>
       </c>
@@ -7421,12 +7607,12 @@
       <c r="G295" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="J295" s="34"/>
+      <c r="J295" s="30"/>
       <c r="K295" s="2"/>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B296" s="19"/>
-      <c r="J296" s="34"/>
+      <c r="J296" s="30"/>
       <c r="K296" s="2"/>
     </row>
     <row r="297" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -7436,10 +7622,10 @@
       <c r="B297" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C297" s="34" t="s">
+      <c r="C297" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D297" s="30" t="s">
+      <c r="D297" s="36" t="s">
         <v>285</v>
       </c>
       <c r="E297" s="20">
@@ -7451,12 +7637,12 @@
       <c r="H297" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J297" s="34"/>
+      <c r="J297" s="30"/>
       <c r="K297" s="2"/>
     </row>
     <row r="298" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B298" s="19"/>
-      <c r="D298" s="30"/>
+      <c r="D298" s="36"/>
       <c r="E298" s="20">
         <v>2</v>
       </c>
@@ -7466,12 +7652,12 @@
       <c r="G298" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="J298" s="34"/>
+      <c r="J298" s="30"/>
       <c r="K298" s="2"/>
     </row>
     <row r="299" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B299" s="19"/>
-      <c r="D299" s="30"/>
+      <c r="D299" s="36"/>
       <c r="E299" s="20">
         <v>3</v>
       </c>
@@ -7481,12 +7667,12 @@
       <c r="G299" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="J299" s="34"/>
+      <c r="J299" s="30"/>
       <c r="K299" s="2"/>
     </row>
     <row r="300" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B300" s="19"/>
-      <c r="D300" s="30"/>
+      <c r="D300" s="36"/>
       <c r="E300" s="20">
         <v>4</v>
       </c>
@@ -7496,12 +7682,12 @@
       <c r="G300" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="J300" s="34"/>
+      <c r="J300" s="30"/>
       <c r="K300" s="2"/>
     </row>
     <row r="301" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B301" s="19"/>
-      <c r="D301" s="30"/>
+      <c r="D301" s="36"/>
       <c r="E301" s="20">
         <v>5</v>
       </c>
@@ -7511,12 +7697,12 @@
       <c r="G301" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="J301" s="34"/>
+      <c r="J301" s="30"/>
       <c r="K301" s="2"/>
     </row>
-    <row r="302" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B302" s="19"/>
-      <c r="D302" s="30"/>
+      <c r="D302" s="36"/>
       <c r="E302" s="20">
         <v>6</v>
       </c>
@@ -7526,12 +7712,12 @@
       <c r="G302" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="J302" s="34"/>
+      <c r="J302" s="30"/>
       <c r="K302" s="2"/>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B303" s="19"/>
-      <c r="J303" s="34"/>
+      <c r="J303" s="30"/>
       <c r="K303" s="2"/>
     </row>
     <row r="304" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7541,10 +7727,10 @@
       <c r="B304" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C304" s="34" t="s">
+      <c r="C304" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D304" s="30" t="s">
+      <c r="D304" s="36" t="s">
         <v>296</v>
       </c>
       <c r="E304" s="20">
@@ -7556,12 +7742,12 @@
       <c r="H304" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J304" s="34"/>
+      <c r="J304" s="30"/>
       <c r="K304" s="2"/>
     </row>
     <row r="305" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B305" s="19"/>
-      <c r="D305" s="30"/>
+      <c r="D305" s="36"/>
       <c r="E305" s="20">
         <v>2</v>
       </c>
@@ -7571,12 +7757,12 @@
       <c r="G305" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="J305" s="34"/>
+      <c r="J305" s="30"/>
       <c r="K305" s="2"/>
     </row>
     <row r="306" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B306" s="19"/>
-      <c r="D306" s="30"/>
+      <c r="D306" s="36"/>
       <c r="E306" s="20">
         <v>3</v>
       </c>
@@ -7586,12 +7772,12 @@
       <c r="G306" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="J306" s="34"/>
+      <c r="J306" s="30"/>
       <c r="K306" s="2"/>
     </row>
     <row r="307" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B307" s="19"/>
-      <c r="D307" s="30"/>
+      <c r="D307" s="36"/>
       <c r="E307" s="20">
         <v>4</v>
       </c>
@@ -7601,12 +7787,12 @@
       <c r="G307" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="J307" s="34"/>
+      <c r="J307" s="30"/>
       <c r="K307" s="2"/>
     </row>
     <row r="308" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B308" s="19"/>
-      <c r="D308" s="30"/>
+      <c r="D308" s="36"/>
       <c r="E308" s="20">
         <v>5</v>
       </c>
@@ -7616,12 +7802,12 @@
       <c r="G308" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="J308" s="34"/>
+      <c r="J308" s="30"/>
       <c r="K308" s="2"/>
     </row>
-    <row r="309" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B309" s="19"/>
-      <c r="D309" s="30"/>
+      <c r="D309" s="36"/>
       <c r="E309" s="20">
         <v>6</v>
       </c>
@@ -7631,12 +7817,12 @@
       <c r="G309" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="J309" s="34"/>
+      <c r="J309" s="30"/>
       <c r="K309" s="2"/>
     </row>
     <row r="310" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B310" s="19"/>
-      <c r="D310" s="30"/>
+      <c r="D310" s="36"/>
       <c r="E310" s="20">
         <v>7</v>
       </c>
@@ -7646,12 +7832,12 @@
       <c r="G310" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="J310" s="34"/>
+      <c r="J310" s="30"/>
       <c r="K310" s="2"/>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B311" s="19"/>
-      <c r="J311" s="34"/>
+      <c r="J311" s="30"/>
       <c r="K311" s="2"/>
     </row>
     <row r="312" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7661,10 +7847,10 @@
       <c r="B312" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C312" s="34" t="s">
+      <c r="C312" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D312" s="30" t="s">
+      <c r="D312" s="36" t="s">
         <v>300</v>
       </c>
       <c r="E312" s="20">
@@ -7676,12 +7862,12 @@
       <c r="H312" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J312" s="34"/>
+      <c r="J312" s="30"/>
       <c r="K312" s="2"/>
     </row>
     <row r="313" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B313" s="19"/>
-      <c r="D313" s="30"/>
+      <c r="D313" s="36"/>
       <c r="E313" s="20">
         <v>2</v>
       </c>
@@ -7691,12 +7877,12 @@
       <c r="G313" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="J313" s="34"/>
+      <c r="J313" s="30"/>
       <c r="K313" s="2"/>
     </row>
     <row r="314" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B314" s="19"/>
-      <c r="D314" s="30"/>
+      <c r="D314" s="36"/>
       <c r="E314" s="20">
         <v>3</v>
       </c>
@@ -7706,12 +7892,12 @@
       <c r="G314" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="J314" s="34"/>
+      <c r="J314" s="30"/>
       <c r="K314" s="2"/>
     </row>
     <row r="315" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B315" s="19"/>
-      <c r="D315" s="30"/>
+      <c r="D315" s="36"/>
       <c r="E315" s="20">
         <v>4</v>
       </c>
@@ -7721,12 +7907,12 @@
       <c r="G315" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="J315" s="34"/>
+      <c r="J315" s="30"/>
       <c r="K315" s="2"/>
     </row>
     <row r="316" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B316" s="19"/>
-      <c r="D316" s="30"/>
+      <c r="D316" s="36"/>
       <c r="E316" s="20">
         <v>5</v>
       </c>
@@ -7736,12 +7922,12 @@
       <c r="G316" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="J316" s="34"/>
+      <c r="J316" s="30"/>
       <c r="K316" s="2"/>
     </row>
-    <row r="317" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B317" s="19"/>
-      <c r="D317" s="30"/>
+      <c r="D317" s="36"/>
       <c r="E317" s="20">
         <v>6</v>
       </c>
@@ -7751,12 +7937,12 @@
       <c r="G317" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="J317" s="34"/>
+      <c r="J317" s="30"/>
       <c r="K317" s="2"/>
     </row>
     <row r="318" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B318" s="19"/>
-      <c r="D318" s="30"/>
+      <c r="D318" s="36"/>
       <c r="E318" s="20">
         <v>7</v>
       </c>
@@ -7766,12 +7952,12 @@
       <c r="G318" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="J318" s="34"/>
+      <c r="J318" s="30"/>
       <c r="K318" s="2"/>
     </row>
-    <row r="319" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B319" s="19"/>
-      <c r="D319" s="30"/>
+      <c r="D319" s="36"/>
       <c r="E319" s="20">
         <v>8</v>
       </c>
@@ -7781,12 +7967,12 @@
       <c r="G319" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="J319" s="34"/>
+      <c r="J319" s="30"/>
       <c r="K319" s="2"/>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B320" s="19"/>
-      <c r="J320" s="34"/>
+      <c r="J320" s="30"/>
       <c r="K320" s="2"/>
     </row>
     <row r="321" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7796,10 +7982,10 @@
       <c r="B321" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C321" s="34" t="s">
+      <c r="C321" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D321" s="30" t="s">
+      <c r="D321" s="36" t="s">
         <v>302</v>
       </c>
       <c r="E321" s="20">
@@ -7811,12 +7997,12 @@
       <c r="H321" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J321" s="34"/>
+      <c r="J321" s="30"/>
       <c r="K321" s="2"/>
     </row>
     <row r="322" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B322" s="19"/>
-      <c r="D322" s="30"/>
+      <c r="D322" s="36"/>
       <c r="E322" s="20">
         <v>2</v>
       </c>
@@ -7826,12 +8012,12 @@
       <c r="G322" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="J322" s="34"/>
+      <c r="J322" s="30"/>
       <c r="K322" s="2"/>
     </row>
     <row r="323" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B323" s="19"/>
-      <c r="D323" s="30"/>
+      <c r="D323" s="36"/>
       <c r="E323" s="20">
         <v>3</v>
       </c>
@@ -7841,12 +8027,12 @@
       <c r="G323" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="J323" s="34"/>
+      <c r="J323" s="30"/>
       <c r="K323" s="2"/>
     </row>
     <row r="324" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B324" s="19"/>
-      <c r="D324" s="30"/>
+      <c r="D324" s="36"/>
       <c r="E324" s="20">
         <v>4</v>
       </c>
@@ -7856,12 +8042,12 @@
       <c r="G324" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="J324" s="34"/>
+      <c r="J324" s="30"/>
       <c r="K324" s="2"/>
     </row>
     <row r="325" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B325" s="19"/>
-      <c r="D325" s="30"/>
+      <c r="D325" s="36"/>
       <c r="E325" s="20">
         <v>5</v>
       </c>
@@ -7871,12 +8057,12 @@
       <c r="G325" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="J325" s="34"/>
+      <c r="J325" s="30"/>
       <c r="K325" s="2"/>
     </row>
-    <row r="326" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B326" s="19"/>
-      <c r="D326" s="30"/>
+      <c r="D326" s="36"/>
       <c r="E326" s="20">
         <v>6</v>
       </c>
@@ -7886,12 +8072,12 @@
       <c r="G326" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="J326" s="34"/>
+      <c r="J326" s="30"/>
       <c r="K326" s="2"/>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B327" s="19"/>
-      <c r="D327" s="30"/>
+      <c r="D327" s="36"/>
       <c r="E327" s="20">
         <v>7</v>
       </c>
@@ -7901,12 +8087,12 @@
       <c r="G327" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="J327" s="34"/>
+      <c r="J327" s="30"/>
       <c r="K327" s="2"/>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B328" s="19"/>
-      <c r="J328" s="34"/>
+      <c r="J328" s="30"/>
       <c r="K328" s="2"/>
     </row>
     <row r="329" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7916,10 +8102,10 @@
       <c r="B329" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C329" s="34" t="s">
+      <c r="C329" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D329" s="30" t="s">
+      <c r="D329" s="36" t="s">
         <v>303</v>
       </c>
       <c r="E329" s="20">
@@ -7931,12 +8117,12 @@
       <c r="H329" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J329" s="34"/>
+      <c r="J329" s="30"/>
       <c r="K329" s="2"/>
     </row>
     <row r="330" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B330" s="19"/>
-      <c r="D330" s="30"/>
+      <c r="D330" s="36"/>
       <c r="E330" s="20">
         <v>2</v>
       </c>
@@ -7946,12 +8132,12 @@
       <c r="G330" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="J330" s="34"/>
+      <c r="J330" s="30"/>
       <c r="K330" s="2"/>
     </row>
     <row r="331" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B331" s="19"/>
-      <c r="D331" s="30"/>
+      <c r="D331" s="36"/>
       <c r="E331" s="20">
         <v>3</v>
       </c>
@@ -7961,12 +8147,12 @@
       <c r="G331" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="J331" s="34"/>
+      <c r="J331" s="30"/>
       <c r="K331" s="2"/>
     </row>
-    <row r="332" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B332" s="19"/>
-      <c r="D332" s="30"/>
+      <c r="D332" s="36"/>
       <c r="E332" s="20">
         <v>4</v>
       </c>
@@ -7976,12 +8162,12 @@
       <c r="G332" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="J332" s="34"/>
+      <c r="J332" s="30"/>
       <c r="K332" s="2"/>
     </row>
     <row r="333" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B333" s="19"/>
-      <c r="D333" s="30"/>
+      <c r="D333" s="36"/>
       <c r="E333" s="20">
         <v>5</v>
       </c>
@@ -7991,12 +8177,12 @@
       <c r="G333" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="J333" s="34"/>
+      <c r="J333" s="30"/>
       <c r="K333" s="2"/>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B334" s="19"/>
-      <c r="J334" s="34"/>
+      <c r="J334" s="30"/>
       <c r="K334" s="2"/>
     </row>
     <row r="335" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8006,10 +8192,10 @@
       <c r="B335" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C335" s="34" t="s">
+      <c r="C335" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D335" s="30" t="s">
+      <c r="D335" s="36" t="s">
         <v>314</v>
       </c>
       <c r="E335" s="20">
@@ -8021,12 +8207,12 @@
       <c r="H335" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J335" s="34"/>
+      <c r="J335" s="30"/>
       <c r="K335" s="2"/>
     </row>
     <row r="336" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B336" s="19"/>
-      <c r="D336" s="30"/>
+      <c r="D336" s="36"/>
       <c r="E336" s="20">
         <v>2</v>
       </c>
@@ -8036,12 +8222,12 @@
       <c r="G336" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="J336" s="34"/>
+      <c r="J336" s="30"/>
       <c r="K336" s="2"/>
     </row>
     <row r="337" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B337" s="19"/>
-      <c r="D337" s="30"/>
+      <c r="D337" s="36"/>
       <c r="E337" s="20">
         <v>3</v>
       </c>
@@ -8051,12 +8237,12 @@
       <c r="G337" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="J337" s="34"/>
+      <c r="J337" s="30"/>
       <c r="K337" s="2"/>
     </row>
-    <row r="338" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B338" s="19"/>
-      <c r="D338" s="30"/>
+      <c r="D338" s="36"/>
       <c r="E338" s="20">
         <v>4</v>
       </c>
@@ -8066,12 +8252,12 @@
       <c r="G338" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="J338" s="34"/>
+      <c r="J338" s="30"/>
       <c r="K338" s="2"/>
     </row>
     <row r="339" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B339" s="19"/>
-      <c r="D339" s="30"/>
+      <c r="D339" s="36"/>
       <c r="E339" s="20">
         <v>5</v>
       </c>
@@ -8081,12 +8267,12 @@
       <c r="G339" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="J339" s="34"/>
+      <c r="J339" s="30"/>
       <c r="K339" s="2"/>
     </row>
     <row r="340" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B340" s="19"/>
-      <c r="D340" s="30"/>
+      <c r="D340" s="36"/>
       <c r="E340" s="20">
         <v>6</v>
       </c>
@@ -8096,12 +8282,12 @@
       <c r="G340" s="20" t="s">
         <v>316</v>
       </c>
-      <c r="J340" s="34"/>
+      <c r="J340" s="30"/>
       <c r="K340" s="2"/>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B341" s="19"/>
-      <c r="J341" s="34"/>
+      <c r="J341" s="30"/>
       <c r="K341" s="2"/>
     </row>
     <row r="342" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8111,10 +8297,10 @@
       <c r="B342" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C342" s="34" t="s">
+      <c r="C342" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D342" s="30" t="s">
+      <c r="D342" s="36" t="s">
         <v>319</v>
       </c>
       <c r="E342" s="20">
@@ -8126,12 +8312,12 @@
       <c r="H342" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J342" s="34"/>
+      <c r="J342" s="30"/>
       <c r="K342" s="2"/>
     </row>
     <row r="343" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B343" s="19"/>
-      <c r="D343" s="30"/>
+      <c r="D343" s="36"/>
       <c r="E343" s="20">
         <v>2</v>
       </c>
@@ -8141,12 +8327,12 @@
       <c r="G343" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="J343" s="34"/>
+      <c r="J343" s="30"/>
       <c r="K343" s="2"/>
     </row>
     <row r="344" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B344" s="19"/>
-      <c r="D344" s="30"/>
+      <c r="D344" s="36"/>
       <c r="E344" s="20">
         <v>3</v>
       </c>
@@ -8156,12 +8342,12 @@
       <c r="G344" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="J344" s="34"/>
+      <c r="J344" s="30"/>
       <c r="K344" s="2"/>
     </row>
-    <row r="345" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B345" s="19"/>
-      <c r="D345" s="30"/>
+      <c r="D345" s="36"/>
       <c r="E345" s="20">
         <v>4</v>
       </c>
@@ -8171,12 +8357,12 @@
       <c r="G345" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="J345" s="34"/>
+      <c r="J345" s="30"/>
       <c r="K345" s="2"/>
     </row>
     <row r="346" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B346" s="19"/>
-      <c r="D346" s="30"/>
+      <c r="D346" s="36"/>
       <c r="E346" s="20">
         <v>5</v>
       </c>
@@ -8186,12 +8372,12 @@
       <c r="G346" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="J346" s="34"/>
+      <c r="J346" s="30"/>
       <c r="K346" s="2"/>
     </row>
     <row r="347" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B347" s="19"/>
-      <c r="D347" s="30"/>
+      <c r="D347" s="36"/>
       <c r="E347" s="20">
         <v>6</v>
       </c>
@@ -8201,12 +8387,12 @@
       <c r="G347" s="20" t="s">
         <v>316</v>
       </c>
-      <c r="J347" s="34"/>
+      <c r="J347" s="30"/>
       <c r="K347" s="2"/>
     </row>
-    <row r="348" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B348" s="19"/>
-      <c r="D348" s="30"/>
+      <c r="D348" s="36"/>
       <c r="E348" s="20">
         <v>7</v>
       </c>
@@ -8216,12 +8402,12 @@
       <c r="G348" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="J348" s="34"/>
+      <c r="J348" s="30"/>
       <c r="K348" s="2"/>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B349" s="19"/>
-      <c r="J349" s="34"/>
+      <c r="J349" s="30"/>
       <c r="K349" s="2"/>
     </row>
     <row r="350" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8231,10 +8417,10 @@
       <c r="B350" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C350" s="34" t="s">
+      <c r="C350" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D350" s="30" t="s">
+      <c r="D350" s="36" t="s">
         <v>318</v>
       </c>
       <c r="E350" s="20">
@@ -8246,12 +8432,12 @@
       <c r="H350" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J350" s="34"/>
+      <c r="J350" s="30"/>
       <c r="K350" s="2"/>
     </row>
     <row r="351" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B351" s="19"/>
-      <c r="D351" s="30"/>
+      <c r="D351" s="36"/>
       <c r="E351" s="20">
         <v>2</v>
       </c>
@@ -8261,12 +8447,12 @@
       <c r="G351" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="J351" s="34"/>
+      <c r="J351" s="30"/>
       <c r="K351" s="2"/>
     </row>
     <row r="352" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B352" s="19"/>
-      <c r="D352" s="30"/>
+      <c r="D352" s="36"/>
       <c r="E352" s="20">
         <v>3</v>
       </c>
@@ -8276,12 +8462,12 @@
       <c r="G352" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="J352" s="34"/>
+      <c r="J352" s="30"/>
       <c r="K352" s="2"/>
     </row>
-    <row r="353" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B353" s="19"/>
-      <c r="D353" s="30"/>
+      <c r="D353" s="36"/>
       <c r="E353" s="20">
         <v>4</v>
       </c>
@@ -8291,12 +8477,12 @@
       <c r="G353" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="J353" s="34"/>
+      <c r="J353" s="30"/>
       <c r="K353" s="2"/>
     </row>
     <row r="354" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B354" s="19"/>
-      <c r="D354" s="30"/>
+      <c r="D354" s="36"/>
       <c r="E354" s="20">
         <v>5</v>
       </c>
@@ -8306,12 +8492,12 @@
       <c r="G354" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="J354" s="34"/>
+      <c r="J354" s="30"/>
       <c r="K354" s="2"/>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B355" s="19"/>
-      <c r="D355" s="30"/>
+      <c r="D355" s="36"/>
       <c r="E355" s="20">
         <v>6</v>
       </c>
@@ -8321,12 +8507,12 @@
       <c r="G355" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="J355" s="34"/>
+      <c r="J355" s="30"/>
       <c r="K355" s="2"/>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B356" s="19"/>
-      <c r="J356" s="34"/>
+      <c r="J356" s="30"/>
       <c r="K356" s="2"/>
     </row>
     <row r="357" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -8336,10 +8522,10 @@
       <c r="B357" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C357" s="34" t="s">
+      <c r="C357" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D357" s="30" t="s">
+      <c r="D357" s="36" t="s">
         <v>322</v>
       </c>
       <c r="E357" s="20">
@@ -8351,12 +8537,12 @@
       <c r="H357" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J357" s="34"/>
+      <c r="J357" s="30"/>
       <c r="K357" s="2"/>
     </row>
     <row r="358" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B358" s="19"/>
-      <c r="D358" s="30"/>
+      <c r="D358" s="36"/>
       <c r="E358" s="20">
         <v>2</v>
       </c>
@@ -8366,12 +8552,12 @@
       <c r="G358" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="J358" s="34"/>
+      <c r="J358" s="30"/>
       <c r="K358" s="2"/>
     </row>
     <row r="359" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="B359" s="19"/>
-      <c r="D359" s="30"/>
+      <c r="D359" s="36"/>
       <c r="E359" s="20">
         <v>3</v>
       </c>
@@ -8384,12 +8570,12 @@
       <c r="H359" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="J359" s="34"/>
+      <c r="J359" s="30"/>
       <c r="K359" s="2"/>
     </row>
     <row r="360" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B360" s="19"/>
-      <c r="D360" s="30"/>
+      <c r="D360" s="36"/>
       <c r="E360" s="20">
         <v>4</v>
       </c>
@@ -8399,12 +8585,12 @@
       <c r="G360" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="J360" s="34"/>
+      <c r="J360" s="30"/>
       <c r="K360" s="2"/>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B361" s="19"/>
-      <c r="J361" s="34"/>
+      <c r="J361" s="30"/>
       <c r="K361" s="2"/>
     </row>
     <row r="362" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8414,10 +8600,10 @@
       <c r="B362" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C362" s="34" t="s">
+      <c r="C362" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D362" s="30" t="s">
+      <c r="D362" s="36" t="s">
         <v>329</v>
       </c>
       <c r="E362" s="20">
@@ -8429,12 +8615,12 @@
       <c r="H362" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J362" s="34"/>
+      <c r="J362" s="30"/>
       <c r="K362" s="2"/>
     </row>
     <row r="363" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B363" s="19"/>
-      <c r="D363" s="30"/>
+      <c r="D363" s="36"/>
       <c r="E363" s="20">
         <v>2</v>
       </c>
@@ -8444,12 +8630,12 @@
       <c r="G363" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="J363" s="34"/>
+      <c r="J363" s="30"/>
       <c r="K363" s="2"/>
     </row>
     <row r="364" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="B364" s="19"/>
-      <c r="D364" s="30"/>
+      <c r="D364" s="36"/>
       <c r="E364" s="20">
         <v>3</v>
       </c>
@@ -8462,12 +8648,12 @@
       <c r="H364" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="J364" s="34"/>
+      <c r="J364" s="30"/>
       <c r="K364" s="2"/>
     </row>
     <row r="365" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B365" s="19"/>
-      <c r="D365" s="30"/>
+      <c r="D365" s="36"/>
       <c r="E365" s="20">
         <v>4</v>
       </c>
@@ -8477,12 +8663,12 @@
       <c r="G365" s="20" t="s">
         <v>330</v>
       </c>
-      <c r="J365" s="34"/>
+      <c r="J365" s="30"/>
       <c r="K365" s="2"/>
     </row>
     <row r="366" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B366" s="19"/>
-      <c r="D366" s="30"/>
+      <c r="D366" s="36"/>
       <c r="E366" s="20">
         <v>5</v>
       </c>
@@ -8492,12 +8678,12 @@
       <c r="G366" s="20" t="s">
         <v>331</v>
       </c>
-      <c r="J366" s="34"/>
+      <c r="J366" s="30"/>
       <c r="K366" s="2"/>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B367" s="19"/>
-      <c r="J367" s="34"/>
+      <c r="J367" s="30"/>
       <c r="K367" s="2"/>
     </row>
     <row r="368" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8507,10 +8693,10 @@
       <c r="B368" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C368" s="34" t="s">
+      <c r="C368" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D368" s="30" t="s">
+      <c r="D368" s="36" t="s">
         <v>332</v>
       </c>
       <c r="E368" s="20">
@@ -8522,12 +8708,12 @@
       <c r="H368" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J368" s="34"/>
+      <c r="J368" s="30"/>
       <c r="K368" s="2"/>
     </row>
     <row r="369" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B369" s="19"/>
-      <c r="D369" s="30"/>
+      <c r="D369" s="36"/>
       <c r="E369" s="20">
         <v>2</v>
       </c>
@@ -8537,12 +8723,12 @@
       <c r="G369" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="J369" s="34"/>
+      <c r="J369" s="30"/>
       <c r="K369" s="2"/>
     </row>
     <row r="370" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="B370" s="19"/>
-      <c r="D370" s="30"/>
+      <c r="D370" s="36"/>
       <c r="E370" s="20">
         <v>3</v>
       </c>
@@ -8555,12 +8741,12 @@
       <c r="H370" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="J370" s="34"/>
+      <c r="J370" s="30"/>
       <c r="K370" s="2"/>
     </row>
     <row r="371" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B371" s="19"/>
-      <c r="D371" s="30"/>
+      <c r="D371" s="36"/>
       <c r="E371" s="20">
         <v>4</v>
       </c>
@@ -8570,12 +8756,12 @@
       <c r="G371" s="20" t="s">
         <v>330</v>
       </c>
-      <c r="J371" s="34"/>
+      <c r="J371" s="30"/>
       <c r="K371" s="2"/>
     </row>
     <row r="372" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B372" s="19"/>
-      <c r="D372" s="30"/>
+      <c r="D372" s="36"/>
       <c r="E372" s="20">
         <v>5</v>
       </c>
@@ -8585,12 +8771,12 @@
       <c r="G372" s="20" t="s">
         <v>331</v>
       </c>
-      <c r="J372" s="34"/>
+      <c r="J372" s="30"/>
       <c r="K372" s="2"/>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B373" s="19"/>
-      <c r="D373" s="30"/>
+      <c r="D373" s="36"/>
       <c r="E373" s="20">
         <v>6</v>
       </c>
@@ -8600,12 +8786,12 @@
       <c r="G373" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="J373" s="34"/>
+      <c r="J373" s="30"/>
       <c r="K373" s="2"/>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B374" s="19"/>
-      <c r="J374" s="34"/>
+      <c r="J374" s="30"/>
       <c r="K374" s="2"/>
     </row>
     <row r="375" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -8615,10 +8801,10 @@
       <c r="B375" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C375" s="34" t="s">
+      <c r="C375" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D375" s="30" t="s">
+      <c r="D375" s="36" t="s">
         <v>335</v>
       </c>
       <c r="E375" s="20">
@@ -8630,12 +8816,12 @@
       <c r="H375" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J375" s="34"/>
+      <c r="J375" s="30"/>
       <c r="K375" s="2"/>
     </row>
     <row r="376" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B376" s="19"/>
-      <c r="D376" s="30"/>
+      <c r="D376" s="36"/>
       <c r="E376" s="20">
         <v>2</v>
       </c>
@@ -8645,12 +8831,12 @@
       <c r="G376" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="J376" s="34"/>
+      <c r="J376" s="30"/>
       <c r="K376" s="2"/>
     </row>
     <row r="377" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="B377" s="19"/>
-      <c r="D377" s="30"/>
+      <c r="D377" s="36"/>
       <c r="E377" s="20">
         <v>3</v>
       </c>
@@ -8663,12 +8849,12 @@
       <c r="H377" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="J377" s="34"/>
+      <c r="J377" s="30"/>
       <c r="K377" s="2"/>
     </row>
     <row r="378" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B378" s="19"/>
-      <c r="D378" s="30"/>
+      <c r="D378" s="36"/>
       <c r="E378" s="20">
         <v>4</v>
       </c>
@@ -8678,12 +8864,12 @@
       <c r="G378" s="20" t="s">
         <v>330</v>
       </c>
-      <c r="J378" s="34"/>
+      <c r="J378" s="30"/>
       <c r="K378" s="2"/>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B379" s="19"/>
-      <c r="D379" s="30"/>
+      <c r="D379" s="36"/>
       <c r="E379" s="20">
         <v>5</v>
       </c>
@@ -8693,557 +8879,1207 @@
       <c r="G379" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="J379" s="34"/>
+      <c r="J379" s="30"/>
       <c r="K379" s="2"/>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B380" s="19"/>
-      <c r="J380" s="34"/>
+      <c r="J380" s="30"/>
       <c r="K380" s="2"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B381" s="19"/>
-      <c r="J381" s="34"/>
+    <row r="381" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A381" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="B381" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C381" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D381" s="36" t="s">
+        <v>345</v>
+      </c>
+      <c r="E381" s="20">
+        <v>1</v>
+      </c>
+      <c r="F381" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="H381" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J381" s="30"/>
       <c r="K381" s="2"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B382" s="19"/>
-      <c r="J382" s="34"/>
+    <row r="382" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B382" s="29"/>
+      <c r="D382" s="36"/>
+      <c r="E382" s="20">
+        <v>2</v>
+      </c>
+      <c r="F382" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="G382" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="J382" s="30"/>
       <c r="K382" s="2"/>
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B383" s="19"/>
-      <c r="J383" s="34"/>
+      <c r="B383" s="29"/>
+      <c r="D383" s="36"/>
+      <c r="E383" s="20">
+        <v>3</v>
+      </c>
+      <c r="F383" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="G383" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="H383" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="J383" s="30"/>
       <c r="K383" s="2"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B384" s="19"/>
-      <c r="J384" s="34"/>
+    <row r="384" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="B384" s="29"/>
+      <c r="D384" s="36"/>
+      <c r="E384" s="20">
+        <v>4</v>
+      </c>
+      <c r="F384" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="G384" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="J384" s="30"/>
       <c r="K384" s="2"/>
     </row>
-    <row r="385" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B385" s="19"/>
-      <c r="J385" s="34"/>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B385" s="29"/>
+      <c r="D385" s="36"/>
+      <c r="E385" s="20">
+        <v>5</v>
+      </c>
+      <c r="F385" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="G385" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="J385" s="30"/>
       <c r="K385" s="2"/>
     </row>
-    <row r="386" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B386" s="19"/>
-      <c r="J386" s="34"/>
+      <c r="J386" s="30"/>
       <c r="K386" s="2"/>
     </row>
-    <row r="387" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B387" s="19"/>
-      <c r="J387" s="34"/>
+    <row r="387" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A387" s="33" t="s">
+        <v>336</v>
+      </c>
+      <c r="B387" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C387" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D387" s="36" t="s">
+        <v>345</v>
+      </c>
+      <c r="E387" s="20">
+        <v>1</v>
+      </c>
+      <c r="F387" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="H387" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J387" s="30"/>
       <c r="K387" s="2"/>
     </row>
-    <row r="388" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B388" s="19"/>
-      <c r="J388" s="34"/>
+    <row r="388" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B388" s="29"/>
+      <c r="D388" s="36"/>
+      <c r="E388" s="20">
+        <v>2</v>
+      </c>
+      <c r="F388" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="G388" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="J388" s="30"/>
       <c r="K388" s="2"/>
     </row>
-    <row r="389" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B389" s="19"/>
-      <c r="J389" s="34"/>
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B389" s="29"/>
+      <c r="D389" s="36"/>
+      <c r="E389" s="20">
+        <v>3</v>
+      </c>
+      <c r="F389" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="G389" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="H389" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="J389" s="30"/>
       <c r="K389" s="2"/>
     </row>
-    <row r="390" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B390" s="19"/>
-      <c r="J390" s="34"/>
+    <row r="390" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="B390" s="29"/>
+      <c r="D390" s="36"/>
+      <c r="E390" s="20">
+        <v>4</v>
+      </c>
+      <c r="F390" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="G390" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="J390" s="30"/>
       <c r="K390" s="2"/>
     </row>
-    <row r="391" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B391" s="19"/>
-      <c r="J391" s="34"/>
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B391" s="29"/>
+      <c r="D391" s="36"/>
+      <c r="E391" s="20">
+        <v>5</v>
+      </c>
+      <c r="F391" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="G391" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="J391" s="30"/>
       <c r="K391" s="2"/>
     </row>
-    <row r="392" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B392" s="19"/>
-      <c r="J392" s="34"/>
+      <c r="J392" s="30"/>
       <c r="K392" s="2"/>
     </row>
-    <row r="393" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B393" s="19"/>
-      <c r="J393" s="34"/>
+    <row r="393" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A393" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="B393" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C393" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D393" s="36" t="s">
+        <v>353</v>
+      </c>
+      <c r="E393" s="20">
+        <v>1</v>
+      </c>
+      <c r="F393" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="H393" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J393" s="30"/>
       <c r="K393" s="2"/>
     </row>
-    <row r="394" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B394" s="19"/>
-      <c r="J394" s="34"/>
+    <row r="394" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B394" s="29"/>
+      <c r="D394" s="36"/>
+      <c r="E394" s="20">
+        <v>2</v>
+      </c>
+      <c r="F394" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="G394" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="J394" s="30"/>
       <c r="K394" s="2"/>
     </row>
-    <row r="395" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B395" s="19"/>
-      <c r="J395" s="34"/>
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B395" s="29"/>
+      <c r="D395" s="36"/>
+      <c r="E395" s="20">
+        <v>3</v>
+      </c>
+      <c r="F395" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="G395" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="H395" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="J395" s="30"/>
       <c r="K395" s="2"/>
     </row>
-    <row r="396" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B396" s="19"/>
-      <c r="J396" s="34"/>
+    <row r="396" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="B396" s="29"/>
+      <c r="D396" s="36"/>
+      <c r="E396" s="20">
+        <v>4</v>
+      </c>
+      <c r="F396" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="G396" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="J396" s="30"/>
       <c r="K396" s="2"/>
     </row>
-    <row r="397" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B397" s="19"/>
-      <c r="J397" s="34"/>
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B397" s="29"/>
+      <c r="D397" s="36"/>
+      <c r="E397" s="20">
+        <v>5</v>
+      </c>
+      <c r="F397" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="G397" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="J397" s="30"/>
       <c r="K397" s="2"/>
     </row>
-    <row r="398" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B398" s="19"/>
-      <c r="J398" s="34"/>
+      <c r="D398" s="36"/>
+      <c r="E398" s="20">
+        <v>6</v>
+      </c>
+      <c r="F398" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="G398" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="J398" s="30"/>
       <c r="K398" s="2"/>
     </row>
-    <row r="399" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B399" s="19"/>
-      <c r="J399" s="34"/>
+      <c r="J399" s="30"/>
       <c r="K399" s="2"/>
     </row>
-    <row r="400" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B400" s="19"/>
-      <c r="J400" s="34"/>
+    <row r="400" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A400" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="B400" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C400" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D400" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="E400" s="20">
+        <v>1</v>
+      </c>
+      <c r="F400" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="H400" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J400" s="30"/>
       <c r="K400" s="2"/>
     </row>
-    <row r="401" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B401" s="19"/>
-      <c r="J401" s="34"/>
+    <row r="401" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B401" s="29"/>
+      <c r="D401" s="36"/>
+      <c r="E401" s="20">
+        <v>2</v>
+      </c>
+      <c r="F401" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="G401" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="J401" s="30"/>
       <c r="K401" s="2"/>
     </row>
-    <row r="402" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B402" s="19"/>
-      <c r="J402" s="34"/>
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B402" s="29"/>
+      <c r="D402" s="36"/>
+      <c r="E402" s="20">
+        <v>3</v>
+      </c>
+      <c r="F402" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="G402" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="H402" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="J402" s="30"/>
       <c r="K402" s="2"/>
     </row>
-    <row r="403" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B403" s="19"/>
-      <c r="J403" s="34"/>
+    <row r="403" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="B403" s="29"/>
+      <c r="D403" s="36"/>
+      <c r="E403" s="20">
+        <v>4</v>
+      </c>
+      <c r="F403" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="G403" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="J403" s="30"/>
       <c r="K403" s="2"/>
     </row>
-    <row r="404" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B404" s="19"/>
-      <c r="J404" s="34"/>
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B404" s="29"/>
+      <c r="D404" s="36"/>
+      <c r="E404" s="20">
+        <v>5</v>
+      </c>
+      <c r="F404" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="G404" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="J404" s="30"/>
       <c r="K404" s="2"/>
     </row>
-    <row r="405" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B405" s="19"/>
-      <c r="J405" s="34"/>
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B405" s="29"/>
+      <c r="D405" s="36"/>
+      <c r="E405" s="20">
+        <v>6</v>
+      </c>
+      <c r="F405" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="G405" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="J405" s="30"/>
       <c r="K405" s="2"/>
     </row>
-    <row r="406" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B406" s="19"/>
-      <c r="J406" s="34"/>
+      <c r="J406" s="30"/>
       <c r="K406" s="2"/>
     </row>
-    <row r="407" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B407" s="19"/>
-      <c r="J407" s="34"/>
+    <row r="407" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A407" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="B407" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C407" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D407" s="36" t="s">
+        <v>356</v>
+      </c>
+      <c r="E407" s="20">
+        <v>1</v>
+      </c>
+      <c r="F407" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="H407" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J407" s="30"/>
       <c r="K407" s="2"/>
     </row>
-    <row r="408" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B408" s="19"/>
-      <c r="J408" s="34"/>
+    <row r="408" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B408" s="29"/>
+      <c r="D408" s="36"/>
+      <c r="E408" s="20">
+        <v>2</v>
+      </c>
+      <c r="F408" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="G408" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="J408" s="30"/>
       <c r="K408" s="2"/>
     </row>
-    <row r="409" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B409" s="19"/>
-      <c r="J409" s="34"/>
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B409" s="29"/>
+      <c r="D409" s="36"/>
+      <c r="E409" s="20">
+        <v>3</v>
+      </c>
+      <c r="F409" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="G409" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="H409" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="J409" s="30"/>
       <c r="K409" s="2"/>
     </row>
-    <row r="410" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B410" s="19"/>
-      <c r="J410" s="34"/>
+    <row r="410" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B410" s="29"/>
+      <c r="D410" s="36"/>
+      <c r="E410" s="20">
+        <v>4</v>
+      </c>
+      <c r="F410" s="20" t="s">
+        <v>359</v>
+      </c>
+      <c r="G410" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="J410" s="30"/>
       <c r="K410" s="2"/>
     </row>
-    <row r="411" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B411" s="19"/>
-      <c r="J411" s="34"/>
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B411" s="29"/>
+      <c r="D411" s="36"/>
+      <c r="E411" s="20">
+        <v>5</v>
+      </c>
+      <c r="F411" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="G411" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="J411" s="30"/>
       <c r="K411" s="2"/>
     </row>
-    <row r="412" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B412" s="19"/>
-      <c r="J412" s="34"/>
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B412" s="29"/>
+      <c r="D412" s="36"/>
+      <c r="E412" s="20">
+        <v>6</v>
+      </c>
+      <c r="F412" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="G412" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="J412" s="30"/>
       <c r="K412" s="2"/>
     </row>
-    <row r="413" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B413" s="19"/>
-      <c r="J413" s="34"/>
+      <c r="J413" s="30"/>
       <c r="K413" s="2"/>
     </row>
-    <row r="414" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B414" s="19"/>
-      <c r="J414" s="34"/>
+    <row r="414" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A414" s="20" t="s">
+        <v>360</v>
+      </c>
+      <c r="B414" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C414" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D414" s="36" t="s">
+        <v>368</v>
+      </c>
+      <c r="E414" s="20">
+        <v>1</v>
+      </c>
+      <c r="F414" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="H414" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J414" s="30"/>
       <c r="K414" s="2"/>
     </row>
-    <row r="415" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B415" s="19"/>
-      <c r="J415" s="34"/>
+    <row r="415" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B415" s="34"/>
+      <c r="D415" s="36"/>
+      <c r="E415" s="20">
+        <v>2</v>
+      </c>
+      <c r="F415" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="G415" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="J415" s="30"/>
       <c r="K415" s="2"/>
     </row>
-    <row r="416" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B416" s="19"/>
-      <c r="J416" s="34"/>
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B416" s="34"/>
+      <c r="D416" s="36"/>
+      <c r="E416" s="20">
+        <v>3</v>
+      </c>
+      <c r="F416" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="G416" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="J416" s="30"/>
       <c r="K416" s="2"/>
     </row>
-    <row r="417" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B417" s="19"/>
-      <c r="J417" s="34"/>
+    <row r="417" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B417" s="34"/>
+      <c r="D417" s="36"/>
+      <c r="E417" s="20">
+        <v>4</v>
+      </c>
+      <c r="F417" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="G417" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="J417" s="30"/>
       <c r="K417" s="2"/>
     </row>
-    <row r="418" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B418" s="19"/>
-      <c r="J418" s="34"/>
+      <c r="J418" s="30"/>
       <c r="K418" s="2"/>
     </row>
-    <row r="419" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B419" s="19"/>
-      <c r="J419" s="34"/>
+    <row r="419" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A419" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="B419" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C419" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D419" s="36" t="s">
+        <v>370</v>
+      </c>
+      <c r="E419" s="20">
+        <v>1</v>
+      </c>
+      <c r="F419" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="H419" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J419" s="30"/>
       <c r="K419" s="2"/>
     </row>
-    <row r="420" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B420" s="19"/>
-      <c r="J420" s="34"/>
+    <row r="420" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B420" s="34"/>
+      <c r="D420" s="36"/>
+      <c r="E420" s="20">
+        <v>2</v>
+      </c>
+      <c r="F420" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="G420" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="J420" s="30"/>
       <c r="K420" s="2"/>
     </row>
-    <row r="421" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B421" s="19"/>
-      <c r="J421" s="34"/>
+    <row r="421" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="B421" s="34"/>
+      <c r="D421" s="36"/>
+      <c r="E421" s="20">
+        <v>3</v>
+      </c>
+      <c r="F421" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="G421" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="H421" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="J421" s="30"/>
       <c r="K421" s="2"/>
     </row>
-    <row r="422" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B422" s="19"/>
-      <c r="J422" s="34"/>
+    <row r="422" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="B422" s="34"/>
+      <c r="D422" s="36"/>
+      <c r="E422" s="20">
+        <v>4</v>
+      </c>
+      <c r="F422" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="G422" s="20" t="s">
+        <v>383</v>
+      </c>
+      <c r="J422" s="30"/>
       <c r="K422" s="2"/>
     </row>
-    <row r="423" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B423" s="19"/>
-      <c r="J423" s="34"/>
+      <c r="J423" s="30"/>
       <c r="K423" s="2"/>
     </row>
-    <row r="424" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B424" s="19"/>
-      <c r="J424" s="34"/>
+    <row r="424" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A424" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="B424" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C424" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D424" s="36" t="s">
+        <v>377</v>
+      </c>
+      <c r="E424" s="20">
+        <v>1</v>
+      </c>
+      <c r="F424" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="H424" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J424" s="30"/>
       <c r="K424" s="2"/>
     </row>
-    <row r="425" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B425" s="19"/>
-      <c r="J425" s="34"/>
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B425" s="34"/>
+      <c r="D425" s="36"/>
+      <c r="E425" s="20">
+        <v>2</v>
+      </c>
+      <c r="F425" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="G425" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="J425" s="30"/>
       <c r="K425" s="2"/>
     </row>
-    <row r="426" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B426" s="19"/>
-      <c r="J426" s="34"/>
+    <row r="426" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B426" s="34"/>
+      <c r="D426" s="36"/>
+      <c r="E426" s="20">
+        <v>3</v>
+      </c>
+      <c r="F426" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="G426" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="H426" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="J426" s="30"/>
       <c r="K426" s="2"/>
     </row>
-    <row r="427" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B427" s="19"/>
-      <c r="J427" s="34"/>
+      <c r="J427" s="30"/>
       <c r="K427" s="2"/>
     </row>
-    <row r="428" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B428" s="19"/>
-      <c r="J428" s="34"/>
+    <row r="428" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A428" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="B428" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C428" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D428" s="36" t="s">
+        <v>370</v>
+      </c>
+      <c r="E428" s="20">
+        <v>1</v>
+      </c>
+      <c r="F428" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="H428" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J428" s="30"/>
       <c r="K428" s="2"/>
     </row>
-    <row r="429" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B429" s="19"/>
-      <c r="J429" s="34"/>
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B429" s="34"/>
+      <c r="D429" s="36"/>
+      <c r="E429" s="20">
+        <v>2</v>
+      </c>
+      <c r="F429" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="G429" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="J429" s="30"/>
       <c r="K429" s="2"/>
     </row>
-    <row r="430" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B430" s="19"/>
-      <c r="J430" s="34"/>
+    <row r="430" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B430" s="34"/>
+      <c r="D430" s="36"/>
+      <c r="E430" s="20">
+        <v>3</v>
+      </c>
+      <c r="F430" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="G430" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="H430" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="J430" s="30"/>
       <c r="K430" s="2"/>
     </row>
-    <row r="431" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B431" s="19"/>
-      <c r="J431" s="34"/>
+      <c r="D431" s="36"/>
+      <c r="E431" s="20">
+        <v>4</v>
+      </c>
+      <c r="F431" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="G431" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="J431" s="30"/>
       <c r="K431" s="2"/>
     </row>
-    <row r="432" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B432" s="19"/>
-      <c r="J432" s="34"/>
+      <c r="J432" s="30"/>
       <c r="K432" s="2"/>
     </row>
-    <row r="433" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B433" s="19"/>
-      <c r="J433" s="34"/>
+    <row r="433" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A433" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="B433" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C433" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D433" s="36" t="s">
+        <v>386</v>
+      </c>
+      <c r="E433" s="20">
+        <v>1</v>
+      </c>
+      <c r="F433" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="H433" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J433" s="30"/>
       <c r="K433" s="2"/>
     </row>
-    <row r="434" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B434" s="19"/>
-      <c r="J434" s="34"/>
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B434" s="34"/>
+      <c r="D434" s="36"/>
+      <c r="E434" s="20">
+        <v>2</v>
+      </c>
+      <c r="F434" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="G434" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="J434" s="30"/>
       <c r="K434" s="2"/>
     </row>
-    <row r="435" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B435" s="19"/>
-      <c r="J435" s="34"/>
+    <row r="435" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B435" s="34"/>
+      <c r="D435" s="36"/>
+      <c r="E435" s="20">
+        <v>3</v>
+      </c>
+      <c r="F435" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="G435" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="H435" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="J435" s="30"/>
       <c r="K435" s="2"/>
     </row>
-    <row r="436" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B436" s="19"/>
-      <c r="J436" s="34"/>
+    <row r="436" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B436" s="34"/>
+      <c r="D436" s="36"/>
+      <c r="E436" s="20">
+        <v>4</v>
+      </c>
+      <c r="F436" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="G436" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="J436" s="30"/>
       <c r="K436" s="2"/>
     </row>
-    <row r="437" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B437" s="19"/>
-      <c r="J437" s="34"/>
+      <c r="J437" s="30"/>
       <c r="K437" s="2"/>
     </row>
-    <row r="438" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B438" s="19"/>
-      <c r="J438" s="34"/>
+    <row r="438" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A438" s="20" t="s">
+        <v>388</v>
+      </c>
+      <c r="B438" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C438" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D438" s="36" t="s">
+        <v>387</v>
+      </c>
+      <c r="E438" s="20">
+        <v>1</v>
+      </c>
+      <c r="F438" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="H438" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J438" s="30"/>
       <c r="K438" s="2"/>
     </row>
-    <row r="439" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B439" s="19"/>
-      <c r="J439" s="34"/>
+      <c r="D439" s="36"/>
+      <c r="E439" s="20">
+        <v>2</v>
+      </c>
+      <c r="F439" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="G439" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="J439" s="30"/>
       <c r="K439" s="2"/>
     </row>
-    <row r="440" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B440" s="19"/>
-      <c r="J440" s="34"/>
+      <c r="D440" s="36"/>
+      <c r="E440" s="20">
+        <v>3</v>
+      </c>
+      <c r="F440" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="G440" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="H440" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="J440" s="30"/>
       <c r="K440" s="2"/>
     </row>
-    <row r="441" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B441" s="19"/>
-      <c r="J441" s="34"/>
+      <c r="D441" s="36"/>
+      <c r="E441" s="20">
+        <v>4</v>
+      </c>
+      <c r="F441" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="G441" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="J441" s="30"/>
       <c r="K441" s="2"/>
     </row>
-    <row r="442" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B442" s="19"/>
-      <c r="J442" s="34"/>
+      <c r="J442" s="30"/>
       <c r="K442" s="2"/>
     </row>
-    <row r="443" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B443" s="19"/>
-      <c r="J443" s="34"/>
+      <c r="J443" s="30"/>
       <c r="K443" s="2"/>
     </row>
-    <row r="444" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B444" s="19"/>
-      <c r="J444" s="34"/>
+      <c r="J444" s="30"/>
       <c r="K444" s="2"/>
     </row>
-    <row r="445" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B445" s="19"/>
-      <c r="J445" s="34"/>
+      <c r="J445" s="30"/>
       <c r="K445" s="2"/>
     </row>
-    <row r="446" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B446" s="19"/>
-      <c r="J446" s="34"/>
+      <c r="J446" s="30"/>
       <c r="K446" s="2"/>
     </row>
-    <row r="447" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B447" s="19"/>
-      <c r="J447" s="34"/>
+      <c r="J447" s="30"/>
       <c r="K447" s="2"/>
     </row>
-    <row r="448" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B448" s="19"/>
-      <c r="J448" s="34"/>
+      <c r="J448" s="30"/>
       <c r="K448" s="2"/>
     </row>
     <row r="449" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B449" s="19"/>
-      <c r="J449" s="34"/>
+      <c r="J449" s="30"/>
       <c r="K449" s="2"/>
     </row>
     <row r="450" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B450" s="19"/>
-      <c r="J450" s="34"/>
+      <c r="J450" s="30"/>
       <c r="K450" s="2"/>
     </row>
     <row r="451" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B451" s="19"/>
-      <c r="J451" s="34"/>
+      <c r="J451" s="30"/>
       <c r="K451" s="2"/>
     </row>
     <row r="452" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B452" s="19"/>
-      <c r="J452" s="34"/>
+      <c r="J452" s="30"/>
       <c r="K452" s="2"/>
     </row>
     <row r="453" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B453" s="19"/>
-      <c r="J453" s="34"/>
+      <c r="J453" s="30"/>
       <c r="K453" s="2"/>
     </row>
     <row r="454" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B454" s="19"/>
-      <c r="J454" s="34"/>
+      <c r="J454" s="30"/>
       <c r="K454" s="2"/>
     </row>
     <row r="455" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B455" s="19"/>
-      <c r="J455" s="34"/>
+      <c r="J455" s="30"/>
       <c r="K455" s="2"/>
     </row>
     <row r="456" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B456" s="19"/>
-      <c r="J456" s="34"/>
+      <c r="J456" s="30"/>
       <c r="K456" s="2"/>
     </row>
     <row r="457" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B457" s="19"/>
-      <c r="J457" s="34"/>
+      <c r="J457" s="30"/>
       <c r="K457" s="2"/>
     </row>
     <row r="458" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B458" s="19"/>
-      <c r="J458" s="34"/>
+      <c r="J458" s="30"/>
       <c r="K458" s="2"/>
     </row>
     <row r="459" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B459" s="19"/>
-      <c r="J459" s="34"/>
+      <c r="J459" s="30"/>
       <c r="K459" s="2"/>
     </row>
     <row r="460" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B460" s="19"/>
-      <c r="J460" s="34"/>
+      <c r="J460" s="30"/>
       <c r="K460" s="2"/>
     </row>
     <row r="461" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B461" s="19"/>
-      <c r="J461" s="34"/>
+      <c r="J461" s="30"/>
       <c r="K461" s="2"/>
     </row>
     <row r="462" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B462" s="19"/>
-      <c r="J462" s="34"/>
+      <c r="J462" s="30"/>
       <c r="K462" s="2"/>
     </row>
     <row r="463" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B463" s="19"/>
-      <c r="J463" s="34"/>
+      <c r="J463" s="30"/>
       <c r="K463" s="2"/>
     </row>
     <row r="464" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B464" s="19"/>
-      <c r="J464" s="34"/>
+      <c r="J464" s="30"/>
       <c r="K464" s="2"/>
     </row>
     <row r="465" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B465" s="19"/>
-      <c r="J465" s="34"/>
+      <c r="J465" s="30"/>
       <c r="K465" s="2"/>
     </row>
     <row r="466" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B466" s="19"/>
-      <c r="J466" s="34"/>
+      <c r="J466" s="30"/>
       <c r="K466" s="2"/>
     </row>
     <row r="467" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B467" s="19"/>
-      <c r="J467" s="34"/>
+      <c r="J467" s="30"/>
       <c r="K467" s="2"/>
     </row>
     <row r="468" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B468" s="19"/>
-      <c r="J468" s="34"/>
+      <c r="J468" s="30"/>
       <c r="K468" s="2"/>
     </row>
     <row r="469" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B469" s="19"/>
-      <c r="J469" s="34"/>
+      <c r="J469" s="30"/>
       <c r="K469" s="2"/>
     </row>
     <row r="470" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B470" s="19"/>
-      <c r="J470" s="34"/>
+      <c r="J470" s="30"/>
       <c r="K470" s="2"/>
     </row>
     <row r="471" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B471" s="19"/>
-      <c r="J471" s="34"/>
+      <c r="J471" s="30"/>
       <c r="K471" s="2"/>
     </row>
     <row r="472" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B472" s="19"/>
-      <c r="J472" s="34"/>
+      <c r="J472" s="30"/>
       <c r="K472" s="2"/>
     </row>
     <row r="473" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B473" s="19"/>
-      <c r="J473" s="34"/>
+      <c r="J473" s="30"/>
       <c r="K473" s="2"/>
     </row>
     <row r="474" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B474" s="19"/>
-      <c r="J474" s="34"/>
+      <c r="J474" s="30"/>
       <c r="K474" s="2"/>
     </row>
     <row r="475" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B475" s="19"/>
-      <c r="J475" s="34"/>
+      <c r="J475" s="30"/>
       <c r="K475" s="2"/>
     </row>
     <row r="476" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B476" s="19"/>
-      <c r="J476" s="34"/>
+      <c r="J476" s="30"/>
       <c r="K476" s="2"/>
     </row>
     <row r="477" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B477" s="19"/>
-      <c r="J477" s="34"/>
+      <c r="J477" s="30"/>
       <c r="K477" s="2"/>
     </row>
     <row r="478" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B478" s="19"/>
-      <c r="J478" s="34"/>
+      <c r="J478" s="30"/>
       <c r="K478" s="2"/>
     </row>
     <row r="479" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B479" s="19"/>
-      <c r="J479" s="34"/>
+      <c r="J479" s="30"/>
       <c r="K479" s="2"/>
     </row>
     <row r="480" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B480" s="19"/>
-      <c r="J480" s="34"/>
+      <c r="J480" s="30"/>
       <c r="K480" s="2"/>
     </row>
     <row r="481" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B481" s="19"/>
-      <c r="J481" s="34"/>
+      <c r="J481" s="30"/>
       <c r="K481" s="2"/>
     </row>
     <row r="482" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B482" s="19"/>
-      <c r="J482" s="34"/>
+      <c r="J482" s="30"/>
       <c r="K482" s="2"/>
     </row>
     <row r="483" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B483" s="19"/>
-      <c r="J483" s="34"/>
+      <c r="J483" s="30"/>
       <c r="K483" s="2"/>
     </row>
     <row r="484" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B484" s="19"/>
-      <c r="J484" s="34"/>
+      <c r="J484" s="2"/>
       <c r="K484" s="2"/>
     </row>
     <row r="485" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B485" s="19"/>
-      <c r="J485" s="34"/>
+      <c r="J485" s="2"/>
       <c r="K485" s="2"/>
     </row>
     <row r="486" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B486" s="19"/>
-      <c r="J486" s="34"/>
+      <c r="J486" s="2"/>
       <c r="K486" s="2"/>
     </row>
     <row r="487" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B487" s="19"/>
-      <c r="J487" s="34"/>
+      <c r="J487" s="2"/>
       <c r="K487" s="2"/>
     </row>
     <row r="488" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B488" s="19"/>
-      <c r="J488" s="34"/>
+      <c r="J488" s="2"/>
       <c r="K488" s="2"/>
     </row>
     <row r="489" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B489" s="19"/>
-      <c r="J489" s="34"/>
+      <c r="J489" s="2"/>
       <c r="K489" s="2"/>
     </row>
     <row r="490" spans="2:11" x14ac:dyDescent="0.25">
@@ -9837,76 +10673,70 @@
       <c r="K607" s="2"/>
     </row>
     <row r="608" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B608" s="19"/>
       <c r="J608" s="2"/>
       <c r="K608" s="2"/>
     </row>
-    <row r="609" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B609" s="19"/>
+    <row r="609" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J609" s="2"/>
       <c r="K609" s="2"/>
     </row>
-    <row r="610" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B610" s="19"/>
+    <row r="610" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J610" s="2"/>
       <c r="K610" s="2"/>
     </row>
-    <row r="611" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B611" s="19"/>
+    <row r="611" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J611" s="2"/>
       <c r="K611" s="2"/>
     </row>
-    <row r="612" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B612" s="19"/>
+    <row r="612" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J612" s="2"/>
       <c r="K612" s="2"/>
     </row>
-    <row r="613" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B613" s="19"/>
+    <row r="613" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J613" s="2"/>
       <c r="K613" s="2"/>
     </row>
-    <row r="614" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J614" s="2"/>
       <c r="K614" s="2"/>
     </row>
-    <row r="615" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J615" s="2"/>
       <c r="K615" s="2"/>
     </row>
-    <row r="616" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J616" s="2"/>
       <c r="K616" s="2"/>
     </row>
-    <row r="617" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J617" s="2"/>
       <c r="K617" s="2"/>
     </row>
-    <row r="618" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J618" s="2"/>
       <c r="K618" s="2"/>
     </row>
-    <row r="619" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J619" s="2"/>
       <c r="K619" s="2"/>
     </row>
-    <row r="620" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J620" s="2"/>
       <c r="K620" s="2"/>
     </row>
-    <row r="621" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J621" s="2"/>
       <c r="K621" s="2"/>
     </row>
-    <row r="622" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J622" s="2"/>
       <c r="K622" s="2"/>
     </row>
-    <row r="623" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J623" s="2"/>
       <c r="K623" s="2"/>
     </row>
-    <row r="624" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J624" s="2"/>
       <c r="K624" s="2"/>
     </row>
@@ -10159,63 +10989,57 @@
       <c r="K686" s="2"/>
     </row>
     <row r="687" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J687" s="2"/>
       <c r="K687" s="2"/>
     </row>
     <row r="688" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J688" s="2"/>
       <c r="K688" s="2"/>
     </row>
-    <row r="689" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J689" s="2"/>
+    <row r="689" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K689" s="2"/>
     </row>
-    <row r="690" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J690" s="2"/>
+    <row r="690" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K690" s="2"/>
     </row>
-    <row r="691" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J691" s="2"/>
+    <row r="691" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K691" s="2"/>
     </row>
-    <row r="692" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J692" s="2"/>
+    <row r="692" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K692" s="2"/>
     </row>
-    <row r="693" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="693" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K693" s="2"/>
     </row>
-    <row r="694" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="694" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K694" s="2"/>
     </row>
-    <row r="695" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="695" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K695" s="2"/>
     </row>
-    <row r="696" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="696" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K696" s="2"/>
     </row>
-    <row r="697" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="697" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K697" s="2"/>
     </row>
-    <row r="698" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="698" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K698" s="2"/>
     </row>
-    <row r="699" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="699" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K699" s="2"/>
     </row>
-    <row r="700" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="700" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K700" s="2"/>
     </row>
-    <row r="701" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="701" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K701" s="2"/>
     </row>
-    <row r="702" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="702" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K702" s="2"/>
     </row>
-    <row r="703" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="703" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K703" s="2"/>
     </row>
-    <row r="704" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="704" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K704" s="2"/>
     </row>
     <row r="705" spans="11:11" x14ac:dyDescent="0.25">
@@ -10299,26 +11123,14 @@
     <row r="731" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K731" s="2"/>
     </row>
-    <row r="732" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K732" s="2"/>
-    </row>
-    <row r="733" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K733" s="2"/>
-    </row>
-    <row r="734" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K734" s="2"/>
-    </row>
-    <row r="735" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K735" s="2"/>
-    </row>
-    <row r="736" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K736" s="2"/>
-    </row>
-    <row r="737" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K737" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="67">
+    <mergeCell ref="D433:D436"/>
+    <mergeCell ref="D438:D441"/>
+    <mergeCell ref="D414:D417"/>
+    <mergeCell ref="D419:D422"/>
+    <mergeCell ref="D424:D426"/>
+    <mergeCell ref="D428:D431"/>
     <mergeCell ref="D368:D373"/>
     <mergeCell ref="D375:D379"/>
     <mergeCell ref="D342:D348"/>
@@ -10375,21 +11187,26 @@
     <mergeCell ref="D110:D112"/>
     <mergeCell ref="D114:D116"/>
     <mergeCell ref="D118:D121"/>
+    <mergeCell ref="D407:D412"/>
+    <mergeCell ref="D381:D385"/>
+    <mergeCell ref="D387:D391"/>
+    <mergeCell ref="D393:D398"/>
+    <mergeCell ref="D400:D405"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J490:J692" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J484:J686" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Leona, Parvathy, Raziya, Rijo"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C664:C733" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C658:C727" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Parvathy P, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K737" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K731" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Pass, Fail, Blocked"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B613" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B607" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"CAS/ Appointment, Out Patient, Care Desk, EMR, Lab &amp; General Billing, Pharmacy Billing, Lab Results, Radiology, Insurance Desk, Casualty, MRD, In Patient, Nursing Station, Theatre, Indent, Store Management"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C663 J2:J489" xr:uid="{00000000-0002-0000-0100-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J483 C2:C657" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Test Case/Rijo/Test Case - Nursing Station.xlsx
+++ b/Test Case/Rijo/Test Case - Nursing Station.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\Mediware\CentralRepository-Mediware\Test Case\Rijo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487BAF6F-2613-4B54-9020-D8513A1BDDB4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55D14BD-DC30-4300-836D-F344045BCA64}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="569">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1770,9 +1770,6 @@
     <t>MED_NURS_TC_095</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify whether user is able to view approximaate bill of the patient </t>
-  </si>
-  <si>
     <t>Click Menu&gt;&gt;Settings&gt;&gt;Approximate Calculation</t>
   </si>
   <si>
@@ -1786,6 +1783,81 @@
   </si>
   <si>
     <t>Patient's Amount, Advance and Balance details should be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify whether user is able to view approximate bill of the patient </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre-condition: Drug should be scheduled for the patient </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigate to Nursing Station&gt;&gt;Medication&gt;&gt;Drug Marking </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify whether user is able to mark the drug given for the patient </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drug Marking form should be displayed </t>
+  </si>
+  <si>
+    <t>Given time should be recorded successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data should be saved </t>
+  </si>
+  <si>
+    <t>MED_NURS_TC_096</t>
+  </si>
+  <si>
+    <t>MED_NURS_TC_097</t>
+  </si>
+  <si>
+    <t>To verify whether user is able to print the drug given</t>
+  </si>
+  <si>
+    <t>Click on Print</t>
+  </si>
+  <si>
+    <t>User should be to print the medications given</t>
+  </si>
+  <si>
+    <t>To verify whether user is able to add drug Omit reason</t>
+  </si>
+  <si>
+    <t>Click on Omit button and enter the reason</t>
+  </si>
+  <si>
+    <t>Drug Omit reason should be entered</t>
+  </si>
+  <si>
+    <t>MED_NURS_TC_099</t>
+  </si>
+  <si>
+    <t>MED_NURS_TC_098</t>
+  </si>
+  <si>
+    <t>To verify whether user is able to add drug Reject reason</t>
+  </si>
+  <si>
+    <t>Click on Reject button and enter the reason</t>
+  </si>
+  <si>
+    <t>Drug reject reason should be entered</t>
+  </si>
+  <si>
+    <t>MED_NURS_TC_100</t>
+  </si>
+  <si>
+    <t>Click on the alert button and enter remarks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigate to Nursing Station&gt;&gt;Medication&gt;&gt;Medication Sheet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medication sheet should be displayed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify whether user is able to oview the medication sheet </t>
   </si>
 </sst>
 </file>
@@ -1920,7 +1992,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2035,6 +2107,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2167,7 +2242,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>96</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3104,7 +3179,7 @@
       </c>
       <c r="B2" s="18">
         <f>'Nursing Station'!O2</f>
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C2" s="18">
         <f>'Nursing Station'!O3</f>
@@ -3162,7 +3237,7 @@
       </c>
       <c r="B4" s="6">
         <f t="shared" ref="B4:G4" si="0">SUM(B2:B3)</f>
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C4" s="6">
         <f t="shared" si="0"/>
@@ -3198,16 +3273,16 @@
       <c r="B7" s="15"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J9" s="40" t="s">
+      <c r="J9" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3224,8 +3299,8 @@
   <dimension ref="A1:R721"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <pane ySplit="1" topLeftCell="A588" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D600" sqref="D600"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3300,7 +3375,7 @@
       <c r="C2" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="43" t="s">
         <v>54</v>
       </c>
       <c r="E2" s="20">
@@ -3322,7 +3397,7 @@
       </c>
       <c r="O2" s="17">
         <f>COUNTA(A:A)-1</f>
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="Q2" s="29" t="s">
         <v>12</v>
@@ -3336,7 +3411,7 @@
       <c r="A3" s="36"/>
       <c r="B3" s="19"/>
       <c r="C3" s="28"/>
-      <c r="D3" s="43"/>
+      <c r="D3" s="44"/>
       <c r="E3" s="20">
         <v>2</v>
       </c>
@@ -3370,7 +3445,7 @@
       <c r="A4" s="36"/>
       <c r="B4" s="19"/>
       <c r="C4" s="28"/>
-      <c r="D4" s="43"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="20">
         <v>3</v>
       </c>
@@ -3400,7 +3475,7 @@
     <row r="5" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
       <c r="B5" s="19"/>
-      <c r="D5" s="43"/>
+      <c r="D5" s="44"/>
       <c r="E5" s="20">
         <v>4</v>
       </c>
@@ -3426,7 +3501,7 @@
     <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="36"/>
       <c r="B6" s="19"/>
-      <c r="D6" s="43"/>
+      <c r="D6" s="44"/>
       <c r="E6" s="20">
         <v>5</v>
       </c>
@@ -3454,7 +3529,7 @@
       <c r="C8" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="42" t="s">
         <v>55</v>
       </c>
       <c r="E8" s="20">
@@ -3471,7 +3546,7 @@
     </row>
     <row r="9" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="19"/>
-      <c r="D9" s="41"/>
+      <c r="D9" s="42"/>
       <c r="E9" s="20">
         <v>2</v>
       </c>
@@ -3486,7 +3561,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" s="19"/>
-      <c r="D10" s="41"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="20">
         <v>3</v>
       </c>
@@ -3504,7 +3579,7 @@
     </row>
     <row r="11" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="B11" s="19"/>
-      <c r="D11" s="41"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="20">
         <v>4</v>
       </c>
@@ -3535,7 +3610,7 @@
       <c r="C13" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="42" t="s">
         <v>53</v>
       </c>
       <c r="E13" s="20">
@@ -3552,7 +3627,7 @@
     </row>
     <row r="14" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="19"/>
-      <c r="D14" s="41"/>
+      <c r="D14" s="42"/>
       <c r="E14" s="20">
         <v>2</v>
       </c>
@@ -3567,7 +3642,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" s="19"/>
-      <c r="D15" s="41"/>
+      <c r="D15" s="42"/>
       <c r="E15" s="20">
         <v>3</v>
       </c>
@@ -3582,7 +3657,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" s="19"/>
-      <c r="D16" s="41"/>
+      <c r="D16" s="42"/>
       <c r="E16" s="20">
         <v>3</v>
       </c>
@@ -3610,7 +3685,7 @@
       <c r="C18" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="42" t="s">
         <v>56</v>
       </c>
       <c r="E18" s="20">
@@ -3627,7 +3702,7 @@
     </row>
     <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="19"/>
-      <c r="D19" s="41"/>
+      <c r="D19" s="42"/>
       <c r="E19" s="20">
         <v>2</v>
       </c>
@@ -3642,7 +3717,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B20" s="19"/>
-      <c r="D20" s="41"/>
+      <c r="D20" s="42"/>
       <c r="E20" s="20">
         <v>3</v>
       </c>
@@ -3657,7 +3732,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B21" s="19"/>
-      <c r="D21" s="41"/>
+      <c r="D21" s="42"/>
       <c r="E21" s="20">
         <v>4</v>
       </c>
@@ -3685,7 +3760,7 @@
       <c r="C23" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="42" t="s">
         <v>61</v>
       </c>
       <c r="E23" s="20">
@@ -3702,7 +3777,7 @@
     </row>
     <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="19"/>
-      <c r="D24" s="41"/>
+      <c r="D24" s="42"/>
       <c r="E24" s="20">
         <v>2</v>
       </c>
@@ -3717,7 +3792,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B25" s="19"/>
-      <c r="D25" s="41"/>
+      <c r="D25" s="42"/>
       <c r="E25" s="20">
         <v>3</v>
       </c>
@@ -3732,7 +3807,7 @@
     </row>
     <row r="26" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B26" s="19"/>
-      <c r="D26" s="41"/>
+      <c r="D26" s="42"/>
       <c r="E26" s="20">
         <v>4</v>
       </c>
@@ -3763,7 +3838,7 @@
       <c r="C28" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="41" t="s">
+      <c r="D28" s="42" t="s">
         <v>68</v>
       </c>
       <c r="E28" s="20">
@@ -3780,7 +3855,7 @@
     </row>
     <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="19"/>
-      <c r="D29" s="41"/>
+      <c r="D29" s="42"/>
       <c r="E29" s="20">
         <v>2</v>
       </c>
@@ -3795,7 +3870,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B30" s="19"/>
-      <c r="D30" s="41"/>
+      <c r="D30" s="42"/>
       <c r="E30" s="20">
         <v>3</v>
       </c>
@@ -3810,7 +3885,7 @@
     </row>
     <row r="31" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B31" s="19"/>
-      <c r="D31" s="41"/>
+      <c r="D31" s="42"/>
       <c r="E31" s="20">
         <v>4</v>
       </c>
@@ -3841,7 +3916,7 @@
       <c r="C33" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="41" t="s">
+      <c r="D33" s="42" t="s">
         <v>73</v>
       </c>
       <c r="E33" s="20">
@@ -3858,7 +3933,7 @@
     </row>
     <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B34" s="19"/>
-      <c r="D34" s="41"/>
+      <c r="D34" s="42"/>
       <c r="E34" s="20">
         <v>2</v>
       </c>
@@ -3873,7 +3948,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B35" s="19"/>
-      <c r="D35" s="41"/>
+      <c r="D35" s="42"/>
       <c r="E35" s="20">
         <v>3</v>
       </c>
@@ -3888,7 +3963,7 @@
     </row>
     <row r="36" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B36" s="19"/>
-      <c r="D36" s="41"/>
+      <c r="D36" s="42"/>
       <c r="E36" s="20">
         <v>4</v>
       </c>
@@ -3906,7 +3981,7 @@
     </row>
     <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B37" s="19"/>
-      <c r="D37" s="41"/>
+      <c r="D37" s="42"/>
       <c r="E37" s="20">
         <v>5</v>
       </c>
@@ -3921,7 +3996,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B38" s="19"/>
-      <c r="D38" s="41"/>
+      <c r="D38" s="42"/>
       <c r="E38" s="20">
         <v>6</v>
       </c>
@@ -3949,7 +4024,7 @@
       <c r="C40" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="41" t="s">
+      <c r="D40" s="42" t="s">
         <v>80</v>
       </c>
       <c r="E40" s="20">
@@ -3966,7 +4041,7 @@
     </row>
     <row r="41" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B41" s="19"/>
-      <c r="D41" s="41"/>
+      <c r="D41" s="42"/>
       <c r="E41" s="20">
         <v>2</v>
       </c>
@@ -3981,7 +4056,7 @@
     </row>
     <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B42" s="19"/>
-      <c r="D42" s="41"/>
+      <c r="D42" s="42"/>
       <c r="E42" s="20">
         <v>3</v>
       </c>
@@ -3996,7 +4071,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" s="19"/>
-      <c r="D43" s="41"/>
+      <c r="D43" s="42"/>
       <c r="E43" s="20">
         <v>4</v>
       </c>
@@ -4011,7 +4086,7 @@
     </row>
     <row r="44" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B44" s="19"/>
-      <c r="D44" s="41"/>
+      <c r="D44" s="42"/>
       <c r="E44" s="20">
         <v>5</v>
       </c>
@@ -4042,7 +4117,7 @@
       <c r="C46" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D46" s="41" t="s">
+      <c r="D46" s="42" t="s">
         <v>88</v>
       </c>
       <c r="E46" s="20">
@@ -4059,7 +4134,7 @@
     </row>
     <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B47" s="19"/>
-      <c r="D47" s="41"/>
+      <c r="D47" s="42"/>
       <c r="E47" s="20">
         <v>2</v>
       </c>
@@ -4074,7 +4149,7 @@
     </row>
     <row r="48" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="19"/>
-      <c r="D48" s="41"/>
+      <c r="D48" s="42"/>
       <c r="E48" s="20">
         <v>3</v>
       </c>
@@ -4089,7 +4164,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B49" s="19"/>
-      <c r="D49" s="41"/>
+      <c r="D49" s="42"/>
       <c r="E49" s="20">
         <v>4</v>
       </c>
@@ -4104,7 +4179,7 @@
     </row>
     <row r="50" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B50" s="19"/>
-      <c r="D50" s="41"/>
+      <c r="D50" s="42"/>
       <c r="E50" s="20">
         <v>5</v>
       </c>
@@ -4122,7 +4197,7 @@
     </row>
     <row r="51" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B51" s="19"/>
-      <c r="D51" s="41"/>
+      <c r="D51" s="42"/>
       <c r="E51" s="20">
         <v>6</v>
       </c>
@@ -4137,7 +4212,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B52" s="19"/>
-      <c r="D52" s="41"/>
+      <c r="D52" s="42"/>
       <c r="E52" s="20">
         <v>7</v>
       </c>
@@ -4165,7 +4240,7 @@
       <c r="C54" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D54" s="41" t="s">
+      <c r="D54" s="42" t="s">
         <v>94</v>
       </c>
       <c r="E54" s="20">
@@ -4182,7 +4257,7 @@
     </row>
     <row r="55" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B55" s="19"/>
-      <c r="D55" s="41"/>
+      <c r="D55" s="42"/>
       <c r="E55" s="20">
         <v>2</v>
       </c>
@@ -4197,7 +4272,7 @@
     </row>
     <row r="56" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B56" s="19"/>
-      <c r="D56" s="41"/>
+      <c r="D56" s="42"/>
       <c r="E56" s="20">
         <v>3</v>
       </c>
@@ -4215,7 +4290,7 @@
     </row>
     <row r="57" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B57" s="19"/>
-      <c r="D57" s="41"/>
+      <c r="D57" s="42"/>
       <c r="E57" s="20">
         <v>4</v>
       </c>
@@ -4243,7 +4318,7 @@
       <c r="C59" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D59" s="41" t="s">
+      <c r="D59" s="42" t="s">
         <v>103</v>
       </c>
       <c r="E59" s="20">
@@ -4260,7 +4335,7 @@
     </row>
     <row r="60" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B60" s="19"/>
-      <c r="D60" s="41"/>
+      <c r="D60" s="42"/>
       <c r="E60" s="20">
         <v>2</v>
       </c>
@@ -4275,7 +4350,7 @@
     </row>
     <row r="61" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="B61" s="19"/>
-      <c r="D61" s="41"/>
+      <c r="D61" s="42"/>
       <c r="E61" s="20">
         <v>3</v>
       </c>
@@ -4306,7 +4381,7 @@
       <c r="C63" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D63" s="41" t="s">
+      <c r="D63" s="42" t="s">
         <v>107</v>
       </c>
       <c r="E63" s="20">
@@ -4323,7 +4398,7 @@
     </row>
     <row r="64" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B64" s="19"/>
-      <c r="D64" s="41"/>
+      <c r="D64" s="42"/>
       <c r="E64" s="20">
         <v>2</v>
       </c>
@@ -4338,7 +4413,7 @@
     </row>
     <row r="65" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="B65" s="19"/>
-      <c r="D65" s="41"/>
+      <c r="D65" s="42"/>
       <c r="E65" s="20">
         <v>3</v>
       </c>
@@ -4369,7 +4444,7 @@
       <c r="C67" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D67" s="41" t="s">
+      <c r="D67" s="42" t="s">
         <v>111</v>
       </c>
       <c r="E67" s="20">
@@ -4386,7 +4461,7 @@
     </row>
     <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B68" s="19"/>
-      <c r="D68" s="41"/>
+      <c r="D68" s="42"/>
       <c r="E68" s="20">
         <v>2</v>
       </c>
@@ -4401,7 +4476,7 @@
     </row>
     <row r="69" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B69" s="19"/>
-      <c r="D69" s="41"/>
+      <c r="D69" s="42"/>
       <c r="E69" s="20">
         <v>3</v>
       </c>
@@ -4416,7 +4491,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B70" s="19"/>
-      <c r="D70" s="41"/>
+      <c r="D70" s="42"/>
       <c r="E70" s="20">
         <v>4</v>
       </c>
@@ -4444,7 +4519,7 @@
       <c r="C72" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D72" s="41" t="s">
+      <c r="D72" s="42" t="s">
         <v>118</v>
       </c>
       <c r="E72" s="20">
@@ -4461,7 +4536,7 @@
     </row>
     <row r="73" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B73" s="19"/>
-      <c r="D73" s="41"/>
+      <c r="D73" s="42"/>
       <c r="E73" s="20">
         <v>2</v>
       </c>
@@ -4476,7 +4551,7 @@
     </row>
     <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B74" s="19"/>
-      <c r="D74" s="41"/>
+      <c r="D74" s="42"/>
       <c r="E74" s="20">
         <v>3</v>
       </c>
@@ -4491,7 +4566,7 @@
     </row>
     <row r="75" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B75" s="19"/>
-      <c r="D75" s="41"/>
+      <c r="D75" s="42"/>
       <c r="E75" s="20">
         <v>4</v>
       </c>
@@ -4519,7 +4594,7 @@
       <c r="C77" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D77" s="41" t="s">
+      <c r="D77" s="42" t="s">
         <v>123</v>
       </c>
       <c r="E77" s="20">
@@ -4536,7 +4611,7 @@
     </row>
     <row r="78" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B78" s="19"/>
-      <c r="D78" s="41"/>
+      <c r="D78" s="42"/>
       <c r="E78" s="20">
         <v>2</v>
       </c>
@@ -4551,7 +4626,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B79" s="19"/>
-      <c r="D79" s="41"/>
+      <c r="D79" s="42"/>
       <c r="E79" s="20">
         <v>3</v>
       </c>
@@ -4566,7 +4641,7 @@
     </row>
     <row r="80" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B80" s="19"/>
-      <c r="D80" s="41"/>
+      <c r="D80" s="42"/>
       <c r="E80" s="20">
         <v>4</v>
       </c>
@@ -4597,7 +4672,7 @@
       <c r="C82" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D82" s="44" t="s">
+      <c r="D82" s="45" t="s">
         <v>143</v>
       </c>
       <c r="E82" s="20">
@@ -4614,7 +4689,7 @@
     </row>
     <row r="83" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B83" s="19"/>
-      <c r="D83" s="44"/>
+      <c r="D83" s="45"/>
       <c r="E83" s="20">
         <v>2</v>
       </c>
@@ -4629,7 +4704,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B84" s="19"/>
-      <c r="D84" s="44"/>
+      <c r="D84" s="45"/>
       <c r="E84" s="20">
         <v>3</v>
       </c>
@@ -4644,7 +4719,7 @@
     </row>
     <row r="85" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B85" s="19"/>
-      <c r="D85" s="44"/>
+      <c r="D85" s="45"/>
       <c r="E85" s="20">
         <v>4</v>
       </c>
@@ -4675,7 +4750,7 @@
       <c r="C87" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="41" t="s">
+      <c r="D87" s="42" t="s">
         <v>133</v>
       </c>
       <c r="E87" s="20">
@@ -4692,7 +4767,7 @@
     </row>
     <row r="88" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B88" s="19"/>
-      <c r="D88" s="41"/>
+      <c r="D88" s="42"/>
       <c r="E88" s="20">
         <v>2</v>
       </c>
@@ -4707,7 +4782,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B89" s="19"/>
-      <c r="D89" s="41"/>
+      <c r="D89" s="42"/>
       <c r="E89" s="20">
         <v>3</v>
       </c>
@@ -4722,7 +4797,7 @@
     </row>
     <row r="90" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B90" s="19"/>
-      <c r="D90" s="41"/>
+      <c r="D90" s="42"/>
       <c r="E90" s="20">
         <v>4</v>
       </c>
@@ -4753,7 +4828,7 @@
       <c r="C92" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D92" s="41" t="s">
+      <c r="D92" s="42" t="s">
         <v>139</v>
       </c>
       <c r="E92" s="20">
@@ -4770,7 +4845,7 @@
     </row>
     <row r="93" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B93" s="19"/>
-      <c r="D93" s="41"/>
+      <c r="D93" s="42"/>
       <c r="E93" s="20">
         <v>2</v>
       </c>
@@ -4785,7 +4860,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B94" s="19"/>
-      <c r="D94" s="41"/>
+      <c r="D94" s="42"/>
       <c r="E94" s="20">
         <v>3</v>
       </c>
@@ -4800,7 +4875,7 @@
     </row>
     <row r="95" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B95" s="19"/>
-      <c r="D95" s="41"/>
+      <c r="D95" s="42"/>
       <c r="E95" s="20">
         <v>4</v>
       </c>
@@ -4818,7 +4893,7 @@
     </row>
     <row r="96" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B96" s="19"/>
-      <c r="D96" s="41"/>
+      <c r="D96" s="42"/>
       <c r="E96" s="20">
         <v>5</v>
       </c>
@@ -4846,7 +4921,7 @@
       <c r="C98" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D98" s="41" t="s">
+      <c r="D98" s="42" t="s">
         <v>139</v>
       </c>
       <c r="E98" s="20">
@@ -4863,7 +4938,7 @@
     </row>
     <row r="99" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B99" s="19"/>
-      <c r="D99" s="41"/>
+      <c r="D99" s="42"/>
       <c r="E99" s="20">
         <v>2</v>
       </c>
@@ -4878,7 +4953,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B100" s="19"/>
-      <c r="D100" s="41"/>
+      <c r="D100" s="42"/>
       <c r="E100" s="20">
         <v>3</v>
       </c>
@@ -4893,7 +4968,7 @@
     </row>
     <row r="101" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B101" s="19"/>
-      <c r="D101" s="41"/>
+      <c r="D101" s="42"/>
       <c r="E101" s="20">
         <v>4</v>
       </c>
@@ -4911,7 +4986,7 @@
     </row>
     <row r="102" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B102" s="19"/>
-      <c r="D102" s="41"/>
+      <c r="D102" s="42"/>
       <c r="E102" s="20">
         <v>5</v>
       </c>
@@ -4939,7 +5014,7 @@
       <c r="C104" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D104" s="41" t="s">
+      <c r="D104" s="42" t="s">
         <v>146</v>
       </c>
       <c r="E104" s="20">
@@ -4956,7 +5031,7 @@
     </row>
     <row r="105" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B105" s="19"/>
-      <c r="D105" s="41"/>
+      <c r="D105" s="42"/>
       <c r="E105" s="20">
         <v>2</v>
       </c>
@@ -4971,7 +5046,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B106" s="19"/>
-      <c r="D106" s="41"/>
+      <c r="D106" s="42"/>
       <c r="E106" s="20">
         <v>3</v>
       </c>
@@ -4986,7 +5061,7 @@
     </row>
     <row r="107" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B107" s="19"/>
-      <c r="D107" s="41"/>
+      <c r="D107" s="42"/>
       <c r="E107" s="20">
         <v>4</v>
       </c>
@@ -5004,7 +5079,7 @@
     </row>
     <row r="108" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="19"/>
-      <c r="D108" s="41"/>
+      <c r="D108" s="42"/>
       <c r="E108" s="20">
         <v>5</v>
       </c>
@@ -5032,7 +5107,7 @@
       <c r="C110" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D110" s="41" t="s">
+      <c r="D110" s="42" t="s">
         <v>150</v>
       </c>
       <c r="E110" s="20">
@@ -5049,7 +5124,7 @@
     </row>
     <row r="111" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="19"/>
-      <c r="D111" s="41"/>
+      <c r="D111" s="42"/>
       <c r="E111" s="20">
         <v>2</v>
       </c>
@@ -5064,7 +5139,7 @@
     </row>
     <row r="112" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B112" s="19"/>
-      <c r="D112" s="41"/>
+      <c r="D112" s="42"/>
       <c r="E112" s="20">
         <v>3</v>
       </c>
@@ -5092,7 +5167,7 @@
       <c r="C114" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D114" s="41" t="s">
+      <c r="D114" s="42" t="s">
         <v>163</v>
       </c>
       <c r="E114" s="20">
@@ -5109,7 +5184,7 @@
     </row>
     <row r="115" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B115" s="19"/>
-      <c r="D115" s="41"/>
+      <c r="D115" s="42"/>
       <c r="E115" s="20">
         <v>2</v>
       </c>
@@ -5124,7 +5199,7 @@
     </row>
     <row r="116" spans="1:11" ht="225" x14ac:dyDescent="0.25">
       <c r="B116" s="19"/>
-      <c r="D116" s="41"/>
+      <c r="D116" s="42"/>
       <c r="E116" s="20">
         <v>3</v>
       </c>
@@ -5155,7 +5230,7 @@
       <c r="C118" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D118" s="41" t="s">
+      <c r="D118" s="42" t="s">
         <v>162</v>
       </c>
       <c r="E118" s="20">
@@ -5172,7 +5247,7 @@
     </row>
     <row r="119" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B119" s="19"/>
-      <c r="D119" s="41"/>
+      <c r="D119" s="42"/>
       <c r="E119" s="20">
         <v>2</v>
       </c>
@@ -5187,7 +5262,7 @@
     </row>
     <row r="120" spans="1:11" ht="225" x14ac:dyDescent="0.25">
       <c r="B120" s="19"/>
-      <c r="D120" s="41"/>
+      <c r="D120" s="42"/>
       <c r="E120" s="20">
         <v>3</v>
       </c>
@@ -5202,7 +5277,7 @@
     </row>
     <row r="121" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B121" s="19"/>
-      <c r="D121" s="41"/>
+      <c r="D121" s="42"/>
       <c r="E121" s="20">
         <v>4</v>
       </c>
@@ -5230,7 +5305,7 @@
       <c r="C123" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D123" s="41" t="s">
+      <c r="D123" s="42" t="s">
         <v>167</v>
       </c>
       <c r="E123" s="20">
@@ -5247,7 +5322,7 @@
     </row>
     <row r="124" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B124" s="19"/>
-      <c r="D124" s="41"/>
+      <c r="D124" s="42"/>
       <c r="E124" s="20">
         <v>2</v>
       </c>
@@ -5262,7 +5337,7 @@
     </row>
     <row r="125" spans="1:11" ht="225" x14ac:dyDescent="0.25">
       <c r="B125" s="19"/>
-      <c r="D125" s="41"/>
+      <c r="D125" s="42"/>
       <c r="E125" s="20">
         <v>3</v>
       </c>
@@ -5280,7 +5355,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B126" s="19"/>
-      <c r="D126" s="41"/>
+      <c r="D126" s="42"/>
       <c r="E126" s="20">
         <v>4</v>
       </c>
@@ -5308,7 +5383,7 @@
       <c r="C128" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D128" s="41" t="s">
+      <c r="D128" s="42" t="s">
         <v>171</v>
       </c>
       <c r="E128" s="20">
@@ -5325,7 +5400,7 @@
     </row>
     <row r="129" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B129" s="19"/>
-      <c r="D129" s="41"/>
+      <c r="D129" s="42"/>
       <c r="E129" s="20">
         <v>2</v>
       </c>
@@ -5340,7 +5415,7 @@
     </row>
     <row r="130" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="B130" s="19"/>
-      <c r="D130" s="41"/>
+      <c r="D130" s="42"/>
       <c r="E130" s="20">
         <v>3</v>
       </c>
@@ -5368,7 +5443,7 @@
       <c r="C132" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D132" s="41" t="s">
+      <c r="D132" s="42" t="s">
         <v>177</v>
       </c>
       <c r="E132" s="20">
@@ -5385,7 +5460,7 @@
     </row>
     <row r="133" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B133" s="19"/>
-      <c r="D133" s="41"/>
+      <c r="D133" s="42"/>
       <c r="E133" s="20">
         <v>2</v>
       </c>
@@ -5400,7 +5475,7 @@
     </row>
     <row r="134" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="B134" s="19"/>
-      <c r="D134" s="41"/>
+      <c r="D134" s="42"/>
       <c r="E134" s="20">
         <v>3</v>
       </c>
@@ -5415,7 +5490,7 @@
     </row>
     <row r="135" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B135" s="19"/>
-      <c r="D135" s="41"/>
+      <c r="D135" s="42"/>
       <c r="E135" s="20">
         <v>4</v>
       </c>
@@ -5443,7 +5518,7 @@
       <c r="C137" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D137" s="41" t="s">
+      <c r="D137" s="42" t="s">
         <v>180</v>
       </c>
       <c r="E137" s="20">
@@ -5460,7 +5535,7 @@
     </row>
     <row r="138" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B138" s="19"/>
-      <c r="D138" s="41"/>
+      <c r="D138" s="42"/>
       <c r="E138" s="20">
         <v>2</v>
       </c>
@@ -5475,7 +5550,7 @@
     </row>
     <row r="139" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="B139" s="19"/>
-      <c r="D139" s="41"/>
+      <c r="D139" s="42"/>
       <c r="E139" s="20">
         <v>3</v>
       </c>
@@ -5490,7 +5565,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B140" s="19"/>
-      <c r="D140" s="41"/>
+      <c r="D140" s="42"/>
       <c r="E140" s="20">
         <v>4</v>
       </c>
@@ -5518,7 +5593,7 @@
       <c r="C142" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D142" s="41" t="s">
+      <c r="D142" s="42" t="s">
         <v>183</v>
       </c>
       <c r="E142" s="20">
@@ -5535,7 +5610,7 @@
     </row>
     <row r="143" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B143" s="19"/>
-      <c r="D143" s="41"/>
+      <c r="D143" s="42"/>
       <c r="E143" s="20">
         <v>2</v>
       </c>
@@ -5550,7 +5625,7 @@
     </row>
     <row r="144" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="B144" s="19"/>
-      <c r="D144" s="41"/>
+      <c r="D144" s="42"/>
       <c r="E144" s="20">
         <v>3</v>
       </c>
@@ -5565,7 +5640,7 @@
     </row>
     <row r="145" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B145" s="19"/>
-      <c r="D145" s="41"/>
+      <c r="D145" s="42"/>
       <c r="E145" s="20">
         <v>4</v>
       </c>
@@ -5580,7 +5655,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B146" s="19"/>
-      <c r="D146" s="41"/>
+      <c r="D146" s="42"/>
       <c r="E146" s="20">
         <v>5</v>
       </c>
@@ -5608,7 +5683,7 @@
       <c r="C148" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D148" s="41" t="s">
+      <c r="D148" s="42" t="s">
         <v>189</v>
       </c>
       <c r="E148" s="20">
@@ -5625,7 +5700,7 @@
     </row>
     <row r="149" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="19"/>
-      <c r="D149" s="41"/>
+      <c r="D149" s="42"/>
       <c r="E149" s="20">
         <v>2</v>
       </c>
@@ -5640,7 +5715,7 @@
     </row>
     <row r="150" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B150" s="19"/>
-      <c r="D150" s="41"/>
+      <c r="D150" s="42"/>
       <c r="E150" s="20">
         <v>3</v>
       </c>
@@ -5655,7 +5730,7 @@
     </row>
     <row r="151" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B151" s="19"/>
-      <c r="D151" s="41"/>
+      <c r="D151" s="42"/>
       <c r="E151" s="20">
         <v>4</v>
       </c>
@@ -5670,7 +5745,7 @@
     </row>
     <row r="152" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B152" s="19"/>
-      <c r="D152" s="41"/>
+      <c r="D152" s="42"/>
       <c r="E152" s="20">
         <v>5</v>
       </c>
@@ -5685,7 +5760,7 @@
     </row>
     <row r="153" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B153" s="19"/>
-      <c r="D153" s="41"/>
+      <c r="D153" s="42"/>
       <c r="E153" s="20">
         <v>6</v>
       </c>
@@ -5700,7 +5775,7 @@
     </row>
     <row r="154" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B154" s="19"/>
-      <c r="D154" s="41"/>
+      <c r="D154" s="42"/>
       <c r="E154" s="20">
         <v>7</v>
       </c>
@@ -5715,7 +5790,7 @@
     </row>
     <row r="155" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B155" s="19"/>
-      <c r="D155" s="41"/>
+      <c r="D155" s="42"/>
       <c r="E155" s="20">
         <v>8</v>
       </c>
@@ -5743,7 +5818,7 @@
       <c r="C157" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D157" s="41" t="s">
+      <c r="D157" s="42" t="s">
         <v>200</v>
       </c>
       <c r="E157" s="20">
@@ -5760,7 +5835,7 @@
     </row>
     <row r="158" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B158" s="19"/>
-      <c r="D158" s="41"/>
+      <c r="D158" s="42"/>
       <c r="E158" s="20">
         <v>2</v>
       </c>
@@ -5775,7 +5850,7 @@
     </row>
     <row r="159" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B159" s="19"/>
-      <c r="D159" s="41"/>
+      <c r="D159" s="42"/>
       <c r="E159" s="20">
         <v>3</v>
       </c>
@@ -5790,7 +5865,7 @@
     </row>
     <row r="160" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B160" s="19"/>
-      <c r="D160" s="41"/>
+      <c r="D160" s="42"/>
       <c r="E160" s="20">
         <v>4</v>
       </c>
@@ -5805,7 +5880,7 @@
     </row>
     <row r="161" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B161" s="19"/>
-      <c r="D161" s="41"/>
+      <c r="D161" s="42"/>
       <c r="E161" s="20">
         <v>5</v>
       </c>
@@ -5820,7 +5895,7 @@
     </row>
     <row r="162" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B162" s="19"/>
-      <c r="D162" s="41"/>
+      <c r="D162" s="42"/>
       <c r="E162" s="20">
         <v>6</v>
       </c>
@@ -5835,7 +5910,7 @@
     </row>
     <row r="163" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B163" s="19"/>
-      <c r="D163" s="41"/>
+      <c r="D163" s="42"/>
       <c r="E163" s="20">
         <v>7</v>
       </c>
@@ -5850,7 +5925,7 @@
     </row>
     <row r="164" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B164" s="19"/>
-      <c r="D164" s="41"/>
+      <c r="D164" s="42"/>
       <c r="E164" s="20">
         <v>8</v>
       </c>
@@ -5865,7 +5940,7 @@
     </row>
     <row r="165" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B165" s="19"/>
-      <c r="D165" s="41"/>
+      <c r="D165" s="42"/>
       <c r="E165" s="20">
         <v>9</v>
       </c>
@@ -5893,7 +5968,7 @@
       <c r="C167" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D167" s="41" t="s">
+      <c r="D167" s="42" t="s">
         <v>206</v>
       </c>
       <c r="E167" s="20">
@@ -5910,7 +5985,7 @@
     </row>
     <row r="168" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B168" s="19"/>
-      <c r="D168" s="41"/>
+      <c r="D168" s="42"/>
       <c r="E168" s="20">
         <v>2</v>
       </c>
@@ -5925,7 +6000,7 @@
     </row>
     <row r="169" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B169" s="19"/>
-      <c r="D169" s="41"/>
+      <c r="D169" s="42"/>
       <c r="E169" s="20">
         <v>3</v>
       </c>
@@ -5940,7 +6015,7 @@
     </row>
     <row r="170" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B170" s="19"/>
-      <c r="D170" s="41"/>
+      <c r="D170" s="42"/>
       <c r="E170" s="20">
         <v>4</v>
       </c>
@@ -5955,7 +6030,7 @@
     </row>
     <row r="171" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B171" s="19"/>
-      <c r="D171" s="41"/>
+      <c r="D171" s="42"/>
       <c r="E171" s="20">
         <v>5</v>
       </c>
@@ -5970,7 +6045,7 @@
     </row>
     <row r="172" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B172" s="19"/>
-      <c r="D172" s="41"/>
+      <c r="D172" s="42"/>
       <c r="E172" s="20">
         <v>6</v>
       </c>
@@ -5985,7 +6060,7 @@
     </row>
     <row r="173" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B173" s="19"/>
-      <c r="D173" s="41"/>
+      <c r="D173" s="42"/>
       <c r="E173" s="20">
         <v>7</v>
       </c>
@@ -6000,7 +6075,7 @@
     </row>
     <row r="174" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B174" s="19"/>
-      <c r="D174" s="41"/>
+      <c r="D174" s="42"/>
       <c r="E174" s="20">
         <v>8</v>
       </c>
@@ -6015,7 +6090,7 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B175" s="19"/>
-      <c r="D175" s="41"/>
+      <c r="D175" s="42"/>
       <c r="E175" s="20">
         <v>9</v>
       </c>
@@ -6043,7 +6118,7 @@
       <c r="C177" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D177" s="41" t="s">
+      <c r="D177" s="42" t="s">
         <v>208</v>
       </c>
       <c r="E177" s="20">
@@ -6060,7 +6135,7 @@
     </row>
     <row r="178" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B178" s="19"/>
-      <c r="D178" s="41"/>
+      <c r="D178" s="42"/>
       <c r="E178" s="20">
         <v>2</v>
       </c>
@@ -6075,7 +6150,7 @@
     </row>
     <row r="179" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B179" s="19"/>
-      <c r="D179" s="41"/>
+      <c r="D179" s="42"/>
       <c r="E179" s="20">
         <v>3</v>
       </c>
@@ -6090,7 +6165,7 @@
     </row>
     <row r="180" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B180" s="19"/>
-      <c r="D180" s="41"/>
+      <c r="D180" s="42"/>
       <c r="E180" s="20">
         <v>4</v>
       </c>
@@ -6105,7 +6180,7 @@
     </row>
     <row r="181" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B181" s="19"/>
-      <c r="D181" s="41"/>
+      <c r="D181" s="42"/>
       <c r="E181" s="20">
         <v>5</v>
       </c>
@@ -6120,7 +6195,7 @@
     </row>
     <row r="182" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B182" s="19"/>
-      <c r="D182" s="41"/>
+      <c r="D182" s="42"/>
       <c r="E182" s="20">
         <v>6</v>
       </c>
@@ -6135,7 +6210,7 @@
     </row>
     <row r="183" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B183" s="19"/>
-      <c r="D183" s="41"/>
+      <c r="D183" s="42"/>
       <c r="E183" s="20">
         <v>7</v>
       </c>
@@ -6150,7 +6225,7 @@
     </row>
     <row r="184" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B184" s="19"/>
-      <c r="D184" s="41"/>
+      <c r="D184" s="42"/>
       <c r="E184" s="20">
         <v>8</v>
       </c>
@@ -6165,7 +6240,7 @@
     </row>
     <row r="185" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B185" s="19"/>
-      <c r="D185" s="41"/>
+      <c r="D185" s="42"/>
       <c r="E185" s="20">
         <v>9</v>
       </c>
@@ -6180,7 +6255,7 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B186" s="19"/>
-      <c r="D186" s="41"/>
+      <c r="D186" s="42"/>
       <c r="E186" s="20">
         <v>10</v>
       </c>
@@ -6208,7 +6283,7 @@
       <c r="C188" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D188" s="41" t="s">
+      <c r="D188" s="42" t="s">
         <v>210</v>
       </c>
       <c r="E188" s="20">
@@ -6225,7 +6300,7 @@
     </row>
     <row r="189" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B189" s="19"/>
-      <c r="D189" s="41"/>
+      <c r="D189" s="42"/>
       <c r="E189" s="20">
         <v>2</v>
       </c>
@@ -6240,7 +6315,7 @@
     </row>
     <row r="190" spans="1:11" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="19"/>
-      <c r="D190" s="41"/>
+      <c r="D190" s="42"/>
       <c r="E190" s="20">
         <v>3</v>
       </c>
@@ -6268,7 +6343,7 @@
       <c r="C192" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D192" s="41" t="s">
+      <c r="D192" s="42" t="s">
         <v>214</v>
       </c>
       <c r="E192" s="20">
@@ -6285,7 +6360,7 @@
     </row>
     <row r="193" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B193" s="19"/>
-      <c r="D193" s="41"/>
+      <c r="D193" s="42"/>
       <c r="E193" s="20">
         <v>2</v>
       </c>
@@ -6300,7 +6375,7 @@
     </row>
     <row r="194" spans="1:11" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="19"/>
-      <c r="D194" s="41"/>
+      <c r="D194" s="42"/>
       <c r="E194" s="20">
         <v>3</v>
       </c>
@@ -6315,7 +6390,7 @@
     </row>
     <row r="195" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B195" s="19"/>
-      <c r="D195" s="41"/>
+      <c r="D195" s="42"/>
       <c r="E195" s="20">
         <v>4</v>
       </c>
@@ -6343,7 +6418,7 @@
       <c r="C197" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D197" s="41" t="s">
+      <c r="D197" s="42" t="s">
         <v>219</v>
       </c>
       <c r="E197" s="20">
@@ -6360,7 +6435,7 @@
     </row>
     <row r="198" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B198" s="19"/>
-      <c r="D198" s="41"/>
+      <c r="D198" s="42"/>
       <c r="E198" s="20">
         <v>2</v>
       </c>
@@ -6375,7 +6450,7 @@
     </row>
     <row r="199" spans="1:11" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="19"/>
-      <c r="D199" s="41"/>
+      <c r="D199" s="42"/>
       <c r="E199" s="20">
         <v>3</v>
       </c>
@@ -6390,7 +6465,7 @@
     </row>
     <row r="200" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B200" s="19"/>
-      <c r="D200" s="41"/>
+      <c r="D200" s="42"/>
       <c r="E200" s="20">
         <v>4</v>
       </c>
@@ -6405,7 +6480,7 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B201" s="19"/>
-      <c r="D201" s="41"/>
+      <c r="D201" s="42"/>
       <c r="E201" s="20">
         <v>5</v>
       </c>
@@ -6433,7 +6508,7 @@
       <c r="C203" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D203" s="41" t="s">
+      <c r="D203" s="42" t="s">
         <v>220</v>
       </c>
       <c r="E203" s="20">
@@ -6450,7 +6525,7 @@
     </row>
     <row r="204" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B204" s="19"/>
-      <c r="D204" s="41"/>
+      <c r="D204" s="42"/>
       <c r="E204" s="20">
         <v>2</v>
       </c>
@@ -6465,7 +6540,7 @@
     </row>
     <row r="205" spans="1:11" ht="141" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="19"/>
-      <c r="D205" s="41"/>
+      <c r="D205" s="42"/>
       <c r="E205" s="20">
         <v>3</v>
       </c>
@@ -6480,7 +6555,7 @@
     </row>
     <row r="206" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B206" s="19"/>
-      <c r="D206" s="41"/>
+      <c r="D206" s="42"/>
       <c r="E206" s="20">
         <v>4</v>
       </c>
@@ -6495,7 +6570,7 @@
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B207" s="19"/>
-      <c r="D207" s="41"/>
+      <c r="D207" s="42"/>
       <c r="E207" s="20">
         <v>5</v>
       </c>
@@ -6523,7 +6598,7 @@
       <c r="C209" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D209" s="41" t="s">
+      <c r="D209" s="42" t="s">
         <v>223</v>
       </c>
       <c r="E209" s="20">
@@ -6540,7 +6615,7 @@
     </row>
     <row r="210" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B210" s="19"/>
-      <c r="D210" s="41"/>
+      <c r="D210" s="42"/>
       <c r="E210" s="20">
         <v>2</v>
       </c>
@@ -6555,7 +6630,7 @@
     </row>
     <row r="211" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B211" s="19"/>
-      <c r="D211" s="41"/>
+      <c r="D211" s="42"/>
       <c r="E211" s="20">
         <v>3</v>
       </c>
@@ -6570,7 +6645,7 @@
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B212" s="19"/>
-      <c r="D212" s="41"/>
+      <c r="D212" s="42"/>
       <c r="E212" s="20">
         <v>4</v>
       </c>
@@ -6585,7 +6660,7 @@
     </row>
     <row r="213" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B213" s="19"/>
-      <c r="D213" s="41"/>
+      <c r="D213" s="42"/>
       <c r="E213" s="20">
         <v>5</v>
       </c>
@@ -6600,7 +6675,7 @@
     </row>
     <row r="214" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B214" s="19"/>
-      <c r="D214" s="41"/>
+      <c r="D214" s="42"/>
       <c r="E214" s="20">
         <v>6</v>
       </c>
@@ -6615,7 +6690,7 @@
     </row>
     <row r="215" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B215" s="19"/>
-      <c r="D215" s="41"/>
+      <c r="D215" s="42"/>
       <c r="E215" s="20">
         <v>7</v>
       </c>
@@ -6630,7 +6705,7 @@
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B216" s="19"/>
-      <c r="D216" s="41"/>
+      <c r="D216" s="42"/>
       <c r="E216" s="20">
         <v>8</v>
       </c>
@@ -6645,7 +6720,7 @@
     </row>
     <row r="217" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B217" s="19"/>
-      <c r="D217" s="41"/>
+      <c r="D217" s="42"/>
       <c r="E217" s="20">
         <v>9</v>
       </c>
@@ -6660,7 +6735,7 @@
     </row>
     <row r="218" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B218" s="19"/>
-      <c r="D218" s="41"/>
+      <c r="D218" s="42"/>
       <c r="E218" s="20">
         <v>10</v>
       </c>
@@ -6675,7 +6750,7 @@
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B219" s="19"/>
-      <c r="D219" s="41"/>
+      <c r="D219" s="42"/>
       <c r="E219" s="20">
         <v>11</v>
       </c>
@@ -6690,7 +6765,7 @@
     </row>
     <row r="220" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B220" s="19"/>
-      <c r="D220" s="41"/>
+      <c r="D220" s="42"/>
       <c r="E220" s="20">
         <v>12</v>
       </c>
@@ -6705,7 +6780,7 @@
     </row>
     <row r="221" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B221" s="19"/>
-      <c r="D221" s="41"/>
+      <c r="D221" s="42"/>
       <c r="E221" s="20">
         <v>13</v>
       </c>
@@ -6720,7 +6795,7 @@
     </row>
     <row r="222" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="19"/>
-      <c r="D222" s="41"/>
+      <c r="D222" s="42"/>
       <c r="E222" s="20">
         <v>14</v>
       </c>
@@ -6735,7 +6810,7 @@
     </row>
     <row r="223" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="19"/>
-      <c r="D223" s="41"/>
+      <c r="D223" s="42"/>
       <c r="E223" s="20">
         <v>15</v>
       </c>
@@ -6763,7 +6838,7 @@
       <c r="C225" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D225" s="41" t="s">
+      <c r="D225" s="42" t="s">
         <v>254</v>
       </c>
       <c r="E225" s="20">
@@ -6780,7 +6855,7 @@
     </row>
     <row r="226" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B226" s="19"/>
-      <c r="D226" s="41"/>
+      <c r="D226" s="42"/>
       <c r="E226" s="20">
         <v>2</v>
       </c>
@@ -6795,7 +6870,7 @@
     </row>
     <row r="227" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B227" s="19"/>
-      <c r="D227" s="41"/>
+      <c r="D227" s="42"/>
       <c r="E227" s="20">
         <v>3</v>
       </c>
@@ -6810,7 +6885,7 @@
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B228" s="19"/>
-      <c r="D228" s="41"/>
+      <c r="D228" s="42"/>
       <c r="E228" s="20">
         <v>4</v>
       </c>
@@ -6825,7 +6900,7 @@
     </row>
     <row r="229" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B229" s="19"/>
-      <c r="D229" s="41"/>
+      <c r="D229" s="42"/>
       <c r="E229" s="20">
         <v>5</v>
       </c>
@@ -6840,7 +6915,7 @@
     </row>
     <row r="230" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B230" s="19"/>
-      <c r="D230" s="41"/>
+      <c r="D230" s="42"/>
       <c r="E230" s="20">
         <v>6</v>
       </c>
@@ -6855,7 +6930,7 @@
     </row>
     <row r="231" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B231" s="19"/>
-      <c r="D231" s="41"/>
+      <c r="D231" s="42"/>
       <c r="E231" s="20">
         <v>7</v>
       </c>
@@ -6870,7 +6945,7 @@
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B232" s="19"/>
-      <c r="D232" s="41"/>
+      <c r="D232" s="42"/>
       <c r="E232" s="20">
         <v>8</v>
       </c>
@@ -6885,7 +6960,7 @@
     </row>
     <row r="233" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B233" s="19"/>
-      <c r="D233" s="41"/>
+      <c r="D233" s="42"/>
       <c r="E233" s="20">
         <v>9</v>
       </c>
@@ -6900,7 +6975,7 @@
     </row>
     <row r="234" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B234" s="19"/>
-      <c r="D234" s="41"/>
+      <c r="D234" s="42"/>
       <c r="E234" s="20">
         <v>10</v>
       </c>
@@ -6915,7 +6990,7 @@
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B235" s="19"/>
-      <c r="D235" s="41"/>
+      <c r="D235" s="42"/>
       <c r="E235" s="20">
         <v>11</v>
       </c>
@@ -6930,7 +7005,7 @@
     </row>
     <row r="236" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B236" s="19"/>
-      <c r="D236" s="41"/>
+      <c r="D236" s="42"/>
       <c r="E236" s="20">
         <v>12</v>
       </c>
@@ -6945,7 +7020,7 @@
     </row>
     <row r="237" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B237" s="19"/>
-      <c r="D237" s="41"/>
+      <c r="D237" s="42"/>
       <c r="E237" s="20">
         <v>13</v>
       </c>
@@ -6960,7 +7035,7 @@
     </row>
     <row r="238" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B238" s="19"/>
-      <c r="D238" s="41"/>
+      <c r="D238" s="42"/>
       <c r="E238" s="20">
         <v>14</v>
       </c>
@@ -6975,7 +7050,7 @@
     </row>
     <row r="239" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B239" s="19"/>
-      <c r="D239" s="41"/>
+      <c r="D239" s="42"/>
       <c r="E239" s="20">
         <v>15</v>
       </c>
@@ -6990,7 +7065,7 @@
     </row>
     <row r="240" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B240" s="19"/>
-      <c r="D240" s="41"/>
+      <c r="D240" s="42"/>
       <c r="E240" s="20">
         <v>16</v>
       </c>
@@ -7018,7 +7093,7 @@
       <c r="C242" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D242" s="41" t="s">
+      <c r="D242" s="42" t="s">
         <v>260</v>
       </c>
       <c r="E242" s="20">
@@ -7035,7 +7110,7 @@
     </row>
     <row r="243" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B243" s="19"/>
-      <c r="D243" s="41"/>
+      <c r="D243" s="42"/>
       <c r="E243" s="20">
         <v>2</v>
       </c>
@@ -7050,7 +7125,7 @@
     </row>
     <row r="244" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B244" s="19"/>
-      <c r="D244" s="41"/>
+      <c r="D244" s="42"/>
       <c r="E244" s="20">
         <v>3</v>
       </c>
@@ -7065,7 +7140,7 @@
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B245" s="19"/>
-      <c r="D245" s="41"/>
+      <c r="D245" s="42"/>
       <c r="E245" s="20">
         <v>4</v>
       </c>
@@ -7080,7 +7155,7 @@
     </row>
     <row r="246" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B246" s="19"/>
-      <c r="D246" s="41"/>
+      <c r="D246" s="42"/>
       <c r="E246" s="20">
         <v>5</v>
       </c>
@@ -7095,7 +7170,7 @@
     </row>
     <row r="247" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B247" s="19"/>
-      <c r="D247" s="41"/>
+      <c r="D247" s="42"/>
       <c r="E247" s="20">
         <v>6</v>
       </c>
@@ -7110,7 +7185,7 @@
     </row>
     <row r="248" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B248" s="19"/>
-      <c r="D248" s="41"/>
+      <c r="D248" s="42"/>
       <c r="E248" s="20">
         <v>7</v>
       </c>
@@ -7125,7 +7200,7 @@
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B249" s="19"/>
-      <c r="D249" s="41"/>
+      <c r="D249" s="42"/>
       <c r="E249" s="20">
         <v>8</v>
       </c>
@@ -7140,7 +7215,7 @@
     </row>
     <row r="250" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B250" s="19"/>
-      <c r="D250" s="41"/>
+      <c r="D250" s="42"/>
       <c r="E250" s="20">
         <v>9</v>
       </c>
@@ -7155,7 +7230,7 @@
     </row>
     <row r="251" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B251" s="19"/>
-      <c r="D251" s="41"/>
+      <c r="D251" s="42"/>
       <c r="E251" s="20">
         <v>10</v>
       </c>
@@ -7170,7 +7245,7 @@
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B252" s="19"/>
-      <c r="D252" s="41"/>
+      <c r="D252" s="42"/>
       <c r="E252" s="20">
         <v>11</v>
       </c>
@@ -7185,7 +7260,7 @@
     </row>
     <row r="253" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B253" s="19"/>
-      <c r="D253" s="41"/>
+      <c r="D253" s="42"/>
       <c r="E253" s="20">
         <v>12</v>
       </c>
@@ -7200,7 +7275,7 @@
     </row>
     <row r="254" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B254" s="19"/>
-      <c r="D254" s="41"/>
+      <c r="D254" s="42"/>
       <c r="E254" s="20">
         <v>13</v>
       </c>
@@ -7215,7 +7290,7 @@
     </row>
     <row r="255" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B255" s="19"/>
-      <c r="D255" s="41"/>
+      <c r="D255" s="42"/>
       <c r="E255" s="20">
         <v>14</v>
       </c>
@@ -7230,7 +7305,7 @@
     </row>
     <row r="256" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B256" s="19"/>
-      <c r="D256" s="41"/>
+      <c r="D256" s="42"/>
       <c r="E256" s="20">
         <v>15</v>
       </c>
@@ -7245,7 +7320,7 @@
     </row>
     <row r="257" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B257" s="19"/>
-      <c r="D257" s="41"/>
+      <c r="D257" s="42"/>
       <c r="E257" s="20">
         <v>16</v>
       </c>
@@ -7260,7 +7335,7 @@
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B258" s="19"/>
-      <c r="D258" s="41"/>
+      <c r="D258" s="42"/>
       <c r="E258" s="20">
         <v>17</v>
       </c>
@@ -7288,7 +7363,7 @@
       <c r="C260" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D260" s="41" t="s">
+      <c r="D260" s="42" t="s">
         <v>223</v>
       </c>
       <c r="E260" s="20">
@@ -7305,7 +7380,7 @@
     </row>
     <row r="261" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B261" s="19"/>
-      <c r="D261" s="41"/>
+      <c r="D261" s="42"/>
       <c r="E261" s="20">
         <v>2</v>
       </c>
@@ -7320,7 +7395,7 @@
     </row>
     <row r="262" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B262" s="19"/>
-      <c r="D262" s="41"/>
+      <c r="D262" s="42"/>
       <c r="E262" s="20">
         <v>3</v>
       </c>
@@ -7335,7 +7410,7 @@
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B263" s="19"/>
-      <c r="D263" s="41"/>
+      <c r="D263" s="42"/>
       <c r="E263" s="20">
         <v>4</v>
       </c>
@@ -7350,7 +7425,7 @@
     </row>
     <row r="264" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B264" s="19"/>
-      <c r="D264" s="41"/>
+      <c r="D264" s="42"/>
       <c r="E264" s="20">
         <v>5</v>
       </c>
@@ -7365,7 +7440,7 @@
     </row>
     <row r="265" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B265" s="19"/>
-      <c r="D265" s="41"/>
+      <c r="D265" s="42"/>
       <c r="E265" s="20">
         <v>6</v>
       </c>
@@ -7380,7 +7455,7 @@
     </row>
     <row r="266" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B266" s="19"/>
-      <c r="D266" s="41"/>
+      <c r="D266" s="42"/>
       <c r="E266" s="20">
         <v>7</v>
       </c>
@@ -7395,7 +7470,7 @@
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B267" s="19"/>
-      <c r="D267" s="41"/>
+      <c r="D267" s="42"/>
       <c r="E267" s="20">
         <v>8</v>
       </c>
@@ -7410,7 +7485,7 @@
     </row>
     <row r="268" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B268" s="19"/>
-      <c r="D268" s="41"/>
+      <c r="D268" s="42"/>
       <c r="E268" s="20">
         <v>9</v>
       </c>
@@ -7425,7 +7500,7 @@
     </row>
     <row r="269" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B269" s="19"/>
-      <c r="D269" s="41"/>
+      <c r="D269" s="42"/>
       <c r="E269" s="20">
         <v>10</v>
       </c>
@@ -7440,7 +7515,7 @@
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B270" s="19"/>
-      <c r="D270" s="41"/>
+      <c r="D270" s="42"/>
       <c r="E270" s="20">
         <v>11</v>
       </c>
@@ -7455,7 +7530,7 @@
     </row>
     <row r="271" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B271" s="19"/>
-      <c r="D271" s="41"/>
+      <c r="D271" s="42"/>
       <c r="E271" s="20">
         <v>12</v>
       </c>
@@ -7470,7 +7545,7 @@
     </row>
     <row r="272" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B272" s="19"/>
-      <c r="D272" s="41"/>
+      <c r="D272" s="42"/>
       <c r="E272" s="20">
         <v>13</v>
       </c>
@@ -7485,7 +7560,7 @@
     </row>
     <row r="273" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B273" s="19"/>
-      <c r="D273" s="41"/>
+      <c r="D273" s="42"/>
       <c r="E273" s="20">
         <v>14</v>
       </c>
@@ -7500,7 +7575,7 @@
     </row>
     <row r="274" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B274" s="19"/>
-      <c r="D274" s="41"/>
+      <c r="D274" s="42"/>
       <c r="E274" s="20">
         <v>15</v>
       </c>
@@ -7528,7 +7603,7 @@
       <c r="C276" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D276" s="41" t="s">
+      <c r="D276" s="42" t="s">
         <v>272</v>
       </c>
       <c r="E276" s="20">
@@ -7545,7 +7620,7 @@
     </row>
     <row r="277" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B277" s="19"/>
-      <c r="D277" s="41"/>
+      <c r="D277" s="42"/>
       <c r="E277" s="20">
         <v>2</v>
       </c>
@@ -7560,7 +7635,7 @@
     </row>
     <row r="278" spans="1:11" ht="255" x14ac:dyDescent="0.25">
       <c r="B278" s="19"/>
-      <c r="D278" s="41"/>
+      <c r="D278" s="42"/>
       <c r="E278" s="20">
         <v>3</v>
       </c>
@@ -7591,7 +7666,7 @@
       <c r="C280" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D280" s="41" t="s">
+      <c r="D280" s="42" t="s">
         <v>274</v>
       </c>
       <c r="E280" s="20">
@@ -7608,7 +7683,7 @@
     </row>
     <row r="281" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B281" s="19"/>
-      <c r="D281" s="41"/>
+      <c r="D281" s="42"/>
       <c r="E281" s="20">
         <v>2</v>
       </c>
@@ -7623,7 +7698,7 @@
     </row>
     <row r="282" spans="1:11" ht="255" x14ac:dyDescent="0.25">
       <c r="B282" s="19"/>
-      <c r="D282" s="41"/>
+      <c r="D282" s="42"/>
       <c r="E282" s="20">
         <v>3</v>
       </c>
@@ -7641,7 +7716,7 @@
     </row>
     <row r="283" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B283" s="19"/>
-      <c r="D283" s="41"/>
+      <c r="D283" s="42"/>
       <c r="E283" s="20">
         <v>4</v>
       </c>
@@ -7669,7 +7744,7 @@
       <c r="C285" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D285" s="41" t="s">
+      <c r="D285" s="42" t="s">
         <v>275</v>
       </c>
       <c r="E285" s="20">
@@ -7686,7 +7761,7 @@
     </row>
     <row r="286" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B286" s="19"/>
-      <c r="D286" s="41"/>
+      <c r="D286" s="42"/>
       <c r="E286" s="20">
         <v>2</v>
       </c>
@@ -7701,7 +7776,7 @@
     </row>
     <row r="287" spans="1:11" ht="255" x14ac:dyDescent="0.25">
       <c r="B287" s="19"/>
-      <c r="D287" s="41"/>
+      <c r="D287" s="42"/>
       <c r="E287" s="20">
         <v>3</v>
       </c>
@@ -7719,7 +7794,7 @@
     </row>
     <row r="288" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B288" s="19"/>
-      <c r="D288" s="41"/>
+      <c r="D288" s="42"/>
       <c r="E288" s="20">
         <v>4</v>
       </c>
@@ -7734,7 +7809,7 @@
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B289" s="19"/>
-      <c r="D289" s="41"/>
+      <c r="D289" s="42"/>
       <c r="E289" s="20">
         <v>5</v>
       </c>
@@ -7762,7 +7837,7 @@
       <c r="C291" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D291" s="41" t="s">
+      <c r="D291" s="42" t="s">
         <v>278</v>
       </c>
       <c r="E291" s="20">
@@ -7779,7 +7854,7 @@
     </row>
     <row r="292" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B292" s="19"/>
-      <c r="D292" s="41"/>
+      <c r="D292" s="42"/>
       <c r="E292" s="20">
         <v>2</v>
       </c>
@@ -7794,7 +7869,7 @@
     </row>
     <row r="293" spans="1:11" ht="255" x14ac:dyDescent="0.25">
       <c r="B293" s="19"/>
-      <c r="D293" s="41"/>
+      <c r="D293" s="42"/>
       <c r="E293" s="20">
         <v>3</v>
       </c>
@@ -7812,7 +7887,7 @@
     </row>
     <row r="294" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B294" s="19"/>
-      <c r="D294" s="41"/>
+      <c r="D294" s="42"/>
       <c r="E294" s="20">
         <v>4</v>
       </c>
@@ -7827,7 +7902,7 @@
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B295" s="19"/>
-      <c r="D295" s="41"/>
+      <c r="D295" s="42"/>
       <c r="E295" s="20">
         <v>5</v>
       </c>
@@ -7855,7 +7930,7 @@
       <c r="C297" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D297" s="41" t="s">
+      <c r="D297" s="42" t="s">
         <v>282</v>
       </c>
       <c r="E297" s="20">
@@ -7872,7 +7947,7 @@
     </row>
     <row r="298" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B298" s="19"/>
-      <c r="D298" s="41"/>
+      <c r="D298" s="42"/>
       <c r="E298" s="20">
         <v>2</v>
       </c>
@@ -7887,7 +7962,7 @@
     </row>
     <row r="299" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B299" s="19"/>
-      <c r="D299" s="41"/>
+      <c r="D299" s="42"/>
       <c r="E299" s="20">
         <v>3</v>
       </c>
@@ -7902,7 +7977,7 @@
     </row>
     <row r="300" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B300" s="19"/>
-      <c r="D300" s="41"/>
+      <c r="D300" s="42"/>
       <c r="E300" s="20">
         <v>4</v>
       </c>
@@ -7917,7 +7992,7 @@
     </row>
     <row r="301" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B301" s="19"/>
-      <c r="D301" s="41"/>
+      <c r="D301" s="42"/>
       <c r="E301" s="20">
         <v>5</v>
       </c>
@@ -7932,7 +8007,7 @@
     </row>
     <row r="302" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B302" s="19"/>
-      <c r="D302" s="41"/>
+      <c r="D302" s="42"/>
       <c r="E302" s="20">
         <v>6</v>
       </c>
@@ -7960,7 +8035,7 @@
       <c r="C304" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D304" s="41" t="s">
+      <c r="D304" s="42" t="s">
         <v>293</v>
       </c>
       <c r="E304" s="20">
@@ -7977,7 +8052,7 @@
     </row>
     <row r="305" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B305" s="19"/>
-      <c r="D305" s="41"/>
+      <c r="D305" s="42"/>
       <c r="E305" s="20">
         <v>2</v>
       </c>
@@ -7992,7 +8067,7 @@
     </row>
     <row r="306" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B306" s="19"/>
-      <c r="D306" s="41"/>
+      <c r="D306" s="42"/>
       <c r="E306" s="20">
         <v>3</v>
       </c>
@@ -8007,7 +8082,7 @@
     </row>
     <row r="307" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B307" s="19"/>
-      <c r="D307" s="41"/>
+      <c r="D307" s="42"/>
       <c r="E307" s="20">
         <v>4</v>
       </c>
@@ -8022,7 +8097,7 @@
     </row>
     <row r="308" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B308" s="19"/>
-      <c r="D308" s="41"/>
+      <c r="D308" s="42"/>
       <c r="E308" s="20">
         <v>5</v>
       </c>
@@ -8037,7 +8112,7 @@
     </row>
     <row r="309" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B309" s="19"/>
-      <c r="D309" s="41"/>
+      <c r="D309" s="42"/>
       <c r="E309" s="20">
         <v>6</v>
       </c>
@@ -8052,7 +8127,7 @@
     </row>
     <row r="310" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B310" s="19"/>
-      <c r="D310" s="41"/>
+      <c r="D310" s="42"/>
       <c r="E310" s="20">
         <v>7</v>
       </c>
@@ -8080,7 +8155,7 @@
       <c r="C312" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D312" s="41" t="s">
+      <c r="D312" s="42" t="s">
         <v>297</v>
       </c>
       <c r="E312" s="20">
@@ -8097,7 +8172,7 @@
     </row>
     <row r="313" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B313" s="19"/>
-      <c r="D313" s="41"/>
+      <c r="D313" s="42"/>
       <c r="E313" s="20">
         <v>2</v>
       </c>
@@ -8112,7 +8187,7 @@
     </row>
     <row r="314" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B314" s="19"/>
-      <c r="D314" s="41"/>
+      <c r="D314" s="42"/>
       <c r="E314" s="20">
         <v>3</v>
       </c>
@@ -8127,7 +8202,7 @@
     </row>
     <row r="315" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B315" s="19"/>
-      <c r="D315" s="41"/>
+      <c r="D315" s="42"/>
       <c r="E315" s="20">
         <v>4</v>
       </c>
@@ -8142,7 +8217,7 @@
     </row>
     <row r="316" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B316" s="19"/>
-      <c r="D316" s="41"/>
+      <c r="D316" s="42"/>
       <c r="E316" s="20">
         <v>5</v>
       </c>
@@ -8157,7 +8232,7 @@
     </row>
     <row r="317" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B317" s="19"/>
-      <c r="D317" s="41"/>
+      <c r="D317" s="42"/>
       <c r="E317" s="20">
         <v>6</v>
       </c>
@@ -8172,7 +8247,7 @@
     </row>
     <row r="318" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B318" s="19"/>
-      <c r="D318" s="41"/>
+      <c r="D318" s="42"/>
       <c r="E318" s="20">
         <v>7</v>
       </c>
@@ -8187,7 +8262,7 @@
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B319" s="19"/>
-      <c r="D319" s="41"/>
+      <c r="D319" s="42"/>
       <c r="E319" s="20">
         <v>8</v>
       </c>
@@ -8215,7 +8290,7 @@
       <c r="C321" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D321" s="41" t="s">
+      <c r="D321" s="42" t="s">
         <v>299</v>
       </c>
       <c r="E321" s="20">
@@ -8232,7 +8307,7 @@
     </row>
     <row r="322" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B322" s="19"/>
-      <c r="D322" s="41"/>
+      <c r="D322" s="42"/>
       <c r="E322" s="20">
         <v>2</v>
       </c>
@@ -8247,7 +8322,7 @@
     </row>
     <row r="323" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B323" s="19"/>
-      <c r="D323" s="41"/>
+      <c r="D323" s="42"/>
       <c r="E323" s="20">
         <v>3</v>
       </c>
@@ -8262,7 +8337,7 @@
     </row>
     <row r="324" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B324" s="19"/>
-      <c r="D324" s="41"/>
+      <c r="D324" s="42"/>
       <c r="E324" s="20">
         <v>4</v>
       </c>
@@ -8277,7 +8352,7 @@
     </row>
     <row r="325" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B325" s="19"/>
-      <c r="D325" s="41"/>
+      <c r="D325" s="42"/>
       <c r="E325" s="20">
         <v>5</v>
       </c>
@@ -8292,7 +8367,7 @@
     </row>
     <row r="326" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B326" s="19"/>
-      <c r="D326" s="41"/>
+      <c r="D326" s="42"/>
       <c r="E326" s="20">
         <v>6</v>
       </c>
@@ -8307,7 +8382,7 @@
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B327" s="19"/>
-      <c r="D327" s="41"/>
+      <c r="D327" s="42"/>
       <c r="E327" s="20">
         <v>7</v>
       </c>
@@ -8335,7 +8410,7 @@
       <c r="C329" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D329" s="41" t="s">
+      <c r="D329" s="42" t="s">
         <v>300</v>
       </c>
       <c r="E329" s="20">
@@ -8352,7 +8427,7 @@
     </row>
     <row r="330" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B330" s="19"/>
-      <c r="D330" s="41"/>
+      <c r="D330" s="42"/>
       <c r="E330" s="20">
         <v>2</v>
       </c>
@@ -8367,7 +8442,7 @@
     </row>
     <row r="331" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B331" s="19"/>
-      <c r="D331" s="41"/>
+      <c r="D331" s="42"/>
       <c r="E331" s="20">
         <v>3</v>
       </c>
@@ -8382,7 +8457,7 @@
     </row>
     <row r="332" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B332" s="19"/>
-      <c r="D332" s="41"/>
+      <c r="D332" s="42"/>
       <c r="E332" s="20">
         <v>4</v>
       </c>
@@ -8397,7 +8472,7 @@
     </row>
     <row r="333" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B333" s="19"/>
-      <c r="D333" s="41"/>
+      <c r="D333" s="42"/>
       <c r="E333" s="20">
         <v>5</v>
       </c>
@@ -8425,7 +8500,7 @@
       <c r="C335" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D335" s="41" t="s">
+      <c r="D335" s="42" t="s">
         <v>311</v>
       </c>
       <c r="E335" s="20">
@@ -8442,7 +8517,7 @@
     </row>
     <row r="336" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B336" s="19"/>
-      <c r="D336" s="41"/>
+      <c r="D336" s="42"/>
       <c r="E336" s="20">
         <v>2</v>
       </c>
@@ -8457,7 +8532,7 @@
     </row>
     <row r="337" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B337" s="19"/>
-      <c r="D337" s="41"/>
+      <c r="D337" s="42"/>
       <c r="E337" s="20">
         <v>3</v>
       </c>
@@ -8472,7 +8547,7 @@
     </row>
     <row r="338" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B338" s="19"/>
-      <c r="D338" s="41"/>
+      <c r="D338" s="42"/>
       <c r="E338" s="20">
         <v>4</v>
       </c>
@@ -8487,7 +8562,7 @@
     </row>
     <row r="339" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B339" s="19"/>
-      <c r="D339" s="41"/>
+      <c r="D339" s="42"/>
       <c r="E339" s="20">
         <v>5</v>
       </c>
@@ -8502,7 +8577,7 @@
     </row>
     <row r="340" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B340" s="19"/>
-      <c r="D340" s="41"/>
+      <c r="D340" s="42"/>
       <c r="E340" s="20">
         <v>6</v>
       </c>
@@ -8530,7 +8605,7 @@
       <c r="C342" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D342" s="41" t="s">
+      <c r="D342" s="42" t="s">
         <v>316</v>
       </c>
       <c r="E342" s="20">
@@ -8547,7 +8622,7 @@
     </row>
     <row r="343" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B343" s="19"/>
-      <c r="D343" s="41"/>
+      <c r="D343" s="42"/>
       <c r="E343" s="20">
         <v>2</v>
       </c>
@@ -8562,7 +8637,7 @@
     </row>
     <row r="344" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B344" s="19"/>
-      <c r="D344" s="41"/>
+      <c r="D344" s="42"/>
       <c r="E344" s="20">
         <v>3</v>
       </c>
@@ -8577,7 +8652,7 @@
     </row>
     <row r="345" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B345" s="19"/>
-      <c r="D345" s="41"/>
+      <c r="D345" s="42"/>
       <c r="E345" s="20">
         <v>4</v>
       </c>
@@ -8592,7 +8667,7 @@
     </row>
     <row r="346" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B346" s="19"/>
-      <c r="D346" s="41"/>
+      <c r="D346" s="42"/>
       <c r="E346" s="20">
         <v>5</v>
       </c>
@@ -8607,7 +8682,7 @@
     </row>
     <row r="347" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B347" s="19"/>
-      <c r="D347" s="41"/>
+      <c r="D347" s="42"/>
       <c r="E347" s="20">
         <v>6</v>
       </c>
@@ -8622,7 +8697,7 @@
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B348" s="19"/>
-      <c r="D348" s="41"/>
+      <c r="D348" s="42"/>
       <c r="E348" s="20">
         <v>7</v>
       </c>
@@ -8650,7 +8725,7 @@
       <c r="C350" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D350" s="41" t="s">
+      <c r="D350" s="42" t="s">
         <v>315</v>
       </c>
       <c r="E350" s="20">
@@ -8667,7 +8742,7 @@
     </row>
     <row r="351" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B351" s="19"/>
-      <c r="D351" s="41"/>
+      <c r="D351" s="42"/>
       <c r="E351" s="20">
         <v>2</v>
       </c>
@@ -8682,7 +8757,7 @@
     </row>
     <row r="352" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B352" s="19"/>
-      <c r="D352" s="41"/>
+      <c r="D352" s="42"/>
       <c r="E352" s="20">
         <v>3</v>
       </c>
@@ -8697,7 +8772,7 @@
     </row>
     <row r="353" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B353" s="19"/>
-      <c r="D353" s="41"/>
+      <c r="D353" s="42"/>
       <c r="E353" s="20">
         <v>4</v>
       </c>
@@ -8712,7 +8787,7 @@
     </row>
     <row r="354" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B354" s="19"/>
-      <c r="D354" s="41"/>
+      <c r="D354" s="42"/>
       <c r="E354" s="20">
         <v>5</v>
       </c>
@@ -8727,7 +8802,7 @@
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B355" s="19"/>
-      <c r="D355" s="41"/>
+      <c r="D355" s="42"/>
       <c r="E355" s="20">
         <v>6</v>
       </c>
@@ -8755,7 +8830,7 @@
       <c r="C357" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D357" s="41" t="s">
+      <c r="D357" s="42" t="s">
         <v>319</v>
       </c>
       <c r="E357" s="20">
@@ -8772,7 +8847,7 @@
     </row>
     <row r="358" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B358" s="19"/>
-      <c r="D358" s="41"/>
+      <c r="D358" s="42"/>
       <c r="E358" s="20">
         <v>2</v>
       </c>
@@ -8787,7 +8862,7 @@
     </row>
     <row r="359" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="B359" s="19"/>
-      <c r="D359" s="41"/>
+      <c r="D359" s="42"/>
       <c r="E359" s="20">
         <v>3</v>
       </c>
@@ -8805,7 +8880,7 @@
     </row>
     <row r="360" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B360" s="19"/>
-      <c r="D360" s="41"/>
+      <c r="D360" s="42"/>
       <c r="E360" s="20">
         <v>4</v>
       </c>
@@ -8833,7 +8908,7 @@
       <c r="C362" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D362" s="41" t="s">
+      <c r="D362" s="42" t="s">
         <v>326</v>
       </c>
       <c r="E362" s="20">
@@ -8850,7 +8925,7 @@
     </row>
     <row r="363" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B363" s="19"/>
-      <c r="D363" s="41"/>
+      <c r="D363" s="42"/>
       <c r="E363" s="20">
         <v>2</v>
       </c>
@@ -8865,7 +8940,7 @@
     </row>
     <row r="364" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="B364" s="19"/>
-      <c r="D364" s="41"/>
+      <c r="D364" s="42"/>
       <c r="E364" s="20">
         <v>3</v>
       </c>
@@ -8883,7 +8958,7 @@
     </row>
     <row r="365" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B365" s="19"/>
-      <c r="D365" s="41"/>
+      <c r="D365" s="42"/>
       <c r="E365" s="20">
         <v>4</v>
       </c>
@@ -8898,7 +8973,7 @@
     </row>
     <row r="366" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B366" s="19"/>
-      <c r="D366" s="41"/>
+      <c r="D366" s="42"/>
       <c r="E366" s="20">
         <v>5</v>
       </c>
@@ -8926,7 +9001,7 @@
       <c r="C368" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D368" s="41" t="s">
+      <c r="D368" s="42" t="s">
         <v>329</v>
       </c>
       <c r="E368" s="20">
@@ -8943,7 +9018,7 @@
     </row>
     <row r="369" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B369" s="19"/>
-      <c r="D369" s="41"/>
+      <c r="D369" s="42"/>
       <c r="E369" s="20">
         <v>2</v>
       </c>
@@ -8958,7 +9033,7 @@
     </row>
     <row r="370" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="B370" s="19"/>
-      <c r="D370" s="41"/>
+      <c r="D370" s="42"/>
       <c r="E370" s="20">
         <v>3</v>
       </c>
@@ -8976,7 +9051,7 @@
     </row>
     <row r="371" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B371" s="19"/>
-      <c r="D371" s="41"/>
+      <c r="D371" s="42"/>
       <c r="E371" s="20">
         <v>4</v>
       </c>
@@ -8991,7 +9066,7 @@
     </row>
     <row r="372" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B372" s="19"/>
-      <c r="D372" s="41"/>
+      <c r="D372" s="42"/>
       <c r="E372" s="20">
         <v>5</v>
       </c>
@@ -9006,7 +9081,7 @@
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B373" s="19"/>
-      <c r="D373" s="41"/>
+      <c r="D373" s="42"/>
       <c r="E373" s="20">
         <v>6</v>
       </c>
@@ -9034,7 +9109,7 @@
       <c r="C375" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D375" s="41" t="s">
+      <c r="D375" s="42" t="s">
         <v>332</v>
       </c>
       <c r="E375" s="20">
@@ -9051,7 +9126,7 @@
     </row>
     <row r="376" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B376" s="19"/>
-      <c r="D376" s="41"/>
+      <c r="D376" s="42"/>
       <c r="E376" s="20">
         <v>2</v>
       </c>
@@ -9066,7 +9141,7 @@
     </row>
     <row r="377" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="B377" s="19"/>
-      <c r="D377" s="41"/>
+      <c r="D377" s="42"/>
       <c r="E377" s="20">
         <v>3</v>
       </c>
@@ -9084,7 +9159,7 @@
     </row>
     <row r="378" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B378" s="19"/>
-      <c r="D378" s="41"/>
+      <c r="D378" s="42"/>
       <c r="E378" s="20">
         <v>4</v>
       </c>
@@ -9099,7 +9174,7 @@
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B379" s="19"/>
-      <c r="D379" s="41"/>
+      <c r="D379" s="42"/>
       <c r="E379" s="20">
         <v>5</v>
       </c>
@@ -9127,7 +9202,7 @@
       <c r="C381" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D381" s="41" t="s">
+      <c r="D381" s="42" t="s">
         <v>342</v>
       </c>
       <c r="E381" s="20">
@@ -9144,7 +9219,7 @@
     </row>
     <row r="382" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B382" s="27"/>
-      <c r="D382" s="41"/>
+      <c r="D382" s="42"/>
       <c r="E382" s="20">
         <v>2</v>
       </c>
@@ -9159,7 +9234,7 @@
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B383" s="27"/>
-      <c r="D383" s="41"/>
+      <c r="D383" s="42"/>
       <c r="E383" s="20">
         <v>3</v>
       </c>
@@ -9177,7 +9252,7 @@
     </row>
     <row r="384" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="B384" s="27"/>
-      <c r="D384" s="41"/>
+      <c r="D384" s="42"/>
       <c r="E384" s="20">
         <v>4</v>
       </c>
@@ -9192,7 +9267,7 @@
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B385" s="27"/>
-      <c r="D385" s="41"/>
+      <c r="D385" s="42"/>
       <c r="E385" s="20">
         <v>5</v>
       </c>
@@ -9220,7 +9295,7 @@
       <c r="C387" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D387" s="41" t="s">
+      <c r="D387" s="42" t="s">
         <v>342</v>
       </c>
       <c r="E387" s="20">
@@ -9237,7 +9312,7 @@
     </row>
     <row r="388" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B388" s="27"/>
-      <c r="D388" s="41"/>
+      <c r="D388" s="42"/>
       <c r="E388" s="20">
         <v>2</v>
       </c>
@@ -9252,7 +9327,7 @@
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B389" s="27"/>
-      <c r="D389" s="41"/>
+      <c r="D389" s="42"/>
       <c r="E389" s="20">
         <v>3</v>
       </c>
@@ -9270,7 +9345,7 @@
     </row>
     <row r="390" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="B390" s="27"/>
-      <c r="D390" s="41"/>
+      <c r="D390" s="42"/>
       <c r="E390" s="20">
         <v>4</v>
       </c>
@@ -9285,7 +9360,7 @@
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B391" s="27"/>
-      <c r="D391" s="41"/>
+      <c r="D391" s="42"/>
       <c r="E391" s="20">
         <v>5</v>
       </c>
@@ -9313,7 +9388,7 @@
       <c r="C393" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D393" s="41" t="s">
+      <c r="D393" s="42" t="s">
         <v>350</v>
       </c>
       <c r="E393" s="20">
@@ -9330,7 +9405,7 @@
     </row>
     <row r="394" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B394" s="27"/>
-      <c r="D394" s="41"/>
+      <c r="D394" s="42"/>
       <c r="E394" s="20">
         <v>2</v>
       </c>
@@ -9345,7 +9420,7 @@
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B395" s="27"/>
-      <c r="D395" s="41"/>
+      <c r="D395" s="42"/>
       <c r="E395" s="20">
         <v>3</v>
       </c>
@@ -9363,7 +9438,7 @@
     </row>
     <row r="396" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B396" s="27"/>
-      <c r="D396" s="41"/>
+      <c r="D396" s="42"/>
       <c r="E396" s="20">
         <v>4</v>
       </c>
@@ -9378,7 +9453,7 @@
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B397" s="27"/>
-      <c r="D397" s="41"/>
+      <c r="D397" s="42"/>
       <c r="E397" s="20">
         <v>5</v>
       </c>
@@ -9393,7 +9468,7 @@
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B398" s="19"/>
-      <c r="D398" s="41"/>
+      <c r="D398" s="42"/>
       <c r="E398" s="20">
         <v>6</v>
       </c>
@@ -9421,7 +9496,7 @@
       <c r="C400" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D400" s="41" t="s">
+      <c r="D400" s="42" t="s">
         <v>352</v>
       </c>
       <c r="E400" s="20">
@@ -9438,7 +9513,7 @@
     </row>
     <row r="401" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B401" s="27"/>
-      <c r="D401" s="41"/>
+      <c r="D401" s="42"/>
       <c r="E401" s="20">
         <v>2</v>
       </c>
@@ -9453,7 +9528,7 @@
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B402" s="27"/>
-      <c r="D402" s="41"/>
+      <c r="D402" s="42"/>
       <c r="E402" s="20">
         <v>3</v>
       </c>
@@ -9471,7 +9546,7 @@
     </row>
     <row r="403" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B403" s="27"/>
-      <c r="D403" s="41"/>
+      <c r="D403" s="42"/>
       <c r="E403" s="20">
         <v>4</v>
       </c>
@@ -9486,7 +9561,7 @@
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B404" s="27"/>
-      <c r="D404" s="41"/>
+      <c r="D404" s="42"/>
       <c r="E404" s="20">
         <v>5</v>
       </c>
@@ -9501,7 +9576,7 @@
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B405" s="27"/>
-      <c r="D405" s="41"/>
+      <c r="D405" s="42"/>
       <c r="E405" s="20">
         <v>6</v>
       </c>
@@ -9529,7 +9604,7 @@
       <c r="C407" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D407" s="41" t="s">
+      <c r="D407" s="42" t="s">
         <v>353</v>
       </c>
       <c r="E407" s="20">
@@ -9546,7 +9621,7 @@
     </row>
     <row r="408" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B408" s="27"/>
-      <c r="D408" s="41"/>
+      <c r="D408" s="42"/>
       <c r="E408" s="20">
         <v>2</v>
       </c>
@@ -9561,7 +9636,7 @@
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B409" s="27"/>
-      <c r="D409" s="41"/>
+      <c r="D409" s="42"/>
       <c r="E409" s="20">
         <v>3</v>
       </c>
@@ -9579,7 +9654,7 @@
     </row>
     <row r="410" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B410" s="27"/>
-      <c r="D410" s="41"/>
+      <c r="D410" s="42"/>
       <c r="E410" s="20">
         <v>4</v>
       </c>
@@ -9594,7 +9669,7 @@
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B411" s="27"/>
-      <c r="D411" s="41"/>
+      <c r="D411" s="42"/>
       <c r="E411" s="20">
         <v>5</v>
       </c>
@@ -9609,7 +9684,7 @@
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B412" s="27"/>
-      <c r="D412" s="41"/>
+      <c r="D412" s="42"/>
       <c r="E412" s="20">
         <v>6</v>
       </c>
@@ -9637,7 +9712,7 @@
       <c r="C414" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D414" s="41" t="s">
+      <c r="D414" s="42" t="s">
         <v>365</v>
       </c>
       <c r="E414" s="20">
@@ -9654,7 +9729,7 @@
     </row>
     <row r="415" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B415" s="31"/>
-      <c r="D415" s="41"/>
+      <c r="D415" s="42"/>
       <c r="E415" s="20">
         <v>2</v>
       </c>
@@ -9669,7 +9744,7 @@
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B416" s="31"/>
-      <c r="D416" s="41"/>
+      <c r="D416" s="42"/>
       <c r="E416" s="20">
         <v>3</v>
       </c>
@@ -9684,7 +9759,7 @@
     </row>
     <row r="417" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B417" s="31"/>
-      <c r="D417" s="41"/>
+      <c r="D417" s="42"/>
       <c r="E417" s="20">
         <v>4</v>
       </c>
@@ -9712,7 +9787,7 @@
       <c r="C419" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D419" s="41" t="s">
+      <c r="D419" s="42" t="s">
         <v>387</v>
       </c>
       <c r="E419" s="20">
@@ -9729,7 +9804,7 @@
     </row>
     <row r="420" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B420" s="31"/>
-      <c r="D420" s="41"/>
+      <c r="D420" s="42"/>
       <c r="E420" s="20">
         <v>2</v>
       </c>
@@ -9757,7 +9832,7 @@
       <c r="C422" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D422" s="41" t="s">
+      <c r="D422" s="42" t="s">
         <v>391</v>
       </c>
       <c r="E422" s="20">
@@ -9774,7 +9849,7 @@
     </row>
     <row r="423" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B423" s="31"/>
-      <c r="D423" s="41"/>
+      <c r="D423" s="42"/>
       <c r="E423" s="20">
         <v>2</v>
       </c>
@@ -9807,7 +9882,7 @@
       <c r="C426" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D426" s="41" t="s">
+      <c r="D426" s="42" t="s">
         <v>367</v>
       </c>
       <c r="E426" s="20">
@@ -9824,7 +9899,7 @@
     </row>
     <row r="427" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B427" s="31"/>
-      <c r="D427" s="41"/>
+      <c r="D427" s="42"/>
       <c r="E427" s="20">
         <v>2</v>
       </c>
@@ -9839,7 +9914,7 @@
     </row>
     <row r="428" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B428" s="31"/>
-      <c r="D428" s="41"/>
+      <c r="D428" s="42"/>
       <c r="E428" s="20">
         <v>3</v>
       </c>
@@ -9857,7 +9932,7 @@
     </row>
     <row r="429" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B429" s="19"/>
-      <c r="D429" s="41"/>
+      <c r="D429" s="42"/>
       <c r="E429" s="20">
         <v>4</v>
       </c>
@@ -9885,7 +9960,7 @@
       <c r="C431" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D431" s="41" t="s">
+      <c r="D431" s="42" t="s">
         <v>373</v>
       </c>
       <c r="E431" s="20">
@@ -9902,7 +9977,7 @@
     </row>
     <row r="432" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B432" s="31"/>
-      <c r="D432" s="41"/>
+      <c r="D432" s="42"/>
       <c r="E432" s="20">
         <v>2</v>
       </c>
@@ -9917,7 +9992,7 @@
     </row>
     <row r="433" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B433" s="31"/>
-      <c r="D433" s="41"/>
+      <c r="D433" s="42"/>
       <c r="E433" s="20">
         <v>3</v>
       </c>
@@ -9948,7 +10023,7 @@
       <c r="C435" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D435" s="41" t="s">
+      <c r="D435" s="42" t="s">
         <v>367</v>
       </c>
       <c r="E435" s="20">
@@ -9968,7 +10043,7 @@
         <v>385</v>
       </c>
       <c r="B436" s="31"/>
-      <c r="D436" s="41"/>
+      <c r="D436" s="42"/>
       <c r="E436" s="20">
         <v>2</v>
       </c>
@@ -9983,7 +10058,7 @@
     </row>
     <row r="437" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B437" s="19"/>
-      <c r="D437" s="41"/>
+      <c r="D437" s="42"/>
       <c r="E437" s="20">
         <v>3</v>
       </c>
@@ -10001,7 +10076,7 @@
     </row>
     <row r="438" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B438" s="19"/>
-      <c r="D438" s="41"/>
+      <c r="D438" s="42"/>
       <c r="E438" s="20">
         <v>4</v>
       </c>
@@ -10021,7 +10096,7 @@
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B440" s="19"/>
-      <c r="D440" s="41" t="s">
+      <c r="D440" s="42" t="s">
         <v>382</v>
       </c>
       <c r="E440" s="20">
@@ -10046,7 +10121,7 @@
       <c r="C441" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D441" s="41"/>
+      <c r="D441" s="42"/>
       <c r="E441" s="20">
         <v>2</v>
       </c>
@@ -10061,7 +10136,7 @@
     </row>
     <row r="442" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B442" s="19"/>
-      <c r="D442" s="41"/>
+      <c r="D442" s="42"/>
       <c r="E442" s="20">
         <v>3</v>
       </c>
@@ -10079,7 +10154,7 @@
     </row>
     <row r="443" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B443" s="19"/>
-      <c r="D443" s="41"/>
+      <c r="D443" s="42"/>
       <c r="E443" s="20">
         <v>4</v>
       </c>
@@ -10107,7 +10182,7 @@
       <c r="C445" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D445" s="41" t="s">
+      <c r="D445" s="42" t="s">
         <v>383</v>
       </c>
       <c r="E445" s="20">
@@ -10124,7 +10199,7 @@
     </row>
     <row r="446" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B446" s="19"/>
-      <c r="D446" s="41"/>
+      <c r="D446" s="42"/>
       <c r="E446" s="20">
         <v>2</v>
       </c>
@@ -10139,7 +10214,7 @@
     </row>
     <row r="447" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B447" s="19"/>
-      <c r="D447" s="41"/>
+      <c r="D447" s="42"/>
       <c r="E447" s="20">
         <v>3</v>
       </c>
@@ -10157,7 +10232,7 @@
     </row>
     <row r="448" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B448" s="19"/>
-      <c r="D448" s="41"/>
+      <c r="D448" s="42"/>
       <c r="E448" s="20">
         <v>4</v>
       </c>
@@ -10185,7 +10260,7 @@
       <c r="C450" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D450" s="41" t="s">
+      <c r="D450" s="42" t="s">
         <v>401</v>
       </c>
       <c r="E450" s="20">
@@ -10202,7 +10277,7 @@
     </row>
     <row r="451" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B451" s="33"/>
-      <c r="D451" s="41"/>
+      <c r="D451" s="42"/>
       <c r="E451" s="20">
         <v>2</v>
       </c>
@@ -10217,7 +10292,7 @@
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B452" s="33"/>
-      <c r="D452" s="41"/>
+      <c r="D452" s="42"/>
       <c r="E452" s="20">
         <v>3</v>
       </c>
@@ -10232,7 +10307,7 @@
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B453" s="33"/>
-      <c r="D453" s="41"/>
+      <c r="D453" s="42"/>
       <c r="E453" s="20">
         <v>4</v>
       </c>
@@ -10260,7 +10335,7 @@
       <c r="C455" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D455" s="41" t="s">
+      <c r="D455" s="42" t="s">
         <v>409</v>
       </c>
       <c r="E455" s="20">
@@ -10277,7 +10352,7 @@
     </row>
     <row r="456" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B456" s="33"/>
-      <c r="D456" s="41"/>
+      <c r="D456" s="42"/>
       <c r="E456" s="20">
         <v>2</v>
       </c>
@@ -10292,7 +10367,7 @@
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B457" s="33"/>
-      <c r="D457" s="41"/>
+      <c r="D457" s="42"/>
       <c r="E457" s="20">
         <v>3</v>
       </c>
@@ -10307,7 +10382,7 @@
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B458" s="33"/>
-      <c r="D458" s="41"/>
+      <c r="D458" s="42"/>
       <c r="E458" s="20">
         <v>4</v>
       </c>
@@ -10322,7 +10397,7 @@
     </row>
     <row r="459" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B459" s="19"/>
-      <c r="D459" s="41"/>
+      <c r="D459" s="42"/>
       <c r="E459" s="20">
         <v>5</v>
       </c>
@@ -10350,7 +10425,7 @@
       <c r="C461" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D461" s="41" t="s">
+      <c r="D461" s="42" t="s">
         <v>413</v>
       </c>
       <c r="E461" s="20">
@@ -10370,7 +10445,7 @@
     </row>
     <row r="462" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B462" s="34"/>
-      <c r="D462" s="41"/>
+      <c r="D462" s="42"/>
       <c r="E462" s="20">
         <v>2</v>
       </c>
@@ -10385,7 +10460,7 @@
     </row>
     <row r="463" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B463" s="34"/>
-      <c r="D463" s="41"/>
+      <c r="D463" s="42"/>
       <c r="E463" s="20">
         <v>3</v>
       </c>
@@ -10416,7 +10491,7 @@
       <c r="C465" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D465" s="41" t="s">
+      <c r="D465" s="42" t="s">
         <v>421</v>
       </c>
       <c r="E465" s="20">
@@ -10436,7 +10511,7 @@
     </row>
     <row r="466" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B466" s="34"/>
-      <c r="D466" s="41"/>
+      <c r="D466" s="42"/>
       <c r="E466" s="20">
         <v>2</v>
       </c>
@@ -10451,7 +10526,7 @@
     </row>
     <row r="467" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B467" s="34"/>
-      <c r="D467" s="41"/>
+      <c r="D467" s="42"/>
       <c r="E467" s="20">
         <v>3</v>
       </c>
@@ -10469,7 +10544,7 @@
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B468" s="19"/>
-      <c r="D468" s="41"/>
+      <c r="D468" s="42"/>
       <c r="E468" s="20">
         <v>4</v>
       </c>
@@ -10497,7 +10572,7 @@
       <c r="C470" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D470" s="41" t="s">
+      <c r="D470" s="42" t="s">
         <v>431</v>
       </c>
       <c r="E470" s="20">
@@ -10517,7 +10592,7 @@
     </row>
     <row r="471" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B471" s="34"/>
-      <c r="D471" s="41"/>
+      <c r="D471" s="42"/>
       <c r="E471" s="20">
         <v>2</v>
       </c>
@@ -10532,7 +10607,7 @@
     </row>
     <row r="472" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B472" s="34"/>
-      <c r="D472" s="41"/>
+      <c r="D472" s="42"/>
       <c r="E472" s="20">
         <v>3</v>
       </c>
@@ -10547,7 +10622,7 @@
     </row>
     <row r="473" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B473" s="34"/>
-      <c r="D473" s="41"/>
+      <c r="D473" s="42"/>
       <c r="E473" s="20">
         <v>4</v>
       </c>
@@ -10575,7 +10650,7 @@
       <c r="C475" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D475" s="41" t="s">
+      <c r="D475" s="42" t="s">
         <v>432</v>
       </c>
       <c r="E475" s="20">
@@ -10595,7 +10670,7 @@
     </row>
     <row r="476" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B476" s="34"/>
-      <c r="D476" s="41"/>
+      <c r="D476" s="42"/>
       <c r="E476" s="20">
         <v>2</v>
       </c>
@@ -10610,7 +10685,7 @@
     </row>
     <row r="477" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B477" s="34"/>
-      <c r="D477" s="41"/>
+      <c r="D477" s="42"/>
       <c r="E477" s="20">
         <v>3</v>
       </c>
@@ -10625,7 +10700,7 @@
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B478" s="34"/>
-      <c r="D478" s="41"/>
+      <c r="D478" s="42"/>
       <c r="E478" s="20">
         <v>4</v>
       </c>
@@ -10653,7 +10728,7 @@
       <c r="C480" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D480" s="41" t="s">
+      <c r="D480" s="42" t="s">
         <v>436</v>
       </c>
       <c r="E480" s="20">
@@ -10673,7 +10748,7 @@
     </row>
     <row r="481" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B481" s="34"/>
-      <c r="D481" s="41"/>
+      <c r="D481" s="42"/>
       <c r="E481" s="20">
         <v>2</v>
       </c>
@@ -10688,7 +10763,7 @@
     </row>
     <row r="482" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B482" s="34"/>
-      <c r="D482" s="41"/>
+      <c r="D482" s="42"/>
       <c r="E482" s="20">
         <v>3</v>
       </c>
@@ -10703,7 +10778,7 @@
     </row>
     <row r="483" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B483" s="34"/>
-      <c r="D483" s="41"/>
+      <c r="D483" s="42"/>
       <c r="E483" s="20">
         <v>4</v>
       </c>
@@ -10731,7 +10806,7 @@
       <c r="C485" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D485" s="41" t="s">
+      <c r="D485" s="42" t="s">
         <v>438</v>
       </c>
       <c r="E485" s="20">
@@ -10751,7 +10826,7 @@
     </row>
     <row r="486" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B486" s="34"/>
-      <c r="D486" s="41"/>
+      <c r="D486" s="42"/>
       <c r="E486" s="20">
         <v>2</v>
       </c>
@@ -10766,7 +10841,7 @@
     </row>
     <row r="487" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B487" s="34"/>
-      <c r="D487" s="41"/>
+      <c r="D487" s="42"/>
       <c r="E487" s="20">
         <v>3</v>
       </c>
@@ -10781,7 +10856,7 @@
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B488" s="34"/>
-      <c r="D488" s="41"/>
+      <c r="D488" s="42"/>
       <c r="E488" s="20">
         <v>4</v>
       </c>
@@ -10809,7 +10884,7 @@
       <c r="C490" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D490" s="41" t="s">
+      <c r="D490" s="42" t="s">
         <v>449</v>
       </c>
       <c r="E490" s="20">
@@ -10829,7 +10904,7 @@
     </row>
     <row r="491" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B491" s="39"/>
-      <c r="D491" s="41"/>
+      <c r="D491" s="42"/>
       <c r="E491" s="20">
         <v>2</v>
       </c>
@@ -10844,7 +10919,7 @@
     </row>
     <row r="492" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B492" s="39"/>
-      <c r="D492" s="41"/>
+      <c r="D492" s="42"/>
       <c r="E492" s="20">
         <v>3</v>
       </c>
@@ -10862,7 +10937,7 @@
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B493" s="39"/>
-      <c r="D493" s="41"/>
+      <c r="D493" s="42"/>
       <c r="E493" s="20">
         <v>4</v>
       </c>
@@ -10890,7 +10965,7 @@
       <c r="C495" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D495" s="41" t="s">
+      <c r="D495" s="42" t="s">
         <v>448</v>
       </c>
       <c r="E495" s="20">
@@ -10910,7 +10985,7 @@
     </row>
     <row r="496" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B496" s="39"/>
-      <c r="D496" s="41"/>
+      <c r="D496" s="42"/>
       <c r="E496" s="20">
         <v>2</v>
       </c>
@@ -10925,7 +11000,7 @@
     </row>
     <row r="497" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B497" s="39"/>
-      <c r="D497" s="41"/>
+      <c r="D497" s="42"/>
       <c r="E497" s="20">
         <v>3</v>
       </c>
@@ -10943,7 +11018,7 @@
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B498" s="39"/>
-      <c r="D498" s="41"/>
+      <c r="D498" s="42"/>
       <c r="E498" s="20">
         <v>4</v>
       </c>
@@ -10971,7 +11046,7 @@
       <c r="C500" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D500" s="41" t="s">
+      <c r="D500" s="42" t="s">
         <v>460</v>
       </c>
       <c r="E500" s="20">
@@ -10991,7 +11066,7 @@
     </row>
     <row r="501" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B501" s="39"/>
-      <c r="D501" s="41"/>
+      <c r="D501" s="42"/>
       <c r="E501" s="20">
         <v>2</v>
       </c>
@@ -11006,7 +11081,7 @@
     </row>
     <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B502" s="39"/>
-      <c r="D502" s="41"/>
+      <c r="D502" s="42"/>
       <c r="E502" s="20">
         <v>3</v>
       </c>
@@ -11024,7 +11099,7 @@
     </row>
     <row r="503" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B503" s="39"/>
-      <c r="D503" s="41"/>
+      <c r="D503" s="42"/>
       <c r="E503" s="20">
         <v>4</v>
       </c>
@@ -11052,7 +11127,7 @@
       <c r="C505" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D505" s="41" t="s">
+      <c r="D505" s="42" t="s">
         <v>464</v>
       </c>
       <c r="E505" s="20">
@@ -11072,7 +11147,7 @@
     </row>
     <row r="506" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B506" s="39"/>
-      <c r="D506" s="41"/>
+      <c r="D506" s="42"/>
       <c r="E506" s="20">
         <v>2</v>
       </c>
@@ -11087,7 +11162,7 @@
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B507" s="39"/>
-      <c r="D507" s="41"/>
+      <c r="D507" s="42"/>
       <c r="E507" s="20">
         <v>3</v>
       </c>
@@ -11105,7 +11180,7 @@
     </row>
     <row r="508" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B508" s="39"/>
-      <c r="D508" s="41"/>
+      <c r="D508" s="42"/>
       <c r="E508" s="20">
         <v>4</v>
       </c>
@@ -11133,7 +11208,7 @@
       <c r="C510" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D510" s="41" t="s">
+      <c r="D510" s="42" t="s">
         <v>469</v>
       </c>
       <c r="E510" s="20">
@@ -11153,7 +11228,7 @@
     </row>
     <row r="511" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B511" s="39"/>
-      <c r="D511" s="41"/>
+      <c r="D511" s="42"/>
       <c r="E511" s="20">
         <v>2</v>
       </c>
@@ -11168,7 +11243,7 @@
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B512" s="39"/>
-      <c r="D512" s="41"/>
+      <c r="D512" s="42"/>
       <c r="E512" s="20">
         <v>3</v>
       </c>
@@ -11186,7 +11261,7 @@
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B513" s="39"/>
-      <c r="D513" s="41"/>
+      <c r="D513" s="42"/>
       <c r="E513" s="20">
         <v>4</v>
       </c>
@@ -11217,7 +11292,7 @@
       <c r="C515" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D515" s="41" t="s">
+      <c r="D515" s="42" t="s">
         <v>477</v>
       </c>
       <c r="E515" s="20">
@@ -11237,7 +11312,7 @@
     </row>
     <row r="516" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B516" s="39"/>
-      <c r="D516" s="41"/>
+      <c r="D516" s="42"/>
       <c r="E516" s="20">
         <v>2</v>
       </c>
@@ -11252,7 +11327,7 @@
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B517" s="39"/>
-      <c r="D517" s="41"/>
+      <c r="D517" s="42"/>
       <c r="E517" s="20">
         <v>3</v>
       </c>
@@ -11283,7 +11358,7 @@
       <c r="C519" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D519" s="41" t="s">
+      <c r="D519" s="42" t="s">
         <v>476</v>
       </c>
       <c r="E519" s="20">
@@ -11303,7 +11378,7 @@
     </row>
     <row r="520" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B520" s="39"/>
-      <c r="D520" s="41"/>
+      <c r="D520" s="42"/>
       <c r="E520" s="20">
         <v>2</v>
       </c>
@@ -11318,7 +11393,7 @@
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B521" s="39"/>
-      <c r="D521" s="41"/>
+      <c r="D521" s="42"/>
       <c r="E521" s="20">
         <v>3</v>
       </c>
@@ -11336,7 +11411,7 @@
     </row>
     <row r="522" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B522" s="39"/>
-      <c r="D522" s="41"/>
+      <c r="D522" s="42"/>
       <c r="E522" s="20">
         <v>4</v>
       </c>
@@ -11364,7 +11439,7 @@
       <c r="C524" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D524" s="41" t="s">
+      <c r="D524" s="42" t="s">
         <v>482</v>
       </c>
       <c r="E524" s="20">
@@ -11384,7 +11459,7 @@
     </row>
     <row r="525" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B525" s="39"/>
-      <c r="D525" s="41"/>
+      <c r="D525" s="42"/>
       <c r="E525" s="20">
         <v>2</v>
       </c>
@@ -11399,7 +11474,7 @@
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B526" s="39"/>
-      <c r="D526" s="41"/>
+      <c r="D526" s="42"/>
       <c r="E526" s="20">
         <v>3</v>
       </c>
@@ -11417,7 +11492,7 @@
     </row>
     <row r="527" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B527" s="39"/>
-      <c r="D527" s="41"/>
+      <c r="D527" s="42"/>
       <c r="E527" s="20">
         <v>4</v>
       </c>
@@ -11445,7 +11520,7 @@
       <c r="C529" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D529" s="41" t="s">
+      <c r="D529" s="42" t="s">
         <v>486</v>
       </c>
       <c r="E529" s="20">
@@ -11465,7 +11540,7 @@
     </row>
     <row r="530" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B530" s="39"/>
-      <c r="D530" s="41"/>
+      <c r="D530" s="42"/>
       <c r="E530" s="20">
         <v>2</v>
       </c>
@@ -11480,7 +11555,7 @@
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B531" s="39"/>
-      <c r="D531" s="41"/>
+      <c r="D531" s="42"/>
       <c r="E531" s="20">
         <v>3</v>
       </c>
@@ -11508,7 +11583,7 @@
       <c r="C533" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D533" s="41" t="s">
+      <c r="D533" s="42" t="s">
         <v>491</v>
       </c>
       <c r="E533" s="20">
@@ -11528,7 +11603,7 @@
     </row>
     <row r="534" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B534" s="39"/>
-      <c r="D534" s="41"/>
+      <c r="D534" s="42"/>
       <c r="E534" s="20">
         <v>2</v>
       </c>
@@ -11543,7 +11618,7 @@
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B535" s="39"/>
-      <c r="D535" s="41"/>
+      <c r="D535" s="42"/>
       <c r="E535" s="20">
         <v>3</v>
       </c>
@@ -11571,7 +11646,7 @@
       <c r="C537" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D537" s="41" t="s">
+      <c r="D537" s="42" t="s">
         <v>505</v>
       </c>
       <c r="E537" s="20">
@@ -11591,7 +11666,7 @@
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B538" s="39"/>
-      <c r="D538" s="41"/>
+      <c r="D538" s="42"/>
       <c r="E538" s="20">
         <v>2</v>
       </c>
@@ -11606,7 +11681,7 @@
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B539" s="39"/>
-      <c r="D539" s="41"/>
+      <c r="D539" s="42"/>
       <c r="E539" s="20">
         <v>3</v>
       </c>
@@ -11621,7 +11696,7 @@
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B540" s="19"/>
-      <c r="D540" s="41"/>
+      <c r="D540" s="42"/>
       <c r="E540" s="20">
         <v>4</v>
       </c>
@@ -11649,7 +11724,7 @@
       <c r="C542" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D542" s="41" t="s">
+      <c r="D542" s="42" t="s">
         <v>506</v>
       </c>
       <c r="E542" s="20">
@@ -11669,7 +11744,7 @@
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B543" s="39"/>
-      <c r="D543" s="41"/>
+      <c r="D543" s="42"/>
       <c r="E543" s="20">
         <v>2</v>
       </c>
@@ -11684,7 +11759,7 @@
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B544" s="39"/>
-      <c r="D544" s="41"/>
+      <c r="D544" s="42"/>
       <c r="E544" s="20">
         <v>3</v>
       </c>
@@ -11712,7 +11787,7 @@
       <c r="C546" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D546" s="41" t="s">
+      <c r="D546" s="42" t="s">
         <v>512</v>
       </c>
       <c r="E546" s="20">
@@ -11732,7 +11807,7 @@
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B547" s="39"/>
-      <c r="D547" s="41"/>
+      <c r="D547" s="42"/>
       <c r="E547" s="20">
         <v>2</v>
       </c>
@@ -11747,7 +11822,7 @@
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B548" s="39"/>
-      <c r="D548" s="41"/>
+      <c r="D548" s="42"/>
       <c r="E548" s="20">
         <v>3</v>
       </c>
@@ -11762,7 +11837,7 @@
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B549" s="19"/>
-      <c r="D549" s="41"/>
+      <c r="D549" s="42"/>
       <c r="E549" s="20">
         <v>4</v>
       </c>
@@ -11790,7 +11865,7 @@
       <c r="C551" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D551" s="41" t="s">
+      <c r="D551" s="42" t="s">
         <v>515</v>
       </c>
       <c r="E551" s="20">
@@ -11810,7 +11885,7 @@
     </row>
     <row r="552" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B552" s="39"/>
-      <c r="D552" s="41"/>
+      <c r="D552" s="42"/>
       <c r="E552" s="20">
         <v>2</v>
       </c>
@@ -11825,7 +11900,7 @@
     </row>
     <row r="553" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B553" s="39"/>
-      <c r="D553" s="41"/>
+      <c r="D553" s="42"/>
       <c r="E553" s="20">
         <v>3</v>
       </c>
@@ -11853,7 +11928,7 @@
       <c r="C555" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D555" s="41" t="s">
+      <c r="D555" s="42" t="s">
         <v>520</v>
       </c>
       <c r="E555" s="20">
@@ -11873,7 +11948,7 @@
     </row>
     <row r="556" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B556" s="39"/>
-      <c r="D556" s="41"/>
+      <c r="D556" s="42"/>
       <c r="E556" s="20">
         <v>2</v>
       </c>
@@ -11888,7 +11963,7 @@
     </row>
     <row r="557" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B557" s="39"/>
-      <c r="D557" s="41"/>
+      <c r="D557" s="42"/>
       <c r="E557" s="20">
         <v>3</v>
       </c>
@@ -11916,7 +11991,7 @@
       <c r="C559" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D559" s="41" t="s">
+      <c r="D559" s="42" t="s">
         <v>531</v>
       </c>
       <c r="E559" s="20">
@@ -11936,7 +12011,7 @@
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B560" s="39"/>
-      <c r="D560" s="41"/>
+      <c r="D560" s="42"/>
       <c r="E560" s="20">
         <v>2</v>
       </c>
@@ -11951,7 +12026,7 @@
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B561" s="39"/>
-      <c r="D561" s="41"/>
+      <c r="D561" s="42"/>
       <c r="E561" s="20">
         <v>3</v>
       </c>
@@ -11966,7 +12041,7 @@
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B562" s="19"/>
-      <c r="D562" s="41"/>
+      <c r="D562" s="42"/>
       <c r="E562" s="20">
         <v>4</v>
       </c>
@@ -11994,7 +12069,7 @@
       <c r="C564" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D564" s="41" t="s">
+      <c r="D564" s="42" t="s">
         <v>532</v>
       </c>
       <c r="E564" s="20">
@@ -12014,7 +12089,7 @@
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B565" s="39"/>
-      <c r="D565" s="41"/>
+      <c r="D565" s="42"/>
       <c r="E565" s="20">
         <v>2</v>
       </c>
@@ -12029,7 +12104,7 @@
     </row>
     <row r="566" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B566" s="39"/>
-      <c r="D566" s="41"/>
+      <c r="D566" s="42"/>
       <c r="E566" s="20">
         <v>3</v>
       </c>
@@ -12044,7 +12119,7 @@
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B567" s="39"/>
-      <c r="D567" s="41"/>
+      <c r="D567" s="42"/>
       <c r="E567" s="20">
         <v>4</v>
       </c>
@@ -12072,8 +12147,8 @@
       <c r="C569" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D569" s="41" t="s">
-        <v>539</v>
+      <c r="D569" s="42" t="s">
+        <v>544</v>
       </c>
       <c r="E569" s="20">
         <v>1</v>
@@ -12092,27 +12167,27 @@
     </row>
     <row r="570" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B570" s="39"/>
-      <c r="D570" s="41"/>
+      <c r="D570" s="42"/>
       <c r="E570" s="20">
         <v>2</v>
       </c>
       <c r="F570" s="20" t="s">
+        <v>539</v>
+      </c>
+      <c r="G570" s="20" t="s">
         <v>540</v>
-      </c>
-      <c r="G570" s="20" t="s">
-        <v>541</v>
       </c>
       <c r="J570" s="2"/>
       <c r="K570" s="2"/>
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B571" s="39"/>
-      <c r="D571" s="41"/>
+      <c r="D571" s="42"/>
       <c r="E571" s="20">
         <v>3</v>
       </c>
       <c r="F571" s="20" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G571" s="20" t="s">
         <v>503</v>
@@ -12122,15 +12197,15 @@
     </row>
     <row r="572" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B572" s="39"/>
-      <c r="D572" s="41"/>
+      <c r="D572" s="42"/>
       <c r="E572" s="20">
         <v>4</v>
       </c>
       <c r="F572" s="20" t="s">
+        <v>542</v>
+      </c>
+      <c r="G572" s="20" t="s">
         <v>543</v>
-      </c>
-      <c r="G572" s="20" t="s">
-        <v>544</v>
       </c>
       <c r="J572" s="2"/>
       <c r="K572" s="2"/>
@@ -12141,166 +12216,422 @@
       <c r="K573" s="2"/>
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B574" s="19"/>
+      <c r="A574" s="38" t="s">
+        <v>551</v>
+      </c>
+      <c r="B574" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C574" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D574" s="42" t="s">
+        <v>547</v>
+      </c>
+      <c r="E574" s="20">
+        <v>1</v>
+      </c>
+      <c r="F574" s="20" t="s">
+        <v>545</v>
+      </c>
       <c r="J574" s="2"/>
       <c r="K574" s="2"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B575" s="19"/>
+    <row r="575" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B575" s="40"/>
+      <c r="D575" s="42"/>
+      <c r="E575" s="20">
+        <v>2</v>
+      </c>
+      <c r="F575" s="20" t="s">
+        <v>546</v>
+      </c>
+      <c r="G575" s="20" t="s">
+        <v>548</v>
+      </c>
       <c r="J575" s="2"/>
       <c r="K575" s="2"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B576" s="19"/>
+    <row r="576" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B576" s="40"/>
+      <c r="D576" s="42"/>
+      <c r="E576" s="20">
+        <v>3</v>
+      </c>
+      <c r="F576" s="20" t="s">
+        <v>565</v>
+      </c>
+      <c r="G576" s="20" t="s">
+        <v>549</v>
+      </c>
       <c r="J576" s="2"/>
       <c r="K576" s="2"/>
     </row>
-    <row r="577" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B577" s="19"/>
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B577" s="40"/>
+      <c r="D577" s="42"/>
+      <c r="E577" s="20">
+        <v>4</v>
+      </c>
+      <c r="F577" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="G577" s="20" t="s">
+        <v>550</v>
+      </c>
       <c r="J577" s="2"/>
       <c r="K577" s="2"/>
     </row>
-    <row r="578" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B578" s="19"/>
       <c r="J578" s="2"/>
       <c r="K578" s="2"/>
     </row>
-    <row r="579" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B579" s="19"/>
+    <row r="579" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A579" s="38" t="s">
+        <v>552</v>
+      </c>
+      <c r="B579" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C579" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D579" s="42" t="s">
+        <v>553</v>
+      </c>
+      <c r="E579" s="20">
+        <v>1</v>
+      </c>
+      <c r="F579" s="20" t="s">
+        <v>545</v>
+      </c>
       <c r="J579" s="2"/>
       <c r="K579" s="2"/>
     </row>
-    <row r="580" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B580" s="19"/>
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B580" s="40"/>
+      <c r="D580" s="42"/>
+      <c r="E580" s="20">
+        <v>2</v>
+      </c>
+      <c r="F580" s="20" t="s">
+        <v>546</v>
+      </c>
+      <c r="G580" s="20" t="s">
+        <v>548</v>
+      </c>
       <c r="J580" s="2"/>
       <c r="K580" s="2"/>
     </row>
-    <row r="581" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B581" s="19"/>
+    <row r="581" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B581" s="40"/>
+      <c r="D581" s="42"/>
+      <c r="E581" s="20">
+        <v>3</v>
+      </c>
+      <c r="F581" s="20" t="s">
+        <v>565</v>
+      </c>
+      <c r="G581" s="20" t="s">
+        <v>549</v>
+      </c>
       <c r="J581" s="2"/>
       <c r="K581" s="2"/>
     </row>
-    <row r="582" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B582" s="19"/>
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B582" s="40"/>
+      <c r="D582" s="42"/>
+      <c r="E582" s="20">
+        <v>4</v>
+      </c>
+      <c r="F582" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="G582" s="20" t="s">
+        <v>550</v>
+      </c>
       <c r="J582" s="2"/>
       <c r="K582" s="2"/>
     </row>
-    <row r="583" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B583" s="19"/>
+      <c r="D583" s="42"/>
+      <c r="E583" s="20">
+        <v>5</v>
+      </c>
+      <c r="F583" s="20" t="s">
+        <v>554</v>
+      </c>
+      <c r="G583" s="20" t="s">
+        <v>555</v>
+      </c>
       <c r="J583" s="2"/>
       <c r="K583" s="2"/>
     </row>
-    <row r="584" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B584" s="19"/>
       <c r="J584" s="2"/>
       <c r="K584" s="2"/>
     </row>
-    <row r="585" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B585" s="19"/>
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A585" s="38" t="s">
+        <v>560</v>
+      </c>
+      <c r="B585" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C585" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D585" s="42" t="s">
+        <v>556</v>
+      </c>
+      <c r="E585" s="20">
+        <v>1</v>
+      </c>
+      <c r="F585" s="20" t="s">
+        <v>545</v>
+      </c>
       <c r="J585" s="2"/>
       <c r="K585" s="2"/>
     </row>
-    <row r="586" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B586" s="19"/>
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B586" s="40"/>
+      <c r="D586" s="42"/>
+      <c r="E586" s="20">
+        <v>2</v>
+      </c>
+      <c r="F586" s="20" t="s">
+        <v>546</v>
+      </c>
+      <c r="G586" s="20" t="s">
+        <v>548</v>
+      </c>
       <c r="J586" s="2"/>
       <c r="K586" s="2"/>
     </row>
-    <row r="587" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B587" s="19"/>
+    <row r="587" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B587" s="40"/>
+      <c r="D587" s="42"/>
+      <c r="E587" s="20">
+        <v>3</v>
+      </c>
+      <c r="F587" s="20" t="s">
+        <v>565</v>
+      </c>
+      <c r="G587" s="20" t="s">
+        <v>549</v>
+      </c>
       <c r="J587" s="2"/>
       <c r="K587" s="2"/>
     </row>
-    <row r="588" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B588" s="19"/>
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B588" s="40"/>
+      <c r="D588" s="42"/>
+      <c r="E588" s="20">
+        <v>4</v>
+      </c>
+      <c r="F588" s="20" t="s">
+        <v>557</v>
+      </c>
+      <c r="G588" s="20" t="s">
+        <v>558</v>
+      </c>
       <c r="J588" s="2"/>
       <c r="K588" s="2"/>
     </row>
-    <row r="589" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B589" s="19"/>
       <c r="J589" s="2"/>
       <c r="K589" s="2"/>
     </row>
-    <row r="590" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B590" s="19"/>
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A590" s="38" t="s">
+        <v>559</v>
+      </c>
+      <c r="B590" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C590" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D590" s="42" t="s">
+        <v>561</v>
+      </c>
+      <c r="E590" s="20">
+        <v>1</v>
+      </c>
+      <c r="F590" s="20" t="s">
+        <v>545</v>
+      </c>
       <c r="J590" s="2"/>
       <c r="K590" s="2"/>
     </row>
-    <row r="591" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B591" s="19"/>
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B591" s="40"/>
+      <c r="D591" s="42"/>
+      <c r="E591" s="20">
+        <v>2</v>
+      </c>
+      <c r="F591" s="20" t="s">
+        <v>546</v>
+      </c>
+      <c r="G591" s="20" t="s">
+        <v>548</v>
+      </c>
       <c r="J591" s="2"/>
       <c r="K591" s="2"/>
     </row>
-    <row r="592" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B592" s="19"/>
+    <row r="592" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B592" s="40"/>
+      <c r="D592" s="42"/>
+      <c r="E592" s="20">
+        <v>3</v>
+      </c>
+      <c r="F592" s="20" t="s">
+        <v>565</v>
+      </c>
+      <c r="G592" s="20" t="s">
+        <v>549</v>
+      </c>
       <c r="J592" s="2"/>
       <c r="K592" s="2"/>
     </row>
-    <row r="593" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B593" s="19"/>
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B593" s="40"/>
+      <c r="D593" s="42"/>
+      <c r="E593" s="20">
+        <v>4</v>
+      </c>
+      <c r="F593" s="20" t="s">
+        <v>562</v>
+      </c>
+      <c r="G593" s="20" t="s">
+        <v>563</v>
+      </c>
       <c r="J593" s="2"/>
       <c r="K593" s="2"/>
     </row>
-    <row r="594" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B594" s="19"/>
       <c r="J594" s="2"/>
       <c r="K594" s="2"/>
     </row>
-    <row r="595" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B595" s="19"/>
+    <row r="595" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A595" s="38" t="s">
+        <v>564</v>
+      </c>
+      <c r="B595" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C595" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D595" s="42" t="s">
+        <v>568</v>
+      </c>
+      <c r="E595" s="20">
+        <v>1</v>
+      </c>
+      <c r="F595" s="20" t="s">
+        <v>545</v>
+      </c>
       <c r="J595" s="2"/>
       <c r="K595" s="2"/>
     </row>
-    <row r="596" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B596" s="19"/>
+    <row r="596" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B596" s="40"/>
+      <c r="D596" s="42"/>
+      <c r="E596" s="20">
+        <v>2</v>
+      </c>
+      <c r="F596" s="20" t="s">
+        <v>546</v>
+      </c>
+      <c r="G596" s="20" t="s">
+        <v>548</v>
+      </c>
       <c r="J596" s="2"/>
       <c r="K596" s="2"/>
     </row>
-    <row r="597" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B597" s="19"/>
+    <row r="597" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B597" s="40"/>
+      <c r="D597" s="42"/>
+      <c r="E597" s="20">
+        <v>3</v>
+      </c>
+      <c r="F597" s="20" t="s">
+        <v>565</v>
+      </c>
+      <c r="G597" s="20" t="s">
+        <v>549</v>
+      </c>
       <c r="J597" s="2"/>
       <c r="K597" s="2"/>
     </row>
-    <row r="598" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B598" s="40"/>
+      <c r="D598" s="42"/>
+      <c r="E598" s="20">
+        <v>4</v>
+      </c>
+      <c r="F598" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="G598" s="20" t="s">
+        <v>550</v>
+      </c>
       <c r="J598" s="2"/>
       <c r="K598" s="2"/>
     </row>
-    <row r="599" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D599" s="42"/>
+      <c r="E599" s="20">
+        <v>5</v>
+      </c>
+      <c r="F599" s="20" t="s">
+        <v>566</v>
+      </c>
+      <c r="G599" s="20" t="s">
+        <v>567</v>
+      </c>
       <c r="J599" s="2"/>
       <c r="K599" s="2"/>
     </row>
-    <row r="600" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J600" s="2"/>
       <c r="K600" s="2"/>
     </row>
-    <row r="601" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J601" s="2"/>
       <c r="K601" s="2"/>
     </row>
-    <row r="602" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J602" s="2"/>
       <c r="K602" s="2"/>
     </row>
-    <row r="603" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J603" s="2"/>
       <c r="K603" s="2"/>
     </row>
-    <row r="604" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J604" s="2"/>
       <c r="K604" s="2"/>
     </row>
-    <row r="605" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J605" s="2"/>
       <c r="K605" s="2"/>
     </row>
-    <row r="606" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J606" s="2"/>
       <c r="K606" s="2"/>
     </row>
-    <row r="607" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J607" s="2"/>
       <c r="K607" s="2"/>
     </row>
-    <row r="608" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J608" s="2"/>
       <c r="K608" s="2"/>
     </row>
@@ -12712,67 +13043,31 @@
       <c r="K721" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="95">
-    <mergeCell ref="D569:D572"/>
-    <mergeCell ref="D551:D553"/>
-    <mergeCell ref="D555:D557"/>
-    <mergeCell ref="D559:D562"/>
-    <mergeCell ref="D564:D567"/>
-    <mergeCell ref="D533:D535"/>
-    <mergeCell ref="D537:D540"/>
-    <mergeCell ref="D542:D544"/>
-    <mergeCell ref="D546:D549"/>
-    <mergeCell ref="D510:D513"/>
-    <mergeCell ref="D515:D517"/>
-    <mergeCell ref="D519:D522"/>
-    <mergeCell ref="D524:D527"/>
-    <mergeCell ref="D529:D531"/>
-    <mergeCell ref="D490:D493"/>
-    <mergeCell ref="D495:D498"/>
-    <mergeCell ref="D500:D503"/>
-    <mergeCell ref="D505:D508"/>
-    <mergeCell ref="D450:D453"/>
-    <mergeCell ref="D455:D459"/>
-    <mergeCell ref="D480:D483"/>
-    <mergeCell ref="D485:D488"/>
-    <mergeCell ref="D461:D463"/>
-    <mergeCell ref="D465:D468"/>
-    <mergeCell ref="D470:D473"/>
-    <mergeCell ref="D475:D478"/>
-    <mergeCell ref="D440:D443"/>
-    <mergeCell ref="D445:D448"/>
-    <mergeCell ref="D414:D417"/>
-    <mergeCell ref="D419:D420"/>
-    <mergeCell ref="D422:D423"/>
-    <mergeCell ref="D426:D429"/>
-    <mergeCell ref="D431:D433"/>
-    <mergeCell ref="D435:D438"/>
-    <mergeCell ref="D368:D373"/>
-    <mergeCell ref="D375:D379"/>
-    <mergeCell ref="D342:D348"/>
-    <mergeCell ref="D350:D355"/>
-    <mergeCell ref="D357:D360"/>
-    <mergeCell ref="D362:D366"/>
-    <mergeCell ref="D321:D327"/>
-    <mergeCell ref="D329:D333"/>
-    <mergeCell ref="D335:D340"/>
-    <mergeCell ref="D291:D295"/>
-    <mergeCell ref="D297:D302"/>
-    <mergeCell ref="D304:D310"/>
-    <mergeCell ref="D312:D319"/>
-    <mergeCell ref="D276:D278"/>
-    <mergeCell ref="D280:D283"/>
-    <mergeCell ref="D285:D289"/>
-    <mergeCell ref="D209:D223"/>
-    <mergeCell ref="D225:D240"/>
-    <mergeCell ref="D242:D258"/>
-    <mergeCell ref="D260:D274"/>
-    <mergeCell ref="D197:D201"/>
-    <mergeCell ref="D203:D207"/>
-    <mergeCell ref="D167:D175"/>
-    <mergeCell ref="D177:D186"/>
-    <mergeCell ref="D188:D190"/>
-    <mergeCell ref="D192:D195"/>
+  <mergeCells count="100">
+    <mergeCell ref="D595:D599"/>
+    <mergeCell ref="D574:D577"/>
+    <mergeCell ref="D579:D583"/>
+    <mergeCell ref="D585:D588"/>
+    <mergeCell ref="D590:D593"/>
+    <mergeCell ref="D407:D412"/>
+    <mergeCell ref="D381:D385"/>
+    <mergeCell ref="D387:D391"/>
+    <mergeCell ref="D393:D398"/>
+    <mergeCell ref="D400:D405"/>
+    <mergeCell ref="D128:D130"/>
+    <mergeCell ref="D123:D126"/>
+    <mergeCell ref="D132:D135"/>
+    <mergeCell ref="D137:D140"/>
+    <mergeCell ref="D104:D108"/>
+    <mergeCell ref="D110:D112"/>
+    <mergeCell ref="D114:D116"/>
+    <mergeCell ref="D118:D121"/>
+    <mergeCell ref="D77:D80"/>
+    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="D67:D70"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="D72:D75"/>
     <mergeCell ref="D142:D146"/>
     <mergeCell ref="D157:D165"/>
     <mergeCell ref="D148:D155"/>
@@ -12789,25 +13084,66 @@
     <mergeCell ref="D92:D96"/>
     <mergeCell ref="D98:D102"/>
     <mergeCell ref="D46:D52"/>
-    <mergeCell ref="D77:D80"/>
-    <mergeCell ref="D54:D57"/>
-    <mergeCell ref="D67:D70"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="D128:D130"/>
-    <mergeCell ref="D123:D126"/>
-    <mergeCell ref="D132:D135"/>
-    <mergeCell ref="D137:D140"/>
-    <mergeCell ref="D104:D108"/>
-    <mergeCell ref="D110:D112"/>
-    <mergeCell ref="D114:D116"/>
-    <mergeCell ref="D118:D121"/>
-    <mergeCell ref="D407:D412"/>
-    <mergeCell ref="D381:D385"/>
-    <mergeCell ref="D387:D391"/>
-    <mergeCell ref="D393:D398"/>
-    <mergeCell ref="D400:D405"/>
+    <mergeCell ref="D197:D201"/>
+    <mergeCell ref="D203:D207"/>
+    <mergeCell ref="D167:D175"/>
+    <mergeCell ref="D177:D186"/>
+    <mergeCell ref="D188:D190"/>
+    <mergeCell ref="D192:D195"/>
+    <mergeCell ref="D276:D278"/>
+    <mergeCell ref="D280:D283"/>
+    <mergeCell ref="D285:D289"/>
+    <mergeCell ref="D209:D223"/>
+    <mergeCell ref="D225:D240"/>
+    <mergeCell ref="D242:D258"/>
+    <mergeCell ref="D260:D274"/>
+    <mergeCell ref="D321:D327"/>
+    <mergeCell ref="D329:D333"/>
+    <mergeCell ref="D335:D340"/>
+    <mergeCell ref="D291:D295"/>
+    <mergeCell ref="D297:D302"/>
+    <mergeCell ref="D304:D310"/>
+    <mergeCell ref="D312:D319"/>
+    <mergeCell ref="D368:D373"/>
+    <mergeCell ref="D375:D379"/>
+    <mergeCell ref="D342:D348"/>
+    <mergeCell ref="D350:D355"/>
+    <mergeCell ref="D357:D360"/>
+    <mergeCell ref="D362:D366"/>
+    <mergeCell ref="D440:D443"/>
+    <mergeCell ref="D445:D448"/>
+    <mergeCell ref="D414:D417"/>
+    <mergeCell ref="D419:D420"/>
+    <mergeCell ref="D422:D423"/>
+    <mergeCell ref="D426:D429"/>
+    <mergeCell ref="D431:D433"/>
+    <mergeCell ref="D435:D438"/>
+    <mergeCell ref="D490:D493"/>
+    <mergeCell ref="D495:D498"/>
+    <mergeCell ref="D500:D503"/>
+    <mergeCell ref="D505:D508"/>
+    <mergeCell ref="D450:D453"/>
+    <mergeCell ref="D455:D459"/>
+    <mergeCell ref="D480:D483"/>
+    <mergeCell ref="D485:D488"/>
+    <mergeCell ref="D461:D463"/>
+    <mergeCell ref="D465:D468"/>
+    <mergeCell ref="D470:D473"/>
+    <mergeCell ref="D475:D478"/>
+    <mergeCell ref="D533:D535"/>
+    <mergeCell ref="D537:D540"/>
+    <mergeCell ref="D542:D544"/>
+    <mergeCell ref="D546:D549"/>
+    <mergeCell ref="D510:D513"/>
+    <mergeCell ref="D515:D517"/>
+    <mergeCell ref="D519:D522"/>
+    <mergeCell ref="D524:D527"/>
+    <mergeCell ref="D529:D531"/>
+    <mergeCell ref="D569:D572"/>
+    <mergeCell ref="D551:D553"/>
+    <mergeCell ref="D555:D557"/>
+    <mergeCell ref="D559:D562"/>
+    <mergeCell ref="D564:D567"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J479" xr:uid="{00000000-0002-0000-0100-000004000000}">
@@ -12819,7 +13155,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K721" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Pass, Fail, Blocked"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B597" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B598" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"CAS/ Appointment, Out Patient, Care Desk, EMR, Lab &amp; General Billing, Pharmacy Billing, Lab Results, Radiology, Insurance Desk, Casualty, MRD, In Patient, Nursing Station, Theatre, Indent, Store Management"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{4613EE89-5E19-42FA-AB1F-2526DEDE59AC}">
